--- a/chart-styles.xlsx
+++ b/chart-styles.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="33700" windowHeight="23860" tabRatio="913"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="33700" windowHeight="23860" tabRatio="913" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="17" r:id="rId1"/>
@@ -1808,71 +1808,12 @@
     <xf numFmtId="0" fontId="52" fillId="3" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1882,47 +1823,20 @@
     <xf numFmtId="0" fontId="53" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1949,6 +1863,92 @@
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="46">
@@ -2118,11 +2118,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="50"/>
-        <c:axId val="1831758232"/>
-        <c:axId val="1881938552"/>
+        <c:axId val="1897263912"/>
+        <c:axId val="1896478232"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1831758232"/>
+        <c:axId val="1897263912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2139,7 +2139,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="1881938552"/>
+        <c:crossAx val="1896478232"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2147,7 +2147,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1881938552"/>
+        <c:axId val="1896478232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -2174,7 +2174,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="1831758232"/>
+        <c:crossAx val="1897263912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.05"/>
@@ -4270,11 +4270,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1898653304"/>
-        <c:axId val="1898656424"/>
+        <c:axId val="1895213656"/>
+        <c:axId val="1824249864"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="1898653304"/>
+        <c:axId val="1895213656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4284,7 +4284,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1898656424"/>
+        <c:crossAx val="1824249864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4293,7 +4293,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1898656424"/>
+        <c:axId val="1824249864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4304,7 +4304,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1898653304"/>
+        <c:crossAx val="1895213656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4338,8 +4338,8 @@
     <a:p>
       <a:pPr>
         <a:defRPr sz="1200">
-          <a:latin typeface="Avenir Medium"/>
-          <a:cs typeface="Avenir Medium"/>
+          <a:latin typeface="Lato Regular"/>
+          <a:cs typeface="Lato Regular"/>
         </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
@@ -4929,11 +4929,11 @@
         </c:dLbls>
         <c:gapWidth val="50"/>
         <c:overlap val="100"/>
-        <c:axId val="1881384808"/>
-        <c:axId val="1902897768"/>
+        <c:axId val="1823956712"/>
+        <c:axId val="1823488856"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1881384808"/>
+        <c:axId val="1823956712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4956,19 +4956,12 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Avenir Medium"/>
-                <a:ea typeface="Calibri"/>
-                <a:cs typeface="Avenir Medium"/>
-              </a:defRPr>
+              <a:defRPr/>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1902897768"/>
+        <c:crossAx val="1823488856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4976,7 +4969,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1902897768"/>
+        <c:axId val="1823488856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5008,19 +5001,12 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Avenir Medium"/>
-                <a:ea typeface="Calibri"/>
-                <a:cs typeface="Avenir Medium"/>
-              </a:defRPr>
+              <a:defRPr/>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1881384808"/>
+        <c:crossAx val="1823956712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5052,23 +5038,6 @@
           <a:noFill/>
         </a:ln>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Avenir Medium"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Avenir Medium"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
@@ -5091,9 +5060,9 @@
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
-          <a:latin typeface="Calibri"/>
+          <a:latin typeface="Lato Regular"/>
           <a:ea typeface="Calibri"/>
-          <a:cs typeface="Calibri"/>
+          <a:cs typeface="Lato Regular"/>
         </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
@@ -5664,11 +5633,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="1814915800"/>
-        <c:axId val="1901461368"/>
+        <c:axId val="1819706200"/>
+        <c:axId val="1819358504"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1814915800"/>
+        <c:axId val="1819706200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5678,7 +5647,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1901461368"/>
+        <c:crossAx val="1819358504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5686,7 +5655,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1901461368"/>
+        <c:axId val="1819358504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5712,7 +5681,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="1814915800"/>
+        <c:crossAx val="1819706200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5746,8 +5715,8 @@
     <a:p>
       <a:pPr>
         <a:defRPr sz="1200">
-          <a:latin typeface="Avenir Medium"/>
-          <a:cs typeface="Avenir Medium"/>
+          <a:latin typeface="Lato Regular"/>
+          <a:cs typeface="Lato Regular"/>
         </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
@@ -7030,11 +6999,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1901074904"/>
-        <c:axId val="1901981480"/>
+        <c:axId val="1900559816"/>
+        <c:axId val="1900723800"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="1901074904"/>
+        <c:axId val="1900559816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7044,7 +7013,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1901981480"/>
+        <c:crossAx val="1900723800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7052,7 +7021,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1901981480"/>
+        <c:axId val="1900723800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7062,9 +7031,7 @@
           <c:spPr>
             <a:ln>
               <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
+                <a:srgbClr val="D9D9D9"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
@@ -7083,15 +7050,12 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200">
-                <a:latin typeface="Avenir Medium"/>
-                <a:cs typeface="Avenir Medium"/>
-              </a:defRPr>
+              <a:defRPr sz="1100"/>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1901074904"/>
+        <c:crossAx val="1900559816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7114,10 +7078,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1200">
-              <a:latin typeface="Avenir Medium"/>
-              <a:cs typeface="Avenir Medium"/>
-            </a:defRPr>
+            <a:defRPr sz="1200"/>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
         </a:p>
@@ -7132,6 +7093,19 @@
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="Lato Regular"/>
+          <a:cs typeface="Lato Regular"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
@@ -7162,9 +7136,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.122779370530307"/>
+          <c:x val="0.10306110679827"/>
           <c:y val="0.227054907905972"/>
-          <c:w val="0.843727562339859"/>
+          <c:w val="0.863445824553621"/>
           <c:h val="0.566776748809846"/>
         </c:manualLayout>
       </c:layout>
@@ -7194,20 +7168,6 @@
                   <c:y val="0.0431159873104896"/>
                 </c:manualLayout>
               </c:layout>
-              <c:spPr/>
-              <c:txPr>
-                <a:bodyPr/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1200" b="1">
-                      <a:latin typeface="Lato Regular"/>
-                      <a:cs typeface="Lato Regular"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
@@ -7221,10 +7181,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr>
-                    <a:latin typeface="Lato Regular"/>
-                    <a:cs typeface="Lato Regular"/>
-                  </a:defRPr>
+                  <a:defRPr sz="1200" b="1"/>
                 </a:pPr>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -7385,20 +7342,6 @@
                   <c:y val="-0.0431159873104896"/>
                 </c:manualLayout>
               </c:layout>
-              <c:spPr/>
-              <c:txPr>
-                <a:bodyPr/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1200" b="1">
-                      <a:latin typeface="Lato Regular"/>
-                      <a:cs typeface="Lato Regular"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
@@ -7412,10 +7355,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr>
-                    <a:latin typeface="Lato Regular"/>
-                    <a:cs typeface="Lato Regular"/>
-                  </a:defRPr>
+                  <a:defRPr sz="1200" b="1"/>
                 </a:pPr>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -7502,11 +7442,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1898744328"/>
-        <c:axId val="1898747672"/>
+        <c:axId val="1833119096"/>
+        <c:axId val="2070831176"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1898744328"/>
+        <c:axId val="1833119096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7529,12 +7469,12 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200"/>
+              <a:defRPr sz="1100"/>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1898747672"/>
+        <c:crossAx val="2070831176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7542,7 +7482,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1898747672"/>
+        <c:axId val="2070831176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.3E7"/>
@@ -7576,12 +7516,12 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200"/>
+              <a:defRPr sz="1100"/>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1898744328"/>
+        <c:crossAx val="1833119096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7612,8 +7552,8 @@
     <a:p>
       <a:pPr>
         <a:defRPr>
-          <a:latin typeface="Avenir Medium"/>
-          <a:cs typeface="Avenir Medium"/>
+          <a:latin typeface="Lato Regular"/>
+          <a:cs typeface="Lato Regular"/>
         </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
@@ -7650,9 +7590,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0584645669291338"/>
+          <c:x val="0.0441788526434196"/>
           <c:y val="0.212962962962963"/>
-          <c:w val="0.897631496062992"/>
+          <c:w val="0.911917210348707"/>
           <c:h val="0.585702151404303"/>
         </c:manualLayout>
       </c:layout>
@@ -7955,11 +7895,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1898357256"/>
-        <c:axId val="2070888936"/>
+        <c:axId val="1880038616"/>
+        <c:axId val="1879650088"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1898357256"/>
+        <c:axId val="1880038616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7969,7 +7909,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2070888936"/>
+        <c:crossAx val="1879650088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7977,7 +7917,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2070888936"/>
+        <c:axId val="1879650088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7994,7 +7934,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -8003,9 +7943,9 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="1898357256"/>
+        <c:crossAx val="1880038616"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -8023,8 +7963,8 @@
     <a:p>
       <a:pPr>
         <a:defRPr sz="1200">
-          <a:latin typeface="Avenir Medium"/>
-          <a:cs typeface="Avenir Medium"/>
+          <a:latin typeface="Lato Regular"/>
+          <a:cs typeface="Lato Regular"/>
         </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
@@ -8223,9 +8163,9 @@
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
-          <a:latin typeface="Avenir Medium"/>
+          <a:latin typeface="Lato Regular"/>
           <a:ea typeface="Calibri"/>
-          <a:cs typeface="Avenir Medium"/>
+          <a:cs typeface="Lato Regular"/>
         </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
@@ -8371,11 +8311,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="0"/>
-        <c:axId val="2079713800"/>
-        <c:axId val="2079658216"/>
+        <c:axId val="1835568040"/>
+        <c:axId val="1817440600"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2079713800"/>
+        <c:axId val="1835568040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8385,7 +8325,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2079658216"/>
+        <c:crossAx val="1817440600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8393,7 +8333,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2079658216"/>
+        <c:axId val="1817440600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8403,7 +8343,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2079713800"/>
+        <c:crossAx val="1835568040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8436,9 +8376,9 @@
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
-          <a:latin typeface="Avenir Medium"/>
+          <a:latin typeface="Lato Regular"/>
           <a:ea typeface="Calibri"/>
-          <a:cs typeface="Avenir Medium"/>
+          <a:cs typeface="Lato Regular"/>
         </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
@@ -8699,8 +8639,8 @@
     <a:p>
       <a:pPr>
         <a:defRPr sz="1200">
-          <a:latin typeface="Avenir Medium"/>
-          <a:cs typeface="Avenir Medium"/>
+          <a:latin typeface="Lato Regular"/>
+          <a:cs typeface="Lato Regular"/>
         </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
@@ -8828,11 +8768,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="0"/>
-        <c:axId val="1893995272"/>
-        <c:axId val="1898309944"/>
+        <c:axId val="2130063576"/>
+        <c:axId val="2130430024"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1893995272"/>
+        <c:axId val="2130063576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8841,7 +8781,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1898309944"/>
+        <c:crossAx val="2130430024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8849,7 +8789,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1898309944"/>
+        <c:axId val="2130430024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8875,7 +8815,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="1893995272"/>
+        <c:crossAx val="2130063576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8895,8 +8835,8 @@
     <a:p>
       <a:pPr>
         <a:defRPr sz="1200">
-          <a:latin typeface="Avenir Medium"/>
-          <a:cs typeface="Avenir Medium"/>
+          <a:latin typeface="Lato Regular"/>
+          <a:cs typeface="Lato Regular"/>
         </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
@@ -9029,11 +8969,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="50"/>
-        <c:axId val="1831024312"/>
-        <c:axId val="1902803304"/>
+        <c:axId val="1860342952"/>
+        <c:axId val="1860336312"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1831024312"/>
+        <c:axId val="1860342952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9050,7 +8990,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="1902803304"/>
+        <c:crossAx val="1860336312"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9058,7 +8998,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1902803304"/>
+        <c:axId val="1860336312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.25"/>
@@ -9070,7 +9010,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1831024312"/>
+        <c:crossAx val="1860342952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.05"/>
@@ -9301,11 +9241,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="50"/>
-        <c:axId val="1898559720"/>
-        <c:axId val="1898563032"/>
+        <c:axId val="1902775992"/>
+        <c:axId val="1884616040"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1898559720"/>
+        <c:axId val="1902775992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9322,7 +9262,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="1898563032"/>
+        <c:crossAx val="1884616040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9330,7 +9270,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1898563032"/>
+        <c:axId val="1884616040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-20.0"/>
@@ -9357,7 +9297,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="1898559720"/>
+        <c:crossAx val="1902775992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5.0"/>
@@ -9656,11 +9596,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="1898513640"/>
-        <c:axId val="1898516648"/>
+        <c:axId val="1861801064"/>
+        <c:axId val="1860415768"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1898513640"/>
+        <c:axId val="1861801064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9679,7 +9619,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1898516648"/>
+        <c:crossAx val="1860415768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9687,7 +9627,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1898516648"/>
+        <c:axId val="1860415768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9713,7 +9653,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="1898513640"/>
+        <c:crossAx val="1861801064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10138,11 +10078,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="30"/>
-        <c:axId val="1898460856"/>
-        <c:axId val="1894506232"/>
+        <c:axId val="1884997192"/>
+        <c:axId val="1885021784"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1898460856"/>
+        <c:axId val="1884997192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10170,7 +10110,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1894506232"/>
+        <c:crossAx val="1885021784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10180,7 +10120,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1894506232"/>
+        <c:axId val="1885021784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.5"/>
@@ -10192,7 +10132,7 @@
           <c:spPr>
             <a:ln w="3175">
               <a:solidFill>
-                <a:srgbClr val="C0C0C0"/>
+                <a:srgbClr val="D9D9D9"/>
               </a:solidFill>
               <a:prstDash val="solid"/>
             </a:ln>
@@ -10217,7 +10157,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1898460856"/>
+        <c:crossAx val="1884997192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -10478,7 +10418,7 @@
                   <c:v>5.0718</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.154199999999994</c:v>
+                  <c:v>6.154199999999993</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>7.2366</c:v>
@@ -11215,11 +11155,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1897968424"/>
-        <c:axId val="1897971736"/>
+        <c:axId val="1896365352"/>
+        <c:axId val="1885524136"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="1897968424"/>
+        <c:axId val="1896365352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11247,7 +11187,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1897971736"/>
+        <c:crossAx val="1885524136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11257,7 +11197,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1897971736"/>
+        <c:axId val="1885524136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11337,7 +11277,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1897968424"/>
+        <c:crossAx val="1896365352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="20.0"/>
@@ -12386,11 +12326,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1894740664"/>
-        <c:axId val="1898071816"/>
+        <c:axId val="1879802344"/>
+        <c:axId val="1879494760"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="1894740664"/>
+        <c:axId val="1879802344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12418,7 +12358,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1898071816"/>
+        <c:crossAx val="1879494760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12428,7 +12368,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1898071816"/>
+        <c:axId val="1879494760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12438,9 +12378,7 @@
           <c:spPr>
             <a:ln w="3175">
               <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="65000"/>
-                </a:schemeClr>
+                <a:srgbClr val="D9D9D9"/>
               </a:solidFill>
               <a:prstDash val="solid"/>
             </a:ln>
@@ -12466,7 +12404,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1894740664"/>
+        <c:crossAx val="1879802344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:minorUnit val="5.0"/>
@@ -12500,9 +12438,9 @@
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
-          <a:latin typeface="Avenir Medium"/>
+          <a:latin typeface="Lato Regular"/>
           <a:ea typeface="Arial"/>
-          <a:cs typeface="Avenir Medium"/>
+          <a:cs typeface="Lato Regular"/>
         </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
@@ -13435,8 +13373,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1898869640"/>
-        <c:axId val="1898873032"/>
+        <c:axId val="1833138168"/>
+        <c:axId val="1832925048"/>
       </c:areaChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -13709,11 +13647,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1898869640"/>
-        <c:axId val="1898873032"/>
+        <c:axId val="1833138168"/>
+        <c:axId val="1832925048"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1898869640"/>
+        <c:axId val="1833138168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13741,7 +13679,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1898873032"/>
+        <c:crossAx val="1832925048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13751,7 +13689,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1898873032"/>
+        <c:axId val="1832925048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13789,7 +13727,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1898869640"/>
+        <c:crossAx val="1833138168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:minorUnit val="5.0"/>
@@ -13823,9 +13761,9 @@
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
-          <a:latin typeface="Avenir Medium"/>
+          <a:latin typeface="Lato Regular"/>
           <a:ea typeface="Arial"/>
-          <a:cs typeface="Avenir Medium"/>
+          <a:cs typeface="Lato Regular"/>
         </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
@@ -14765,8 +14703,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2115815448"/>
-        <c:axId val="1895078792"/>
+        <c:axId val="1823767208"/>
+        <c:axId val="1824068296"/>
       </c:areaChart>
       <c:barChart>
         <c:barDir val="col"/>
@@ -14838,11 +14776,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="0"/>
-        <c:axId val="2115815448"/>
-        <c:axId val="1895078792"/>
+        <c:axId val="1823767208"/>
+        <c:axId val="1824068296"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2115815448"/>
+        <c:axId val="1823767208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14852,7 +14790,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1895078792"/>
+        <c:crossAx val="1824068296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14862,7 +14800,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1895078792"/>
+        <c:axId val="1824068296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="18.0"/>
@@ -14889,7 +14827,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2115815448"/>
+        <c:crossAx val="1823767208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -28763,7 +28701,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -34617,8 +34555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BX276"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K57" sqref="K57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="11" customHeight="1" x14ac:dyDescent="0"/>
@@ -40760,8 +40698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="V88" sqref="V88"/>
+    <sheetView topLeftCell="B6" workbookViewId="0">
+      <selection activeCell="V68" sqref="V68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -40897,7 +40835,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="S71" sqref="S71"/>
+      <selection activeCell="X80" sqref="X80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -40966,20 +40904,20 @@
     </row>
     <row r="4" spans="1:11" s="60" customFormat="1" ht="13"/>
     <row r="5" spans="1:11" s="60" customFormat="1" ht="13">
-      <c r="A5" s="143" t="s">
+      <c r="A5" s="176" t="s">
         <v>131</v>
       </c>
-      <c r="B5" s="143"/>
-      <c r="C5" s="143"/>
-      <c r="D5" s="143"/>
-      <c r="E5" s="143"/>
+      <c r="B5" s="176"/>
+      <c r="C5" s="176"/>
+      <c r="D5" s="176"/>
+      <c r="E5" s="176"/>
     </row>
     <row r="6" spans="1:11" s="60" customFormat="1" ht="13">
-      <c r="A6" s="144"/>
-      <c r="B6" s="144"/>
-      <c r="C6" s="144"/>
-      <c r="D6" s="144"/>
-      <c r="E6" s="144"/>
+      <c r="A6" s="177"/>
+      <c r="B6" s="177"/>
+      <c r="C6" s="177"/>
+      <c r="D6" s="177"/>
+      <c r="E6" s="177"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -40999,7 +40937,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
@@ -41531,132 +41469,132 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:60" s="14" customFormat="1" ht="23">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="167" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="126"/>
-      <c r="C1" s="126"/>
-      <c r="D1" s="126"/>
-      <c r="E1" s="126"/>
-      <c r="F1" s="126"/>
-      <c r="G1" s="126"/>
-      <c r="H1" s="126"/>
-      <c r="I1" s="126"/>
-      <c r="J1" s="126"/>
-      <c r="K1" s="126"/>
-      <c r="L1" s="126"/>
-      <c r="M1" s="126"/>
-      <c r="N1" s="126"/>
-      <c r="O1" s="126"/>
-      <c r="P1" s="126"/>
-      <c r="Q1" s="126"/>
-      <c r="R1" s="126"/>
-      <c r="S1" s="126"/>
-      <c r="U1" s="145"/>
-      <c r="V1" s="177" t="s">
+      <c r="B1" s="167"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="167"/>
+      <c r="F1" s="167"/>
+      <c r="G1" s="167"/>
+      <c r="H1" s="167"/>
+      <c r="I1" s="167"/>
+      <c r="J1" s="167"/>
+      <c r="K1" s="167"/>
+      <c r="L1" s="167"/>
+      <c r="M1" s="167"/>
+      <c r="N1" s="167"/>
+      <c r="O1" s="167"/>
+      <c r="P1" s="167"/>
+      <c r="Q1" s="167"/>
+      <c r="R1" s="167"/>
+      <c r="S1" s="167"/>
+      <c r="U1" s="126"/>
+      <c r="V1" s="147" t="s">
         <v>42</v>
       </c>
-      <c r="W1" s="146"/>
-      <c r="X1" s="146"/>
-      <c r="Y1" s="146"/>
-      <c r="Z1" s="146"/>
-      <c r="AA1" s="146"/>
-      <c r="AB1" s="146"/>
-      <c r="AC1" s="146"/>
-      <c r="AD1" s="146"/>
-      <c r="AE1" s="146"/>
-      <c r="AF1" s="146"/>
-      <c r="AG1" s="146"/>
-      <c r="AH1" s="146"/>
-      <c r="AI1" s="146"/>
-      <c r="AJ1" s="146"/>
-      <c r="AK1" s="146"/>
-      <c r="AL1" s="146"/>
-      <c r="AM1" s="146"/>
-      <c r="AN1" s="146"/>
-      <c r="AO1" s="145"/>
-      <c r="AP1" s="147"/>
-      <c r="AQ1" s="147"/>
-      <c r="AR1" s="147"/>
-      <c r="AS1" s="147"/>
-      <c r="AT1" s="147"/>
-      <c r="AU1" s="147"/>
-      <c r="AV1" s="147"/>
-      <c r="AW1" s="147"/>
-      <c r="AX1" s="147"/>
-      <c r="AY1" s="147"/>
-      <c r="AZ1" s="147"/>
-      <c r="BA1" s="147"/>
-      <c r="BB1" s="147"/>
-      <c r="BC1" s="147"/>
-      <c r="BD1" s="147"/>
-      <c r="BE1" s="147"/>
-      <c r="BF1" s="147"/>
-      <c r="BG1" s="147"/>
-      <c r="BH1" s="147"/>
+      <c r="W1" s="127"/>
+      <c r="X1" s="127"/>
+      <c r="Y1" s="127"/>
+      <c r="Z1" s="127"/>
+      <c r="AA1" s="127"/>
+      <c r="AB1" s="127"/>
+      <c r="AC1" s="127"/>
+      <c r="AD1" s="127"/>
+      <c r="AE1" s="127"/>
+      <c r="AF1" s="127"/>
+      <c r="AG1" s="127"/>
+      <c r="AH1" s="127"/>
+      <c r="AI1" s="127"/>
+      <c r="AJ1" s="127"/>
+      <c r="AK1" s="127"/>
+      <c r="AL1" s="127"/>
+      <c r="AM1" s="127"/>
+      <c r="AN1" s="127"/>
+      <c r="AO1" s="126"/>
+      <c r="AP1" s="164"/>
+      <c r="AQ1" s="164"/>
+      <c r="AR1" s="164"/>
+      <c r="AS1" s="164"/>
+      <c r="AT1" s="164"/>
+      <c r="AU1" s="164"/>
+      <c r="AV1" s="164"/>
+      <c r="AW1" s="164"/>
+      <c r="AX1" s="164"/>
+      <c r="AY1" s="164"/>
+      <c r="AZ1" s="164"/>
+      <c r="BA1" s="164"/>
+      <c r="BB1" s="164"/>
+      <c r="BC1" s="164"/>
+      <c r="BD1" s="164"/>
+      <c r="BE1" s="164"/>
+      <c r="BF1" s="164"/>
+      <c r="BG1" s="164"/>
+      <c r="BH1" s="164"/>
     </row>
     <row r="2" spans="1:60" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A2" s="126" t="s">
+      <c r="A2" s="167" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="126"/>
-      <c r="C2" s="126"/>
-      <c r="D2" s="126"/>
-      <c r="E2" s="126"/>
-      <c r="F2" s="126"/>
-      <c r="G2" s="126"/>
-      <c r="H2" s="126"/>
-      <c r="I2" s="126"/>
-      <c r="J2" s="126"/>
-      <c r="K2" s="126"/>
-      <c r="L2" s="126"/>
-      <c r="M2" s="126"/>
-      <c r="N2" s="126"/>
-      <c r="O2" s="126"/>
-      <c r="P2" s="126"/>
-      <c r="Q2" s="126"/>
-      <c r="R2" s="126"/>
-      <c r="S2" s="126"/>
-      <c r="U2" s="148"/>
-      <c r="V2" s="149"/>
-      <c r="W2" s="149"/>
-      <c r="X2" s="149"/>
-      <c r="Y2" s="149"/>
-      <c r="Z2" s="149"/>
-      <c r="AA2" s="149"/>
-      <c r="AB2" s="149"/>
-      <c r="AC2" s="149"/>
-      <c r="AD2" s="149"/>
-      <c r="AE2" s="149"/>
-      <c r="AF2" s="149"/>
-      <c r="AG2" s="149"/>
-      <c r="AH2" s="149"/>
-      <c r="AI2" s="149"/>
-      <c r="AJ2" s="149"/>
-      <c r="AK2" s="149"/>
-      <c r="AL2" s="149"/>
-      <c r="AM2" s="149"/>
-      <c r="AN2" s="149"/>
-      <c r="AO2" s="149"/>
-      <c r="AP2" s="149"/>
-      <c r="AQ2" s="149"/>
-      <c r="AR2" s="149"/>
-      <c r="AS2" s="149"/>
-      <c r="AT2" s="149"/>
-      <c r="AU2" s="149"/>
-      <c r="AV2" s="149"/>
-      <c r="AW2" s="149"/>
-      <c r="AX2" s="149"/>
-      <c r="AY2" s="149"/>
-      <c r="AZ2" s="149"/>
-      <c r="BA2" s="149"/>
-      <c r="BB2" s="149"/>
-      <c r="BC2" s="149"/>
-      <c r="BD2" s="149"/>
-      <c r="BE2" s="149"/>
-      <c r="BF2" s="149"/>
-      <c r="BG2" s="149"/>
-      <c r="BH2" s="149"/>
+      <c r="B2" s="167"/>
+      <c r="C2" s="167"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="167"/>
+      <c r="F2" s="167"/>
+      <c r="G2" s="167"/>
+      <c r="H2" s="167"/>
+      <c r="I2" s="167"/>
+      <c r="J2" s="167"/>
+      <c r="K2" s="167"/>
+      <c r="L2" s="167"/>
+      <c r="M2" s="167"/>
+      <c r="N2" s="167"/>
+      <c r="O2" s="167"/>
+      <c r="P2" s="167"/>
+      <c r="Q2" s="167"/>
+      <c r="R2" s="167"/>
+      <c r="S2" s="167"/>
+      <c r="U2" s="128"/>
+      <c r="V2" s="129"/>
+      <c r="W2" s="129"/>
+      <c r="X2" s="129"/>
+      <c r="Y2" s="129"/>
+      <c r="Z2" s="129"/>
+      <c r="AA2" s="129"/>
+      <c r="AB2" s="129"/>
+      <c r="AC2" s="129"/>
+      <c r="AD2" s="129"/>
+      <c r="AE2" s="129"/>
+      <c r="AF2" s="129"/>
+      <c r="AG2" s="129"/>
+      <c r="AH2" s="129"/>
+      <c r="AI2" s="129"/>
+      <c r="AJ2" s="129"/>
+      <c r="AK2" s="129"/>
+      <c r="AL2" s="129"/>
+      <c r="AM2" s="129"/>
+      <c r="AN2" s="129"/>
+      <c r="AO2" s="129"/>
+      <c r="AP2" s="129"/>
+      <c r="AQ2" s="129"/>
+      <c r="AR2" s="129"/>
+      <c r="AS2" s="129"/>
+      <c r="AT2" s="129"/>
+      <c r="AU2" s="129"/>
+      <c r="AV2" s="129"/>
+      <c r="AW2" s="129"/>
+      <c r="AX2" s="129"/>
+      <c r="AY2" s="129"/>
+      <c r="AZ2" s="129"/>
+      <c r="BA2" s="129"/>
+      <c r="BB2" s="129"/>
+      <c r="BC2" s="129"/>
+      <c r="BD2" s="129"/>
+      <c r="BE2" s="129"/>
+      <c r="BF2" s="129"/>
+      <c r="BG2" s="129"/>
+      <c r="BH2" s="129"/>
     </row>
     <row r="3" spans="1:60" ht="15" thickTop="1" thickBot="1">
       <c r="A3" s="16"/>
@@ -41678,326 +41616,326 @@
       <c r="Q3" s="16"/>
       <c r="R3" s="16"/>
       <c r="S3" s="16"/>
-      <c r="U3" s="150"/>
-      <c r="V3" s="150"/>
-      <c r="W3" s="150" t="s">
+      <c r="U3" s="153"/>
+      <c r="V3" s="153"/>
+      <c r="W3" s="153" t="s">
         <v>43</v>
       </c>
-      <c r="X3" s="150"/>
-      <c r="Y3" s="151"/>
-      <c r="Z3" s="150" t="s">
+      <c r="X3" s="153"/>
+      <c r="Y3" s="130"/>
+      <c r="Z3" s="153" t="s">
         <v>44</v>
       </c>
-      <c r="AA3" s="150"/>
-      <c r="AB3" s="152"/>
-      <c r="AC3" s="150" t="s">
+      <c r="AA3" s="153"/>
+      <c r="AB3" s="131"/>
+      <c r="AC3" s="153" t="s">
         <v>45</v>
       </c>
-      <c r="AD3" s="150"/>
-      <c r="AE3" s="151"/>
-      <c r="AF3" s="150" t="s">
+      <c r="AD3" s="153"/>
+      <c r="AE3" s="130"/>
+      <c r="AF3" s="153" t="s">
         <v>46</v>
       </c>
-      <c r="AG3" s="153"/>
-      <c r="AH3" s="153"/>
-      <c r="AI3" s="153"/>
-      <c r="AJ3" s="153"/>
-      <c r="AK3" s="154"/>
-      <c r="AL3" s="150" t="s">
+      <c r="AG3" s="169"/>
+      <c r="AH3" s="169"/>
+      <c r="AI3" s="169"/>
+      <c r="AJ3" s="169"/>
+      <c r="AK3" s="132"/>
+      <c r="AL3" s="153" t="s">
         <v>47</v>
       </c>
-      <c r="AM3" s="155"/>
-      <c r="AN3" s="155"/>
-      <c r="AO3" s="155"/>
-      <c r="AP3" s="150"/>
-      <c r="AQ3" s="155"/>
-      <c r="AR3" s="155"/>
-      <c r="AS3" s="155"/>
-      <c r="AT3" s="148"/>
-      <c r="AU3" s="148"/>
-      <c r="AV3" s="148"/>
-      <c r="AW3" s="148"/>
-      <c r="AX3" s="148"/>
-      <c r="AY3" s="148"/>
-      <c r="AZ3" s="148"/>
-      <c r="BA3" s="148"/>
-      <c r="BB3" s="148"/>
-      <c r="BC3" s="148"/>
-      <c r="BD3" s="148"/>
-      <c r="BE3" s="148"/>
-      <c r="BF3" s="148"/>
-      <c r="BG3" s="148"/>
-      <c r="BH3" s="148"/>
+      <c r="AM3" s="165"/>
+      <c r="AN3" s="165"/>
+      <c r="AO3" s="165"/>
+      <c r="AP3" s="153"/>
+      <c r="AQ3" s="165"/>
+      <c r="AR3" s="165"/>
+      <c r="AS3" s="165"/>
+      <c r="AT3" s="128"/>
+      <c r="AU3" s="128"/>
+      <c r="AV3" s="128"/>
+      <c r="AW3" s="128"/>
+      <c r="AX3" s="128"/>
+      <c r="AY3" s="128"/>
+      <c r="AZ3" s="128"/>
+      <c r="BA3" s="128"/>
+      <c r="BB3" s="128"/>
+      <c r="BC3" s="128"/>
+      <c r="BD3" s="128"/>
+      <c r="BE3" s="128"/>
+      <c r="BF3" s="128"/>
+      <c r="BG3" s="128"/>
+      <c r="BH3" s="128"/>
     </row>
     <row r="4" spans="1:60" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A4" s="127" t="s">
+      <c r="A4" s="161" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="127"/>
+      <c r="B4" s="161"/>
       <c r="C4" s="17"/>
-      <c r="D4" s="127" t="s">
+      <c r="D4" s="161" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="127"/>
+      <c r="E4" s="161"/>
       <c r="F4" s="18"/>
-      <c r="G4" s="127" t="s">
+      <c r="G4" s="161" t="s">
         <v>45</v>
       </c>
-      <c r="H4" s="127"/>
+      <c r="H4" s="161"/>
       <c r="I4" s="17"/>
-      <c r="J4" s="127" t="s">
+      <c r="J4" s="161" t="s">
         <v>46</v>
       </c>
-      <c r="K4" s="130"/>
-      <c r="L4" s="130"/>
-      <c r="M4" s="130"/>
-      <c r="N4" s="130"/>
+      <c r="K4" s="168"/>
+      <c r="L4" s="168"/>
+      <c r="M4" s="168"/>
+      <c r="N4" s="168"/>
       <c r="O4" s="19"/>
-      <c r="P4" s="127" t="s">
+      <c r="P4" s="161" t="s">
         <v>47</v>
       </c>
-      <c r="Q4" s="132"/>
-      <c r="R4" s="132"/>
-      <c r="S4" s="132"/>
-      <c r="U4" s="156"/>
-      <c r="V4" s="156"/>
-      <c r="W4" s="156"/>
-      <c r="X4" s="156"/>
-      <c r="Y4" s="157"/>
-      <c r="Z4" s="156"/>
-      <c r="AA4" s="156"/>
-      <c r="AB4" s="158"/>
-      <c r="AC4" s="156"/>
-      <c r="AD4" s="156"/>
-      <c r="AE4" s="157"/>
+      <c r="Q4" s="162"/>
+      <c r="R4" s="162"/>
+      <c r="S4" s="162"/>
+      <c r="U4" s="154"/>
+      <c r="V4" s="154"/>
+      <c r="W4" s="154"/>
+      <c r="X4" s="154"/>
+      <c r="Y4" s="133"/>
+      <c r="Z4" s="154"/>
+      <c r="AA4" s="154"/>
+      <c r="AB4" s="134"/>
+      <c r="AC4" s="154"/>
+      <c r="AD4" s="154"/>
+      <c r="AE4" s="133"/>
       <c r="AF4" s="159"/>
       <c r="AG4" s="159"/>
       <c r="AH4" s="159"/>
       <c r="AI4" s="159"/>
       <c r="AJ4" s="159"/>
-      <c r="AK4" s="160"/>
-      <c r="AL4" s="161"/>
-      <c r="AM4" s="161"/>
-      <c r="AN4" s="161"/>
-      <c r="AO4" s="161"/>
-      <c r="AP4" s="161"/>
-      <c r="AQ4" s="161"/>
-      <c r="AR4" s="161"/>
-      <c r="AS4" s="161"/>
-      <c r="AT4" s="148"/>
-      <c r="AU4" s="148"/>
-      <c r="AV4" s="148"/>
-      <c r="AW4" s="148"/>
-      <c r="AX4" s="148"/>
-      <c r="AY4" s="148"/>
-      <c r="AZ4" s="148"/>
-      <c r="BA4" s="148"/>
-      <c r="BB4" s="148"/>
-      <c r="BC4" s="148"/>
-      <c r="BD4" s="148"/>
-      <c r="BE4" s="148"/>
-      <c r="BF4" s="148"/>
-      <c r="BG4" s="148"/>
-      <c r="BH4" s="148"/>
+      <c r="AK4" s="135"/>
+      <c r="AL4" s="166"/>
+      <c r="AM4" s="166"/>
+      <c r="AN4" s="166"/>
+      <c r="AO4" s="166"/>
+      <c r="AP4" s="166"/>
+      <c r="AQ4" s="166"/>
+      <c r="AR4" s="166"/>
+      <c r="AS4" s="166"/>
+      <c r="AT4" s="128"/>
+      <c r="AU4" s="128"/>
+      <c r="AV4" s="128"/>
+      <c r="AW4" s="128"/>
+      <c r="AX4" s="128"/>
+      <c r="AY4" s="128"/>
+      <c r="AZ4" s="128"/>
+      <c r="BA4" s="128"/>
+      <c r="BB4" s="128"/>
+      <c r="BC4" s="128"/>
+      <c r="BD4" s="128"/>
+      <c r="BE4" s="128"/>
+      <c r="BF4" s="128"/>
+      <c r="BG4" s="128"/>
+      <c r="BH4" s="128"/>
     </row>
     <row r="5" spans="1:60" ht="13.5" customHeight="1">
-      <c r="A5" s="128"/>
-      <c r="B5" s="128"/>
+      <c r="A5" s="151"/>
+      <c r="B5" s="151"/>
       <c r="C5" s="20"/>
-      <c r="D5" s="128"/>
-      <c r="E5" s="128"/>
+      <c r="D5" s="151"/>
+      <c r="E5" s="151"/>
       <c r="F5" s="21"/>
-      <c r="G5" s="128"/>
-      <c r="H5" s="128"/>
+      <c r="G5" s="151"/>
+      <c r="H5" s="151"/>
       <c r="I5" s="20"/>
-      <c r="J5" s="131"/>
-      <c r="K5" s="131"/>
-      <c r="L5" s="131"/>
-      <c r="M5" s="131"/>
-      <c r="N5" s="131"/>
+      <c r="J5" s="150"/>
+      <c r="K5" s="150"/>
+      <c r="L5" s="150"/>
+      <c r="M5" s="150"/>
+      <c r="N5" s="150"/>
       <c r="O5" s="22"/>
-      <c r="P5" s="133"/>
-      <c r="Q5" s="133"/>
-      <c r="R5" s="133"/>
-      <c r="S5" s="133"/>
-      <c r="U5" s="156"/>
-      <c r="V5" s="156"/>
-      <c r="W5" s="156"/>
-      <c r="X5" s="156"/>
-      <c r="Y5" s="157"/>
-      <c r="Z5" s="156"/>
-      <c r="AA5" s="156"/>
-      <c r="AB5" s="158"/>
-      <c r="AC5" s="156"/>
-      <c r="AD5" s="156"/>
-      <c r="AE5" s="157"/>
-      <c r="AF5" s="162" t="s">
+      <c r="P5" s="163"/>
+      <c r="Q5" s="163"/>
+      <c r="R5" s="163"/>
+      <c r="S5" s="163"/>
+      <c r="U5" s="154"/>
+      <c r="V5" s="154"/>
+      <c r="W5" s="154"/>
+      <c r="X5" s="154"/>
+      <c r="Y5" s="133"/>
+      <c r="Z5" s="154"/>
+      <c r="AA5" s="154"/>
+      <c r="AB5" s="134"/>
+      <c r="AC5" s="154"/>
+      <c r="AD5" s="154"/>
+      <c r="AE5" s="133"/>
+      <c r="AF5" s="157" t="s">
         <v>48</v>
       </c>
-      <c r="AG5" s="163"/>
-      <c r="AH5" s="164"/>
-      <c r="AI5" s="162" t="s">
+      <c r="AG5" s="158"/>
+      <c r="AH5" s="136"/>
+      <c r="AI5" s="157" t="s">
         <v>49</v>
       </c>
-      <c r="AJ5" s="163"/>
-      <c r="AK5" s="164"/>
-      <c r="AL5" s="156" t="s">
+      <c r="AJ5" s="158"/>
+      <c r="AK5" s="136"/>
+      <c r="AL5" s="154" t="s">
         <v>50</v>
       </c>
-      <c r="AM5" s="156"/>
-      <c r="AN5" s="164"/>
-      <c r="AO5" s="156" t="s">
+      <c r="AM5" s="154"/>
+      <c r="AN5" s="136"/>
+      <c r="AO5" s="154" t="s">
         <v>51</v>
       </c>
-      <c r="AP5" s="156"/>
-      <c r="AQ5" s="156"/>
-      <c r="AR5" s="164"/>
-      <c r="AS5" s="156"/>
-      <c r="AT5" s="148"/>
-      <c r="AU5" s="148"/>
-      <c r="AV5" s="148"/>
-      <c r="AW5" s="148"/>
-      <c r="AX5" s="148"/>
-      <c r="AY5" s="148"/>
-      <c r="AZ5" s="148"/>
-      <c r="BA5" s="148"/>
-      <c r="BB5" s="148"/>
-      <c r="BC5" s="148"/>
-      <c r="BD5" s="148"/>
-      <c r="BE5" s="148"/>
-      <c r="BF5" s="148"/>
-      <c r="BG5" s="148"/>
-      <c r="BH5" s="148"/>
+      <c r="AP5" s="154"/>
+      <c r="AQ5" s="154"/>
+      <c r="AR5" s="136"/>
+      <c r="AS5" s="154"/>
+      <c r="AT5" s="128"/>
+      <c r="AU5" s="128"/>
+      <c r="AV5" s="128"/>
+      <c r="AW5" s="128"/>
+      <c r="AX5" s="128"/>
+      <c r="AY5" s="128"/>
+      <c r="AZ5" s="128"/>
+      <c r="BA5" s="128"/>
+      <c r="BB5" s="128"/>
+      <c r="BC5" s="128"/>
+      <c r="BD5" s="128"/>
+      <c r="BE5" s="128"/>
+      <c r="BF5" s="128"/>
+      <c r="BG5" s="128"/>
+      <c r="BH5" s="128"/>
     </row>
     <row r="6" spans="1:60" ht="12.75" customHeight="1">
-      <c r="A6" s="128"/>
-      <c r="B6" s="128"/>
+      <c r="A6" s="151"/>
+      <c r="B6" s="151"/>
       <c r="C6" s="20"/>
-      <c r="D6" s="128"/>
-      <c r="E6" s="128"/>
+      <c r="D6" s="151"/>
+      <c r="E6" s="151"/>
       <c r="F6" s="21"/>
-      <c r="G6" s="128"/>
-      <c r="H6" s="128"/>
+      <c r="G6" s="151"/>
+      <c r="H6" s="151"/>
       <c r="I6" s="20"/>
-      <c r="J6" s="134" t="s">
+      <c r="J6" s="148" t="s">
         <v>48</v>
       </c>
-      <c r="K6" s="135"/>
+      <c r="K6" s="149"/>
       <c r="L6" s="23"/>
-      <c r="M6" s="134" t="s">
+      <c r="M6" s="148" t="s">
         <v>49</v>
       </c>
-      <c r="N6" s="135"/>
+      <c r="N6" s="149"/>
       <c r="O6" s="23"/>
-      <c r="P6" s="128" t="s">
+      <c r="P6" s="151" t="s">
         <v>50</v>
       </c>
-      <c r="Q6" s="128"/>
+      <c r="Q6" s="151"/>
       <c r="R6" s="23"/>
-      <c r="S6" s="128" t="s">
+      <c r="S6" s="151" t="s">
         <v>51</v>
       </c>
-      <c r="U6" s="165"/>
-      <c r="V6" s="165"/>
-      <c r="W6" s="165"/>
-      <c r="X6" s="165"/>
-      <c r="Y6" s="157"/>
-      <c r="Z6" s="165"/>
-      <c r="AA6" s="165"/>
-      <c r="AB6" s="158"/>
-      <c r="AC6" s="165"/>
-      <c r="AD6" s="165"/>
-      <c r="AE6" s="157"/>
+      <c r="U6" s="155"/>
+      <c r="V6" s="155"/>
+      <c r="W6" s="155"/>
+      <c r="X6" s="155"/>
+      <c r="Y6" s="133"/>
+      <c r="Z6" s="155"/>
+      <c r="AA6" s="155"/>
+      <c r="AB6" s="134"/>
+      <c r="AC6" s="155"/>
+      <c r="AD6" s="155"/>
+      <c r="AE6" s="133"/>
       <c r="AF6" s="159"/>
       <c r="AG6" s="159"/>
-      <c r="AH6" s="166"/>
+      <c r="AH6" s="137"/>
       <c r="AI6" s="159"/>
       <c r="AJ6" s="159"/>
-      <c r="AK6" s="164"/>
-      <c r="AL6" s="165"/>
-      <c r="AM6" s="165"/>
-      <c r="AN6" s="166"/>
-      <c r="AO6" s="167"/>
-      <c r="AP6" s="165"/>
-      <c r="AQ6" s="165"/>
-      <c r="AR6" s="166"/>
-      <c r="AS6" s="167"/>
-      <c r="AT6" s="148"/>
-      <c r="AU6" s="148"/>
-      <c r="AV6" s="148"/>
-      <c r="AW6" s="148"/>
-      <c r="AX6" s="148"/>
-      <c r="AY6" s="148"/>
-      <c r="AZ6" s="148"/>
-      <c r="BA6" s="148"/>
-      <c r="BB6" s="148"/>
-      <c r="BC6" s="148"/>
-      <c r="BD6" s="148"/>
-      <c r="BE6" s="148"/>
-      <c r="BF6" s="148"/>
-      <c r="BG6" s="148"/>
-      <c r="BH6" s="148"/>
+      <c r="AK6" s="136"/>
+      <c r="AL6" s="155"/>
+      <c r="AM6" s="155"/>
+      <c r="AN6" s="137"/>
+      <c r="AO6" s="160"/>
+      <c r="AP6" s="155"/>
+      <c r="AQ6" s="155"/>
+      <c r="AR6" s="137"/>
+      <c r="AS6" s="160"/>
+      <c r="AT6" s="128"/>
+      <c r="AU6" s="128"/>
+      <c r="AV6" s="128"/>
+      <c r="AW6" s="128"/>
+      <c r="AX6" s="128"/>
+      <c r="AY6" s="128"/>
+      <c r="AZ6" s="128"/>
+      <c r="BA6" s="128"/>
+      <c r="BB6" s="128"/>
+      <c r="BC6" s="128"/>
+      <c r="BD6" s="128"/>
+      <c r="BE6" s="128"/>
+      <c r="BF6" s="128"/>
+      <c r="BG6" s="128"/>
+      <c r="BH6" s="128"/>
     </row>
     <row r="7" spans="1:60" ht="12.75" customHeight="1">
-      <c r="A7" s="129"/>
-      <c r="B7" s="129"/>
+      <c r="A7" s="152"/>
+      <c r="B7" s="152"/>
       <c r="C7" s="20"/>
-      <c r="D7" s="129"/>
-      <c r="E7" s="129"/>
+      <c r="D7" s="152"/>
+      <c r="E7" s="152"/>
       <c r="F7" s="21"/>
-      <c r="G7" s="129"/>
-      <c r="H7" s="129"/>
+      <c r="G7" s="152"/>
+      <c r="H7" s="152"/>
       <c r="I7" s="20"/>
-      <c r="J7" s="131"/>
-      <c r="K7" s="131"/>
+      <c r="J7" s="150"/>
+      <c r="K7" s="150"/>
       <c r="L7" s="24"/>
-      <c r="M7" s="131"/>
-      <c r="N7" s="131"/>
+      <c r="M7" s="150"/>
+      <c r="N7" s="150"/>
       <c r="O7" s="23"/>
-      <c r="P7" s="129"/>
-      <c r="Q7" s="129"/>
+      <c r="P7" s="152"/>
+      <c r="Q7" s="152"/>
       <c r="R7" s="24"/>
-      <c r="S7" s="136"/>
-      <c r="U7" s="148"/>
-      <c r="V7" s="148"/>
-      <c r="W7" s="148"/>
-      <c r="X7" s="148"/>
-      <c r="Y7" s="148"/>
-      <c r="Z7" s="148"/>
-      <c r="AA7" s="148"/>
-      <c r="AB7" s="148"/>
-      <c r="AC7" s="148"/>
-      <c r="AD7" s="148"/>
-      <c r="AE7" s="148"/>
-      <c r="AF7" s="148"/>
-      <c r="AG7" s="148"/>
-      <c r="AH7" s="148"/>
-      <c r="AI7" s="148"/>
-      <c r="AJ7" s="148"/>
-      <c r="AK7" s="148"/>
-      <c r="AL7" s="148"/>
-      <c r="AM7" s="148"/>
-      <c r="AN7" s="148"/>
-      <c r="AO7" s="148"/>
-      <c r="AP7" s="148"/>
-      <c r="AQ7" s="148"/>
-      <c r="AR7" s="148"/>
-      <c r="AS7" s="148"/>
-      <c r="AT7" s="148"/>
-      <c r="AU7" s="148"/>
-      <c r="AV7" s="148"/>
-      <c r="AW7" s="148"/>
-      <c r="AX7" s="148"/>
-      <c r="AY7" s="148"/>
-      <c r="AZ7" s="148"/>
-      <c r="BA7" s="148"/>
-      <c r="BB7" s="148"/>
-      <c r="BC7" s="148"/>
-      <c r="BD7" s="148"/>
-      <c r="BE7" s="148"/>
-      <c r="BF7" s="148"/>
-      <c r="BG7" s="148"/>
-      <c r="BH7" s="148"/>
+      <c r="S7" s="156"/>
+      <c r="U7" s="128"/>
+      <c r="V7" s="128"/>
+      <c r="W7" s="128"/>
+      <c r="X7" s="128"/>
+      <c r="Y7" s="128"/>
+      <c r="Z7" s="128"/>
+      <c r="AA7" s="128"/>
+      <c r="AB7" s="128"/>
+      <c r="AC7" s="128"/>
+      <c r="AD7" s="128"/>
+      <c r="AE7" s="128"/>
+      <c r="AF7" s="128"/>
+      <c r="AG7" s="128"/>
+      <c r="AH7" s="128"/>
+      <c r="AI7" s="128"/>
+      <c r="AJ7" s="128"/>
+      <c r="AK7" s="128"/>
+      <c r="AL7" s="128"/>
+      <c r="AM7" s="128"/>
+      <c r="AN7" s="128"/>
+      <c r="AO7" s="128"/>
+      <c r="AP7" s="128"/>
+      <c r="AQ7" s="128"/>
+      <c r="AR7" s="128"/>
+      <c r="AS7" s="128"/>
+      <c r="AT7" s="128"/>
+      <c r="AU7" s="128"/>
+      <c r="AV7" s="128"/>
+      <c r="AW7" s="128"/>
+      <c r="AX7" s="128"/>
+      <c r="AY7" s="128"/>
+      <c r="AZ7" s="128"/>
+      <c r="BA7" s="128"/>
+      <c r="BB7" s="128"/>
+      <c r="BC7" s="128"/>
+      <c r="BD7" s="128"/>
+      <c r="BE7" s="128"/>
+      <c r="BF7" s="128"/>
+      <c r="BG7" s="128"/>
+      <c r="BH7" s="128"/>
     </row>
     <row r="8" spans="1:60" ht="13">
       <c r="A8" s="25"/>
@@ -42019,78 +41957,78 @@
       <c r="Q8" s="25"/>
       <c r="R8" s="25"/>
       <c r="S8" s="25"/>
-      <c r="U8" s="148"/>
-      <c r="V8" s="148"/>
-      <c r="W8" s="168" t="s">
+      <c r="U8" s="128"/>
+      <c r="V8" s="128"/>
+      <c r="W8" s="138" t="s">
         <v>190</v>
       </c>
-      <c r="X8" s="168"/>
-      <c r="Y8" s="148"/>
-      <c r="Z8" s="169">
+      <c r="X8" s="138"/>
+      <c r="Y8" s="128"/>
+      <c r="Z8" s="139">
         <v>0.41</v>
       </c>
-      <c r="AA8" s="170">
+      <c r="AA8" s="140">
         <f>Z8</f>
         <v>0.41</v>
       </c>
-      <c r="AB8" s="171"/>
-      <c r="AC8" s="169">
+      <c r="AB8" s="141"/>
+      <c r="AC8" s="139">
         <v>0.43</v>
       </c>
-      <c r="AD8" s="170">
+      <c r="AD8" s="140">
         <f>AC8</f>
         <v>0.43</v>
       </c>
-      <c r="AE8" s="172"/>
-      <c r="AF8" s="172">
+      <c r="AE8" s="142"/>
+      <c r="AF8" s="142">
         <v>-37</v>
       </c>
-      <c r="AG8" s="170">
+      <c r="AG8" s="140">
         <f>AF8</f>
         <v>-37</v>
       </c>
-      <c r="AH8" s="148"/>
-      <c r="AI8" s="169">
+      <c r="AH8" s="128"/>
+      <c r="AI8" s="139">
         <v>-9.75</v>
       </c>
-      <c r="AJ8" s="170">
+      <c r="AJ8" s="140">
         <f>AI8</f>
         <v>-9.75</v>
       </c>
-      <c r="AK8" s="172"/>
-      <c r="AL8" s="169">
+      <c r="AK8" s="142"/>
+      <c r="AL8" s="139">
         <v>0</v>
       </c>
-      <c r="AM8" s="170">
+      <c r="AM8" s="140">
         <f>AL8</f>
         <v>0</v>
       </c>
-      <c r="AN8" s="171"/>
-      <c r="AO8" s="169">
+      <c r="AN8" s="141"/>
+      <c r="AO8" s="139">
         <v>0.41</v>
       </c>
-      <c r="AP8" s="170">
+      <c r="AP8" s="140">
         <f>AO8</f>
         <v>0.41</v>
       </c>
-      <c r="AQ8" s="148"/>
-      <c r="AR8" s="148"/>
-      <c r="AS8" s="148"/>
-      <c r="AT8" s="148"/>
-      <c r="AU8" s="148"/>
-      <c r="AV8" s="148"/>
-      <c r="AW8" s="148"/>
-      <c r="AX8" s="148"/>
-      <c r="AY8" s="148"/>
-      <c r="AZ8" s="148"/>
-      <c r="BA8" s="148"/>
-      <c r="BB8" s="148"/>
-      <c r="BC8" s="148"/>
-      <c r="BD8" s="148"/>
-      <c r="BE8" s="148"/>
-      <c r="BF8" s="148"/>
-      <c r="BG8" s="148"/>
-      <c r="BH8" s="148"/>
+      <c r="AQ8" s="128"/>
+      <c r="AR8" s="128"/>
+      <c r="AS8" s="128"/>
+      <c r="AT8" s="128"/>
+      <c r="AU8" s="128"/>
+      <c r="AV8" s="128"/>
+      <c r="AW8" s="128"/>
+      <c r="AX8" s="128"/>
+      <c r="AY8" s="128"/>
+      <c r="AZ8" s="128"/>
+      <c r="BA8" s="128"/>
+      <c r="BB8" s="128"/>
+      <c r="BC8" s="128"/>
+      <c r="BD8" s="128"/>
+      <c r="BE8" s="128"/>
+      <c r="BF8" s="128"/>
+      <c r="BG8" s="128"/>
+      <c r="BH8" s="128"/>
     </row>
     <row r="9" spans="1:60" ht="13">
       <c r="A9" s="26" t="s">
@@ -42127,78 +42065,78 @@
         <v>0.41</v>
       </c>
       <c r="T9" s="27"/>
-      <c r="U9" s="148"/>
-      <c r="V9" s="148"/>
-      <c r="W9" s="173" t="s">
+      <c r="U9" s="128"/>
+      <c r="V9" s="128"/>
+      <c r="W9" s="143" t="s">
         <v>191</v>
       </c>
-      <c r="X9" s="173"/>
-      <c r="Y9" s="148"/>
-      <c r="Z9" s="169">
+      <c r="X9" s="143"/>
+      <c r="Y9" s="128"/>
+      <c r="Z9" s="139">
         <v>2.06</v>
       </c>
-      <c r="AA9" s="170">
+      <c r="AA9" s="140">
         <f t="shared" ref="AA9:AA20" si="0">Z9</f>
         <v>2.06</v>
       </c>
-      <c r="AB9" s="171"/>
-      <c r="AC9" s="169">
+      <c r="AB9" s="141"/>
+      <c r="AC9" s="139">
         <v>5.18</v>
       </c>
-      <c r="AD9" s="170">
+      <c r="AD9" s="140">
         <f t="shared" ref="AD9:AD20" si="1">AC9</f>
         <v>5.18</v>
       </c>
-      <c r="AE9" s="172"/>
-      <c r="AF9" s="172">
+      <c r="AE9" s="142"/>
+      <c r="AF9" s="142">
         <v>-437</v>
       </c>
-      <c r="AG9" s="170">
+      <c r="AG9" s="140">
         <f t="shared" ref="AG9:AG20" si="2">AF9</f>
         <v>-437</v>
       </c>
-      <c r="AH9" s="148"/>
-      <c r="AI9" s="169">
+      <c r="AH9" s="128"/>
+      <c r="AI9" s="139">
         <v>-19.07</v>
       </c>
-      <c r="AJ9" s="170">
+      <c r="AJ9" s="140">
         <f t="shared" ref="AJ9:AJ20" si="3">AI9</f>
         <v>-19.07</v>
       </c>
-      <c r="AK9" s="172"/>
-      <c r="AL9" s="169">
+      <c r="AK9" s="142"/>
+      <c r="AL9" s="139">
         <v>-0.27</v>
       </c>
-      <c r="AM9" s="170">
+      <c r="AM9" s="140">
         <f t="shared" ref="AM9:AM20" si="4">AL9</f>
         <v>-0.27</v>
       </c>
-      <c r="AN9" s="171"/>
-      <c r="AO9" s="169">
+      <c r="AN9" s="141"/>
+      <c r="AO9" s="139">
         <v>2.29</v>
       </c>
-      <c r="AP9" s="170">
+      <c r="AP9" s="140">
         <f t="shared" ref="AP9:AP20" si="5">AO9</f>
         <v>2.29</v>
       </c>
-      <c r="AQ9" s="148"/>
-      <c r="AR9" s="148"/>
-      <c r="AS9" s="148"/>
-      <c r="AT9" s="148"/>
-      <c r="AU9" s="148"/>
-      <c r="AV9" s="148"/>
-      <c r="AW9" s="148"/>
-      <c r="AX9" s="148"/>
-      <c r="AY9" s="148"/>
-      <c r="AZ9" s="148"/>
-      <c r="BA9" s="148"/>
-      <c r="BB9" s="148"/>
-      <c r="BC9" s="148"/>
-      <c r="BD9" s="148"/>
-      <c r="BE9" s="148"/>
-      <c r="BF9" s="148"/>
-      <c r="BG9" s="148"/>
-      <c r="BH9" s="148"/>
+      <c r="AQ9" s="128"/>
+      <c r="AR9" s="128"/>
+      <c r="AS9" s="128"/>
+      <c r="AT9" s="128"/>
+      <c r="AU9" s="128"/>
+      <c r="AV9" s="128"/>
+      <c r="AW9" s="128"/>
+      <c r="AX9" s="128"/>
+      <c r="AY9" s="128"/>
+      <c r="AZ9" s="128"/>
+      <c r="BA9" s="128"/>
+      <c r="BB9" s="128"/>
+      <c r="BC9" s="128"/>
+      <c r="BD9" s="128"/>
+      <c r="BE9" s="128"/>
+      <c r="BF9" s="128"/>
+      <c r="BG9" s="128"/>
+      <c r="BH9" s="128"/>
     </row>
     <row r="10" spans="1:60" ht="13">
       <c r="A10" s="30" t="s">
@@ -42235,78 +42173,78 @@
         <v>2.29</v>
       </c>
       <c r="T10" s="27"/>
-      <c r="U10" s="148"/>
-      <c r="V10" s="148"/>
-      <c r="W10" s="168" t="s">
+      <c r="U10" s="128"/>
+      <c r="V10" s="128"/>
+      <c r="W10" s="138" t="s">
         <v>192</v>
       </c>
-      <c r="X10" s="168"/>
-      <c r="Y10" s="148"/>
-      <c r="Z10" s="169">
+      <c r="X10" s="138"/>
+      <c r="Y10" s="128"/>
+      <c r="Z10" s="139">
         <v>2.34</v>
       </c>
-      <c r="AA10" s="170">
+      <c r="AA10" s="140">
         <f t="shared" si="0"/>
         <v>2.34</v>
       </c>
-      <c r="AB10" s="171"/>
-      <c r="AC10" s="169">
+      <c r="AB10" s="141"/>
+      <c r="AC10" s="139">
         <v>9.66</v>
       </c>
-      <c r="AD10" s="170">
+      <c r="AD10" s="140">
         <f t="shared" si="1"/>
         <v>9.66</v>
       </c>
-      <c r="AE10" s="172"/>
-      <c r="AF10" s="172">
+      <c r="AE10" s="142"/>
+      <c r="AF10" s="142">
         <v>-814</v>
       </c>
-      <c r="AG10" s="170">
+      <c r="AG10" s="140">
         <f t="shared" si="2"/>
         <v>-814</v>
       </c>
-      <c r="AH10" s="148"/>
-      <c r="AI10" s="169">
+      <c r="AH10" s="128"/>
+      <c r="AI10" s="139">
         <v>-11.58</v>
       </c>
-      <c r="AJ10" s="170">
+      <c r="AJ10" s="140">
         <f t="shared" si="3"/>
         <v>-11.58</v>
       </c>
-      <c r="AK10" s="172"/>
-      <c r="AL10" s="169">
+      <c r="AK10" s="142"/>
+      <c r="AL10" s="139">
         <v>-0.19</v>
       </c>
-      <c r="AM10" s="170">
+      <c r="AM10" s="140">
         <f t="shared" si="4"/>
         <v>-0.19</v>
       </c>
-      <c r="AN10" s="171"/>
-      <c r="AO10" s="169">
+      <c r="AN10" s="141"/>
+      <c r="AO10" s="139">
         <v>7.68</v>
       </c>
-      <c r="AP10" s="170">
+      <c r="AP10" s="140">
         <f t="shared" si="5"/>
         <v>7.68</v>
       </c>
-      <c r="AQ10" s="148"/>
-      <c r="AR10" s="148"/>
-      <c r="AS10" s="148"/>
-      <c r="AT10" s="148"/>
-      <c r="AU10" s="148"/>
-      <c r="AV10" s="148"/>
-      <c r="AW10" s="148"/>
-      <c r="AX10" s="148"/>
-      <c r="AY10" s="148"/>
-      <c r="AZ10" s="148"/>
-      <c r="BA10" s="148"/>
-      <c r="BB10" s="148"/>
-      <c r="BC10" s="148"/>
-      <c r="BD10" s="148"/>
-      <c r="BE10" s="148"/>
-      <c r="BF10" s="148"/>
-      <c r="BG10" s="148"/>
-      <c r="BH10" s="148"/>
+      <c r="AQ10" s="128"/>
+      <c r="AR10" s="128"/>
+      <c r="AS10" s="128"/>
+      <c r="AT10" s="128"/>
+      <c r="AU10" s="128"/>
+      <c r="AV10" s="128"/>
+      <c r="AW10" s="128"/>
+      <c r="AX10" s="128"/>
+      <c r="AY10" s="128"/>
+      <c r="AZ10" s="128"/>
+      <c r="BA10" s="128"/>
+      <c r="BB10" s="128"/>
+      <c r="BC10" s="128"/>
+      <c r="BD10" s="128"/>
+      <c r="BE10" s="128"/>
+      <c r="BF10" s="128"/>
+      <c r="BG10" s="128"/>
+      <c r="BH10" s="128"/>
     </row>
     <row r="11" spans="1:60" ht="13">
       <c r="A11" s="26" t="s">
@@ -42343,78 +42281,78 @@
         <v>7.68</v>
       </c>
       <c r="T11" s="27"/>
-      <c r="U11" s="148"/>
-      <c r="V11" s="148"/>
-      <c r="W11" s="168" t="s">
+      <c r="U11" s="128"/>
+      <c r="V11" s="128"/>
+      <c r="W11" s="138" t="s">
         <v>193</v>
       </c>
-      <c r="X11" s="168"/>
-      <c r="Y11" s="148"/>
-      <c r="Z11" s="169">
+      <c r="X11" s="138"/>
+      <c r="Y11" s="128"/>
+      <c r="Z11" s="139">
         <v>2.27</v>
       </c>
-      <c r="AA11" s="170">
+      <c r="AA11" s="140">
         <f t="shared" si="0"/>
         <v>2.27</v>
       </c>
-      <c r="AB11" s="171"/>
-      <c r="AC11" s="169">
+      <c r="AB11" s="141"/>
+      <c r="AC11" s="139">
         <v>15.48</v>
       </c>
-      <c r="AD11" s="170">
+      <c r="AD11" s="140">
         <f t="shared" si="1"/>
         <v>15.48</v>
       </c>
-      <c r="AE11" s="172"/>
-      <c r="AF11" s="172">
+      <c r="AE11" s="142"/>
+      <c r="AF11" s="142">
         <v>-1305</v>
       </c>
-      <c r="AG11" s="170">
+      <c r="AG11" s="140">
         <f t="shared" si="2"/>
         <v>-1305</v>
       </c>
-      <c r="AH11" s="148"/>
-      <c r="AI11" s="169">
+      <c r="AH11" s="128"/>
+      <c r="AI11" s="139">
         <v>-8.41</v>
       </c>
-      <c r="AJ11" s="170">
+      <c r="AJ11" s="140">
         <f t="shared" si="3"/>
         <v>-8.41</v>
       </c>
-      <c r="AK11" s="172"/>
-      <c r="AL11" s="169">
+      <c r="AK11" s="142"/>
+      <c r="AL11" s="139">
         <v>0.2</v>
       </c>
-      <c r="AM11" s="170">
+      <c r="AM11" s="140">
         <f t="shared" si="4"/>
         <v>0.2</v>
       </c>
-      <c r="AN11" s="171"/>
-      <c r="AO11" s="169">
+      <c r="AN11" s="141"/>
+      <c r="AO11" s="139">
         <v>17.559999999999999</v>
       </c>
-      <c r="AP11" s="170">
+      <c r="AP11" s="140">
         <f t="shared" si="5"/>
         <v>17.559999999999999</v>
       </c>
-      <c r="AQ11" s="148"/>
-      <c r="AR11" s="148"/>
-      <c r="AS11" s="148"/>
-      <c r="AT11" s="148"/>
-      <c r="AU11" s="148"/>
-      <c r="AV11" s="148"/>
-      <c r="AW11" s="148"/>
-      <c r="AX11" s="148"/>
-      <c r="AY11" s="148"/>
-      <c r="AZ11" s="148"/>
-      <c r="BA11" s="148"/>
-      <c r="BB11" s="148"/>
-      <c r="BC11" s="148"/>
-      <c r="BD11" s="148"/>
-      <c r="BE11" s="148"/>
-      <c r="BF11" s="148"/>
-      <c r="BG11" s="148"/>
-      <c r="BH11" s="148"/>
+      <c r="AQ11" s="128"/>
+      <c r="AR11" s="128"/>
+      <c r="AS11" s="128"/>
+      <c r="AT11" s="128"/>
+      <c r="AU11" s="128"/>
+      <c r="AV11" s="128"/>
+      <c r="AW11" s="128"/>
+      <c r="AX11" s="128"/>
+      <c r="AY11" s="128"/>
+      <c r="AZ11" s="128"/>
+      <c r="BA11" s="128"/>
+      <c r="BB11" s="128"/>
+      <c r="BC11" s="128"/>
+      <c r="BD11" s="128"/>
+      <c r="BE11" s="128"/>
+      <c r="BF11" s="128"/>
+      <c r="BG11" s="128"/>
+      <c r="BH11" s="128"/>
     </row>
     <row r="12" spans="1:60" ht="13">
       <c r="A12" s="26" t="s">
@@ -42451,78 +42389,78 @@
         <v>17.559999999999999</v>
       </c>
       <c r="T12" s="27"/>
-      <c r="U12" s="148"/>
-      <c r="V12" s="148"/>
-      <c r="W12" s="168" t="s">
+      <c r="U12" s="128"/>
+      <c r="V12" s="128"/>
+      <c r="W12" s="138" t="s">
         <v>194</v>
       </c>
-      <c r="X12" s="168"/>
-      <c r="Y12" s="148"/>
-      <c r="Z12" s="169">
+      <c r="X12" s="138"/>
+      <c r="Y12" s="128"/>
+      <c r="Z12" s="139">
         <v>3.6</v>
       </c>
-      <c r="AA12" s="170">
+      <c r="AA12" s="140">
         <f t="shared" si="0"/>
         <v>3.6</v>
       </c>
-      <c r="AB12" s="171"/>
-      <c r="AC12" s="169">
+      <c r="AB12" s="141"/>
+      <c r="AC12" s="139">
         <v>68.91</v>
       </c>
-      <c r="AD12" s="170">
+      <c r="AD12" s="140">
         <f t="shared" si="1"/>
         <v>68.91</v>
       </c>
-      <c r="AE12" s="172"/>
-      <c r="AF12" s="172">
+      <c r="AE12" s="142"/>
+      <c r="AF12" s="142">
         <v>-5809</v>
       </c>
-      <c r="AG12" s="170">
+      <c r="AG12" s="140">
         <f t="shared" si="2"/>
         <v>-5809</v>
       </c>
-      <c r="AH12" s="148"/>
-      <c r="AI12" s="169">
+      <c r="AH12" s="128"/>
+      <c r="AI12" s="139">
         <v>-9.07</v>
       </c>
-      <c r="AJ12" s="170">
+      <c r="AJ12" s="140">
         <f t="shared" si="3"/>
         <v>-9.07</v>
       </c>
-      <c r="AK12" s="172"/>
-      <c r="AL12" s="169">
+      <c r="AK12" s="142"/>
+      <c r="AL12" s="139">
         <v>0.28000000000000003</v>
       </c>
-      <c r="AM12" s="170">
+      <c r="AM12" s="140">
         <f t="shared" si="4"/>
         <v>0.28000000000000003</v>
       </c>
-      <c r="AN12" s="171"/>
-      <c r="AO12" s="169">
+      <c r="AN12" s="141"/>
+      <c r="AO12" s="139">
         <v>71.91</v>
       </c>
-      <c r="AP12" s="170">
+      <c r="AP12" s="140">
         <f t="shared" si="5"/>
         <v>71.91</v>
       </c>
-      <c r="AQ12" s="148"/>
-      <c r="AR12" s="148"/>
-      <c r="AS12" s="148"/>
-      <c r="AT12" s="148"/>
-      <c r="AU12" s="148"/>
-      <c r="AV12" s="148"/>
-      <c r="AW12" s="148"/>
-      <c r="AX12" s="148"/>
-      <c r="AY12" s="148"/>
-      <c r="AZ12" s="148"/>
-      <c r="BA12" s="148"/>
-      <c r="BB12" s="148"/>
-      <c r="BC12" s="148"/>
-      <c r="BD12" s="148"/>
-      <c r="BE12" s="148"/>
-      <c r="BF12" s="148"/>
-      <c r="BG12" s="148"/>
-      <c r="BH12" s="148"/>
+      <c r="AQ12" s="128"/>
+      <c r="AR12" s="128"/>
+      <c r="AS12" s="128"/>
+      <c r="AT12" s="128"/>
+      <c r="AU12" s="128"/>
+      <c r="AV12" s="128"/>
+      <c r="AW12" s="128"/>
+      <c r="AX12" s="128"/>
+      <c r="AY12" s="128"/>
+      <c r="AZ12" s="128"/>
+      <c r="BA12" s="128"/>
+      <c r="BB12" s="128"/>
+      <c r="BC12" s="128"/>
+      <c r="BD12" s="128"/>
+      <c r="BE12" s="128"/>
+      <c r="BF12" s="128"/>
+      <c r="BG12" s="128"/>
+      <c r="BH12" s="128"/>
     </row>
     <row r="13" spans="1:60" ht="13">
       <c r="A13" s="26" t="s">
@@ -42559,78 +42497,78 @@
         <v>71.91</v>
       </c>
       <c r="T13" s="27"/>
-      <c r="U13" s="148"/>
-      <c r="V13" s="148"/>
-      <c r="W13" s="168" t="s">
+      <c r="U13" s="128"/>
+      <c r="V13" s="128"/>
+      <c r="W13" s="138" t="s">
         <v>57</v>
       </c>
-      <c r="X13" s="168"/>
-      <c r="Y13" s="148"/>
-      <c r="Z13" s="169">
+      <c r="X13" s="138"/>
+      <c r="Y13" s="128"/>
+      <c r="Z13" s="139">
         <v>2.99</v>
       </c>
-      <c r="AA13" s="170">
+      <c r="AA13" s="140">
         <f t="shared" si="0"/>
         <v>2.99</v>
       </c>
-      <c r="AB13" s="171"/>
-      <c r="AC13" s="169">
+      <c r="AB13" s="141"/>
+      <c r="AC13" s="139">
         <v>100</v>
       </c>
-      <c r="AD13" s="170">
+      <c r="AD13" s="140">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="AE13" s="172"/>
-      <c r="AF13" s="172">
+      <c r="AE13" s="142"/>
+      <c r="AF13" s="142">
         <v>-1686</v>
       </c>
-      <c r="AG13" s="170">
+      <c r="AG13" s="140">
         <f t="shared" si="2"/>
         <v>-1686</v>
       </c>
-      <c r="AH13" s="148"/>
-      <c r="AI13" s="169">
+      <c r="AH13" s="128"/>
+      <c r="AI13" s="139">
         <v>-9.43</v>
       </c>
-      <c r="AJ13" s="170">
+      <c r="AJ13" s="140">
         <f t="shared" si="3"/>
         <v>-9.43</v>
       </c>
-      <c r="AK13" s="172"/>
-      <c r="AL13" s="169">
+      <c r="AK13" s="142"/>
+      <c r="AL13" s="139">
         <v>0</v>
       </c>
-      <c r="AM13" s="170">
+      <c r="AM13" s="140">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AN13" s="171"/>
-      <c r="AO13" s="169">
+      <c r="AN13" s="141"/>
+      <c r="AO13" s="139">
         <v>100</v>
       </c>
-      <c r="AP13" s="170">
+      <c r="AP13" s="140">
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="AQ13" s="148"/>
-      <c r="AR13" s="148"/>
-      <c r="AS13" s="148"/>
-      <c r="AT13" s="148"/>
-      <c r="AU13" s="148"/>
-      <c r="AV13" s="148"/>
-      <c r="AW13" s="148"/>
-      <c r="AX13" s="148"/>
-      <c r="AY13" s="148"/>
-      <c r="AZ13" s="148"/>
-      <c r="BA13" s="148"/>
-      <c r="BB13" s="148"/>
-      <c r="BC13" s="148"/>
-      <c r="BD13" s="148"/>
-      <c r="BE13" s="148"/>
-      <c r="BF13" s="148"/>
-      <c r="BG13" s="148"/>
-      <c r="BH13" s="148"/>
+      <c r="AQ13" s="128"/>
+      <c r="AR13" s="128"/>
+      <c r="AS13" s="128"/>
+      <c r="AT13" s="128"/>
+      <c r="AU13" s="128"/>
+      <c r="AV13" s="128"/>
+      <c r="AW13" s="128"/>
+      <c r="AX13" s="128"/>
+      <c r="AY13" s="128"/>
+      <c r="AZ13" s="128"/>
+      <c r="BA13" s="128"/>
+      <c r="BB13" s="128"/>
+      <c r="BC13" s="128"/>
+      <c r="BD13" s="128"/>
+      <c r="BE13" s="128"/>
+      <c r="BF13" s="128"/>
+      <c r="BG13" s="128"/>
+      <c r="BH13" s="128"/>
     </row>
     <row r="14" spans="1:60" ht="13">
       <c r="A14" s="26" t="s">
@@ -42667,46 +42605,46 @@
         <v>100</v>
       </c>
       <c r="T14" s="27"/>
-      <c r="U14" s="148"/>
-      <c r="V14" s="148"/>
-      <c r="W14" s="168"/>
-      <c r="X14" s="168"/>
-      <c r="Y14" s="148"/>
-      <c r="Z14" s="169"/>
-      <c r="AA14" s="170"/>
-      <c r="AB14" s="171"/>
-      <c r="AC14" s="169"/>
-      <c r="AD14" s="170"/>
-      <c r="AE14" s="172"/>
-      <c r="AF14" s="172"/>
-      <c r="AG14" s="170"/>
-      <c r="AH14" s="148"/>
-      <c r="AI14" s="169"/>
-      <c r="AJ14" s="170"/>
-      <c r="AK14" s="172"/>
-      <c r="AL14" s="169"/>
-      <c r="AM14" s="170"/>
-      <c r="AN14" s="171"/>
-      <c r="AO14" s="169"/>
-      <c r="AP14" s="170"/>
-      <c r="AQ14" s="148"/>
-      <c r="AR14" s="148"/>
-      <c r="AS14" s="148"/>
-      <c r="AT14" s="148"/>
-      <c r="AU14" s="148"/>
-      <c r="AV14" s="148"/>
-      <c r="AW14" s="148"/>
-      <c r="AX14" s="148"/>
-      <c r="AY14" s="148"/>
-      <c r="AZ14" s="148"/>
-      <c r="BA14" s="148"/>
-      <c r="BB14" s="148"/>
-      <c r="BC14" s="148"/>
-      <c r="BD14" s="148"/>
-      <c r="BE14" s="148"/>
-      <c r="BF14" s="148"/>
-      <c r="BG14" s="148"/>
-      <c r="BH14" s="148"/>
+      <c r="U14" s="128"/>
+      <c r="V14" s="128"/>
+      <c r="W14" s="138"/>
+      <c r="X14" s="138"/>
+      <c r="Y14" s="128"/>
+      <c r="Z14" s="139"/>
+      <c r="AA14" s="140"/>
+      <c r="AB14" s="141"/>
+      <c r="AC14" s="139"/>
+      <c r="AD14" s="140"/>
+      <c r="AE14" s="142"/>
+      <c r="AF14" s="142"/>
+      <c r="AG14" s="140"/>
+      <c r="AH14" s="128"/>
+      <c r="AI14" s="139"/>
+      <c r="AJ14" s="140"/>
+      <c r="AK14" s="142"/>
+      <c r="AL14" s="139"/>
+      <c r="AM14" s="140"/>
+      <c r="AN14" s="141"/>
+      <c r="AO14" s="139"/>
+      <c r="AP14" s="140"/>
+      <c r="AQ14" s="128"/>
+      <c r="AR14" s="128"/>
+      <c r="AS14" s="128"/>
+      <c r="AT14" s="128"/>
+      <c r="AU14" s="128"/>
+      <c r="AV14" s="128"/>
+      <c r="AW14" s="128"/>
+      <c r="AX14" s="128"/>
+      <c r="AY14" s="128"/>
+      <c r="AZ14" s="128"/>
+      <c r="BA14" s="128"/>
+      <c r="BB14" s="128"/>
+      <c r="BC14" s="128"/>
+      <c r="BD14" s="128"/>
+      <c r="BE14" s="128"/>
+      <c r="BF14" s="128"/>
+      <c r="BG14" s="128"/>
+      <c r="BH14" s="128"/>
     </row>
     <row r="15" spans="1:60" ht="13">
       <c r="A15" s="26"/>
@@ -42729,48 +42667,48 @@
       <c r="R15" s="29"/>
       <c r="S15" s="27"/>
       <c r="T15" s="27"/>
-      <c r="U15" s="148"/>
-      <c r="V15" s="148"/>
-      <c r="W15" s="174" t="s">
+      <c r="U15" s="128"/>
+      <c r="V15" s="128"/>
+      <c r="W15" s="144" t="s">
         <v>58</v>
       </c>
-      <c r="X15" s="168"/>
-      <c r="Y15" s="148"/>
-      <c r="Z15" s="148"/>
-      <c r="AA15" s="170"/>
-      <c r="AB15" s="148"/>
-      <c r="AC15" s="148"/>
-      <c r="AD15" s="170"/>
-      <c r="AE15" s="148"/>
-      <c r="AF15" s="148"/>
-      <c r="AG15" s="170"/>
-      <c r="AH15" s="148"/>
-      <c r="AI15" s="148"/>
-      <c r="AJ15" s="170"/>
-      <c r="AK15" s="148"/>
-      <c r="AL15" s="148"/>
-      <c r="AM15" s="170"/>
-      <c r="AN15" s="171"/>
-      <c r="AO15" s="148"/>
-      <c r="AP15" s="170"/>
-      <c r="AQ15" s="148"/>
-      <c r="AR15" s="148"/>
-      <c r="AS15" s="148"/>
-      <c r="AT15" s="148"/>
-      <c r="AU15" s="148"/>
-      <c r="AV15" s="148"/>
-      <c r="AW15" s="148"/>
-      <c r="AX15" s="148"/>
-      <c r="AY15" s="148"/>
-      <c r="AZ15" s="148"/>
-      <c r="BA15" s="148"/>
-      <c r="BB15" s="148"/>
-      <c r="BC15" s="148"/>
-      <c r="BD15" s="148"/>
-      <c r="BE15" s="148"/>
-      <c r="BF15" s="148"/>
-      <c r="BG15" s="148"/>
-      <c r="BH15" s="148"/>
+      <c r="X15" s="138"/>
+      <c r="Y15" s="128"/>
+      <c r="Z15" s="128"/>
+      <c r="AA15" s="140"/>
+      <c r="AB15" s="128"/>
+      <c r="AC15" s="128"/>
+      <c r="AD15" s="140"/>
+      <c r="AE15" s="128"/>
+      <c r="AF15" s="128"/>
+      <c r="AG15" s="140"/>
+      <c r="AH15" s="128"/>
+      <c r="AI15" s="128"/>
+      <c r="AJ15" s="140"/>
+      <c r="AK15" s="128"/>
+      <c r="AL15" s="128"/>
+      <c r="AM15" s="140"/>
+      <c r="AN15" s="141"/>
+      <c r="AO15" s="128"/>
+      <c r="AP15" s="140"/>
+      <c r="AQ15" s="128"/>
+      <c r="AR15" s="128"/>
+      <c r="AS15" s="128"/>
+      <c r="AT15" s="128"/>
+      <c r="AU15" s="128"/>
+      <c r="AV15" s="128"/>
+      <c r="AW15" s="128"/>
+      <c r="AX15" s="128"/>
+      <c r="AY15" s="128"/>
+      <c r="AZ15" s="128"/>
+      <c r="BA15" s="128"/>
+      <c r="BB15" s="128"/>
+      <c r="BC15" s="128"/>
+      <c r="BD15" s="128"/>
+      <c r="BE15" s="128"/>
+      <c r="BF15" s="128"/>
+      <c r="BG15" s="128"/>
+      <c r="BH15" s="128"/>
     </row>
     <row r="16" spans="1:60" ht="13">
       <c r="A16" s="31" t="s">
@@ -42780,78 +42718,78 @@
       <c r="C16" s="25"/>
       <c r="Q16" s="27"/>
       <c r="R16" s="29"/>
-      <c r="U16" s="148"/>
-      <c r="V16" s="148"/>
-      <c r="W16" s="168" t="s">
+      <c r="U16" s="128"/>
+      <c r="V16" s="128"/>
+      <c r="W16" s="138" t="s">
         <v>195</v>
       </c>
-      <c r="X16" s="168"/>
-      <c r="Y16" s="148"/>
-      <c r="Z16" s="169">
+      <c r="X16" s="138"/>
+      <c r="Y16" s="128"/>
+      <c r="Z16" s="139">
         <v>4.03</v>
       </c>
-      <c r="AA16" s="170">
+      <c r="AA16" s="140">
         <f t="shared" si="0"/>
         <v>4.03</v>
       </c>
-      <c r="AB16" s="171"/>
-      <c r="AC16" s="169">
+      <c r="AB16" s="141"/>
+      <c r="AC16" s="139">
         <v>56.09</v>
       </c>
-      <c r="AD16" s="170">
+      <c r="AD16" s="140">
         <f t="shared" si="1"/>
         <v>56.09</v>
       </c>
-      <c r="AE16" s="172"/>
-      <c r="AF16" s="172">
+      <c r="AE16" s="142"/>
+      <c r="AF16" s="142">
         <v>-9457</v>
       </c>
-      <c r="AG16" s="170">
+      <c r="AG16" s="140">
         <f t="shared" si="2"/>
         <v>-9457</v>
       </c>
-      <c r="AH16" s="148"/>
-      <c r="AI16" s="169">
+      <c r="AH16" s="128"/>
+      <c r="AI16" s="139">
         <v>-9.4600000000000009</v>
       </c>
-      <c r="AJ16" s="170">
+      <c r="AJ16" s="140">
         <f t="shared" si="3"/>
         <v>-9.4600000000000009</v>
       </c>
-      <c r="AK16" s="172"/>
-      <c r="AL16" s="169">
+      <c r="AK16" s="142"/>
+      <c r="AL16" s="139">
         <v>-0.02</v>
       </c>
-      <c r="AM16" s="170">
+      <c r="AM16" s="140">
         <f t="shared" si="4"/>
         <v>-0.02</v>
       </c>
-      <c r="AN16" s="171"/>
-      <c r="AO16" s="169">
+      <c r="AN16" s="141"/>
+      <c r="AO16" s="139">
         <v>55.87</v>
       </c>
-      <c r="AP16" s="170">
+      <c r="AP16" s="140">
         <f t="shared" si="5"/>
         <v>55.87</v>
       </c>
-      <c r="AQ16" s="148"/>
-      <c r="AR16" s="148"/>
-      <c r="AS16" s="148"/>
-      <c r="AT16" s="148"/>
-      <c r="AU16" s="148"/>
-      <c r="AV16" s="148"/>
-      <c r="AW16" s="148"/>
-      <c r="AX16" s="148"/>
-      <c r="AY16" s="148"/>
-      <c r="AZ16" s="148"/>
-      <c r="BA16" s="148"/>
-      <c r="BB16" s="148"/>
-      <c r="BC16" s="148"/>
-      <c r="BD16" s="148"/>
-      <c r="BE16" s="148"/>
-      <c r="BF16" s="148"/>
-      <c r="BG16" s="148"/>
-      <c r="BH16" s="148"/>
+      <c r="AQ16" s="128"/>
+      <c r="AR16" s="128"/>
+      <c r="AS16" s="128"/>
+      <c r="AT16" s="128"/>
+      <c r="AU16" s="128"/>
+      <c r="AV16" s="128"/>
+      <c r="AW16" s="128"/>
+      <c r="AX16" s="128"/>
+      <c r="AY16" s="128"/>
+      <c r="AZ16" s="128"/>
+      <c r="BA16" s="128"/>
+      <c r="BB16" s="128"/>
+      <c r="BC16" s="128"/>
+      <c r="BD16" s="128"/>
+      <c r="BE16" s="128"/>
+      <c r="BF16" s="128"/>
+      <c r="BG16" s="128"/>
+      <c r="BH16" s="128"/>
     </row>
     <row r="17" spans="1:60" ht="13">
       <c r="A17" s="26" t="s">
@@ -42888,78 +42826,78 @@
         <v>55.87</v>
       </c>
       <c r="T17" s="27"/>
-      <c r="U17" s="148"/>
-      <c r="V17" s="148"/>
-      <c r="W17" s="168" t="s">
+      <c r="U17" s="128"/>
+      <c r="V17" s="128"/>
+      <c r="W17" s="138" t="s">
         <v>196</v>
       </c>
-      <c r="X17" s="168"/>
-      <c r="Y17" s="148"/>
-      <c r="Z17" s="169">
+      <c r="X17" s="138"/>
+      <c r="Y17" s="128"/>
+      <c r="Z17" s="139">
         <v>4.68</v>
       </c>
-      <c r="AA17" s="170">
+      <c r="AA17" s="140">
         <f t="shared" si="0"/>
         <v>4.68</v>
       </c>
-      <c r="AB17" s="171"/>
-      <c r="AC17" s="169">
+      <c r="AB17" s="141"/>
+      <c r="AC17" s="139">
         <v>48.1</v>
       </c>
-      <c r="AD17" s="170">
+      <c r="AD17" s="140">
         <f t="shared" si="1"/>
         <v>48.1</v>
       </c>
-      <c r="AE17" s="172"/>
-      <c r="AF17" s="172">
+      <c r="AE17" s="142"/>
+      <c r="AF17" s="142">
         <v>-16223</v>
       </c>
-      <c r="AG17" s="170">
+      <c r="AG17" s="140">
         <f t="shared" si="2"/>
         <v>-16223</v>
       </c>
-      <c r="AH17" s="148"/>
-      <c r="AI17" s="169">
+      <c r="AH17" s="128"/>
+      <c r="AI17" s="139">
         <v>-10.39</v>
       </c>
-      <c r="AJ17" s="170">
+      <c r="AJ17" s="140">
         <f t="shared" si="3"/>
         <v>-10.39</v>
       </c>
-      <c r="AK17" s="172"/>
-      <c r="AL17" s="169">
+      <c r="AK17" s="142"/>
+      <c r="AL17" s="139">
         <v>-0.46</v>
       </c>
-      <c r="AM17" s="170">
+      <c r="AM17" s="140">
         <f t="shared" si="4"/>
         <v>-0.46</v>
       </c>
-      <c r="AN17" s="171"/>
-      <c r="AO17" s="169">
+      <c r="AN17" s="141"/>
+      <c r="AO17" s="139">
         <v>43.22</v>
       </c>
-      <c r="AP17" s="170">
+      <c r="AP17" s="140">
         <f t="shared" si="5"/>
         <v>43.22</v>
       </c>
-      <c r="AQ17" s="148"/>
-      <c r="AR17" s="148"/>
-      <c r="AS17" s="148"/>
-      <c r="AT17" s="148"/>
-      <c r="AU17" s="148"/>
-      <c r="AV17" s="148"/>
-      <c r="AW17" s="148"/>
-      <c r="AX17" s="148"/>
-      <c r="AY17" s="148"/>
-      <c r="AZ17" s="148"/>
-      <c r="BA17" s="148"/>
-      <c r="BB17" s="148"/>
-      <c r="BC17" s="148"/>
-      <c r="BD17" s="148"/>
-      <c r="BE17" s="148"/>
-      <c r="BF17" s="148"/>
-      <c r="BG17" s="148"/>
-      <c r="BH17" s="148"/>
+      <c r="AQ17" s="128"/>
+      <c r="AR17" s="128"/>
+      <c r="AS17" s="128"/>
+      <c r="AT17" s="128"/>
+      <c r="AU17" s="128"/>
+      <c r="AV17" s="128"/>
+      <c r="AW17" s="128"/>
+      <c r="AX17" s="128"/>
+      <c r="AY17" s="128"/>
+      <c r="AZ17" s="128"/>
+      <c r="BA17" s="128"/>
+      <c r="BB17" s="128"/>
+      <c r="BC17" s="128"/>
+      <c r="BD17" s="128"/>
+      <c r="BE17" s="128"/>
+      <c r="BF17" s="128"/>
+      <c r="BG17" s="128"/>
+      <c r="BH17" s="128"/>
     </row>
     <row r="18" spans="1:60" ht="13">
       <c r="A18" s="26" t="s">
@@ -42996,78 +42934,78 @@
         <v>43.22</v>
       </c>
       <c r="T18" s="27"/>
-      <c r="U18" s="148"/>
-      <c r="V18" s="148"/>
-      <c r="W18" s="168" t="s">
+      <c r="U18" s="128"/>
+      <c r="V18" s="128"/>
+      <c r="W18" s="138" t="s">
         <v>197</v>
       </c>
-      <c r="X18" s="168"/>
-      <c r="Y18" s="148"/>
-      <c r="Z18" s="169">
+      <c r="X18" s="138"/>
+      <c r="Y18" s="128"/>
+      <c r="Z18" s="139">
         <v>6.74</v>
       </c>
-      <c r="AA18" s="170">
+      <c r="AA18" s="140">
         <f t="shared" si="0"/>
         <v>6.74</v>
       </c>
-      <c r="AB18" s="171"/>
-      <c r="AC18" s="169">
+      <c r="AB18" s="141"/>
+      <c r="AC18" s="139">
         <v>36.78</v>
       </c>
-      <c r="AD18" s="170">
+      <c r="AD18" s="140">
         <f t="shared" si="1"/>
         <v>36.78</v>
       </c>
-      <c r="AE18" s="172"/>
-      <c r="AF18" s="172">
+      <c r="AE18" s="142"/>
+      <c r="AF18" s="142">
         <v>-62007</v>
       </c>
-      <c r="AG18" s="170">
+      <c r="AG18" s="140">
         <f t="shared" si="2"/>
         <v>-62007</v>
       </c>
-      <c r="AH18" s="148"/>
-      <c r="AI18" s="169">
+      <c r="AH18" s="128"/>
+      <c r="AI18" s="139">
         <v>-13.37</v>
       </c>
-      <c r="AJ18" s="170">
+      <c r="AJ18" s="140">
         <f t="shared" si="3"/>
         <v>-13.37</v>
       </c>
-      <c r="AK18" s="172"/>
-      <c r="AL18" s="169">
+      <c r="AK18" s="142"/>
+      <c r="AL18" s="139">
         <v>-1.1299999999999999</v>
       </c>
-      <c r="AM18" s="170">
+      <c r="AM18" s="140">
         <f t="shared" si="4"/>
         <v>-1.1299999999999999</v>
       </c>
-      <c r="AN18" s="171"/>
-      <c r="AO18" s="169">
+      <c r="AN18" s="141"/>
+      <c r="AO18" s="139">
         <v>24.83</v>
       </c>
-      <c r="AP18" s="170">
+      <c r="AP18" s="140">
         <f t="shared" si="5"/>
         <v>24.83</v>
       </c>
-      <c r="AQ18" s="148"/>
-      <c r="AR18" s="148"/>
-      <c r="AS18" s="148"/>
-      <c r="AT18" s="148"/>
-      <c r="AU18" s="148"/>
-      <c r="AV18" s="148"/>
-      <c r="AW18" s="148"/>
-      <c r="AX18" s="148"/>
-      <c r="AY18" s="148"/>
-      <c r="AZ18" s="148"/>
-      <c r="BA18" s="148"/>
-      <c r="BB18" s="148"/>
-      <c r="BC18" s="148"/>
-      <c r="BD18" s="148"/>
-      <c r="BE18" s="148"/>
-      <c r="BF18" s="148"/>
-      <c r="BG18" s="148"/>
-      <c r="BH18" s="148"/>
+      <c r="AQ18" s="128"/>
+      <c r="AR18" s="128"/>
+      <c r="AS18" s="128"/>
+      <c r="AT18" s="128"/>
+      <c r="AU18" s="128"/>
+      <c r="AV18" s="128"/>
+      <c r="AW18" s="128"/>
+      <c r="AX18" s="128"/>
+      <c r="AY18" s="128"/>
+      <c r="AZ18" s="128"/>
+      <c r="BA18" s="128"/>
+      <c r="BB18" s="128"/>
+      <c r="BC18" s="128"/>
+      <c r="BD18" s="128"/>
+      <c r="BE18" s="128"/>
+      <c r="BF18" s="128"/>
+      <c r="BG18" s="128"/>
+      <c r="BH18" s="128"/>
     </row>
     <row r="19" spans="1:60" ht="13">
       <c r="A19" s="26" t="s">
@@ -43104,78 +43042,78 @@
         <v>24.83</v>
       </c>
       <c r="T19" s="27"/>
-      <c r="U19" s="148"/>
-      <c r="V19" s="148"/>
-      <c r="W19" s="168" t="s">
+      <c r="U19" s="128"/>
+      <c r="V19" s="128"/>
+      <c r="W19" s="138" t="s">
         <v>198</v>
       </c>
-      <c r="X19" s="168"/>
-      <c r="Y19" s="148"/>
-      <c r="Z19" s="169">
+      <c r="X19" s="138"/>
+      <c r="Y19" s="128"/>
+      <c r="Z19" s="139">
         <v>7.33</v>
       </c>
-      <c r="AA19" s="170">
+      <c r="AA19" s="140">
         <f t="shared" si="0"/>
         <v>7.33</v>
       </c>
-      <c r="AB19" s="171"/>
-      <c r="AC19" s="169">
+      <c r="AB19" s="141"/>
+      <c r="AC19" s="139">
         <v>31.05</v>
       </c>
-      <c r="AD19" s="170">
+      <c r="AD19" s="140">
         <f t="shared" si="1"/>
         <v>31.05</v>
       </c>
-      <c r="AE19" s="172"/>
-      <c r="AF19" s="172">
+      <c r="AE19" s="142"/>
+      <c r="AF19" s="142">
         <v>-104678</v>
       </c>
-      <c r="AG19" s="170">
+      <c r="AG19" s="140">
         <f t="shared" si="2"/>
         <v>-104678</v>
       </c>
-      <c r="AH19" s="148"/>
-      <c r="AI19" s="169">
+      <c r="AH19" s="128"/>
+      <c r="AI19" s="139">
         <v>-13.91</v>
       </c>
-      <c r="AJ19" s="170">
+      <c r="AJ19" s="140">
         <f t="shared" si="3"/>
         <v>-13.91</v>
       </c>
-      <c r="AK19" s="172"/>
-      <c r="AL19" s="169">
+      <c r="AK19" s="142"/>
+      <c r="AL19" s="139">
         <v>-1.04</v>
       </c>
-      <c r="AM19" s="170">
+      <c r="AM19" s="140">
         <f t="shared" si="4"/>
         <v>-1.04</v>
       </c>
-      <c r="AN19" s="171"/>
-      <c r="AO19" s="169">
+      <c r="AN19" s="141"/>
+      <c r="AO19" s="139">
         <v>20.010000000000002</v>
       </c>
-      <c r="AP19" s="170">
+      <c r="AP19" s="140">
         <f t="shared" si="5"/>
         <v>20.010000000000002</v>
       </c>
-      <c r="AQ19" s="148"/>
-      <c r="AR19" s="148"/>
-      <c r="AS19" s="148"/>
-      <c r="AT19" s="148"/>
-      <c r="AU19" s="148"/>
-      <c r="AV19" s="148"/>
-      <c r="AW19" s="148"/>
-      <c r="AX19" s="148"/>
-      <c r="AY19" s="148"/>
-      <c r="AZ19" s="148"/>
-      <c r="BA19" s="148"/>
-      <c r="BB19" s="148"/>
-      <c r="BC19" s="148"/>
-      <c r="BD19" s="148"/>
-      <c r="BE19" s="148"/>
-      <c r="BF19" s="148"/>
-      <c r="BG19" s="148"/>
-      <c r="BH19" s="148"/>
+      <c r="AQ19" s="128"/>
+      <c r="AR19" s="128"/>
+      <c r="AS19" s="128"/>
+      <c r="AT19" s="128"/>
+      <c r="AU19" s="128"/>
+      <c r="AV19" s="128"/>
+      <c r="AW19" s="128"/>
+      <c r="AX19" s="128"/>
+      <c r="AY19" s="128"/>
+      <c r="AZ19" s="128"/>
+      <c r="BA19" s="128"/>
+      <c r="BB19" s="128"/>
+      <c r="BC19" s="128"/>
+      <c r="BD19" s="128"/>
+      <c r="BE19" s="128"/>
+      <c r="BF19" s="128"/>
+      <c r="BG19" s="128"/>
+      <c r="BH19" s="128"/>
     </row>
     <row r="20" spans="1:60" ht="13">
       <c r="A20" s="26" t="s">
@@ -43212,78 +43150,78 @@
         <v>20.010000000000002</v>
       </c>
       <c r="T20" s="27"/>
-      <c r="U20" s="148"/>
-      <c r="V20" s="148"/>
-      <c r="W20" s="168" t="s">
+      <c r="U20" s="128"/>
+      <c r="V20" s="128"/>
+      <c r="W20" s="138" t="s">
         <v>199</v>
       </c>
-      <c r="X20" s="168"/>
-      <c r="Y20" s="148"/>
-      <c r="Z20" s="169">
+      <c r="X20" s="138"/>
+      <c r="Y20" s="128"/>
+      <c r="Z20" s="139">
         <v>7.81</v>
       </c>
-      <c r="AA20" s="170">
+      <c r="AA20" s="140">
         <f t="shared" si="0"/>
         <v>7.81</v>
       </c>
-      <c r="AB20" s="171"/>
-      <c r="AC20" s="169">
+      <c r="AB20" s="141"/>
+      <c r="AC20" s="139">
         <v>18.63</v>
       </c>
-      <c r="AD20" s="170">
+      <c r="AD20" s="140">
         <f t="shared" si="1"/>
         <v>18.63</v>
       </c>
-      <c r="AE20" s="172"/>
-      <c r="AF20" s="172">
+      <c r="AE20" s="142"/>
+      <c r="AF20" s="142">
         <v>-314150</v>
       </c>
-      <c r="AG20" s="170">
+      <c r="AG20" s="140">
         <f t="shared" si="2"/>
         <v>-314150</v>
       </c>
-      <c r="AH20" s="148"/>
-      <c r="AI20" s="169">
+      <c r="AH20" s="128"/>
+      <c r="AI20" s="139">
         <v>-13.68</v>
       </c>
-      <c r="AJ20" s="170">
+      <c r="AJ20" s="140">
         <f t="shared" si="3"/>
         <v>-13.68</v>
       </c>
-      <c r="AK20" s="172"/>
-      <c r="AL20" s="169">
+      <c r="AK20" s="142"/>
+      <c r="AL20" s="139">
         <v>-0.6</v>
       </c>
-      <c r="AM20" s="170">
+      <c r="AM20" s="140">
         <f t="shared" si="4"/>
         <v>-0.6</v>
       </c>
-      <c r="AN20" s="171"/>
-      <c r="AO20" s="169">
+      <c r="AN20" s="141"/>
+      <c r="AO20" s="139">
         <v>12.25</v>
       </c>
-      <c r="AP20" s="170">
+      <c r="AP20" s="140">
         <f t="shared" si="5"/>
         <v>12.25</v>
       </c>
-      <c r="AQ20" s="148"/>
-      <c r="AR20" s="148"/>
-      <c r="AS20" s="148"/>
-      <c r="AT20" s="148"/>
-      <c r="AU20" s="148"/>
-      <c r="AV20" s="148"/>
-      <c r="AW20" s="148"/>
-      <c r="AX20" s="148"/>
-      <c r="AY20" s="148"/>
-      <c r="AZ20" s="148"/>
-      <c r="BA20" s="148"/>
-      <c r="BB20" s="148"/>
-      <c r="BC20" s="148"/>
-      <c r="BD20" s="148"/>
-      <c r="BE20" s="148"/>
-      <c r="BF20" s="148"/>
-      <c r="BG20" s="148"/>
-      <c r="BH20" s="148"/>
+      <c r="AQ20" s="128"/>
+      <c r="AR20" s="128"/>
+      <c r="AS20" s="128"/>
+      <c r="AT20" s="128"/>
+      <c r="AU20" s="128"/>
+      <c r="AV20" s="128"/>
+      <c r="AW20" s="128"/>
+      <c r="AX20" s="128"/>
+      <c r="AY20" s="128"/>
+      <c r="AZ20" s="128"/>
+      <c r="BA20" s="128"/>
+      <c r="BB20" s="128"/>
+      <c r="BC20" s="128"/>
+      <c r="BD20" s="128"/>
+      <c r="BE20" s="128"/>
+      <c r="BF20" s="128"/>
+      <c r="BG20" s="128"/>
+      <c r="BH20" s="128"/>
     </row>
     <row r="21" spans="1:60" ht="13">
       <c r="A21" s="26" t="s">
@@ -43320,46 +43258,46 @@
         <v>12.25</v>
       </c>
       <c r="T21" s="27"/>
-      <c r="U21" s="148"/>
-      <c r="V21" s="175"/>
-      <c r="W21" s="175"/>
-      <c r="X21" s="175"/>
-      <c r="Y21" s="175"/>
-      <c r="Z21" s="175"/>
-      <c r="AA21" s="175"/>
-      <c r="AB21" s="175"/>
-      <c r="AC21" s="175"/>
-      <c r="AD21" s="175"/>
-      <c r="AE21" s="175"/>
-      <c r="AF21" s="175"/>
-      <c r="AG21" s="175"/>
-      <c r="AH21" s="175"/>
-      <c r="AI21" s="175"/>
-      <c r="AJ21" s="175"/>
-      <c r="AK21" s="175"/>
-      <c r="AL21" s="175"/>
-      <c r="AM21" s="175"/>
-      <c r="AN21" s="175"/>
-      <c r="AO21" s="175"/>
-      <c r="AP21" s="175"/>
-      <c r="AQ21" s="148"/>
-      <c r="AR21" s="148"/>
-      <c r="AS21" s="148"/>
-      <c r="AT21" s="148"/>
-      <c r="AU21" s="148"/>
-      <c r="AV21" s="148"/>
-      <c r="AW21" s="148"/>
-      <c r="AX21" s="148"/>
-      <c r="AY21" s="148"/>
-      <c r="AZ21" s="148"/>
-      <c r="BA21" s="148"/>
-      <c r="BB21" s="148"/>
-      <c r="BC21" s="148"/>
-      <c r="BD21" s="148"/>
-      <c r="BE21" s="148"/>
-      <c r="BF21" s="148"/>
-      <c r="BG21" s="148"/>
-      <c r="BH21" s="148"/>
+      <c r="U21" s="128"/>
+      <c r="V21" s="145"/>
+      <c r="W21" s="145"/>
+      <c r="X21" s="145"/>
+      <c r="Y21" s="145"/>
+      <c r="Z21" s="145"/>
+      <c r="AA21" s="145"/>
+      <c r="AB21" s="145"/>
+      <c r="AC21" s="145"/>
+      <c r="AD21" s="145"/>
+      <c r="AE21" s="145"/>
+      <c r="AF21" s="145"/>
+      <c r="AG21" s="145"/>
+      <c r="AH21" s="145"/>
+      <c r="AI21" s="145"/>
+      <c r="AJ21" s="145"/>
+      <c r="AK21" s="145"/>
+      <c r="AL21" s="145"/>
+      <c r="AM21" s="145"/>
+      <c r="AN21" s="145"/>
+      <c r="AO21" s="145"/>
+      <c r="AP21" s="145"/>
+      <c r="AQ21" s="128"/>
+      <c r="AR21" s="128"/>
+      <c r="AS21" s="128"/>
+      <c r="AT21" s="128"/>
+      <c r="AU21" s="128"/>
+      <c r="AV21" s="128"/>
+      <c r="AW21" s="128"/>
+      <c r="AX21" s="128"/>
+      <c r="AY21" s="128"/>
+      <c r="AZ21" s="128"/>
+      <c r="BA21" s="128"/>
+      <c r="BB21" s="128"/>
+      <c r="BC21" s="128"/>
+      <c r="BD21" s="128"/>
+      <c r="BE21" s="128"/>
+      <c r="BF21" s="128"/>
+      <c r="BG21" s="128"/>
+      <c r="BH21" s="128"/>
     </row>
     <row r="22" spans="1:60" ht="13">
       <c r="A22" s="32"/>
@@ -43381,48 +43319,48 @@
       <c r="Q22" s="32"/>
       <c r="R22" s="32"/>
       <c r="S22" s="32"/>
-      <c r="U22" s="148"/>
-      <c r="V22" s="176" t="s">
+      <c r="U22" s="128"/>
+      <c r="V22" s="146" t="s">
         <v>288</v>
       </c>
-      <c r="W22" s="148"/>
-      <c r="X22" s="176"/>
-      <c r="Y22" s="148"/>
-      <c r="Z22" s="148"/>
-      <c r="AA22" s="148"/>
-      <c r="AB22" s="148"/>
-      <c r="AC22" s="148"/>
-      <c r="AD22" s="148"/>
-      <c r="AE22" s="148"/>
-      <c r="AF22" s="148"/>
-      <c r="AG22" s="148"/>
-      <c r="AH22" s="148"/>
-      <c r="AI22" s="148"/>
-      <c r="AJ22" s="148"/>
-      <c r="AK22" s="148"/>
-      <c r="AL22" s="148"/>
-      <c r="AM22" s="148"/>
-      <c r="AN22" s="148"/>
-      <c r="AO22" s="148"/>
-      <c r="AP22" s="148"/>
-      <c r="AQ22" s="148"/>
-      <c r="AR22" s="148"/>
-      <c r="AS22" s="148"/>
-      <c r="AT22" s="148"/>
-      <c r="AU22" s="148"/>
-      <c r="AV22" s="148"/>
-      <c r="AW22" s="148"/>
-      <c r="AX22" s="148"/>
-      <c r="AY22" s="148"/>
-      <c r="AZ22" s="148"/>
-      <c r="BA22" s="148"/>
-      <c r="BB22" s="148"/>
-      <c r="BC22" s="148"/>
-      <c r="BD22" s="148"/>
-      <c r="BE22" s="148"/>
-      <c r="BF22" s="148"/>
-      <c r="BG22" s="148"/>
-      <c r="BH22" s="148"/>
+      <c r="W22" s="128"/>
+      <c r="X22" s="146"/>
+      <c r="Y22" s="128"/>
+      <c r="Z22" s="128"/>
+      <c r="AA22" s="128"/>
+      <c r="AB22" s="128"/>
+      <c r="AC22" s="128"/>
+      <c r="AD22" s="128"/>
+      <c r="AE22" s="128"/>
+      <c r="AF22" s="128"/>
+      <c r="AG22" s="128"/>
+      <c r="AH22" s="128"/>
+      <c r="AI22" s="128"/>
+      <c r="AJ22" s="128"/>
+      <c r="AK22" s="128"/>
+      <c r="AL22" s="128"/>
+      <c r="AM22" s="128"/>
+      <c r="AN22" s="128"/>
+      <c r="AO22" s="128"/>
+      <c r="AP22" s="128"/>
+      <c r="AQ22" s="128"/>
+      <c r="AR22" s="128"/>
+      <c r="AS22" s="128"/>
+      <c r="AT22" s="128"/>
+      <c r="AU22" s="128"/>
+      <c r="AV22" s="128"/>
+      <c r="AW22" s="128"/>
+      <c r="AX22" s="128"/>
+      <c r="AY22" s="128"/>
+      <c r="AZ22" s="128"/>
+      <c r="BA22" s="128"/>
+      <c r="BB22" s="128"/>
+      <c r="BC22" s="128"/>
+      <c r="BD22" s="128"/>
+      <c r="BE22" s="128"/>
+      <c r="BF22" s="128"/>
+      <c r="BG22" s="128"/>
+      <c r="BH22" s="128"/>
     </row>
     <row r="23" spans="1:60" ht="13">
       <c r="A23" s="33" t="s">
@@ -43446,46 +43384,46 @@
       <c r="Q23" s="25"/>
       <c r="R23" s="25"/>
       <c r="S23" s="25"/>
-      <c r="U23" s="148"/>
-      <c r="V23" s="148"/>
-      <c r="W23" s="148"/>
-      <c r="X23" s="148"/>
-      <c r="Y23" s="148"/>
-      <c r="Z23" s="148"/>
-      <c r="AA23" s="148"/>
-      <c r="AB23" s="148"/>
-      <c r="AC23" s="148"/>
-      <c r="AD23" s="148"/>
-      <c r="AE23" s="148"/>
-      <c r="AF23" s="148"/>
-      <c r="AG23" s="148"/>
-      <c r="AH23" s="148"/>
-      <c r="AI23" s="148"/>
-      <c r="AJ23" s="148"/>
-      <c r="AK23" s="148"/>
-      <c r="AL23" s="148"/>
-      <c r="AM23" s="148"/>
-      <c r="AN23" s="148"/>
-      <c r="AO23" s="148"/>
-      <c r="AP23" s="148"/>
-      <c r="AQ23" s="148"/>
-      <c r="AR23" s="148"/>
-      <c r="AS23" s="148"/>
-      <c r="AT23" s="148"/>
-      <c r="AU23" s="148"/>
-      <c r="AV23" s="148"/>
-      <c r="AW23" s="148"/>
-      <c r="AX23" s="148"/>
-      <c r="AY23" s="148"/>
-      <c r="AZ23" s="148"/>
-      <c r="BA23" s="148"/>
-      <c r="BB23" s="148"/>
-      <c r="BC23" s="148"/>
-      <c r="BD23" s="148"/>
-      <c r="BE23" s="148"/>
-      <c r="BF23" s="148"/>
-      <c r="BG23" s="148"/>
-      <c r="BH23" s="148"/>
+      <c r="U23" s="128"/>
+      <c r="V23" s="128"/>
+      <c r="W23" s="128"/>
+      <c r="X23" s="128"/>
+      <c r="Y23" s="128"/>
+      <c r="Z23" s="128"/>
+      <c r="AA23" s="128"/>
+      <c r="AB23" s="128"/>
+      <c r="AC23" s="128"/>
+      <c r="AD23" s="128"/>
+      <c r="AE23" s="128"/>
+      <c r="AF23" s="128"/>
+      <c r="AG23" s="128"/>
+      <c r="AH23" s="128"/>
+      <c r="AI23" s="128"/>
+      <c r="AJ23" s="128"/>
+      <c r="AK23" s="128"/>
+      <c r="AL23" s="128"/>
+      <c r="AM23" s="128"/>
+      <c r="AN23" s="128"/>
+      <c r="AO23" s="128"/>
+      <c r="AP23" s="128"/>
+      <c r="AQ23" s="128"/>
+      <c r="AR23" s="128"/>
+      <c r="AS23" s="128"/>
+      <c r="AT23" s="128"/>
+      <c r="AU23" s="128"/>
+      <c r="AV23" s="128"/>
+      <c r="AW23" s="128"/>
+      <c r="AX23" s="128"/>
+      <c r="AY23" s="128"/>
+      <c r="AZ23" s="128"/>
+      <c r="BA23" s="128"/>
+      <c r="BB23" s="128"/>
+      <c r="BC23" s="128"/>
+      <c r="BD23" s="128"/>
+      <c r="BE23" s="128"/>
+      <c r="BF23" s="128"/>
+      <c r="BG23" s="128"/>
+      <c r="BH23" s="128"/>
     </row>
     <row r="24" spans="1:60" ht="12.75" customHeight="1">
       <c r="A24" s="25"/>
@@ -45001,16 +44939,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="J6:K7"/>
-    <mergeCell ref="M6:N7"/>
-    <mergeCell ref="P6:Q7"/>
-    <mergeCell ref="U3:V6"/>
-    <mergeCell ref="S6:S7"/>
-    <mergeCell ref="AF5:AG6"/>
-    <mergeCell ref="AI5:AJ6"/>
-    <mergeCell ref="AL5:AM6"/>
-    <mergeCell ref="AO5:AO6"/>
-    <mergeCell ref="P4:S5"/>
     <mergeCell ref="AP1:BH1"/>
     <mergeCell ref="AP3:AS4"/>
     <mergeCell ref="AP5:AQ6"/>
@@ -45026,6 +44954,16 @@
     <mergeCell ref="AC3:AD6"/>
     <mergeCell ref="AF3:AJ4"/>
     <mergeCell ref="AL3:AO4"/>
+    <mergeCell ref="AF5:AG6"/>
+    <mergeCell ref="AI5:AJ6"/>
+    <mergeCell ref="AL5:AM6"/>
+    <mergeCell ref="AO5:AO6"/>
+    <mergeCell ref="P4:S5"/>
+    <mergeCell ref="J6:K7"/>
+    <mergeCell ref="M6:N7"/>
+    <mergeCell ref="P6:Q7"/>
+    <mergeCell ref="U3:V6"/>
+    <mergeCell ref="S6:S7"/>
   </mergeCells>
   <phoneticPr fontId="30" type="noConversion"/>
   <conditionalFormatting sqref="AA8:AA20">
@@ -45114,7 +45052,6 @@
   </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
@@ -46123,35 +46060,35 @@
       <c r="A40" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B40" s="137" t="s">
+      <c r="B40" s="170" t="s">
         <v>38</v>
       </c>
-      <c r="C40" s="138"/>
-      <c r="D40" s="138"/>
-      <c r="E40" s="138"/>
-      <c r="F40" s="138"/>
-      <c r="G40" s="138"/>
-      <c r="H40" s="138"/>
-      <c r="I40" s="138"/>
-      <c r="J40" s="138"/>
-      <c r="K40" s="138"/>
+      <c r="C40" s="171"/>
+      <c r="D40" s="171"/>
+      <c r="E40" s="171"/>
+      <c r="F40" s="171"/>
+      <c r="G40" s="171"/>
+      <c r="H40" s="171"/>
+      <c r="I40" s="171"/>
+      <c r="J40" s="171"/>
+      <c r="K40" s="171"/>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B41" s="139" t="s">
+      <c r="B41" s="172" t="s">
         <v>40</v>
       </c>
-      <c r="C41" s="139"/>
-      <c r="D41" s="139"/>
-      <c r="E41" s="139"/>
-      <c r="F41" s="139"/>
-      <c r="G41" s="139"/>
-      <c r="H41" s="139"/>
-      <c r="I41" s="139"/>
-      <c r="J41" s="139"/>
-      <c r="K41" s="139"/>
+      <c r="C41" s="172"/>
+      <c r="D41" s="172"/>
+      <c r="E41" s="172"/>
+      <c r="F41" s="172"/>
+      <c r="G41" s="172"/>
+      <c r="H41" s="172"/>
+      <c r="I41" s="172"/>
+      <c r="J41" s="172"/>
+      <c r="K41" s="172"/>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="9"/>
@@ -46811,24 +46748,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="173" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
-      <c r="D1" s="140"/>
-      <c r="E1" s="140"/>
-      <c r="F1" s="140"/>
-      <c r="G1" s="140"/>
+      <c r="B1" s="173"/>
+      <c r="C1" s="173"/>
+      <c r="D1" s="173"/>
+      <c r="E1" s="173"/>
+      <c r="F1" s="173"/>
+      <c r="G1" s="173"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="140"/>
-      <c r="B2" s="140"/>
-      <c r="C2" s="140"/>
-      <c r="D2" s="140"/>
-      <c r="E2" s="140"/>
-      <c r="F2" s="140"/>
-      <c r="G2" s="140"/>
+      <c r="A2" s="173"/>
+      <c r="B2" s="173"/>
+      <c r="C2" s="173"/>
+      <c r="D2" s="173"/>
+      <c r="E2" s="173"/>
+      <c r="F2" s="173"/>
+      <c r="G2" s="173"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="36" t="s">
@@ -47299,15 +47236,15 @@
         <v>18.600000000000001</v>
       </c>
       <c r="G29" s="40"/>
-      <c r="I29" s="141" t="s">
+      <c r="I29" s="174" t="s">
         <v>85</v>
       </c>
-      <c r="J29" s="142"/>
-      <c r="K29" s="142"/>
-      <c r="L29" s="142"/>
-      <c r="M29" s="142"/>
-      <c r="N29" s="142"/>
-      <c r="O29" s="142"/>
+      <c r="J29" s="175"/>
+      <c r="K29" s="175"/>
+      <c r="L29" s="175"/>
+      <c r="M29" s="175"/>
+      <c r="N29" s="175"/>
+      <c r="O29" s="175"/>
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="37">
@@ -47331,13 +47268,13 @@
       <c r="G30" s="41">
         <v>1980</v>
       </c>
-      <c r="I30" s="142"/>
-      <c r="J30" s="142"/>
-      <c r="K30" s="142"/>
-      <c r="L30" s="142"/>
-      <c r="M30" s="142"/>
-      <c r="N30" s="142"/>
-      <c r="O30" s="142"/>
+      <c r="I30" s="175"/>
+      <c r="J30" s="175"/>
+      <c r="K30" s="175"/>
+      <c r="L30" s="175"/>
+      <c r="M30" s="175"/>
+      <c r="N30" s="175"/>
+      <c r="O30" s="175"/>
     </row>
     <row r="31" spans="1:15">
       <c r="A31" s="37">
@@ -47359,13 +47296,13 @@
         <v>19.3</v>
       </c>
       <c r="G31" s="40"/>
-      <c r="I31" s="142"/>
-      <c r="J31" s="142"/>
-      <c r="K31" s="142"/>
-      <c r="L31" s="142"/>
-      <c r="M31" s="142"/>
-      <c r="N31" s="142"/>
-      <c r="O31" s="142"/>
+      <c r="I31" s="175"/>
+      <c r="J31" s="175"/>
+      <c r="K31" s="175"/>
+      <c r="L31" s="175"/>
+      <c r="M31" s="175"/>
+      <c r="N31" s="175"/>
+      <c r="O31" s="175"/>
     </row>
     <row r="32" spans="1:15">
       <c r="A32" s="37">
@@ -48868,7 +48805,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H70"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="U87" sqref="U87"/>
     </sheetView>
   </sheetViews>
@@ -50801,7 +50738,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>

--- a/chart-styles.xlsx
+++ b/chart-styles.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27715"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vhou/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vhou/Documents/graphics-styleguide/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="33700" windowHeight="23860" tabRatio="913" firstSheet="1" activeTab="12"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="33700" windowHeight="23860" tabRatio="913" firstSheet="1" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="17" r:id="rId1"/>
@@ -997,7 +997,7 @@
     <t>Capital gains</t>
   </si>
   <si>
-    <t>*REMOVE TICK MARKS FROM X-AXIS FOR CONTINUOUS DATA (except for histogram)</t>
+    <t>*TICK MARKS ON X-AXIS ARE NOT USED FOR CATEGORICAL DATA</t>
   </si>
 </sst>
 </file>
@@ -1886,16 +1886,19 @@
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="3" fontId="57" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="58" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1907,34 +1910,7 @@
     <xf numFmtId="0" fontId="53" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1949,7 +1925,37 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -1971,12 +1977,6 @@
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="57" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="58" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="46">
@@ -2151,11 +2151,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="50"/>
-        <c:axId val="-2095986496"/>
-        <c:axId val="-2067621440"/>
+        <c:axId val="541210528"/>
+        <c:axId val="541294016"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2095986496"/>
+        <c:axId val="541210528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2172,7 +2172,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="-2067621440"/>
+        <c:crossAx val="541294016"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2180,7 +2180,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2067621440"/>
+        <c:axId val="541294016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -2207,7 +2207,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="-2095986496"/>
+        <c:crossAx val="541210528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.05"/>
@@ -4303,11 +4303,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2132574064"/>
-        <c:axId val="-2074051584"/>
+        <c:axId val="507467104"/>
+        <c:axId val="507460832"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="-2132574064"/>
+        <c:axId val="507467104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4317,7 +4317,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2074051584"/>
+        <c:crossAx val="507460832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4326,7 +4326,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2074051584"/>
+        <c:axId val="507460832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4337,7 +4337,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2132574064"/>
+        <c:crossAx val="507467104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4962,18 +4962,18 @@
         </c:dLbls>
         <c:gapWidth val="50"/>
         <c:overlap val="100"/>
-        <c:axId val="-2067460000"/>
-        <c:axId val="-2067028688"/>
+        <c:axId val="470143712"/>
+        <c:axId val="470129328"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2067460000"/>
+        <c:axId val="470143712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -4994,7 +4994,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2067028688"/>
+        <c:crossAx val="470129328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5002,7 +5002,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2067028688"/>
+        <c:axId val="470129328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5039,7 +5039,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2067460000"/>
+        <c:crossAx val="470143712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5676,11 +5676,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2132327280"/>
-        <c:axId val="-2074014272"/>
+        <c:axId val="513861296"/>
+        <c:axId val="514326304"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2132327280"/>
+        <c:axId val="513861296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5690,7 +5690,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2074014272"/>
+        <c:crossAx val="514326304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5698,7 +5698,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2074014272"/>
+        <c:axId val="514326304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5724,7 +5724,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="-2132327280"/>
+        <c:crossAx val="513861296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7042,11 +7042,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2073667632"/>
-        <c:axId val="-2112112016"/>
+        <c:axId val="504283504"/>
+        <c:axId val="504261648"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="-2073667632"/>
+        <c:axId val="504283504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7056,7 +7056,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2112112016"/>
+        <c:crossAx val="504261648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7064,7 +7064,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2112112016"/>
+        <c:axId val="504261648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7098,7 +7098,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2073667632"/>
+        <c:crossAx val="504283504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7219,9 +7219,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -7410,9 +7408,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -7518,11 +7514,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2078328208"/>
-        <c:axId val="-2078327168"/>
+        <c:axId val="469843328"/>
+        <c:axId val="504146784"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2078328208"/>
+        <c:axId val="469843328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7550,7 +7546,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2078327168"/>
+        <c:crossAx val="504146784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7558,7 +7554,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2078327168"/>
+        <c:axId val="504146784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.3E7"/>
@@ -7597,7 +7593,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2078328208"/>
+        <c:crossAx val="469843328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7971,11 +7967,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2079120592"/>
-        <c:axId val="-2073838784"/>
+        <c:axId val="433497568"/>
+        <c:axId val="392499216"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2079120592"/>
+        <c:axId val="433497568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7985,7 +7981,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2073838784"/>
+        <c:crossAx val="392499216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7993,7 +7989,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2073838784"/>
+        <c:axId val="392499216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8019,7 +8015,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="-2079120592"/>
+        <c:crossAx val="433497568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8126,14 +8122,11 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
-              <c:layout/>
               <c:dLblPos val="bestFit"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -8142,9 +8135,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -8163,9 +8154,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -8343,9 +8332,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -8364,9 +8351,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -8385,7 +8370,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -8435,11 +8419,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="0"/>
-        <c:axId val="-2076253072"/>
-        <c:axId val="-2076264384"/>
+        <c:axId val="514082944"/>
+        <c:axId val="514080496"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2076253072"/>
+        <c:axId val="514082944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8449,7 +8433,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2076264384"/>
+        <c:crossAx val="514080496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8457,7 +8441,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2076264384"/>
+        <c:axId val="514080496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8467,7 +8451,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2076253072"/>
+        <c:crossAx val="514082944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8589,9 +8573,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -8609,9 +8591,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -8629,9 +8609,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -8649,9 +8627,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -8669,9 +8645,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -8689,9 +8663,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -8932,20 +8904,21 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="0"/>
-        <c:axId val="-2076556000"/>
-        <c:axId val="-2076602480"/>
+        <c:axId val="507287600"/>
+        <c:axId val="507268912"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2076556000"/>
+        <c:axId val="507287600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2076602480"/>
+        <c:crossAx val="507268912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8953,7 +8926,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2076602480"/>
+        <c:axId val="507268912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8979,7 +8952,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="-2076556000"/>
+        <c:crossAx val="507287600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9078,7 +9051,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -9146,11 +9118,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="50"/>
-        <c:axId val="-2065337840"/>
-        <c:axId val="-2064868208"/>
+        <c:axId val="433201712"/>
+        <c:axId val="433182048"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2065337840"/>
+        <c:axId val="433201712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9167,7 +9139,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="-2064868208"/>
+        <c:crossAx val="433182048"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9175,7 +9147,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2064868208"/>
+        <c:axId val="433182048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.25"/>
@@ -9187,7 +9159,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2065337840"/>
+        <c:crossAx val="433201712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.05"/>
@@ -9418,11 +9390,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="50"/>
-        <c:axId val="-2112653376"/>
-        <c:axId val="-2112729328"/>
+        <c:axId val="541826352"/>
+        <c:axId val="514795600"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2112653376"/>
+        <c:axId val="541826352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9439,7 +9411,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="-2112729328"/>
+        <c:crossAx val="514795600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9447,7 +9419,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2112729328"/>
+        <c:axId val="514795600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-20.0"/>
@@ -9474,7 +9446,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="-2112653376"/>
+        <c:crossAx val="541826352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5.0"/>
@@ -9773,16 +9745,17 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2112155952"/>
-        <c:axId val="-2112316240"/>
+        <c:axId val="514766800"/>
+        <c:axId val="514745328"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2112155952"/>
+        <c:axId val="514766800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -9796,7 +9769,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2112316240"/>
+        <c:crossAx val="514745328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9804,7 +9777,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2112316240"/>
+        <c:axId val="514745328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9830,7 +9803,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="-2112155952"/>
+        <c:crossAx val="514766800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9977,7 +9950,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="17"/>
-              <c:layout/>
               <c:spPr/>
               <c:txPr>
                 <a:bodyPr/>
@@ -9996,14 +9968,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="30"/>
-              <c:layout/>
               <c:spPr/>
               <c:txPr>
                 <a:bodyPr/>
@@ -10022,9 +9991,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -10277,11 +10244,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="30"/>
-        <c:axId val="-2095649632"/>
-        <c:axId val="-2067317888"/>
+        <c:axId val="470612816"/>
+        <c:axId val="470585600"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2095649632"/>
+        <c:axId val="470612816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10309,7 +10276,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2067317888"/>
+        <c:crossAx val="470585600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10319,7 +10286,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2067317888"/>
+        <c:axId val="470585600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.5"/>
@@ -10356,7 +10323,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2095649632"/>
+        <c:crossAx val="470612816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -10510,7 +10477,7 @@
                   <c:v>5.0718</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.154199999999991</c:v>
+                  <c:v>6.15419999999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>7.2366</c:v>
@@ -11442,11 +11409,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2065439760"/>
-        <c:axId val="-2065044000"/>
+        <c:axId val="426367232"/>
+        <c:axId val="426353344"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="-2065439760"/>
+        <c:axId val="426367232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11474,7 +11441,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2065044000"/>
+        <c:crossAx val="426353344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11484,7 +11451,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2065044000"/>
+        <c:axId val="426353344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11564,7 +11531,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2065439760"/>
+        <c:crossAx val="426367232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="20.0"/>
@@ -12613,11 +12580,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2065630384"/>
-        <c:axId val="-2065354864"/>
+        <c:axId val="429032304"/>
+        <c:axId val="429031216"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="-2065630384"/>
+        <c:axId val="429032304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12645,7 +12612,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2065354864"/>
+        <c:crossAx val="429031216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12655,7 +12622,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2065354864"/>
+        <c:axId val="429031216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12691,7 +12658,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2065630384"/>
+        <c:crossAx val="429032304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:minorUnit val="5.0"/>
@@ -13660,8 +13627,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2065077552"/>
-        <c:axId val="-2064742512"/>
+        <c:axId val="507302672"/>
+        <c:axId val="507234288"/>
       </c:areaChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -13934,17 +13901,17 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2065077552"/>
-        <c:axId val="-2064742512"/>
+        <c:axId val="507302672"/>
+        <c:axId val="507234288"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2065077552"/>
+        <c:axId val="507302672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -13966,7 +13933,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2064742512"/>
+        <c:crossAx val="507234288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13976,7 +13943,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2064742512"/>
+        <c:axId val="507234288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14014,7 +13981,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2065077552"/>
+        <c:crossAx val="507302672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:minorUnit val="5.0"/>
@@ -14990,8 +14957,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2112484784"/>
-        <c:axId val="-2112055440"/>
+        <c:axId val="506604816"/>
+        <c:axId val="506869232"/>
       </c:areaChart>
       <c:barChart>
         <c:barDir val="col"/>
@@ -15063,11 +15030,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="0"/>
-        <c:axId val="-2112484784"/>
-        <c:axId val="-2112055440"/>
+        <c:axId val="506604816"/>
+        <c:axId val="506869232"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2112484784"/>
+        <c:axId val="506604816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15077,7 +15044,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2112055440"/>
+        <c:crossAx val="506869232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15087,7 +15054,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2112055440"/>
+        <c:axId val="506869232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="18.0"/>
@@ -15114,7 +15081,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="-2112484784"/>
+        <c:crossAx val="506604816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17191,14 +17158,14 @@
         </a:ln>
         <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -17261,14 +17228,14 @@
         </a:ln>
         <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -17331,14 +17298,14 @@
         </a:ln>
         <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -17455,14 +17422,14 @@
         </a:ln>
         <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -17528,14 +17495,14 @@
         </a:ln>
         <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -17609,7 +17576,7 @@
         </a:ln>
         <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -29626,8 +29593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BX272"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="N50" sqref="N50"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F78" sqref="F78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="11" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -31671,9 +31638,9 @@
       <c r="F24" s="46"/>
       <c r="G24" s="46"/>
       <c r="H24" s="46"/>
-      <c r="I24" s="178"/>
+      <c r="I24" s="148"/>
       <c r="J24" s="46"/>
-      <c r="K24" s="179" t="s">
+      <c r="K24" s="149" t="s">
         <v>293</v>
       </c>
       <c r="L24" s="46"/>
@@ -41058,7 +41025,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B6" workbookViewId="0">
+    <sheetView topLeftCell="B6" workbookViewId="0">
       <selection activeCell="V68" sqref="V68"/>
     </sheetView>
   </sheetViews>
@@ -41259,20 +41226,20 @@
     </row>
     <row r="4" spans="1:11" s="60" customFormat="1" ht="14" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:11" s="60" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A5" s="176" t="s">
+      <c r="A5" s="178" t="s">
         <v>131</v>
       </c>
-      <c r="B5" s="176"/>
-      <c r="C5" s="176"/>
-      <c r="D5" s="176"/>
-      <c r="E5" s="176"/>
+      <c r="B5" s="178"/>
+      <c r="C5" s="178"/>
+      <c r="D5" s="178"/>
+      <c r="E5" s="178"/>
     </row>
     <row r="6" spans="1:11" s="60" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A6" s="177"/>
-      <c r="B6" s="177"/>
-      <c r="C6" s="177"/>
-      <c r="D6" s="177"/>
-      <c r="E6" s="177"/>
+      <c r="A6" s="179"/>
+      <c r="B6" s="179"/>
+      <c r="C6" s="179"/>
+      <c r="D6" s="179"/>
+      <c r="E6" s="179"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -41809,27 +41776,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:60" s="14" customFormat="1" ht="23" x14ac:dyDescent="0.25">
-      <c r="A1" s="155" t="s">
+      <c r="A1" s="169" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="155"/>
-      <c r="C1" s="155"/>
-      <c r="D1" s="155"/>
-      <c r="E1" s="155"/>
-      <c r="F1" s="155"/>
-      <c r="G1" s="155"/>
-      <c r="H1" s="155"/>
-      <c r="I1" s="155"/>
-      <c r="J1" s="155"/>
-      <c r="K1" s="155"/>
-      <c r="L1" s="155"/>
-      <c r="M1" s="155"/>
-      <c r="N1" s="155"/>
-      <c r="O1" s="155"/>
-      <c r="P1" s="155"/>
-      <c r="Q1" s="155"/>
-      <c r="R1" s="155"/>
-      <c r="S1" s="155"/>
+      <c r="B1" s="169"/>
+      <c r="C1" s="169"/>
+      <c r="D1" s="169"/>
+      <c r="E1" s="169"/>
+      <c r="F1" s="169"/>
+      <c r="G1" s="169"/>
+      <c r="H1" s="169"/>
+      <c r="I1" s="169"/>
+      <c r="J1" s="169"/>
+      <c r="K1" s="169"/>
+      <c r="L1" s="169"/>
+      <c r="M1" s="169"/>
+      <c r="N1" s="169"/>
+      <c r="O1" s="169"/>
+      <c r="P1" s="169"/>
+      <c r="Q1" s="169"/>
+      <c r="R1" s="169"/>
+      <c r="S1" s="169"/>
       <c r="U1" s="126"/>
       <c r="V1" s="147" t="s">
         <v>42</v>
@@ -41853,48 +41820,48 @@
       <c r="AM1" s="127"/>
       <c r="AN1" s="127"/>
       <c r="AO1" s="126"/>
-      <c r="AP1" s="148"/>
-      <c r="AQ1" s="148"/>
-      <c r="AR1" s="148"/>
-      <c r="AS1" s="148"/>
-      <c r="AT1" s="148"/>
-      <c r="AU1" s="148"/>
-      <c r="AV1" s="148"/>
-      <c r="AW1" s="148"/>
-      <c r="AX1" s="148"/>
-      <c r="AY1" s="148"/>
-      <c r="AZ1" s="148"/>
-      <c r="BA1" s="148"/>
-      <c r="BB1" s="148"/>
-      <c r="BC1" s="148"/>
-      <c r="BD1" s="148"/>
-      <c r="BE1" s="148"/>
-      <c r="BF1" s="148"/>
-      <c r="BG1" s="148"/>
-      <c r="BH1" s="148"/>
+      <c r="AP1" s="166"/>
+      <c r="AQ1" s="166"/>
+      <c r="AR1" s="166"/>
+      <c r="AS1" s="166"/>
+      <c r="AT1" s="166"/>
+      <c r="AU1" s="166"/>
+      <c r="AV1" s="166"/>
+      <c r="AW1" s="166"/>
+      <c r="AX1" s="166"/>
+      <c r="AY1" s="166"/>
+      <c r="AZ1" s="166"/>
+      <c r="BA1" s="166"/>
+      <c r="BB1" s="166"/>
+      <c r="BC1" s="166"/>
+      <c r="BD1" s="166"/>
+      <c r="BE1" s="166"/>
+      <c r="BF1" s="166"/>
+      <c r="BG1" s="166"/>
+      <c r="BH1" s="166"/>
     </row>
     <row r="2" spans="1:60" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="155" t="s">
+      <c r="A2" s="169" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="155"/>
-      <c r="C2" s="155"/>
-      <c r="D2" s="155"/>
-      <c r="E2" s="155"/>
-      <c r="F2" s="155"/>
-      <c r="G2" s="155"/>
-      <c r="H2" s="155"/>
-      <c r="I2" s="155"/>
-      <c r="J2" s="155"/>
-      <c r="K2" s="155"/>
-      <c r="L2" s="155"/>
-      <c r="M2" s="155"/>
-      <c r="N2" s="155"/>
-      <c r="O2" s="155"/>
-      <c r="P2" s="155"/>
-      <c r="Q2" s="155"/>
-      <c r="R2" s="155"/>
-      <c r="S2" s="155"/>
+      <c r="B2" s="169"/>
+      <c r="C2" s="169"/>
+      <c r="D2" s="169"/>
+      <c r="E2" s="169"/>
+      <c r="F2" s="169"/>
+      <c r="G2" s="169"/>
+      <c r="H2" s="169"/>
+      <c r="I2" s="169"/>
+      <c r="J2" s="169"/>
+      <c r="K2" s="169"/>
+      <c r="L2" s="169"/>
+      <c r="M2" s="169"/>
+      <c r="N2" s="169"/>
+      <c r="O2" s="169"/>
+      <c r="P2" s="169"/>
+      <c r="Q2" s="169"/>
+      <c r="R2" s="169"/>
+      <c r="S2" s="169"/>
       <c r="U2" s="128"/>
       <c r="V2" s="129"/>
       <c r="W2" s="129"/>
@@ -41956,41 +41923,41 @@
       <c r="Q3" s="16"/>
       <c r="R3" s="16"/>
       <c r="S3" s="16"/>
-      <c r="U3" s="149"/>
-      <c r="V3" s="149"/>
-      <c r="W3" s="149" t="s">
+      <c r="U3" s="164"/>
+      <c r="V3" s="164"/>
+      <c r="W3" s="164" t="s">
         <v>43</v>
       </c>
-      <c r="X3" s="149"/>
+      <c r="X3" s="164"/>
       <c r="Y3" s="130"/>
-      <c r="Z3" s="149" t="s">
+      <c r="Z3" s="164" t="s">
         <v>44</v>
       </c>
-      <c r="AA3" s="149"/>
+      <c r="AA3" s="164"/>
       <c r="AB3" s="131"/>
-      <c r="AC3" s="149" t="s">
+      <c r="AC3" s="164" t="s">
         <v>45</v>
       </c>
-      <c r="AD3" s="149"/>
+      <c r="AD3" s="164"/>
       <c r="AE3" s="130"/>
-      <c r="AF3" s="149" t="s">
+      <c r="AF3" s="164" t="s">
         <v>46</v>
       </c>
-      <c r="AG3" s="161"/>
-      <c r="AH3" s="161"/>
-      <c r="AI3" s="161"/>
-      <c r="AJ3" s="161"/>
+      <c r="AG3" s="171"/>
+      <c r="AH3" s="171"/>
+      <c r="AI3" s="171"/>
+      <c r="AJ3" s="171"/>
       <c r="AK3" s="132"/>
-      <c r="AL3" s="149" t="s">
+      <c r="AL3" s="164" t="s">
         <v>47</v>
       </c>
-      <c r="AM3" s="150"/>
-      <c r="AN3" s="150"/>
-      <c r="AO3" s="150"/>
-      <c r="AP3" s="149"/>
-      <c r="AQ3" s="150"/>
-      <c r="AR3" s="150"/>
-      <c r="AS3" s="150"/>
+      <c r="AM3" s="167"/>
+      <c r="AN3" s="167"/>
+      <c r="AO3" s="167"/>
+      <c r="AP3" s="164"/>
+      <c r="AQ3" s="167"/>
+      <c r="AR3" s="167"/>
+      <c r="AS3" s="167"/>
       <c r="AT3" s="128"/>
       <c r="AU3" s="128"/>
       <c r="AV3" s="128"/>
@@ -42026,42 +41993,42 @@
       <c r="J4" s="156" t="s">
         <v>46</v>
       </c>
-      <c r="K4" s="159"/>
-      <c r="L4" s="159"/>
-      <c r="M4" s="159"/>
-      <c r="N4" s="159"/>
+      <c r="K4" s="170"/>
+      <c r="L4" s="170"/>
+      <c r="M4" s="170"/>
+      <c r="N4" s="170"/>
       <c r="O4" s="19"/>
       <c r="P4" s="156" t="s">
         <v>47</v>
       </c>
-      <c r="Q4" s="165"/>
-      <c r="R4" s="165"/>
-      <c r="S4" s="165"/>
-      <c r="U4" s="152"/>
-      <c r="V4" s="152"/>
-      <c r="W4" s="152"/>
-      <c r="X4" s="152"/>
+      <c r="Q4" s="157"/>
+      <c r="R4" s="157"/>
+      <c r="S4" s="157"/>
+      <c r="U4" s="153"/>
+      <c r="V4" s="153"/>
+      <c r="W4" s="153"/>
+      <c r="X4" s="153"/>
       <c r="Y4" s="133"/>
-      <c r="Z4" s="152"/>
-      <c r="AA4" s="152"/>
+      <c r="Z4" s="153"/>
+      <c r="AA4" s="153"/>
       <c r="AB4" s="134"/>
-      <c r="AC4" s="152"/>
-      <c r="AD4" s="152"/>
+      <c r="AC4" s="153"/>
+      <c r="AD4" s="153"/>
       <c r="AE4" s="133"/>
-      <c r="AF4" s="162"/>
-      <c r="AG4" s="162"/>
-      <c r="AH4" s="162"/>
-      <c r="AI4" s="162"/>
-      <c r="AJ4" s="162"/>
+      <c r="AF4" s="152"/>
+      <c r="AG4" s="152"/>
+      <c r="AH4" s="152"/>
+      <c r="AI4" s="152"/>
+      <c r="AJ4" s="152"/>
       <c r="AK4" s="135"/>
-      <c r="AL4" s="151"/>
-      <c r="AM4" s="151"/>
-      <c r="AN4" s="151"/>
-      <c r="AO4" s="151"/>
-      <c r="AP4" s="151"/>
-      <c r="AQ4" s="151"/>
-      <c r="AR4" s="151"/>
-      <c r="AS4" s="151"/>
+      <c r="AL4" s="168"/>
+      <c r="AM4" s="168"/>
+      <c r="AN4" s="168"/>
+      <c r="AO4" s="168"/>
+      <c r="AP4" s="168"/>
+      <c r="AQ4" s="168"/>
+      <c r="AR4" s="168"/>
+      <c r="AS4" s="168"/>
       <c r="AT4" s="128"/>
       <c r="AU4" s="128"/>
       <c r="AV4" s="128"/>
@@ -42079,58 +42046,58 @@
       <c r="BH4" s="128"/>
     </row>
     <row r="5" spans="1:60" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="157"/>
-      <c r="B5" s="157"/>
+      <c r="A5" s="162"/>
+      <c r="B5" s="162"/>
       <c r="C5" s="20"/>
-      <c r="D5" s="157"/>
-      <c r="E5" s="157"/>
+      <c r="D5" s="162"/>
+      <c r="E5" s="162"/>
       <c r="F5" s="21"/>
-      <c r="G5" s="157"/>
-      <c r="H5" s="157"/>
+      <c r="G5" s="162"/>
+      <c r="H5" s="162"/>
       <c r="I5" s="20"/>
-      <c r="J5" s="160"/>
-      <c r="K5" s="160"/>
-      <c r="L5" s="160"/>
-      <c r="M5" s="160"/>
-      <c r="N5" s="160"/>
+      <c r="J5" s="161"/>
+      <c r="K5" s="161"/>
+      <c r="L5" s="161"/>
+      <c r="M5" s="161"/>
+      <c r="N5" s="161"/>
       <c r="O5" s="22"/>
-      <c r="P5" s="166"/>
-      <c r="Q5" s="166"/>
-      <c r="R5" s="166"/>
-      <c r="S5" s="166"/>
-      <c r="U5" s="152"/>
-      <c r="V5" s="152"/>
-      <c r="W5" s="152"/>
-      <c r="X5" s="152"/>
+      <c r="P5" s="158"/>
+      <c r="Q5" s="158"/>
+      <c r="R5" s="158"/>
+      <c r="S5" s="158"/>
+      <c r="U5" s="153"/>
+      <c r="V5" s="153"/>
+      <c r="W5" s="153"/>
+      <c r="X5" s="153"/>
       <c r="Y5" s="133"/>
-      <c r="Z5" s="152"/>
-      <c r="AA5" s="152"/>
+      <c r="Z5" s="153"/>
+      <c r="AA5" s="153"/>
       <c r="AB5" s="134"/>
-      <c r="AC5" s="152"/>
-      <c r="AD5" s="152"/>
+      <c r="AC5" s="153"/>
+      <c r="AD5" s="153"/>
       <c r="AE5" s="133"/>
-      <c r="AF5" s="163" t="s">
+      <c r="AF5" s="150" t="s">
         <v>48</v>
       </c>
-      <c r="AG5" s="164"/>
+      <c r="AG5" s="151"/>
       <c r="AH5" s="136"/>
-      <c r="AI5" s="163" t="s">
+      <c r="AI5" s="150" t="s">
         <v>49</v>
       </c>
-      <c r="AJ5" s="164"/>
+      <c r="AJ5" s="151"/>
       <c r="AK5" s="136"/>
-      <c r="AL5" s="152" t="s">
+      <c r="AL5" s="153" t="s">
         <v>50</v>
       </c>
-      <c r="AM5" s="152"/>
+      <c r="AM5" s="153"/>
       <c r="AN5" s="136"/>
-      <c r="AO5" s="152" t="s">
+      <c r="AO5" s="153" t="s">
         <v>51</v>
       </c>
-      <c r="AP5" s="152"/>
-      <c r="AQ5" s="152"/>
+      <c r="AP5" s="153"/>
+      <c r="AQ5" s="153"/>
       <c r="AR5" s="136"/>
-      <c r="AS5" s="152"/>
+      <c r="AS5" s="153"/>
       <c r="AT5" s="128"/>
       <c r="AU5" s="128"/>
       <c r="AV5" s="128"/>
@@ -42148,58 +42115,58 @@
       <c r="BH5" s="128"/>
     </row>
     <row r="6" spans="1:60" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="157"/>
-      <c r="B6" s="157"/>
+      <c r="A6" s="162"/>
+      <c r="B6" s="162"/>
       <c r="C6" s="20"/>
-      <c r="D6" s="157"/>
-      <c r="E6" s="157"/>
+      <c r="D6" s="162"/>
+      <c r="E6" s="162"/>
       <c r="F6" s="21"/>
-      <c r="G6" s="157"/>
-      <c r="H6" s="157"/>
+      <c r="G6" s="162"/>
+      <c r="H6" s="162"/>
       <c r="I6" s="20"/>
-      <c r="J6" s="167" t="s">
+      <c r="J6" s="159" t="s">
         <v>48</v>
       </c>
-      <c r="K6" s="168"/>
+      <c r="K6" s="160"/>
       <c r="L6" s="23"/>
-      <c r="M6" s="167" t="s">
+      <c r="M6" s="159" t="s">
         <v>49</v>
       </c>
-      <c r="N6" s="168"/>
+      <c r="N6" s="160"/>
       <c r="O6" s="23"/>
-      <c r="P6" s="157" t="s">
+      <c r="P6" s="162" t="s">
         <v>50</v>
       </c>
-      <c r="Q6" s="157"/>
+      <c r="Q6" s="162"/>
       <c r="R6" s="23"/>
-      <c r="S6" s="157" t="s">
+      <c r="S6" s="162" t="s">
         <v>51</v>
       </c>
-      <c r="U6" s="153"/>
-      <c r="V6" s="153"/>
-      <c r="W6" s="153"/>
-      <c r="X6" s="153"/>
+      <c r="U6" s="154"/>
+      <c r="V6" s="154"/>
+      <c r="W6" s="154"/>
+      <c r="X6" s="154"/>
       <c r="Y6" s="133"/>
-      <c r="Z6" s="153"/>
-      <c r="AA6" s="153"/>
+      <c r="Z6" s="154"/>
+      <c r="AA6" s="154"/>
       <c r="AB6" s="134"/>
-      <c r="AC6" s="153"/>
-      <c r="AD6" s="153"/>
+      <c r="AC6" s="154"/>
+      <c r="AD6" s="154"/>
       <c r="AE6" s="133"/>
-      <c r="AF6" s="162"/>
-      <c r="AG6" s="162"/>
+      <c r="AF6" s="152"/>
+      <c r="AG6" s="152"/>
       <c r="AH6" s="137"/>
-      <c r="AI6" s="162"/>
-      <c r="AJ6" s="162"/>
+      <c r="AI6" s="152"/>
+      <c r="AJ6" s="152"/>
       <c r="AK6" s="136"/>
-      <c r="AL6" s="153"/>
-      <c r="AM6" s="153"/>
+      <c r="AL6" s="154"/>
+      <c r="AM6" s="154"/>
       <c r="AN6" s="137"/>
-      <c r="AO6" s="154"/>
-      <c r="AP6" s="153"/>
-      <c r="AQ6" s="153"/>
+      <c r="AO6" s="155"/>
+      <c r="AP6" s="154"/>
+      <c r="AQ6" s="154"/>
       <c r="AR6" s="137"/>
-      <c r="AS6" s="154"/>
+      <c r="AS6" s="155"/>
       <c r="AT6" s="128"/>
       <c r="AU6" s="128"/>
       <c r="AV6" s="128"/>
@@ -42217,25 +42184,25 @@
       <c r="BH6" s="128"/>
     </row>
     <row r="7" spans="1:60" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="158"/>
-      <c r="B7" s="158"/>
+      <c r="A7" s="163"/>
+      <c r="B7" s="163"/>
       <c r="C7" s="20"/>
-      <c r="D7" s="158"/>
-      <c r="E7" s="158"/>
+      <c r="D7" s="163"/>
+      <c r="E7" s="163"/>
       <c r="F7" s="21"/>
-      <c r="G7" s="158"/>
-      <c r="H7" s="158"/>
+      <c r="G7" s="163"/>
+      <c r="H7" s="163"/>
       <c r="I7" s="20"/>
-      <c r="J7" s="160"/>
-      <c r="K7" s="160"/>
+      <c r="J7" s="161"/>
+      <c r="K7" s="161"/>
       <c r="L7" s="24"/>
-      <c r="M7" s="160"/>
-      <c r="N7" s="160"/>
+      <c r="M7" s="161"/>
+      <c r="N7" s="161"/>
       <c r="O7" s="23"/>
-      <c r="P7" s="158"/>
-      <c r="Q7" s="158"/>
+      <c r="P7" s="163"/>
+      <c r="Q7" s="163"/>
       <c r="R7" s="24"/>
-      <c r="S7" s="169"/>
+      <c r="S7" s="165"/>
       <c r="U7" s="128"/>
       <c r="V7" s="128"/>
       <c r="W7" s="128"/>
@@ -45279,15 +45246,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="AI5:AJ6"/>
-    <mergeCell ref="AL5:AM6"/>
-    <mergeCell ref="AO5:AO6"/>
-    <mergeCell ref="P4:S5"/>
-    <mergeCell ref="J6:K7"/>
-    <mergeCell ref="M6:N7"/>
-    <mergeCell ref="P6:Q7"/>
-    <mergeCell ref="U3:V6"/>
-    <mergeCell ref="S6:S7"/>
     <mergeCell ref="AP1:BH1"/>
     <mergeCell ref="AP3:AS4"/>
     <mergeCell ref="AP5:AQ6"/>
@@ -45304,6 +45262,15 @@
     <mergeCell ref="AF3:AJ4"/>
     <mergeCell ref="AL3:AO4"/>
     <mergeCell ref="AF5:AG6"/>
+    <mergeCell ref="AI5:AJ6"/>
+    <mergeCell ref="AL5:AM6"/>
+    <mergeCell ref="AO5:AO6"/>
+    <mergeCell ref="P4:S5"/>
+    <mergeCell ref="J6:K7"/>
+    <mergeCell ref="M6:N7"/>
+    <mergeCell ref="P6:Q7"/>
+    <mergeCell ref="U3:V6"/>
+    <mergeCell ref="S6:S7"/>
   </mergeCells>
   <phoneticPr fontId="30" type="noConversion"/>
   <conditionalFormatting sqref="AA8:AA20">
@@ -46392,35 +46359,35 @@
       <c r="A40" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B40" s="170" t="s">
+      <c r="B40" s="172" t="s">
         <v>38</v>
       </c>
-      <c r="C40" s="171"/>
-      <c r="D40" s="171"/>
-      <c r="E40" s="171"/>
-      <c r="F40" s="171"/>
-      <c r="G40" s="171"/>
-      <c r="H40" s="171"/>
-      <c r="I40" s="171"/>
-      <c r="J40" s="171"/>
-      <c r="K40" s="171"/>
+      <c r="C40" s="173"/>
+      <c r="D40" s="173"/>
+      <c r="E40" s="173"/>
+      <c r="F40" s="173"/>
+      <c r="G40" s="173"/>
+      <c r="H40" s="173"/>
+      <c r="I40" s="173"/>
+      <c r="J40" s="173"/>
+      <c r="K40" s="173"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B41" s="172" t="s">
+      <c r="B41" s="174" t="s">
         <v>40</v>
       </c>
-      <c r="C41" s="172"/>
-      <c r="D41" s="172"/>
-      <c r="E41" s="172"/>
-      <c r="F41" s="172"/>
-      <c r="G41" s="172"/>
-      <c r="H41" s="172"/>
-      <c r="I41" s="172"/>
-      <c r="J41" s="172"/>
-      <c r="K41" s="172"/>
+      <c r="C41" s="174"/>
+      <c r="D41" s="174"/>
+      <c r="E41" s="174"/>
+      <c r="F41" s="174"/>
+      <c r="G41" s="174"/>
+      <c r="H41" s="174"/>
+      <c r="I41" s="174"/>
+      <c r="J41" s="174"/>
+      <c r="K41" s="174"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A42" s="9"/>
@@ -47070,24 +47037,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="173" t="s">
+      <c r="A1" s="175" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="173"/>
-      <c r="C1" s="173"/>
-      <c r="D1" s="173"/>
-      <c r="E1" s="173"/>
-      <c r="F1" s="173"/>
-      <c r="G1" s="173"/>
+      <c r="B1" s="175"/>
+      <c r="C1" s="175"/>
+      <c r="D1" s="175"/>
+      <c r="E1" s="175"/>
+      <c r="F1" s="175"/>
+      <c r="G1" s="175"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="173"/>
-      <c r="B2" s="173"/>
-      <c r="C2" s="173"/>
-      <c r="D2" s="173"/>
-      <c r="E2" s="173"/>
-      <c r="F2" s="173"/>
-      <c r="G2" s="173"/>
+      <c r="A2" s="175"/>
+      <c r="B2" s="175"/>
+      <c r="C2" s="175"/>
+      <c r="D2" s="175"/>
+      <c r="E2" s="175"/>
+      <c r="F2" s="175"/>
+      <c r="G2" s="175"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="36" t="s">
@@ -47558,15 +47525,15 @@
         <v>18.600000000000001</v>
       </c>
       <c r="G29" s="40"/>
-      <c r="I29" s="174" t="s">
+      <c r="I29" s="176" t="s">
         <v>85</v>
       </c>
-      <c r="J29" s="175"/>
-      <c r="K29" s="175"/>
-      <c r="L29" s="175"/>
-      <c r="M29" s="175"/>
-      <c r="N29" s="175"/>
-      <c r="O29" s="175"/>
+      <c r="J29" s="177"/>
+      <c r="K29" s="177"/>
+      <c r="L29" s="177"/>
+      <c r="M29" s="177"/>
+      <c r="N29" s="177"/>
+      <c r="O29" s="177"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A30" s="37">
@@ -47590,13 +47557,13 @@
       <c r="G30" s="41">
         <v>1980</v>
       </c>
-      <c r="I30" s="175"/>
-      <c r="J30" s="175"/>
-      <c r="K30" s="175"/>
-      <c r="L30" s="175"/>
-      <c r="M30" s="175"/>
-      <c r="N30" s="175"/>
-      <c r="O30" s="175"/>
+      <c r="I30" s="177"/>
+      <c r="J30" s="177"/>
+      <c r="K30" s="177"/>
+      <c r="L30" s="177"/>
+      <c r="M30" s="177"/>
+      <c r="N30" s="177"/>
+      <c r="O30" s="177"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A31" s="37">
@@ -47618,13 +47585,13 @@
         <v>19.3</v>
       </c>
       <c r="G31" s="40"/>
-      <c r="I31" s="175"/>
-      <c r="J31" s="175"/>
-      <c r="K31" s="175"/>
-      <c r="L31" s="175"/>
-      <c r="M31" s="175"/>
-      <c r="N31" s="175"/>
-      <c r="O31" s="175"/>
+      <c r="I31" s="177"/>
+      <c r="J31" s="177"/>
+      <c r="K31" s="177"/>
+      <c r="L31" s="177"/>
+      <c r="M31" s="177"/>
+      <c r="N31" s="177"/>
+      <c r="O31" s="177"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A32" s="37">

--- a/chart-styles.xlsx
+++ b/chart-styles.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vhou/Documents/graphics-styleguide/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vhou/Documents/Projects/graphics-styleguide/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="33700" windowHeight="23860" tabRatio="913" firstSheet="1" activeTab="9"/>
+    <workbookView xWindow="14200" yWindow="820" windowWidth="29860" windowHeight="23860" tabRatio="913" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="17" r:id="rId1"/>
@@ -1273,11 +1273,6 @@
       <name val="Times"/>
     </font>
     <font>
-      <sz val="18"/>
-      <color rgb="FF333333"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
       <i/>
       <sz val="12"/>
       <color rgb="FF333333"/>
@@ -1356,6 +1351,12 @@
       <color theme="9"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF333333"/>
+      <name val="Helvetica Neue"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1788,126 +1789,126 @@
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="3" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="3" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="3" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="3" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="3" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="52" fillId="4" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="3" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="51" fillId="4" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="52" fillId="3" borderId="10" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="51" fillId="3" borderId="10" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="52" fillId="3" borderId="10" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="51" fillId="3" borderId="10" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="3" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="51" fillId="3" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="178" fontId="52" fillId="3" borderId="10" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="3" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="50" fillId="3" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="178" fontId="51" fillId="3" borderId="10" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="3" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="3" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="3" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="3" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="52" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="52" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="52" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="16" fontId="54" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="53" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="53" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="53" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="16" fontId="55" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="3" fontId="56" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="57" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="58" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1934,19 +1935,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
@@ -1955,7 +1956,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -2031,6 +2032,15 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <colors>
     <mruColors>
+      <color rgb="FF0095D4"/>
+      <color rgb="FFA1D4EE"/>
+      <color rgb="FF6FBFE4"/>
+      <color rgb="FF024B6B"/>
+      <color rgb="FF000000"/>
+      <color rgb="FF322C2E"/>
+      <color rgb="FFD3D3D3"/>
+      <color rgb="FFEF2B8C"/>
+      <color rgb="FFFFC100"/>
       <color rgb="FF1882C8"/>
     </mruColors>
   </colors>
@@ -2064,9 +2074,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.059050396478218"/>
+          <c:x val="0.0505847880126095"/>
           <c:y val="0.211781213772753"/>
-          <c:w val="0.92864136427391"/>
+          <c:w val="0.937106972739519"/>
           <c:h val="0.59658019802974"/>
         </c:manualLayout>
       </c:layout>
@@ -2079,7 +2089,7 @@
           <c:order val="0"/>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="0096D2"/>
+              <a:srgbClr val="0095D4"/>
             </a:solidFill>
           </c:spPr>
           <c:invertIfNegative val="0"/>
@@ -2151,11 +2161,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="50"/>
-        <c:axId val="541210528"/>
-        <c:axId val="541294016"/>
+        <c:axId val="-793953632"/>
+        <c:axId val="-797045792"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="541210528"/>
+        <c:axId val="-793953632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2172,7 +2182,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="541294016"/>
+        <c:crossAx val="-797045792"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2180,7 +2190,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="541294016"/>
+        <c:axId val="-797045792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -2207,7 +2217,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="541210528"/>
+        <c:crossAx val="-793953632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.05"/>
@@ -2268,7 +2278,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.0762418960450457"/>
           <c:y val="0.256080304907266"/>
-          <c:w val="0.772702283510319"/>
+          <c:w val="0.873521476167086"/>
           <c:h val="0.555632344694917"/>
         </c:manualLayout>
       </c:layout>
@@ -2291,7 +2301,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="tx2"/>
+              <a:srgbClr val="0095D4"/>
             </a:solidFill>
           </c:spPr>
           <c:cat>
@@ -2695,7 +2705,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="tx1"/>
+              <a:srgbClr val="322C2E"/>
             </a:solidFill>
           </c:spPr>
           <c:cat>
@@ -3503,7 +3513,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="bg2"/>
+              <a:srgbClr val="D3D3D3"/>
             </a:solidFill>
           </c:spPr>
           <c:cat>
@@ -3907,7 +3917,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="ACACAC"/>
+              <a:srgbClr val="024B6B"/>
             </a:solidFill>
           </c:spPr>
           <c:cat>
@@ -4303,11 +4313,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="507467104"/>
-        <c:axId val="507460832"/>
+        <c:axId val="-794849024"/>
+        <c:axId val="-794845024"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="507467104"/>
+        <c:axId val="-794849024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4317,7 +4327,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="507460832"/>
+        <c:crossAx val="-794845024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4326,7 +4336,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="507460832"/>
+        <c:axId val="-794845024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4337,7 +4347,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="507467104"/>
+        <c:crossAx val="-794849024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4434,7 +4444,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="tx2"/>
+              <a:srgbClr val="0095D4"/>
             </a:solidFill>
             <a:ln w="25400">
               <a:noFill/>
@@ -4962,11 +4972,11 @@
         </c:dLbls>
         <c:gapWidth val="50"/>
         <c:overlap val="100"/>
-        <c:axId val="470143712"/>
-        <c:axId val="470129328"/>
+        <c:axId val="-793607392"/>
+        <c:axId val="-793603008"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="470143712"/>
+        <c:axId val="-793607392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4994,7 +5004,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="470129328"/>
+        <c:crossAx val="-793603008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5002,7 +5012,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="470129328"/>
+        <c:axId val="-793603008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5039,7 +5049,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="470143712"/>
+        <c:crossAx val="-793607392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5141,9 +5151,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0404348733516744"/>
+          <c:x val="0.0597684439656608"/>
           <c:y val="0.267604294294552"/>
-          <c:w val="0.943902476045916"/>
+          <c:w val="0.92953333407372"/>
           <c:h val="0.5047038461868"/>
         </c:manualLayout>
       </c:layout>
@@ -5167,7 +5177,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="tx2"/>
+              <a:srgbClr val="0095D4"/>
             </a:solidFill>
           </c:spPr>
           <c:invertIfNegative val="0"/>
@@ -5676,11 +5686,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="513861296"/>
-        <c:axId val="514326304"/>
+        <c:axId val="-790558352"/>
+        <c:axId val="-790554352"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="513861296"/>
+        <c:axId val="-790558352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5690,7 +5700,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="514326304"/>
+        <c:crossAx val="-790554352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5698,7 +5708,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="514326304"/>
+        <c:axId val="-790554352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5724,7 +5734,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="513861296"/>
+        <c:crossAx val="-790558352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5795,9 +5805,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0532621081039059"/>
+          <c:x val="0.0572966249458592"/>
           <c:y val="0.243572813202271"/>
-          <c:w val="0.943902476045916"/>
+          <c:w val="0.931419877169797"/>
           <c:h val="0.524290353259705"/>
         </c:manualLayout>
       </c:layout>
@@ -5820,7 +5830,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="tx2"/>
+              <a:srgbClr val="0095D4"/>
             </a:solidFill>
           </c:spPr>
           <c:cat>
@@ -7042,11 +7052,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="504283504"/>
-        <c:axId val="504261648"/>
+        <c:axId val="-792052368"/>
+        <c:axId val="-792048032"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="504283504"/>
+        <c:axId val="-792052368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7056,7 +7066,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="504261648"/>
+        <c:crossAx val="-792048032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7064,7 +7074,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="504261648"/>
+        <c:axId val="-792048032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7098,7 +7108,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="504283504"/>
+        <c:crossAx val="-792052368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7194,7 +7204,7 @@
           <c:spPr>
             <a:ln w="28575" cmpd="sng">
               <a:solidFill>
-                <a:schemeClr val="tx2"/>
+                <a:srgbClr val="0095D4"/>
               </a:solidFill>
               <a:prstDash val="solid"/>
             </a:ln>
@@ -7219,7 +7229,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -7384,7 +7396,7 @@
           <c:spPr>
             <a:ln>
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
@@ -7408,7 +7420,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -7514,11 +7528,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="469843328"/>
-        <c:axId val="504146784"/>
+        <c:axId val="-790413024"/>
+        <c:axId val="-790408608"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="469843328"/>
+        <c:axId val="-790413024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7546,7 +7560,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="504146784"/>
+        <c:crossAx val="-790408608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7554,7 +7568,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="504146784"/>
+        <c:axId val="-790408608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.3E7"/>
@@ -7593,7 +7607,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="469843328"/>
+        <c:crossAx val="-790413024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7677,7 +7691,7 @@
           <c:spPr>
             <a:ln>
               <a:solidFill>
-                <a:srgbClr val="1882C8"/>
+                <a:srgbClr val="0095D4"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
@@ -7967,11 +7981,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="433497568"/>
-        <c:axId val="392499216"/>
+        <c:axId val="-790269824"/>
+        <c:axId val="-790265904"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="433497568"/>
+        <c:axId val="-790269824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7981,7 +7995,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="392499216"/>
+        <c:crossAx val="-790265904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7989,7 +8003,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="392499216"/>
+        <c:axId val="-790265904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8015,7 +8029,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="433497568"/>
+        <c:crossAx val="-790269824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8096,22 +8110,97 @@
           <c:dPt>
             <c:idx val="0"/>
             <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFC100"/>
+              </a:solidFill>
+              <a:ln w="19050" cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
             <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="19050" cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
             <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0095D4"/>
+              </a:solidFill>
+              <a:ln w="19050" cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
           </c:dPt>
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.0141074365975641"/>
-                  <c:y val="0.000447428317437308"/>
+                  <c:x val="0.00285574271570474"/>
+                  <c:y val="-0.0750241420294162"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="1"/>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.146441631504923"/>
+                      <c:h val="0.102358490566038"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.00988122528987678"/>
+                  <c:y val="0.00872920071311849"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="bestFit"/>
@@ -8122,28 +8211,22 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.163881856540084"/>
+                      <c:h val="0.075"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.00965710899292728"/>
-                  <c:y val="0.0132117274625156"/>
+                  <c:x val="-0.0152830105097622"/>
+                  <c:y val="-0.0198070494725895"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="bestFit"/>
@@ -8154,7 +8237,14 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.153220815752461"/>
+                      <c:h val="0.075"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -8164,13 +8254,25 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:txPr>
+              <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="1"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="1"/>
             <c:showSerName val="0"/>
             <c:showPercent val="1"/>
             <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
@@ -8218,7 +8320,7 @@
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
+          <c:showLeaderLines val="0"/>
         </c:dLbls>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
@@ -8315,6 +8417,51 @@
             </a:ln>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="19050" cmpd="sng">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0095D4"/>
+              </a:solidFill>
+              <a:ln w="19050" cmpd="sng">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFC100"/>
+              </a:solidFill>
+              <a:ln w="19050" cmpd="sng">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
@@ -8332,7 +8479,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -8351,7 +8500,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -8361,6 +8512,18 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:txPr>
+              <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="1"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -8370,6 +8533,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -8419,11 +8583,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="0"/>
-        <c:axId val="514082944"/>
-        <c:axId val="514080496"/>
+        <c:axId val="-790093584"/>
+        <c:axId val="-790089632"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="514082944"/>
+        <c:axId val="-790093584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8433,7 +8597,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="514080496"/>
+        <c:crossAx val="-790089632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8441,7 +8605,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="514080496"/>
+        <c:axId val="-790089632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8451,7 +8615,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="514082944"/>
+        <c:crossAx val="-790093584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8557,6 +8721,76 @@
               </a:ln>
             </c:spPr>
           </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0095D4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0095D4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0095D4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0095D4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0095D4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
@@ -8573,7 +8807,9 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -8591,7 +8827,9 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -8609,7 +8847,9 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -8627,7 +8867,9 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -8645,7 +8887,9 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -8663,7 +8907,9 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -8678,7 +8924,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr algn="l">
-                  <a:defRPr/>
+                  <a:defRPr b="1"/>
                 </a:pPr>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -8827,7 +9073,7 @@
           <c:order val="0"/>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="tx2"/>
+              <a:srgbClr val="0095D4"/>
             </a:solidFill>
             <a:ln>
               <a:solidFill>
@@ -8904,21 +9150,35 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="0"/>
-        <c:axId val="507287600"/>
-        <c:axId val="507268912"/>
+        <c:axId val="-790018800"/>
+        <c:axId val="-790014640"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="507287600"/>
+        <c:axId val="-790018800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="507268912"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-790014640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8926,7 +9186,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="507268912"/>
+        <c:axId val="-790014640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8952,7 +9212,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="507287600"/>
+        <c:crossAx val="-790018800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9025,7 +9285,7 @@
           <c:order val="0"/>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="0096D2"/>
+              <a:srgbClr val="0095D4"/>
             </a:solidFill>
           </c:spPr>
           <c:invertIfNegative val="0"/>
@@ -9051,6 +9311,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -9118,11 +9379,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="50"/>
-        <c:axId val="433201712"/>
-        <c:axId val="433182048"/>
+        <c:axId val="-793836736"/>
+        <c:axId val="-793825776"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="433201712"/>
+        <c:axId val="-793836736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9139,7 +9400,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="433182048"/>
+        <c:crossAx val="-793825776"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9147,7 +9408,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="433182048"/>
+        <c:axId val="-793825776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.25"/>
@@ -9159,7 +9420,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="433201712"/>
+        <c:crossAx val="-793836736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.05"/>
@@ -9238,12 +9499,62 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0095D4"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0095D4"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0095D4"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0095D4"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0095D4"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
             <c:idx val="5"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="FFC100"/>
               </a:solidFill>
             </c:spPr>
           </c:dPt>
@@ -9253,7 +9564,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
             </c:spPr>
           </c:dPt>
@@ -9263,7 +9574,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="112D53"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
             </c:spPr>
           </c:dPt>
@@ -9273,7 +9584,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="112D53"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
             </c:spPr>
           </c:dPt>
@@ -9283,7 +9594,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="112D53"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
             </c:spPr>
           </c:dPt>
@@ -9293,7 +9604,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="112D53"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
             </c:spPr>
           </c:dPt>
@@ -9390,11 +9701,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="50"/>
-        <c:axId val="541826352"/>
-        <c:axId val="514795600"/>
+        <c:axId val="-796957392"/>
+        <c:axId val="-796953072"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="541826352"/>
+        <c:axId val="-796957392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9411,7 +9722,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="514795600"/>
+        <c:crossAx val="-796953072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9419,7 +9730,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="514795600"/>
+        <c:axId val="-796953072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-20.0"/>
@@ -9446,7 +9757,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="541826352"/>
+        <c:crossAx val="-796957392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5.0"/>
@@ -9530,7 +9841,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
           </c:spPr>
           <c:invertIfNegative val="0"/>
@@ -9604,7 +9915,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent3"/>
+              <a:srgbClr val="FFC100"/>
             </a:solidFill>
           </c:spPr>
           <c:invertIfNegative val="0"/>
@@ -9678,7 +9989,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="1882C8"/>
+              <a:srgbClr val="0095D4"/>
             </a:solidFill>
           </c:spPr>
           <c:invertIfNegative val="0"/>
@@ -9745,11 +10056,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="514766800"/>
-        <c:axId val="514745328"/>
+        <c:axId val="-797391136"/>
+        <c:axId val="-797397920"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="514766800"/>
+        <c:axId val="-797391136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9769,7 +10080,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="514745328"/>
+        <c:crossAx val="-797397920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9777,7 +10088,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="514745328"/>
+        <c:axId val="-797397920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9803,7 +10114,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="514766800"/>
+        <c:crossAx val="-797391136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9899,7 +10210,7 @@
           <c:order val="0"/>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="tx2"/>
+              <a:srgbClr val="0095D4"/>
             </a:solidFill>
             <a:ln w="25400">
               <a:noFill/>
@@ -9917,7 +10228,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:ln w="25400">
                 <a:noFill/>
@@ -9940,7 +10251,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:srgbClr val="FFC100"/>
               </a:solidFill>
               <a:ln w="25400">
                 <a:noFill/>
@@ -9950,13 +10261,14 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="17"/>
+              <c:layout/>
               <c:spPr/>
               <c:txPr>
                 <a:bodyPr/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr/>
+                    <a:defRPr b="1"/>
                   </a:pPr>
                   <a:endParaRPr lang="en-US"/>
                 </a:p>
@@ -9968,18 +10280,21 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="30"/>
+              <c:layout/>
               <c:spPr/>
               <c:txPr>
                 <a:bodyPr/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr/>
+                    <a:defRPr b="1"/>
                   </a:pPr>
                   <a:endParaRPr lang="en-US"/>
                 </a:p>
@@ -9991,7 +10306,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -10001,6 +10318,18 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:txPr>
+              <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="1"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -10244,11 +10573,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="30"/>
-        <c:axId val="470612816"/>
-        <c:axId val="470585600"/>
+        <c:axId val="-792617760"/>
+        <c:axId val="-792613856"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="470612816"/>
+        <c:axId val="-792617760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10276,7 +10605,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="470585600"/>
+        <c:crossAx val="-792613856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10286,7 +10615,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="470585600"/>
+        <c:axId val="-792613856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.5"/>
@@ -10323,7 +10652,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="470612816"/>
+        <c:crossAx val="-792617760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -10477,7 +10806,7 @@
                   <c:v>5.0718</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.15419999999999</c:v>
+                  <c:v>6.154199999999988</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>7.2366</c:v>
@@ -11409,11 +11738,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="426367232"/>
-        <c:axId val="426353344"/>
+        <c:axId val="-792479280"/>
+        <c:axId val="-792474752"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="426367232"/>
+        <c:axId val="-792479280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11441,7 +11770,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="426353344"/>
+        <c:crossAx val="-792474752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11451,7 +11780,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="426353344"/>
+        <c:axId val="-792474752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11531,7 +11860,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="426367232"/>
+        <c:crossAx val="-792479280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="20.0"/>
@@ -11649,7 +11978,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="1882C8"/>
+              <a:srgbClr val="0095D4"/>
             </a:solidFill>
             <a:ln w="25400">
               <a:noFill/>
@@ -11882,7 +12211,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="62B3DE"/>
+              <a:srgbClr val="A1D4EE"/>
             </a:solidFill>
             <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
               <a:noFill/>
@@ -12580,11 +12909,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="429032304"/>
-        <c:axId val="429031216"/>
+        <c:axId val="-792378992"/>
+        <c:axId val="-792374496"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="429032304"/>
+        <c:axId val="-792378992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12612,7 +12941,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="429031216"/>
+        <c:crossAx val="-792374496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12622,7 +12951,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="429031216"/>
+        <c:axId val="-792374496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12658,7 +12987,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="429032304"/>
+        <c:crossAx val="-792378992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:minorUnit val="5.0"/>
@@ -13339,7 +13668,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:srgbClr val="D3D3D3"/>
             </a:solidFill>
             <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
               <a:noFill/>
@@ -13627,8 +13956,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="507302672"/>
-        <c:axId val="507234288"/>
+        <c:axId val="-791621856"/>
+        <c:axId val="-791617184"/>
       </c:areaChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -13901,11 +14230,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="507302672"/>
-        <c:axId val="507234288"/>
+        <c:axId val="-791621856"/>
+        <c:axId val="-791617184"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="507302672"/>
+        <c:axId val="-791621856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13933,7 +14262,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="507234288"/>
+        <c:crossAx val="-791617184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13943,7 +14272,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="507234288"/>
+        <c:axId val="-791617184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13981,7 +14310,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="507302672"/>
+        <c:crossAx val="-791621856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:minorUnit val="5.0"/>
@@ -14511,7 +14840,7 @@
             </a:solidFill>
             <a:ln>
               <a:solidFill>
-                <a:srgbClr val="0096D2">
+                <a:srgbClr val="0095D4">
                   <a:alpha val="50000"/>
                 </a:srgbClr>
               </a:solidFill>
@@ -14957,8 +15286,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="506604816"/>
-        <c:axId val="506869232"/>
+        <c:axId val="-793696704"/>
+        <c:axId val="-793692032"/>
       </c:areaChart>
       <c:barChart>
         <c:barDir val="col"/>
@@ -15030,11 +15359,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="0"/>
-        <c:axId val="506604816"/>
-        <c:axId val="506869232"/>
+        <c:axId val="-793696704"/>
+        <c:axId val="-793692032"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="506604816"/>
+        <c:axId val="-793696704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15044,7 +15373,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="506869232"/>
+        <c:crossAx val="-793692032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15054,7 +15383,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="506869232"/>
+        <c:axId val="-793692032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="18.0"/>
@@ -15081,7 +15410,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="506604816"/>
+        <c:crossAx val="-793696704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15408,7 +15737,7 @@
               <a:defRPr sz="1000"/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -15671,7 +16000,7 @@
         </cdr:nvSpPr>
         <cdr:spPr>
           <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:off x="7486650" y="7015302"/>
+            <a:off x="7486650" y="6850202"/>
             <a:ext cx="1483360" cy="236398"/>
           </a:xfrm>
           <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
@@ -16236,10 +16565,7 @@
           <a:r>
             <a:rPr lang="en-US" sz="1200" b="1">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="Lato Regular"/>
               <a:cs typeface="Lato Regular"/>
@@ -16389,7 +16715,7 @@
           <a:r>
             <a:rPr lang="en-US" sz="1200" b="1">
               <a:solidFill>
-                <a:srgbClr val="62B3DE"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="Lato Regular"/>
               <a:cs typeface="Lato Regular"/>
@@ -16539,7 +16865,7 @@
           <a:r>
             <a:rPr lang="en-US" sz="1200" b="1">
               <a:solidFill>
-                <a:srgbClr val="1882C8"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="Lato Regular"/>
               <a:cs typeface="Lato Regular"/>
@@ -16645,7 +16971,7 @@
             <a:defRPr sz="1000"/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:rPr lang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -16914,12 +17240,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.83526</cdr:x>
-      <cdr:y>0.96014</cdr:y>
+      <cdr:x>0.83385</cdr:x>
+      <cdr:y>0.92259</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>1</cdr:x>
-      <cdr:y>1</cdr:y>
+      <cdr:x>0.99859</cdr:x>
+      <cdr:y>0.96245</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -16928,8 +17254,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="7537450" y="7066102"/>
-          <a:ext cx="1483360" cy="236398"/>
+          <a:off x="7508232" y="5928752"/>
+          <a:ext cx="1483368" cy="256148"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -17184,13 +17510,13 @@
             <a:defRPr sz="1000"/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:rPr lang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
-              <a:latin typeface="Avenir Medium"/>
-              <a:ea typeface="Verdana"/>
-              <a:cs typeface="Avenir Medium"/>
+              <a:latin typeface="Lato" charset="0"/>
+              <a:ea typeface="Lato" charset="0"/>
+              <a:cs typeface="Lato" charset="0"/>
             </a:rPr>
             <a:t>Social Security</a:t>
           </a:r>
@@ -17254,13 +17580,13 @@
             <a:defRPr sz="1000"/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="pt-BR" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:rPr lang="pt-BR" sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
-              <a:latin typeface="Avenir Medium"/>
-              <a:ea typeface="Verdana"/>
-              <a:cs typeface="Avenir Medium"/>
+              <a:latin typeface="Lato" charset="0"/>
+              <a:ea typeface="Lato" charset="0"/>
+              <a:cs typeface="Lato" charset="0"/>
             </a:rPr>
             <a:t>Medicare/Medicaid</a:t>
           </a:r>
@@ -17324,13 +17650,13 @@
             <a:defRPr sz="1000"/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:rPr lang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="bg1"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
-              <a:latin typeface="Avenir Medium"/>
-              <a:ea typeface="Verdana"/>
-              <a:cs typeface="Avenir Medium"/>
+              <a:latin typeface="Lato" charset="0"/>
+              <a:ea typeface="Lato" charset="0"/>
+              <a:cs typeface="Lato" charset="0"/>
             </a:rPr>
             <a:t>Other Non-interest spending</a:t>
           </a:r>
@@ -17378,13 +17704,13 @@
             <a:defRPr sz="1000"/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" strike="noStrike">
+            <a:rPr lang="en-US" sz="1200" b="1" i="0" strike="noStrike">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="Avenir Medium"/>
-              <a:ea typeface="Verdana"/>
-              <a:cs typeface="Avenir Medium"/>
+              <a:latin typeface="Lato" charset="0"/>
+              <a:ea typeface="Lato" charset="0"/>
+              <a:cs typeface="Lato" charset="0"/>
             </a:rPr>
             <a:t>Revenues</a:t>
           </a:r>
@@ -17448,16 +17774,16 @@
             <a:defRPr sz="1000"/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="es-ES_tradnl" sz="1400" b="0" i="1" u="none" strike="noStrike" baseline="0">
+            <a:rPr lang="es-ES_tradnl" sz="1200" b="1" i="1" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="50000"/>
                   <a:lumOff val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="Avenir Medium"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Avenir Medium"/>
+              <a:latin typeface="Lato" charset="0"/>
+              <a:ea typeface="Lato" charset="0"/>
+              <a:cs typeface="Lato" charset="0"/>
             </a:rPr>
             <a:t>Actual</a:t>
           </a:r>
@@ -17521,16 +17847,16 @@
             <a:defRPr sz="1000"/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="1" u="none" strike="noStrike" baseline="0">
+            <a:rPr lang="en-US" sz="1200" b="1" i="1" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="50000"/>
                   <a:lumOff val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="Avenir Medium"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Avenir Medium"/>
+              <a:latin typeface="Lato" charset="0"/>
+              <a:ea typeface="Lato" charset="0"/>
+              <a:cs typeface="Lato" charset="0"/>
             </a:rPr>
             <a:t>Projected</a:t>
           </a:r>
@@ -17563,13 +17889,11 @@
           <a:avLst/>
         </a:prstGeom>
         <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525">
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="12700">
           <a:solidFill>
-            <a:schemeClr val="tx1">
-              <a:lumMod val="85000"/>
-              <a:lumOff val="15000"/>
-            </a:schemeClr>
+            <a:srgbClr val="EF2B8C"/>
           </a:solidFill>
+          <a:prstDash val="dash"/>
           <a:round/>
           <a:headEnd/>
           <a:tailEnd/>
@@ -17686,7 +18010,7 @@
             <a:defRPr sz="1000"/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:rPr lang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -17956,11 +18280,11 @@
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
       <cdr:x>0.83526</cdr:x>
-      <cdr:y>0.95153</cdr:y>
+      <cdr:y>0.92749</cdr:y>
     </cdr:from>
     <cdr:to>
       <cdr:x>1</cdr:x>
-      <cdr:y>1</cdr:y>
+      <cdr:y>0.97596</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -17969,8 +18293,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="7537450" y="7066102"/>
-          <a:ext cx="1483360" cy="236398"/>
+          <a:off x="7520932" y="4900123"/>
+          <a:ext cx="1483368" cy="256077"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -18306,7 +18630,7 @@
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1" i="0">
+            <a:rPr lang="en-US" sz="1200" b="1" i="0">
               <a:effectLst/>
               <a:latin typeface="Lato Bold"/>
               <a:ea typeface="+mn-ea"/>
@@ -18315,7 +18639,7 @@
             <a:t>Default risk based only </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1" i="0" baseline="0">
+            <a:rPr lang="en-US" sz="1200" b="1" i="0" baseline="0">
               <a:effectLst/>
               <a:latin typeface="Lato Bold"/>
               <a:ea typeface="+mn-ea"/>
@@ -18323,7 +18647,7 @@
             </a:rPr>
             <a:t> on borrower characteristics</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1400" b="1" i="0">
+          <a:endParaRPr lang="en-US" sz="1200" b="1" i="0">
             <a:effectLst/>
             <a:latin typeface="Lato Bold"/>
             <a:cs typeface="Lato Bold"/>
@@ -18361,7 +18685,7 @@
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1">
+            <a:rPr lang="en-US" sz="1200" b="1">
               <a:solidFill>
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
@@ -18402,7 +18726,7 @@
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1400" i="1">
+            <a:rPr lang="en-US" sz="1200" b="1" i="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="50000"/>
@@ -18414,7 +18738,7 @@
             <a:t>REASONABLE</a:t>
           </a:r>
           <a:br>
-            <a:rPr lang="en-US" sz="1400" i="1">
+            <a:rPr lang="en-US" sz="1200" b="1" i="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="50000"/>
@@ -18425,7 +18749,7 @@
             </a:rPr>
           </a:br>
           <a:r>
-            <a:rPr lang="en-US" sz="1400" i="1">
+            <a:rPr lang="en-US" sz="1200" b="1" i="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="50000"/>
@@ -18535,7 +18859,7 @@
             <a:defRPr sz="1000"/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1800">
+            <a:rPr lang="en-US" sz="1800" b="1">
               <a:effectLst/>
               <a:latin typeface="Lato Regular"/>
               <a:ea typeface="+mn-ea"/>
@@ -18543,7 +18867,7 @@
             </a:rPr>
             <a:t>HCAI: Default Risk Taken By The Mortgage Market Over Time</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+          <a:endParaRPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -18770,11 +19094,11 @@
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
       <cdr:x>0.83356</cdr:x>
-      <cdr:y>0.96188</cdr:y>
+      <cdr:y>0.93481</cdr:y>
     </cdr:from>
     <cdr:to>
       <cdr:x>1</cdr:x>
-      <cdr:y>0.99787</cdr:y>
+      <cdr:y>0.9708</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -18783,8 +19107,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="7428857" y="6316785"/>
-          <a:ext cx="1483368" cy="236390"/>
+          <a:off x="7428874" y="6578299"/>
+          <a:ext cx="1483351" cy="253263"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -18954,8 +19278,8 @@
       <xdr:rowOff>119061</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>330200</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
@@ -19110,7 +19434,7 @@
             <a:defRPr sz="1000"/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:rPr lang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -19405,12 +19729,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.83538</cdr:x>
-      <cdr:y>0.94995</cdr:y>
+      <cdr:x>0.81835</cdr:x>
+      <cdr:y>0.90851</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>1</cdr:x>
-      <cdr:y>1</cdr:y>
+      <cdr:x>0.98297</cdr:x>
+      <cdr:y>0.95856</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -19419,8 +19743,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="7537450" y="7066102"/>
-          <a:ext cx="1483360" cy="236398"/>
+          <a:off x="7685647" y="5568566"/>
+          <a:ext cx="1546054" cy="306773"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -19815,7 +20139,7 @@
             <a:defRPr sz="1000"/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:rPr lang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -20110,12 +20434,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.83526</cdr:x>
-      <cdr:y>0.96495</cdr:y>
+      <cdr:x>0.83385</cdr:x>
+      <cdr:y>0.93544</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>1</cdr:x>
-      <cdr:y>1</cdr:y>
+      <cdr:x>0.99859</cdr:x>
+      <cdr:y>0.97049</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -20124,8 +20448,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="7537450" y="7066102"/>
-          <a:ext cx="1483360" cy="236398"/>
+          <a:off x="7508232" y="6842902"/>
+          <a:ext cx="1483368" cy="256398"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -20382,7 +20706,7 @@
             <a:defRPr sz="1000"/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:rPr lang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -20678,11 +21002,11 @@
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
       <cdr:x>0.83526</cdr:x>
-      <cdr:y>0.95945</cdr:y>
+      <cdr:y>0.92023</cdr:y>
     </cdr:from>
     <cdr:to>
       <cdr:x>1</cdr:x>
-      <cdr:y>1</cdr:y>
+      <cdr:y>0.96078</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -20691,8 +21015,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="7537450" y="7066102"/>
-          <a:ext cx="1483360" cy="236398"/>
+          <a:off x="7520932" y="5364322"/>
+          <a:ext cx="1483368" cy="236378"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -20986,7 +21310,7 @@
             <a:defRPr sz="1000"/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:rPr lang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -21269,11 +21593,11 @@
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
       <cdr:x>0.83526</cdr:x>
-      <cdr:y>0.95945</cdr:y>
+      <cdr:y>0.93113</cdr:y>
     </cdr:from>
     <cdr:to>
       <cdr:x>1</cdr:x>
-      <cdr:y>1</cdr:y>
+      <cdr:y>0.97168</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -21282,8 +21606,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="7537450" y="7066102"/>
-          <a:ext cx="1483360" cy="236398"/>
+          <a:off x="7520932" y="5427822"/>
+          <a:ext cx="1483368" cy="236378"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -21577,7 +21901,7 @@
             <a:defRPr sz="1000"/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:rPr lang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -21846,12 +22170,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.83549</cdr:x>
-      <cdr:y>0.95036</cdr:y>
+      <cdr:x>0.83126</cdr:x>
+      <cdr:y>0.90807</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>1</cdr:x>
-      <cdr:y>1</cdr:y>
+      <cdr:x>0.99577</cdr:x>
+      <cdr:y>0.95771</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -21860,8 +22184,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="7537450" y="7066102"/>
-          <a:ext cx="1483360" cy="236398"/>
+          <a:off x="7495513" y="4636068"/>
+          <a:ext cx="1483387" cy="253432"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -22153,7 +22477,7 @@
             <a:defRPr sz="1000"/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:rPr lang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -22423,11 +22747,11 @@
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
       <cdr:x>0.83314</cdr:x>
-      <cdr:y>0.95114</cdr:y>
+      <cdr:y>0.90491</cdr:y>
     </cdr:from>
     <cdr:to>
       <cdr:x>1</cdr:x>
-      <cdr:y>1</cdr:y>
+      <cdr:y>0.95377</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -22436,8 +22760,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="7537450" y="7066102"/>
-          <a:ext cx="1483360" cy="236398"/>
+          <a:off x="7406615" y="4723365"/>
+          <a:ext cx="1483385" cy="255035"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -22670,7 +22994,7 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>7.07864E-5</cdr:x>
+      <cdr:x>7.07689E-5</cdr:x>
       <cdr:y>0.0102</cdr:y>
     </cdr:from>
     <cdr:to>
@@ -22776,7 +23100,7 @@
               <a:defRPr sz="1000"/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -23041,7 +23365,7 @@
         </cdr:nvSpPr>
         <cdr:spPr>
           <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:off x="7486650" y="4653915"/>
+            <a:off x="7473993" y="4489525"/>
             <a:ext cx="1483360" cy="236398"/>
           </a:xfrm>
           <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
@@ -23332,7 +23656,7 @@
             <a:defRPr sz="1000"/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:rPr lang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -23601,12 +23925,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.83474</cdr:x>
-      <cdr:y>0.95299</cdr:y>
+      <cdr:x>0.83193</cdr:x>
+      <cdr:y>0.9129</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.99902</cdr:x>
-      <cdr:y>1</cdr:y>
+      <cdr:x>0.99621</cdr:x>
+      <cdr:y>0.95991</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -23615,8 +23939,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="7537450" y="7066102"/>
-          <a:ext cx="1483360" cy="236398"/>
+          <a:off x="7512052" y="4915761"/>
+          <a:ext cx="1483399" cy="253139"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -23905,7 +24229,7 @@
             <a:defRPr sz="1000"/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:rPr lang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -24174,12 +24498,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.83474</cdr:x>
-      <cdr:y>0.95299</cdr:y>
+      <cdr:x>0.83572</cdr:x>
+      <cdr:y>0.91299</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.99902</cdr:x>
-      <cdr:y>1</cdr:y>
+      <cdr:x>1</cdr:x>
+      <cdr:y>0.96</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -24188,8 +24512,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="7537450" y="7066102"/>
-          <a:ext cx="1483360" cy="236398"/>
+          <a:off x="7546301" y="4927864"/>
+          <a:ext cx="1483399" cy="253736"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -24511,7 +24835,7 @@
             <a:defRPr sz="1000"/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:rPr lang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -24519,7 +24843,7 @@
               <a:ea typeface="Avenir Medium"/>
               <a:cs typeface="Lato Regular"/>
             </a:rPr>
-            <a:t>Title in 18pt Title Case</a:t>
+            <a:t>Title in 18pt Title Case </a:t>
           </a:r>
         </a:p>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -25052,7 +25376,7 @@
             <a:defRPr sz="1000"/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:rPr lang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -25542,7 +25866,7 @@
               <a:defRPr sz="1000"/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -25607,7 +25931,7 @@
         </cdr:nvSpPr>
         <cdr:spPr>
           <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:off x="51129" y="3800474"/>
+            <a:off x="38468" y="3800474"/>
             <a:ext cx="6137581" cy="429439"/>
           </a:xfrm>
           <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
@@ -25807,7 +26131,7 @@
         </cdr:nvSpPr>
         <cdr:spPr>
           <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:off x="7486650" y="3993515"/>
+            <a:off x="7486650" y="3829604"/>
             <a:ext cx="1483360" cy="236398"/>
           </a:xfrm>
           <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
@@ -26116,7 +26440,7 @@
               <a:defRPr sz="1000"/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -26381,7 +26705,7 @@
         </cdr:nvSpPr>
         <cdr:spPr>
           <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:off x="7486650" y="3993515"/>
+            <a:off x="7486650" y="3831733"/>
             <a:ext cx="1483360" cy="236398"/>
           </a:xfrm>
           <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
@@ -26690,7 +27014,7 @@
               <a:defRPr sz="1000"/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -26955,7 +27279,7 @@
         </cdr:nvSpPr>
         <cdr:spPr>
           <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:off x="7486650" y="3993515"/>
+            <a:off x="7473950" y="3815610"/>
             <a:ext cx="1483360" cy="236398"/>
           </a:xfrm>
           <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
@@ -29047,7 +29371,7 @@
   <dimension ref="A1:G119"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -29062,17 +29386,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20" x14ac:dyDescent="0.2">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="109" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="80" x14ac:dyDescent="0.2">
-      <c r="A2" s="111" t="s">
+      <c r="A2" s="110" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="64" x14ac:dyDescent="0.2">
-      <c r="A3" s="111" t="s">
+      <c r="A3" s="110" t="s">
         <v>206</v>
       </c>
     </row>
@@ -29080,31 +29404,31 @@
       <c r="A5"/>
     </row>
     <row r="6" spans="1:7" s="93" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="B6" s="109" t="s">
+      <c r="B6" s="108" t="s">
         <v>151</v>
       </c>
-      <c r="C6" s="109" t="s">
+      <c r="C6" s="108" t="s">
         <v>152</v>
       </c>
-      <c r="D6" s="109" t="s">
+      <c r="D6" s="108" t="s">
         <v>153</v>
       </c>
-      <c r="E6" s="109" t="s">
+      <c r="E6" s="108" t="s">
         <v>154</v>
       </c>
-      <c r="F6" s="109" t="s">
+      <c r="F6" s="108" t="s">
         <v>155</v>
       </c>
-      <c r="G6" s="109" t="s">
+      <c r="G6" s="108" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="23" x14ac:dyDescent="0.25">
-      <c r="A7" s="105" t="s">
+      <c r="A7" s="149" t="s">
         <v>157</v>
       </c>
       <c r="B7" s="104" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C7" s="104">
         <v>18</v>
@@ -29146,7 +29470,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A9" s="106" t="s">
+      <c r="A9" s="105" t="s">
         <v>164</v>
       </c>
       <c r="B9" s="104" t="s">
@@ -29215,7 +29539,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A12" s="107" t="s">
+      <c r="A12" s="106" t="s">
         <v>170</v>
       </c>
       <c r="B12" s="104" t="s">
@@ -29238,7 +29562,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A13" s="108" t="s">
+      <c r="A13" s="107" t="s">
         <v>172</v>
       </c>
       <c r="B13" s="104" t="s">
@@ -29261,7 +29585,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A14" s="108" t="s">
+      <c r="A14" s="107" t="s">
         <v>174</v>
       </c>
       <c r="B14" s="104" t="s">
@@ -29593,8 +29917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BX272"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F78" sqref="F78"/>
+    <sheetView topLeftCell="E2" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="11" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -31638,9 +31962,9 @@
       <c r="F24" s="46"/>
       <c r="G24" s="46"/>
       <c r="H24" s="46"/>
-      <c r="I24" s="148"/>
+      <c r="I24" s="147"/>
       <c r="J24" s="46"/>
-      <c r="K24" s="149" t="s">
+      <c r="K24" s="148" t="s">
         <v>293</v>
       </c>
       <c r="L24" s="46"/>
@@ -34892,8 +35216,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BX276"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="O56" sqref="O56"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="11" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -40597,9 +40921,7 @@
   </sheetPr>
   <dimension ref="A1:X83"/>
   <sheetViews>
-    <sheetView defaultGridColor="0" colorId="22" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
-    </sheetView>
+    <sheetView defaultGridColor="0" colorId="22" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -40783,7 +41105,7 @@
     </row>
     <row r="75" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A75"/>
-      <c r="B75" s="113"/>
+      <c r="B75" s="112"/>
       <c r="C75"/>
       <c r="D75"/>
       <c r="E75"/>
@@ -40805,215 +41127,215 @@
       <c r="U75"/>
       <c r="V75"/>
       <c r="W75"/>
-      <c r="X75" s="113"/>
+      <c r="X75" s="112"/>
     </row>
     <row r="76" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A76"/>
-      <c r="B76" s="112"/>
-      <c r="C76" s="112"/>
-      <c r="D76" s="112"/>
-      <c r="E76" s="112"/>
-      <c r="F76" s="112"/>
-      <c r="G76" s="112"/>
-      <c r="H76" s="112"/>
-      <c r="I76" s="112"/>
-      <c r="J76" s="112"/>
-      <c r="K76" s="112"/>
-      <c r="L76" s="112"/>
-      <c r="M76" s="112"/>
-      <c r="N76" s="112"/>
-      <c r="O76" s="112"/>
-      <c r="P76" s="112"/>
-      <c r="Q76" s="112"/>
-      <c r="R76" s="112"/>
-      <c r="S76" s="112"/>
-      <c r="T76" s="112"/>
-      <c r="U76" s="112"/>
-      <c r="V76" s="112"/>
-      <c r="W76" s="112"/>
-      <c r="X76" s="112"/>
+      <c r="B76" s="111"/>
+      <c r="C76" s="111"/>
+      <c r="D76" s="111"/>
+      <c r="E76" s="111"/>
+      <c r="F76" s="111"/>
+      <c r="G76" s="111"/>
+      <c r="H76" s="111"/>
+      <c r="I76" s="111"/>
+      <c r="J76" s="111"/>
+      <c r="K76" s="111"/>
+      <c r="L76" s="111"/>
+      <c r="M76" s="111"/>
+      <c r="N76" s="111"/>
+      <c r="O76" s="111"/>
+      <c r="P76" s="111"/>
+      <c r="Q76" s="111"/>
+      <c r="R76" s="111"/>
+      <c r="S76" s="111"/>
+      <c r="T76" s="111"/>
+      <c r="U76" s="111"/>
+      <c r="V76" s="111"/>
+      <c r="W76" s="111"/>
+      <c r="X76" s="111"/>
     </row>
     <row r="77" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A77"/>
-      <c r="B77" s="112"/>
-      <c r="C77" s="112"/>
-      <c r="D77" s="112"/>
-      <c r="E77" s="112"/>
-      <c r="F77" s="112"/>
-      <c r="G77" s="112"/>
-      <c r="H77" s="112"/>
-      <c r="I77" s="112"/>
-      <c r="J77" s="112"/>
-      <c r="K77" s="112"/>
-      <c r="L77" s="112"/>
-      <c r="M77" s="112"/>
-      <c r="N77" s="112"/>
-      <c r="O77" s="112"/>
-      <c r="P77" s="112"/>
-      <c r="Q77" s="112"/>
-      <c r="R77" s="112"/>
-      <c r="S77" s="112"/>
-      <c r="T77" s="112"/>
-      <c r="U77" s="112"/>
-      <c r="V77" s="112"/>
-      <c r="W77" s="112"/>
-      <c r="X77" s="112"/>
+      <c r="B77" s="111"/>
+      <c r="C77" s="111"/>
+      <c r="D77" s="111"/>
+      <c r="E77" s="111"/>
+      <c r="F77" s="111"/>
+      <c r="G77" s="111"/>
+      <c r="H77" s="111"/>
+      <c r="I77" s="111"/>
+      <c r="J77" s="111"/>
+      <c r="K77" s="111"/>
+      <c r="L77" s="111"/>
+      <c r="M77" s="111"/>
+      <c r="N77" s="111"/>
+      <c r="O77" s="111"/>
+      <c r="P77" s="111"/>
+      <c r="Q77" s="111"/>
+      <c r="R77" s="111"/>
+      <c r="S77" s="111"/>
+      <c r="T77" s="111"/>
+      <c r="U77" s="111"/>
+      <c r="V77" s="111"/>
+      <c r="W77" s="111"/>
+      <c r="X77" s="111"/>
     </row>
     <row r="78" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A78"/>
-      <c r="B78" s="112"/>
-      <c r="C78" s="112"/>
-      <c r="D78" s="112"/>
-      <c r="E78" s="112"/>
-      <c r="F78" s="112"/>
-      <c r="G78" s="112"/>
-      <c r="H78" s="112"/>
-      <c r="I78" s="112"/>
-      <c r="J78" s="112"/>
-      <c r="K78" s="112"/>
-      <c r="L78" s="112"/>
-      <c r="M78" s="112"/>
-      <c r="N78" s="112"/>
-      <c r="O78" s="112"/>
-      <c r="P78" s="112"/>
-      <c r="Q78" s="112"/>
-      <c r="R78" s="112"/>
-      <c r="S78" s="112"/>
-      <c r="T78" s="112"/>
-      <c r="U78" s="112"/>
-      <c r="V78" s="112"/>
-      <c r="W78" s="112"/>
-      <c r="X78" s="112"/>
+      <c r="B78" s="111"/>
+      <c r="C78" s="111"/>
+      <c r="D78" s="111"/>
+      <c r="E78" s="111"/>
+      <c r="F78" s="111"/>
+      <c r="G78" s="111"/>
+      <c r="H78" s="111"/>
+      <c r="I78" s="111"/>
+      <c r="J78" s="111"/>
+      <c r="K78" s="111"/>
+      <c r="L78" s="111"/>
+      <c r="M78" s="111"/>
+      <c r="N78" s="111"/>
+      <c r="O78" s="111"/>
+      <c r="P78" s="111"/>
+      <c r="Q78" s="111"/>
+      <c r="R78" s="111"/>
+      <c r="S78" s="111"/>
+      <c r="T78" s="111"/>
+      <c r="U78" s="111"/>
+      <c r="V78" s="111"/>
+      <c r="W78" s="111"/>
+      <c r="X78" s="111"/>
     </row>
     <row r="79" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A79"/>
-      <c r="B79" s="112"/>
-      <c r="C79" s="112"/>
-      <c r="D79" s="112"/>
-      <c r="E79" s="112"/>
-      <c r="F79" s="112"/>
-      <c r="G79" s="112"/>
-      <c r="H79" s="112"/>
-      <c r="I79" s="112"/>
-      <c r="J79" s="112"/>
-      <c r="K79" s="112"/>
-      <c r="L79" s="112"/>
-      <c r="M79" s="112"/>
-      <c r="N79" s="112"/>
-      <c r="O79" s="112"/>
-      <c r="P79" s="112"/>
-      <c r="Q79" s="112"/>
-      <c r="R79" s="112"/>
-      <c r="S79" s="112"/>
-      <c r="T79" s="112"/>
-      <c r="U79" s="112"/>
-      <c r="V79" s="112"/>
-      <c r="W79" s="112"/>
-      <c r="X79" s="112"/>
+      <c r="B79" s="111"/>
+      <c r="C79" s="111"/>
+      <c r="D79" s="111"/>
+      <c r="E79" s="111"/>
+      <c r="F79" s="111"/>
+      <c r="G79" s="111"/>
+      <c r="H79" s="111"/>
+      <c r="I79" s="111"/>
+      <c r="J79" s="111"/>
+      <c r="K79" s="111"/>
+      <c r="L79" s="111"/>
+      <c r="M79" s="111"/>
+      <c r="N79" s="111"/>
+      <c r="O79" s="111"/>
+      <c r="P79" s="111"/>
+      <c r="Q79" s="111"/>
+      <c r="R79" s="111"/>
+      <c r="S79" s="111"/>
+      <c r="T79" s="111"/>
+      <c r="U79" s="111"/>
+      <c r="V79" s="111"/>
+      <c r="W79" s="111"/>
+      <c r="X79" s="111"/>
     </row>
     <row r="80" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A80"/>
-      <c r="B80" s="112"/>
-      <c r="C80" s="112"/>
-      <c r="D80" s="112"/>
-      <c r="E80" s="112"/>
-      <c r="F80" s="112"/>
-      <c r="G80" s="112"/>
-      <c r="H80" s="112"/>
-      <c r="I80" s="112"/>
-      <c r="J80" s="112"/>
-      <c r="K80" s="112"/>
-      <c r="L80" s="112"/>
-      <c r="M80" s="112"/>
-      <c r="N80" s="112"/>
-      <c r="O80" s="112"/>
-      <c r="P80" s="112"/>
-      <c r="Q80" s="112"/>
-      <c r="R80" s="112"/>
-      <c r="S80" s="112"/>
-      <c r="T80" s="112"/>
-      <c r="U80" s="112"/>
-      <c r="V80" s="112"/>
-      <c r="W80" s="112"/>
-      <c r="X80" s="112"/>
+      <c r="B80" s="111"/>
+      <c r="C80" s="111"/>
+      <c r="D80" s="111"/>
+      <c r="E80" s="111"/>
+      <c r="F80" s="111"/>
+      <c r="G80" s="111"/>
+      <c r="H80" s="111"/>
+      <c r="I80" s="111"/>
+      <c r="J80" s="111"/>
+      <c r="K80" s="111"/>
+      <c r="L80" s="111"/>
+      <c r="M80" s="111"/>
+      <c r="N80" s="111"/>
+      <c r="O80" s="111"/>
+      <c r="P80" s="111"/>
+      <c r="Q80" s="111"/>
+      <c r="R80" s="111"/>
+      <c r="S80" s="111"/>
+      <c r="T80" s="111"/>
+      <c r="U80" s="111"/>
+      <c r="V80" s="111"/>
+      <c r="W80" s="111"/>
+      <c r="X80" s="111"/>
     </row>
     <row r="81" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A81"/>
-      <c r="B81" s="112"/>
-      <c r="C81" s="112"/>
-      <c r="D81" s="112"/>
-      <c r="E81" s="112"/>
-      <c r="F81" s="112"/>
-      <c r="G81" s="112"/>
-      <c r="H81" s="112"/>
-      <c r="I81" s="112"/>
-      <c r="J81" s="112"/>
-      <c r="K81" s="112"/>
-      <c r="L81" s="112"/>
-      <c r="M81" s="112"/>
-      <c r="N81" s="112"/>
-      <c r="O81" s="112"/>
-      <c r="P81" s="112"/>
-      <c r="Q81" s="112"/>
-      <c r="R81" s="112"/>
-      <c r="S81" s="112"/>
-      <c r="T81" s="112"/>
-      <c r="U81" s="112"/>
-      <c r="V81" s="112"/>
-      <c r="W81" s="112"/>
-      <c r="X81" s="112"/>
+      <c r="B81" s="111"/>
+      <c r="C81" s="111"/>
+      <c r="D81" s="111"/>
+      <c r="E81" s="111"/>
+      <c r="F81" s="111"/>
+      <c r="G81" s="111"/>
+      <c r="H81" s="111"/>
+      <c r="I81" s="111"/>
+      <c r="J81" s="111"/>
+      <c r="K81" s="111"/>
+      <c r="L81" s="111"/>
+      <c r="M81" s="111"/>
+      <c r="N81" s="111"/>
+      <c r="O81" s="111"/>
+      <c r="P81" s="111"/>
+      <c r="Q81" s="111"/>
+      <c r="R81" s="111"/>
+      <c r="S81" s="111"/>
+      <c r="T81" s="111"/>
+      <c r="U81" s="111"/>
+      <c r="V81" s="111"/>
+      <c r="W81" s="111"/>
+      <c r="X81" s="111"/>
     </row>
     <row r="82" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A82"/>
-      <c r="B82" s="112"/>
-      <c r="C82" s="112"/>
-      <c r="D82" s="112"/>
-      <c r="E82" s="112"/>
-      <c r="F82" s="112"/>
-      <c r="G82" s="112"/>
-      <c r="H82" s="112"/>
-      <c r="I82" s="112"/>
-      <c r="J82" s="112"/>
-      <c r="K82" s="112"/>
-      <c r="L82" s="112"/>
-      <c r="M82" s="112"/>
-      <c r="N82" s="112"/>
-      <c r="O82" s="112"/>
-      <c r="P82" s="112"/>
-      <c r="Q82" s="112"/>
-      <c r="R82" s="112"/>
-      <c r="S82" s="112"/>
-      <c r="T82" s="112"/>
-      <c r="U82" s="112"/>
-      <c r="V82" s="112"/>
-      <c r="W82" s="112"/>
-      <c r="X82" s="112"/>
+      <c r="B82" s="111"/>
+      <c r="C82" s="111"/>
+      <c r="D82" s="111"/>
+      <c r="E82" s="111"/>
+      <c r="F82" s="111"/>
+      <c r="G82" s="111"/>
+      <c r="H82" s="111"/>
+      <c r="I82" s="111"/>
+      <c r="J82" s="111"/>
+      <c r="K82" s="111"/>
+      <c r="L82" s="111"/>
+      <c r="M82" s="111"/>
+      <c r="N82" s="111"/>
+      <c r="O82" s="111"/>
+      <c r="P82" s="111"/>
+      <c r="Q82" s="111"/>
+      <c r="R82" s="111"/>
+      <c r="S82" s="111"/>
+      <c r="T82" s="111"/>
+      <c r="U82" s="111"/>
+      <c r="V82" s="111"/>
+      <c r="W82" s="111"/>
+      <c r="X82" s="111"/>
     </row>
     <row r="83" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A83"/>
-      <c r="B83" s="112"/>
-      <c r="C83" s="112"/>
-      <c r="D83" s="112"/>
-      <c r="E83" s="112"/>
-      <c r="F83" s="112"/>
-      <c r="G83" s="112"/>
-      <c r="H83" s="112"/>
-      <c r="I83" s="112"/>
-      <c r="J83" s="112"/>
-      <c r="K83" s="112"/>
-      <c r="L83" s="112"/>
-      <c r="M83" s="112"/>
-      <c r="N83" s="112"/>
-      <c r="O83" s="112"/>
-      <c r="P83" s="112"/>
-      <c r="Q83" s="112"/>
-      <c r="R83" s="112"/>
-      <c r="S83" s="112"/>
-      <c r="T83" s="112"/>
-      <c r="U83" s="112"/>
-      <c r="V83" s="112"/>
-      <c r="W83" s="112"/>
-      <c r="X83" s="112"/>
+      <c r="B83" s="111"/>
+      <c r="C83" s="111"/>
+      <c r="D83" s="111"/>
+      <c r="E83" s="111"/>
+      <c r="F83" s="111"/>
+      <c r="G83" s="111"/>
+      <c r="H83" s="111"/>
+      <c r="I83" s="111"/>
+      <c r="J83" s="111"/>
+      <c r="K83" s="111"/>
+      <c r="L83" s="111"/>
+      <c r="M83" s="111"/>
+      <c r="N83" s="111"/>
+      <c r="O83" s="111"/>
+      <c r="P83" s="111"/>
+      <c r="Q83" s="111"/>
+      <c r="R83" s="111"/>
+      <c r="S83" s="111"/>
+      <c r="T83" s="111"/>
+      <c r="U83" s="111"/>
+      <c r="V83" s="111"/>
+      <c r="W83" s="111"/>
+      <c r="X83" s="111"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>
@@ -41156,8 +41478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="X80" sqref="X80"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="P35" sqref="P35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -41255,7 +41577,7 @@
   <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P36" sqref="P36"/>
+      <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -41729,8 +42051,8 @@
   </sheetPr>
   <dimension ref="A1:BH95"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="L1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="U17" sqref="U17"/>
+    <sheetView showGridLines="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="AA45" sqref="AA45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -41797,29 +42119,29 @@
       <c r="Q1" s="169"/>
       <c r="R1" s="169"/>
       <c r="S1" s="169"/>
-      <c r="U1" s="126"/>
-      <c r="V1" s="147" t="s">
+      <c r="U1" s="125"/>
+      <c r="V1" s="146" t="s">
         <v>42</v>
       </c>
-      <c r="W1" s="127"/>
-      <c r="X1" s="127"/>
-      <c r="Y1" s="127"/>
-      <c r="Z1" s="127"/>
-      <c r="AA1" s="127"/>
-      <c r="AB1" s="127"/>
-      <c r="AC1" s="127"/>
-      <c r="AD1" s="127"/>
-      <c r="AE1" s="127"/>
-      <c r="AF1" s="127"/>
-      <c r="AG1" s="127"/>
-      <c r="AH1" s="127"/>
-      <c r="AI1" s="127"/>
-      <c r="AJ1" s="127"/>
-      <c r="AK1" s="127"/>
-      <c r="AL1" s="127"/>
-      <c r="AM1" s="127"/>
-      <c r="AN1" s="127"/>
-      <c r="AO1" s="126"/>
+      <c r="W1" s="126"/>
+      <c r="X1" s="126"/>
+      <c r="Y1" s="126"/>
+      <c r="Z1" s="126"/>
+      <c r="AA1" s="126"/>
+      <c r="AB1" s="126"/>
+      <c r="AC1" s="126"/>
+      <c r="AD1" s="126"/>
+      <c r="AE1" s="126"/>
+      <c r="AF1" s="126"/>
+      <c r="AG1" s="126"/>
+      <c r="AH1" s="126"/>
+      <c r="AI1" s="126"/>
+      <c r="AJ1" s="126"/>
+      <c r="AK1" s="126"/>
+      <c r="AL1" s="126"/>
+      <c r="AM1" s="126"/>
+      <c r="AN1" s="126"/>
+      <c r="AO1" s="125"/>
       <c r="AP1" s="166"/>
       <c r="AQ1" s="166"/>
       <c r="AR1" s="166"/>
@@ -41862,46 +42184,46 @@
       <c r="Q2" s="169"/>
       <c r="R2" s="169"/>
       <c r="S2" s="169"/>
-      <c r="U2" s="128"/>
-      <c r="V2" s="129"/>
-      <c r="W2" s="129"/>
-      <c r="X2" s="129"/>
-      <c r="Y2" s="129"/>
-      <c r="Z2" s="129"/>
-      <c r="AA2" s="129"/>
-      <c r="AB2" s="129"/>
-      <c r="AC2" s="129"/>
-      <c r="AD2" s="129"/>
-      <c r="AE2" s="129"/>
-      <c r="AF2" s="129"/>
-      <c r="AG2" s="129"/>
-      <c r="AH2" s="129"/>
-      <c r="AI2" s="129"/>
-      <c r="AJ2" s="129"/>
-      <c r="AK2" s="129"/>
-      <c r="AL2" s="129"/>
-      <c r="AM2" s="129"/>
-      <c r="AN2" s="129"/>
-      <c r="AO2" s="129"/>
-      <c r="AP2" s="129"/>
-      <c r="AQ2" s="129"/>
-      <c r="AR2" s="129"/>
-      <c r="AS2" s="129"/>
-      <c r="AT2" s="129"/>
-      <c r="AU2" s="129"/>
-      <c r="AV2" s="129"/>
-      <c r="AW2" s="129"/>
-      <c r="AX2" s="129"/>
-      <c r="AY2" s="129"/>
-      <c r="AZ2" s="129"/>
-      <c r="BA2" s="129"/>
-      <c r="BB2" s="129"/>
-      <c r="BC2" s="129"/>
-      <c r="BD2" s="129"/>
-      <c r="BE2" s="129"/>
-      <c r="BF2" s="129"/>
-      <c r="BG2" s="129"/>
-      <c r="BH2" s="129"/>
+      <c r="U2" s="127"/>
+      <c r="V2" s="128"/>
+      <c r="W2" s="128"/>
+      <c r="X2" s="128"/>
+      <c r="Y2" s="128"/>
+      <c r="Z2" s="128"/>
+      <c r="AA2" s="128"/>
+      <c r="AB2" s="128"/>
+      <c r="AC2" s="128"/>
+      <c r="AD2" s="128"/>
+      <c r="AE2" s="128"/>
+      <c r="AF2" s="128"/>
+      <c r="AG2" s="128"/>
+      <c r="AH2" s="128"/>
+      <c r="AI2" s="128"/>
+      <c r="AJ2" s="128"/>
+      <c r="AK2" s="128"/>
+      <c r="AL2" s="128"/>
+      <c r="AM2" s="128"/>
+      <c r="AN2" s="128"/>
+      <c r="AO2" s="128"/>
+      <c r="AP2" s="128"/>
+      <c r="AQ2" s="128"/>
+      <c r="AR2" s="128"/>
+      <c r="AS2" s="128"/>
+      <c r="AT2" s="128"/>
+      <c r="AU2" s="128"/>
+      <c r="AV2" s="128"/>
+      <c r="AW2" s="128"/>
+      <c r="AX2" s="128"/>
+      <c r="AY2" s="128"/>
+      <c r="AZ2" s="128"/>
+      <c r="BA2" s="128"/>
+      <c r="BB2" s="128"/>
+      <c r="BC2" s="128"/>
+      <c r="BD2" s="128"/>
+      <c r="BE2" s="128"/>
+      <c r="BF2" s="128"/>
+      <c r="BG2" s="128"/>
+      <c r="BH2" s="128"/>
     </row>
     <row r="3" spans="1:60" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="16"/>
@@ -41929,17 +42251,17 @@
         <v>43</v>
       </c>
       <c r="X3" s="164"/>
-      <c r="Y3" s="130"/>
+      <c r="Y3" s="129"/>
       <c r="Z3" s="164" t="s">
         <v>44</v>
       </c>
       <c r="AA3" s="164"/>
-      <c r="AB3" s="131"/>
+      <c r="AB3" s="130"/>
       <c r="AC3" s="164" t="s">
         <v>45</v>
       </c>
       <c r="AD3" s="164"/>
-      <c r="AE3" s="130"/>
+      <c r="AE3" s="129"/>
       <c r="AF3" s="164" t="s">
         <v>46</v>
       </c>
@@ -41947,7 +42269,7 @@
       <c r="AH3" s="171"/>
       <c r="AI3" s="171"/>
       <c r="AJ3" s="171"/>
-      <c r="AK3" s="132"/>
+      <c r="AK3" s="131"/>
       <c r="AL3" s="164" t="s">
         <v>47</v>
       </c>
@@ -41958,21 +42280,21 @@
       <c r="AQ3" s="167"/>
       <c r="AR3" s="167"/>
       <c r="AS3" s="167"/>
-      <c r="AT3" s="128"/>
-      <c r="AU3" s="128"/>
-      <c r="AV3" s="128"/>
-      <c r="AW3" s="128"/>
-      <c r="AX3" s="128"/>
-      <c r="AY3" s="128"/>
-      <c r="AZ3" s="128"/>
-      <c r="BA3" s="128"/>
-      <c r="BB3" s="128"/>
-      <c r="BC3" s="128"/>
-      <c r="BD3" s="128"/>
-      <c r="BE3" s="128"/>
-      <c r="BF3" s="128"/>
-      <c r="BG3" s="128"/>
-      <c r="BH3" s="128"/>
+      <c r="AT3" s="127"/>
+      <c r="AU3" s="127"/>
+      <c r="AV3" s="127"/>
+      <c r="AW3" s="127"/>
+      <c r="AX3" s="127"/>
+      <c r="AY3" s="127"/>
+      <c r="AZ3" s="127"/>
+      <c r="BA3" s="127"/>
+      <c r="BB3" s="127"/>
+      <c r="BC3" s="127"/>
+      <c r="BD3" s="127"/>
+      <c r="BE3" s="127"/>
+      <c r="BF3" s="127"/>
+      <c r="BG3" s="127"/>
+      <c r="BH3" s="127"/>
     </row>
     <row r="4" spans="1:60" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A4" s="156" t="s">
@@ -42008,19 +42330,19 @@
       <c r="V4" s="153"/>
       <c r="W4" s="153"/>
       <c r="X4" s="153"/>
-      <c r="Y4" s="133"/>
+      <c r="Y4" s="132"/>
       <c r="Z4" s="153"/>
       <c r="AA4" s="153"/>
-      <c r="AB4" s="134"/>
+      <c r="AB4" s="133"/>
       <c r="AC4" s="153"/>
       <c r="AD4" s="153"/>
-      <c r="AE4" s="133"/>
+      <c r="AE4" s="132"/>
       <c r="AF4" s="152"/>
       <c r="AG4" s="152"/>
       <c r="AH4" s="152"/>
       <c r="AI4" s="152"/>
       <c r="AJ4" s="152"/>
-      <c r="AK4" s="135"/>
+      <c r="AK4" s="134"/>
       <c r="AL4" s="168"/>
       <c r="AM4" s="168"/>
       <c r="AN4" s="168"/>
@@ -42029,21 +42351,21 @@
       <c r="AQ4" s="168"/>
       <c r="AR4" s="168"/>
       <c r="AS4" s="168"/>
-      <c r="AT4" s="128"/>
-      <c r="AU4" s="128"/>
-      <c r="AV4" s="128"/>
-      <c r="AW4" s="128"/>
-      <c r="AX4" s="128"/>
-      <c r="AY4" s="128"/>
-      <c r="AZ4" s="128"/>
-      <c r="BA4" s="128"/>
-      <c r="BB4" s="128"/>
-      <c r="BC4" s="128"/>
-      <c r="BD4" s="128"/>
-      <c r="BE4" s="128"/>
-      <c r="BF4" s="128"/>
-      <c r="BG4" s="128"/>
-      <c r="BH4" s="128"/>
+      <c r="AT4" s="127"/>
+      <c r="AU4" s="127"/>
+      <c r="AV4" s="127"/>
+      <c r="AW4" s="127"/>
+      <c r="AX4" s="127"/>
+      <c r="AY4" s="127"/>
+      <c r="AZ4" s="127"/>
+      <c r="BA4" s="127"/>
+      <c r="BB4" s="127"/>
+      <c r="BC4" s="127"/>
+      <c r="BD4" s="127"/>
+      <c r="BE4" s="127"/>
+      <c r="BF4" s="127"/>
+      <c r="BG4" s="127"/>
+      <c r="BH4" s="127"/>
     </row>
     <row r="5" spans="1:60" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="162"/>
@@ -42069,50 +42391,50 @@
       <c r="V5" s="153"/>
       <c r="W5" s="153"/>
       <c r="X5" s="153"/>
-      <c r="Y5" s="133"/>
+      <c r="Y5" s="132"/>
       <c r="Z5" s="153"/>
       <c r="AA5" s="153"/>
-      <c r="AB5" s="134"/>
+      <c r="AB5" s="133"/>
       <c r="AC5" s="153"/>
       <c r="AD5" s="153"/>
-      <c r="AE5" s="133"/>
+      <c r="AE5" s="132"/>
       <c r="AF5" s="150" t="s">
         <v>48</v>
       </c>
       <c r="AG5" s="151"/>
-      <c r="AH5" s="136"/>
+      <c r="AH5" s="135"/>
       <c r="AI5" s="150" t="s">
         <v>49</v>
       </c>
       <c r="AJ5" s="151"/>
-      <c r="AK5" s="136"/>
+      <c r="AK5" s="135"/>
       <c r="AL5" s="153" t="s">
         <v>50</v>
       </c>
       <c r="AM5" s="153"/>
-      <c r="AN5" s="136"/>
+      <c r="AN5" s="135"/>
       <c r="AO5" s="153" t="s">
         <v>51</v>
       </c>
       <c r="AP5" s="153"/>
       <c r="AQ5" s="153"/>
-      <c r="AR5" s="136"/>
+      <c r="AR5" s="135"/>
       <c r="AS5" s="153"/>
-      <c r="AT5" s="128"/>
-      <c r="AU5" s="128"/>
-      <c r="AV5" s="128"/>
-      <c r="AW5" s="128"/>
-      <c r="AX5" s="128"/>
-      <c r="AY5" s="128"/>
-      <c r="AZ5" s="128"/>
-      <c r="BA5" s="128"/>
-      <c r="BB5" s="128"/>
-      <c r="BC5" s="128"/>
-      <c r="BD5" s="128"/>
-      <c r="BE5" s="128"/>
-      <c r="BF5" s="128"/>
-      <c r="BG5" s="128"/>
-      <c r="BH5" s="128"/>
+      <c r="AT5" s="127"/>
+      <c r="AU5" s="127"/>
+      <c r="AV5" s="127"/>
+      <c r="AW5" s="127"/>
+      <c r="AX5" s="127"/>
+      <c r="AY5" s="127"/>
+      <c r="AZ5" s="127"/>
+      <c r="BA5" s="127"/>
+      <c r="BB5" s="127"/>
+      <c r="BC5" s="127"/>
+      <c r="BD5" s="127"/>
+      <c r="BE5" s="127"/>
+      <c r="BF5" s="127"/>
+      <c r="BG5" s="127"/>
+      <c r="BH5" s="127"/>
     </row>
     <row r="6" spans="1:60" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="162"/>
@@ -42146,42 +42468,42 @@
       <c r="V6" s="154"/>
       <c r="W6" s="154"/>
       <c r="X6" s="154"/>
-      <c r="Y6" s="133"/>
+      <c r="Y6" s="132"/>
       <c r="Z6" s="154"/>
       <c r="AA6" s="154"/>
-      <c r="AB6" s="134"/>
+      <c r="AB6" s="133"/>
       <c r="AC6" s="154"/>
       <c r="AD6" s="154"/>
-      <c r="AE6" s="133"/>
+      <c r="AE6" s="132"/>
       <c r="AF6" s="152"/>
       <c r="AG6" s="152"/>
-      <c r="AH6" s="137"/>
+      <c r="AH6" s="136"/>
       <c r="AI6" s="152"/>
       <c r="AJ6" s="152"/>
-      <c r="AK6" s="136"/>
+      <c r="AK6" s="135"/>
       <c r="AL6" s="154"/>
       <c r="AM6" s="154"/>
-      <c r="AN6" s="137"/>
+      <c r="AN6" s="136"/>
       <c r="AO6" s="155"/>
       <c r="AP6" s="154"/>
       <c r="AQ6" s="154"/>
-      <c r="AR6" s="137"/>
+      <c r="AR6" s="136"/>
       <c r="AS6" s="155"/>
-      <c r="AT6" s="128"/>
-      <c r="AU6" s="128"/>
-      <c r="AV6" s="128"/>
-      <c r="AW6" s="128"/>
-      <c r="AX6" s="128"/>
-      <c r="AY6" s="128"/>
-      <c r="AZ6" s="128"/>
-      <c r="BA6" s="128"/>
-      <c r="BB6" s="128"/>
-      <c r="BC6" s="128"/>
-      <c r="BD6" s="128"/>
-      <c r="BE6" s="128"/>
-      <c r="BF6" s="128"/>
-      <c r="BG6" s="128"/>
-      <c r="BH6" s="128"/>
+      <c r="AT6" s="127"/>
+      <c r="AU6" s="127"/>
+      <c r="AV6" s="127"/>
+      <c r="AW6" s="127"/>
+      <c r="AX6" s="127"/>
+      <c r="AY6" s="127"/>
+      <c r="AZ6" s="127"/>
+      <c r="BA6" s="127"/>
+      <c r="BB6" s="127"/>
+      <c r="BC6" s="127"/>
+      <c r="BD6" s="127"/>
+      <c r="BE6" s="127"/>
+      <c r="BF6" s="127"/>
+      <c r="BG6" s="127"/>
+      <c r="BH6" s="127"/>
     </row>
     <row r="7" spans="1:60" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="163"/>
@@ -42203,46 +42525,46 @@
       <c r="Q7" s="163"/>
       <c r="R7" s="24"/>
       <c r="S7" s="165"/>
-      <c r="U7" s="128"/>
-      <c r="V7" s="128"/>
-      <c r="W7" s="128"/>
-      <c r="X7" s="128"/>
-      <c r="Y7" s="128"/>
-      <c r="Z7" s="128"/>
-      <c r="AA7" s="128"/>
-      <c r="AB7" s="128"/>
-      <c r="AC7" s="128"/>
-      <c r="AD7" s="128"/>
-      <c r="AE7" s="128"/>
-      <c r="AF7" s="128"/>
-      <c r="AG7" s="128"/>
-      <c r="AH7" s="128"/>
-      <c r="AI7" s="128"/>
-      <c r="AJ7" s="128"/>
-      <c r="AK7" s="128"/>
-      <c r="AL7" s="128"/>
-      <c r="AM7" s="128"/>
-      <c r="AN7" s="128"/>
-      <c r="AO7" s="128"/>
-      <c r="AP7" s="128"/>
-      <c r="AQ7" s="128"/>
-      <c r="AR7" s="128"/>
-      <c r="AS7" s="128"/>
-      <c r="AT7" s="128"/>
-      <c r="AU7" s="128"/>
-      <c r="AV7" s="128"/>
-      <c r="AW7" s="128"/>
-      <c r="AX7" s="128"/>
-      <c r="AY7" s="128"/>
-      <c r="AZ7" s="128"/>
-      <c r="BA7" s="128"/>
-      <c r="BB7" s="128"/>
-      <c r="BC7" s="128"/>
-      <c r="BD7" s="128"/>
-      <c r="BE7" s="128"/>
-      <c r="BF7" s="128"/>
-      <c r="BG7" s="128"/>
-      <c r="BH7" s="128"/>
+      <c r="U7" s="127"/>
+      <c r="V7" s="127"/>
+      <c r="W7" s="127"/>
+      <c r="X7" s="127"/>
+      <c r="Y7" s="127"/>
+      <c r="Z7" s="127"/>
+      <c r="AA7" s="127"/>
+      <c r="AB7" s="127"/>
+      <c r="AC7" s="127"/>
+      <c r="AD7" s="127"/>
+      <c r="AE7" s="127"/>
+      <c r="AF7" s="127"/>
+      <c r="AG7" s="127"/>
+      <c r="AH7" s="127"/>
+      <c r="AI7" s="127"/>
+      <c r="AJ7" s="127"/>
+      <c r="AK7" s="127"/>
+      <c r="AL7" s="127"/>
+      <c r="AM7" s="127"/>
+      <c r="AN7" s="127"/>
+      <c r="AO7" s="127"/>
+      <c r="AP7" s="127"/>
+      <c r="AQ7" s="127"/>
+      <c r="AR7" s="127"/>
+      <c r="AS7" s="127"/>
+      <c r="AT7" s="127"/>
+      <c r="AU7" s="127"/>
+      <c r="AV7" s="127"/>
+      <c r="AW7" s="127"/>
+      <c r="AX7" s="127"/>
+      <c r="AY7" s="127"/>
+      <c r="AZ7" s="127"/>
+      <c r="BA7" s="127"/>
+      <c r="BB7" s="127"/>
+      <c r="BC7" s="127"/>
+      <c r="BD7" s="127"/>
+      <c r="BE7" s="127"/>
+      <c r="BF7" s="127"/>
+      <c r="BG7" s="127"/>
+      <c r="BH7" s="127"/>
     </row>
     <row r="8" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A8" s="25"/>
@@ -42264,78 +42586,78 @@
       <c r="Q8" s="25"/>
       <c r="R8" s="25"/>
       <c r="S8" s="25"/>
-      <c r="U8" s="128"/>
-      <c r="V8" s="128"/>
-      <c r="W8" s="138" t="s">
+      <c r="U8" s="127"/>
+      <c r="V8" s="127"/>
+      <c r="W8" s="137" t="s">
         <v>190</v>
       </c>
-      <c r="X8" s="138"/>
-      <c r="Y8" s="128"/>
-      <c r="Z8" s="139">
+      <c r="X8" s="137"/>
+      <c r="Y8" s="127"/>
+      <c r="Z8" s="138">
         <v>0.41</v>
       </c>
-      <c r="AA8" s="140">
+      <c r="AA8" s="139">
         <f>Z8</f>
         <v>0.41</v>
       </c>
-      <c r="AB8" s="141"/>
-      <c r="AC8" s="139">
+      <c r="AB8" s="140"/>
+      <c r="AC8" s="138">
         <v>0.43</v>
       </c>
-      <c r="AD8" s="140">
+      <c r="AD8" s="139">
         <f>AC8</f>
         <v>0.43</v>
       </c>
-      <c r="AE8" s="142"/>
-      <c r="AF8" s="142">
+      <c r="AE8" s="141"/>
+      <c r="AF8" s="141">
         <v>-37</v>
       </c>
-      <c r="AG8" s="140">
+      <c r="AG8" s="139">
         <f>AF8</f>
         <v>-37</v>
       </c>
-      <c r="AH8" s="128"/>
-      <c r="AI8" s="139">
+      <c r="AH8" s="127"/>
+      <c r="AI8" s="138">
         <v>-9.75</v>
       </c>
-      <c r="AJ8" s="140">
+      <c r="AJ8" s="139">
         <f>AI8</f>
         <v>-9.75</v>
       </c>
-      <c r="AK8" s="142"/>
-      <c r="AL8" s="139">
+      <c r="AK8" s="141"/>
+      <c r="AL8" s="138">
         <v>0</v>
       </c>
-      <c r="AM8" s="140">
+      <c r="AM8" s="139">
         <f>AL8</f>
         <v>0</v>
       </c>
-      <c r="AN8" s="141"/>
-      <c r="AO8" s="139">
+      <c r="AN8" s="140"/>
+      <c r="AO8" s="138">
         <v>0.41</v>
       </c>
-      <c r="AP8" s="140">
+      <c r="AP8" s="139">
         <f>AO8</f>
         <v>0.41</v>
       </c>
-      <c r="AQ8" s="128"/>
-      <c r="AR8" s="128"/>
-      <c r="AS8" s="128"/>
-      <c r="AT8" s="128"/>
-      <c r="AU8" s="128"/>
-      <c r="AV8" s="128"/>
-      <c r="AW8" s="128"/>
-      <c r="AX8" s="128"/>
-      <c r="AY8" s="128"/>
-      <c r="AZ8" s="128"/>
-      <c r="BA8" s="128"/>
-      <c r="BB8" s="128"/>
-      <c r="BC8" s="128"/>
-      <c r="BD8" s="128"/>
-      <c r="BE8" s="128"/>
-      <c r="BF8" s="128"/>
-      <c r="BG8" s="128"/>
-      <c r="BH8" s="128"/>
+      <c r="AQ8" s="127"/>
+      <c r="AR8" s="127"/>
+      <c r="AS8" s="127"/>
+      <c r="AT8" s="127"/>
+      <c r="AU8" s="127"/>
+      <c r="AV8" s="127"/>
+      <c r="AW8" s="127"/>
+      <c r="AX8" s="127"/>
+      <c r="AY8" s="127"/>
+      <c r="AZ8" s="127"/>
+      <c r="BA8" s="127"/>
+      <c r="BB8" s="127"/>
+      <c r="BC8" s="127"/>
+      <c r="BD8" s="127"/>
+      <c r="BE8" s="127"/>
+      <c r="BF8" s="127"/>
+      <c r="BG8" s="127"/>
+      <c r="BH8" s="127"/>
     </row>
     <row r="9" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A9" s="26" t="s">
@@ -42372,78 +42694,78 @@
         <v>0.41</v>
       </c>
       <c r="T9" s="27"/>
-      <c r="U9" s="128"/>
-      <c r="V9" s="128"/>
-      <c r="W9" s="143" t="s">
+      <c r="U9" s="127"/>
+      <c r="V9" s="127"/>
+      <c r="W9" s="142" t="s">
         <v>191</v>
       </c>
-      <c r="X9" s="143"/>
-      <c r="Y9" s="128"/>
-      <c r="Z9" s="139">
+      <c r="X9" s="142"/>
+      <c r="Y9" s="127"/>
+      <c r="Z9" s="138">
         <v>2.06</v>
       </c>
-      <c r="AA9" s="140">
+      <c r="AA9" s="139">
         <f t="shared" ref="AA9:AA20" si="0">Z9</f>
         <v>2.06</v>
       </c>
-      <c r="AB9" s="141"/>
-      <c r="AC9" s="139">
+      <c r="AB9" s="140"/>
+      <c r="AC9" s="138">
         <v>5.18</v>
       </c>
-      <c r="AD9" s="140">
+      <c r="AD9" s="139">
         <f t="shared" ref="AD9:AD20" si="1">AC9</f>
         <v>5.18</v>
       </c>
-      <c r="AE9" s="142"/>
-      <c r="AF9" s="142">
+      <c r="AE9" s="141"/>
+      <c r="AF9" s="141">
         <v>-437</v>
       </c>
-      <c r="AG9" s="140">
+      <c r="AG9" s="139">
         <f t="shared" ref="AG9:AG20" si="2">AF9</f>
         <v>-437</v>
       </c>
-      <c r="AH9" s="128"/>
-      <c r="AI9" s="139">
+      <c r="AH9" s="127"/>
+      <c r="AI9" s="138">
         <v>-19.07</v>
       </c>
-      <c r="AJ9" s="140">
+      <c r="AJ9" s="139">
         <f t="shared" ref="AJ9:AJ20" si="3">AI9</f>
         <v>-19.07</v>
       </c>
-      <c r="AK9" s="142"/>
-      <c r="AL9" s="139">
+      <c r="AK9" s="141"/>
+      <c r="AL9" s="138">
         <v>-0.27</v>
       </c>
-      <c r="AM9" s="140">
+      <c r="AM9" s="139">
         <f t="shared" ref="AM9:AM20" si="4">AL9</f>
         <v>-0.27</v>
       </c>
-      <c r="AN9" s="141"/>
-      <c r="AO9" s="139">
+      <c r="AN9" s="140"/>
+      <c r="AO9" s="138">
         <v>2.29</v>
       </c>
-      <c r="AP9" s="140">
+      <c r="AP9" s="139">
         <f t="shared" ref="AP9:AP20" si="5">AO9</f>
         <v>2.29</v>
       </c>
-      <c r="AQ9" s="128"/>
-      <c r="AR9" s="128"/>
-      <c r="AS9" s="128"/>
-      <c r="AT9" s="128"/>
-      <c r="AU9" s="128"/>
-      <c r="AV9" s="128"/>
-      <c r="AW9" s="128"/>
-      <c r="AX9" s="128"/>
-      <c r="AY9" s="128"/>
-      <c r="AZ9" s="128"/>
-      <c r="BA9" s="128"/>
-      <c r="BB9" s="128"/>
-      <c r="BC9" s="128"/>
-      <c r="BD9" s="128"/>
-      <c r="BE9" s="128"/>
-      <c r="BF9" s="128"/>
-      <c r="BG9" s="128"/>
-      <c r="BH9" s="128"/>
+      <c r="AQ9" s="127"/>
+      <c r="AR9" s="127"/>
+      <c r="AS9" s="127"/>
+      <c r="AT9" s="127"/>
+      <c r="AU9" s="127"/>
+      <c r="AV9" s="127"/>
+      <c r="AW9" s="127"/>
+      <c r="AX9" s="127"/>
+      <c r="AY9" s="127"/>
+      <c r="AZ9" s="127"/>
+      <c r="BA9" s="127"/>
+      <c r="BB9" s="127"/>
+      <c r="BC9" s="127"/>
+      <c r="BD9" s="127"/>
+      <c r="BE9" s="127"/>
+      <c r="BF9" s="127"/>
+      <c r="BG9" s="127"/>
+      <c r="BH9" s="127"/>
     </row>
     <row r="10" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A10" s="30" t="s">
@@ -42480,78 +42802,78 @@
         <v>2.29</v>
       </c>
       <c r="T10" s="27"/>
-      <c r="U10" s="128"/>
-      <c r="V10" s="128"/>
-      <c r="W10" s="138" t="s">
+      <c r="U10" s="127"/>
+      <c r="V10" s="127"/>
+      <c r="W10" s="137" t="s">
         <v>192</v>
       </c>
-      <c r="X10" s="138"/>
-      <c r="Y10" s="128"/>
-      <c r="Z10" s="139">
+      <c r="X10" s="137"/>
+      <c r="Y10" s="127"/>
+      <c r="Z10" s="138">
         <v>2.34</v>
       </c>
-      <c r="AA10" s="140">
+      <c r="AA10" s="139">
         <f t="shared" si="0"/>
         <v>2.34</v>
       </c>
-      <c r="AB10" s="141"/>
-      <c r="AC10" s="139">
+      <c r="AB10" s="140"/>
+      <c r="AC10" s="138">
         <v>9.66</v>
       </c>
-      <c r="AD10" s="140">
+      <c r="AD10" s="139">
         <f t="shared" si="1"/>
         <v>9.66</v>
       </c>
-      <c r="AE10" s="142"/>
-      <c r="AF10" s="142">
+      <c r="AE10" s="141"/>
+      <c r="AF10" s="141">
         <v>-814</v>
       </c>
-      <c r="AG10" s="140">
+      <c r="AG10" s="139">
         <f t="shared" si="2"/>
         <v>-814</v>
       </c>
-      <c r="AH10" s="128"/>
-      <c r="AI10" s="139">
+      <c r="AH10" s="127"/>
+      <c r="AI10" s="138">
         <v>-11.58</v>
       </c>
-      <c r="AJ10" s="140">
+      <c r="AJ10" s="139">
         <f t="shared" si="3"/>
         <v>-11.58</v>
       </c>
-      <c r="AK10" s="142"/>
-      <c r="AL10" s="139">
+      <c r="AK10" s="141"/>
+      <c r="AL10" s="138">
         <v>-0.19</v>
       </c>
-      <c r="AM10" s="140">
+      <c r="AM10" s="139">
         <f t="shared" si="4"/>
         <v>-0.19</v>
       </c>
-      <c r="AN10" s="141"/>
-      <c r="AO10" s="139">
+      <c r="AN10" s="140"/>
+      <c r="AO10" s="138">
         <v>7.68</v>
       </c>
-      <c r="AP10" s="140">
+      <c r="AP10" s="139">
         <f t="shared" si="5"/>
         <v>7.68</v>
       </c>
-      <c r="AQ10" s="128"/>
-      <c r="AR10" s="128"/>
-      <c r="AS10" s="128"/>
-      <c r="AT10" s="128"/>
-      <c r="AU10" s="128"/>
-      <c r="AV10" s="128"/>
-      <c r="AW10" s="128"/>
-      <c r="AX10" s="128"/>
-      <c r="AY10" s="128"/>
-      <c r="AZ10" s="128"/>
-      <c r="BA10" s="128"/>
-      <c r="BB10" s="128"/>
-      <c r="BC10" s="128"/>
-      <c r="BD10" s="128"/>
-      <c r="BE10" s="128"/>
-      <c r="BF10" s="128"/>
-      <c r="BG10" s="128"/>
-      <c r="BH10" s="128"/>
+      <c r="AQ10" s="127"/>
+      <c r="AR10" s="127"/>
+      <c r="AS10" s="127"/>
+      <c r="AT10" s="127"/>
+      <c r="AU10" s="127"/>
+      <c r="AV10" s="127"/>
+      <c r="AW10" s="127"/>
+      <c r="AX10" s="127"/>
+      <c r="AY10" s="127"/>
+      <c r="AZ10" s="127"/>
+      <c r="BA10" s="127"/>
+      <c r="BB10" s="127"/>
+      <c r="BC10" s="127"/>
+      <c r="BD10" s="127"/>
+      <c r="BE10" s="127"/>
+      <c r="BF10" s="127"/>
+      <c r="BG10" s="127"/>
+      <c r="BH10" s="127"/>
     </row>
     <row r="11" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A11" s="26" t="s">
@@ -42588,78 +42910,78 @@
         <v>7.68</v>
       </c>
       <c r="T11" s="27"/>
-      <c r="U11" s="128"/>
-      <c r="V11" s="128"/>
-      <c r="W11" s="138" t="s">
+      <c r="U11" s="127"/>
+      <c r="V11" s="127"/>
+      <c r="W11" s="137" t="s">
         <v>193</v>
       </c>
-      <c r="X11" s="138"/>
-      <c r="Y11" s="128"/>
-      <c r="Z11" s="139">
+      <c r="X11" s="137"/>
+      <c r="Y11" s="127"/>
+      <c r="Z11" s="138">
         <v>2.27</v>
       </c>
-      <c r="AA11" s="140">
+      <c r="AA11" s="139">
         <f t="shared" si="0"/>
         <v>2.27</v>
       </c>
-      <c r="AB11" s="141"/>
-      <c r="AC11" s="139">
+      <c r="AB11" s="140"/>
+      <c r="AC11" s="138">
         <v>15.48</v>
       </c>
-      <c r="AD11" s="140">
+      <c r="AD11" s="139">
         <f t="shared" si="1"/>
         <v>15.48</v>
       </c>
-      <c r="AE11" s="142"/>
-      <c r="AF11" s="142">
+      <c r="AE11" s="141"/>
+      <c r="AF11" s="141">
         <v>-1305</v>
       </c>
-      <c r="AG11" s="140">
+      <c r="AG11" s="139">
         <f t="shared" si="2"/>
         <v>-1305</v>
       </c>
-      <c r="AH11" s="128"/>
-      <c r="AI11" s="139">
+      <c r="AH11" s="127"/>
+      <c r="AI11" s="138">
         <v>-8.41</v>
       </c>
-      <c r="AJ11" s="140">
+      <c r="AJ11" s="139">
         <f t="shared" si="3"/>
         <v>-8.41</v>
       </c>
-      <c r="AK11" s="142"/>
-      <c r="AL11" s="139">
+      <c r="AK11" s="141"/>
+      <c r="AL11" s="138">
         <v>0.2</v>
       </c>
-      <c r="AM11" s="140">
+      <c r="AM11" s="139">
         <f t="shared" si="4"/>
         <v>0.2</v>
       </c>
-      <c r="AN11" s="141"/>
-      <c r="AO11" s="139">
+      <c r="AN11" s="140"/>
+      <c r="AO11" s="138">
         <v>17.559999999999999</v>
       </c>
-      <c r="AP11" s="140">
+      <c r="AP11" s="139">
         <f t="shared" si="5"/>
         <v>17.559999999999999</v>
       </c>
-      <c r="AQ11" s="128"/>
-      <c r="AR11" s="128"/>
-      <c r="AS11" s="128"/>
-      <c r="AT11" s="128"/>
-      <c r="AU11" s="128"/>
-      <c r="AV11" s="128"/>
-      <c r="AW11" s="128"/>
-      <c r="AX11" s="128"/>
-      <c r="AY11" s="128"/>
-      <c r="AZ11" s="128"/>
-      <c r="BA11" s="128"/>
-      <c r="BB11" s="128"/>
-      <c r="BC11" s="128"/>
-      <c r="BD11" s="128"/>
-      <c r="BE11" s="128"/>
-      <c r="BF11" s="128"/>
-      <c r="BG11" s="128"/>
-      <c r="BH11" s="128"/>
+      <c r="AQ11" s="127"/>
+      <c r="AR11" s="127"/>
+      <c r="AS11" s="127"/>
+      <c r="AT11" s="127"/>
+      <c r="AU11" s="127"/>
+      <c r="AV11" s="127"/>
+      <c r="AW11" s="127"/>
+      <c r="AX11" s="127"/>
+      <c r="AY11" s="127"/>
+      <c r="AZ11" s="127"/>
+      <c r="BA11" s="127"/>
+      <c r="BB11" s="127"/>
+      <c r="BC11" s="127"/>
+      <c r="BD11" s="127"/>
+      <c r="BE11" s="127"/>
+      <c r="BF11" s="127"/>
+      <c r="BG11" s="127"/>
+      <c r="BH11" s="127"/>
     </row>
     <row r="12" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A12" s="26" t="s">
@@ -42696,78 +43018,78 @@
         <v>17.559999999999999</v>
       </c>
       <c r="T12" s="27"/>
-      <c r="U12" s="128"/>
-      <c r="V12" s="128"/>
-      <c r="W12" s="138" t="s">
+      <c r="U12" s="127"/>
+      <c r="V12" s="127"/>
+      <c r="W12" s="137" t="s">
         <v>194</v>
       </c>
-      <c r="X12" s="138"/>
-      <c r="Y12" s="128"/>
-      <c r="Z12" s="139">
+      <c r="X12" s="137"/>
+      <c r="Y12" s="127"/>
+      <c r="Z12" s="138">
         <v>3.6</v>
       </c>
-      <c r="AA12" s="140">
+      <c r="AA12" s="139">
         <f t="shared" si="0"/>
         <v>3.6</v>
       </c>
-      <c r="AB12" s="141"/>
-      <c r="AC12" s="139">
+      <c r="AB12" s="140"/>
+      <c r="AC12" s="138">
         <v>68.91</v>
       </c>
-      <c r="AD12" s="140">
+      <c r="AD12" s="139">
         <f t="shared" si="1"/>
         <v>68.91</v>
       </c>
-      <c r="AE12" s="142"/>
-      <c r="AF12" s="142">
+      <c r="AE12" s="141"/>
+      <c r="AF12" s="141">
         <v>-5809</v>
       </c>
-      <c r="AG12" s="140">
+      <c r="AG12" s="139">
         <f t="shared" si="2"/>
         <v>-5809</v>
       </c>
-      <c r="AH12" s="128"/>
-      <c r="AI12" s="139">
+      <c r="AH12" s="127"/>
+      <c r="AI12" s="138">
         <v>-9.07</v>
       </c>
-      <c r="AJ12" s="140">
+      <c r="AJ12" s="139">
         <f t="shared" si="3"/>
         <v>-9.07</v>
       </c>
-      <c r="AK12" s="142"/>
-      <c r="AL12" s="139">
+      <c r="AK12" s="141"/>
+      <c r="AL12" s="138">
         <v>0.28000000000000003</v>
       </c>
-      <c r="AM12" s="140">
+      <c r="AM12" s="139">
         <f t="shared" si="4"/>
         <v>0.28000000000000003</v>
       </c>
-      <c r="AN12" s="141"/>
-      <c r="AO12" s="139">
+      <c r="AN12" s="140"/>
+      <c r="AO12" s="138">
         <v>71.91</v>
       </c>
-      <c r="AP12" s="140">
+      <c r="AP12" s="139">
         <f t="shared" si="5"/>
         <v>71.91</v>
       </c>
-      <c r="AQ12" s="128"/>
-      <c r="AR12" s="128"/>
-      <c r="AS12" s="128"/>
-      <c r="AT12" s="128"/>
-      <c r="AU12" s="128"/>
-      <c r="AV12" s="128"/>
-      <c r="AW12" s="128"/>
-      <c r="AX12" s="128"/>
-      <c r="AY12" s="128"/>
-      <c r="AZ12" s="128"/>
-      <c r="BA12" s="128"/>
-      <c r="BB12" s="128"/>
-      <c r="BC12" s="128"/>
-      <c r="BD12" s="128"/>
-      <c r="BE12" s="128"/>
-      <c r="BF12" s="128"/>
-      <c r="BG12" s="128"/>
-      <c r="BH12" s="128"/>
+      <c r="AQ12" s="127"/>
+      <c r="AR12" s="127"/>
+      <c r="AS12" s="127"/>
+      <c r="AT12" s="127"/>
+      <c r="AU12" s="127"/>
+      <c r="AV12" s="127"/>
+      <c r="AW12" s="127"/>
+      <c r="AX12" s="127"/>
+      <c r="AY12" s="127"/>
+      <c r="AZ12" s="127"/>
+      <c r="BA12" s="127"/>
+      <c r="BB12" s="127"/>
+      <c r="BC12" s="127"/>
+      <c r="BD12" s="127"/>
+      <c r="BE12" s="127"/>
+      <c r="BF12" s="127"/>
+      <c r="BG12" s="127"/>
+      <c r="BH12" s="127"/>
     </row>
     <row r="13" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A13" s="26" t="s">
@@ -42804,78 +43126,78 @@
         <v>71.91</v>
       </c>
       <c r="T13" s="27"/>
-      <c r="U13" s="128"/>
-      <c r="V13" s="128"/>
-      <c r="W13" s="138" t="s">
+      <c r="U13" s="127"/>
+      <c r="V13" s="127"/>
+      <c r="W13" s="137" t="s">
         <v>57</v>
       </c>
-      <c r="X13" s="138"/>
-      <c r="Y13" s="128"/>
-      <c r="Z13" s="139">
+      <c r="X13" s="137"/>
+      <c r="Y13" s="127"/>
+      <c r="Z13" s="138">
         <v>2.99</v>
       </c>
-      <c r="AA13" s="140">
+      <c r="AA13" s="139">
         <f t="shared" si="0"/>
         <v>2.99</v>
       </c>
-      <c r="AB13" s="141"/>
-      <c r="AC13" s="139">
+      <c r="AB13" s="140"/>
+      <c r="AC13" s="138">
         <v>100</v>
       </c>
-      <c r="AD13" s="140">
+      <c r="AD13" s="139">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="AE13" s="142"/>
-      <c r="AF13" s="142">
+      <c r="AE13" s="141"/>
+      <c r="AF13" s="141">
         <v>-1686</v>
       </c>
-      <c r="AG13" s="140">
+      <c r="AG13" s="139">
         <f t="shared" si="2"/>
         <v>-1686</v>
       </c>
-      <c r="AH13" s="128"/>
-      <c r="AI13" s="139">
+      <c r="AH13" s="127"/>
+      <c r="AI13" s="138">
         <v>-9.43</v>
       </c>
-      <c r="AJ13" s="140">
+      <c r="AJ13" s="139">
         <f t="shared" si="3"/>
         <v>-9.43</v>
       </c>
-      <c r="AK13" s="142"/>
-      <c r="AL13" s="139">
+      <c r="AK13" s="141"/>
+      <c r="AL13" s="138">
         <v>0</v>
       </c>
-      <c r="AM13" s="140">
+      <c r="AM13" s="139">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AN13" s="141"/>
-      <c r="AO13" s="139">
+      <c r="AN13" s="140"/>
+      <c r="AO13" s="138">
         <v>100</v>
       </c>
-      <c r="AP13" s="140">
+      <c r="AP13" s="139">
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="AQ13" s="128"/>
-      <c r="AR13" s="128"/>
-      <c r="AS13" s="128"/>
-      <c r="AT13" s="128"/>
-      <c r="AU13" s="128"/>
-      <c r="AV13" s="128"/>
-      <c r="AW13" s="128"/>
-      <c r="AX13" s="128"/>
-      <c r="AY13" s="128"/>
-      <c r="AZ13" s="128"/>
-      <c r="BA13" s="128"/>
-      <c r="BB13" s="128"/>
-      <c r="BC13" s="128"/>
-      <c r="BD13" s="128"/>
-      <c r="BE13" s="128"/>
-      <c r="BF13" s="128"/>
-      <c r="BG13" s="128"/>
-      <c r="BH13" s="128"/>
+      <c r="AQ13" s="127"/>
+      <c r="AR13" s="127"/>
+      <c r="AS13" s="127"/>
+      <c r="AT13" s="127"/>
+      <c r="AU13" s="127"/>
+      <c r="AV13" s="127"/>
+      <c r="AW13" s="127"/>
+      <c r="AX13" s="127"/>
+      <c r="AY13" s="127"/>
+      <c r="AZ13" s="127"/>
+      <c r="BA13" s="127"/>
+      <c r="BB13" s="127"/>
+      <c r="BC13" s="127"/>
+      <c r="BD13" s="127"/>
+      <c r="BE13" s="127"/>
+      <c r="BF13" s="127"/>
+      <c r="BG13" s="127"/>
+      <c r="BH13" s="127"/>
     </row>
     <row r="14" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A14" s="26" t="s">
@@ -42912,46 +43234,46 @@
         <v>100</v>
       </c>
       <c r="T14" s="27"/>
-      <c r="U14" s="128"/>
-      <c r="V14" s="128"/>
-      <c r="W14" s="138"/>
-      <c r="X14" s="138"/>
-      <c r="Y14" s="128"/>
-      <c r="Z14" s="139"/>
-      <c r="AA14" s="140"/>
-      <c r="AB14" s="141"/>
-      <c r="AC14" s="139"/>
-      <c r="AD14" s="140"/>
-      <c r="AE14" s="142"/>
-      <c r="AF14" s="142"/>
-      <c r="AG14" s="140"/>
-      <c r="AH14" s="128"/>
-      <c r="AI14" s="139"/>
-      <c r="AJ14" s="140"/>
-      <c r="AK14" s="142"/>
-      <c r="AL14" s="139"/>
-      <c r="AM14" s="140"/>
-      <c r="AN14" s="141"/>
-      <c r="AO14" s="139"/>
-      <c r="AP14" s="140"/>
-      <c r="AQ14" s="128"/>
-      <c r="AR14" s="128"/>
-      <c r="AS14" s="128"/>
-      <c r="AT14" s="128"/>
-      <c r="AU14" s="128"/>
-      <c r="AV14" s="128"/>
-      <c r="AW14" s="128"/>
-      <c r="AX14" s="128"/>
-      <c r="AY14" s="128"/>
-      <c r="AZ14" s="128"/>
-      <c r="BA14" s="128"/>
-      <c r="BB14" s="128"/>
-      <c r="BC14" s="128"/>
-      <c r="BD14" s="128"/>
-      <c r="BE14" s="128"/>
-      <c r="BF14" s="128"/>
-      <c r="BG14" s="128"/>
-      <c r="BH14" s="128"/>
+      <c r="U14" s="127"/>
+      <c r="V14" s="127"/>
+      <c r="W14" s="137"/>
+      <c r="X14" s="137"/>
+      <c r="Y14" s="127"/>
+      <c r="Z14" s="138"/>
+      <c r="AA14" s="139"/>
+      <c r="AB14" s="140"/>
+      <c r="AC14" s="138"/>
+      <c r="AD14" s="139"/>
+      <c r="AE14" s="141"/>
+      <c r="AF14" s="141"/>
+      <c r="AG14" s="139"/>
+      <c r="AH14" s="127"/>
+      <c r="AI14" s="138"/>
+      <c r="AJ14" s="139"/>
+      <c r="AK14" s="141"/>
+      <c r="AL14" s="138"/>
+      <c r="AM14" s="139"/>
+      <c r="AN14" s="140"/>
+      <c r="AO14" s="138"/>
+      <c r="AP14" s="139"/>
+      <c r="AQ14" s="127"/>
+      <c r="AR14" s="127"/>
+      <c r="AS14" s="127"/>
+      <c r="AT14" s="127"/>
+      <c r="AU14" s="127"/>
+      <c r="AV14" s="127"/>
+      <c r="AW14" s="127"/>
+      <c r="AX14" s="127"/>
+      <c r="AY14" s="127"/>
+      <c r="AZ14" s="127"/>
+      <c r="BA14" s="127"/>
+      <c r="BB14" s="127"/>
+      <c r="BC14" s="127"/>
+      <c r="BD14" s="127"/>
+      <c r="BE14" s="127"/>
+      <c r="BF14" s="127"/>
+      <c r="BG14" s="127"/>
+      <c r="BH14" s="127"/>
     </row>
     <row r="15" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A15" s="26"/>
@@ -42974,48 +43296,48 @@
       <c r="R15" s="29"/>
       <c r="S15" s="27"/>
       <c r="T15" s="27"/>
-      <c r="U15" s="128"/>
-      <c r="V15" s="128"/>
-      <c r="W15" s="144" t="s">
+      <c r="U15" s="127"/>
+      <c r="V15" s="127"/>
+      <c r="W15" s="143" t="s">
         <v>58</v>
       </c>
-      <c r="X15" s="138"/>
-      <c r="Y15" s="128"/>
-      <c r="Z15" s="128"/>
-      <c r="AA15" s="140"/>
-      <c r="AB15" s="128"/>
-      <c r="AC15" s="128"/>
-      <c r="AD15" s="140"/>
-      <c r="AE15" s="128"/>
-      <c r="AF15" s="128"/>
-      <c r="AG15" s="140"/>
-      <c r="AH15" s="128"/>
-      <c r="AI15" s="128"/>
-      <c r="AJ15" s="140"/>
-      <c r="AK15" s="128"/>
-      <c r="AL15" s="128"/>
-      <c r="AM15" s="140"/>
-      <c r="AN15" s="141"/>
-      <c r="AO15" s="128"/>
-      <c r="AP15" s="140"/>
-      <c r="AQ15" s="128"/>
-      <c r="AR15" s="128"/>
-      <c r="AS15" s="128"/>
-      <c r="AT15" s="128"/>
-      <c r="AU15" s="128"/>
-      <c r="AV15" s="128"/>
-      <c r="AW15" s="128"/>
-      <c r="AX15" s="128"/>
-      <c r="AY15" s="128"/>
-      <c r="AZ15" s="128"/>
-      <c r="BA15" s="128"/>
-      <c r="BB15" s="128"/>
-      <c r="BC15" s="128"/>
-      <c r="BD15" s="128"/>
-      <c r="BE15" s="128"/>
-      <c r="BF15" s="128"/>
-      <c r="BG15" s="128"/>
-      <c r="BH15" s="128"/>
+      <c r="X15" s="137"/>
+      <c r="Y15" s="127"/>
+      <c r="Z15" s="127"/>
+      <c r="AA15" s="139"/>
+      <c r="AB15" s="127"/>
+      <c r="AC15" s="127"/>
+      <c r="AD15" s="139"/>
+      <c r="AE15" s="127"/>
+      <c r="AF15" s="127"/>
+      <c r="AG15" s="139"/>
+      <c r="AH15" s="127"/>
+      <c r="AI15" s="127"/>
+      <c r="AJ15" s="139"/>
+      <c r="AK15" s="127"/>
+      <c r="AL15" s="127"/>
+      <c r="AM15" s="139"/>
+      <c r="AN15" s="140"/>
+      <c r="AO15" s="127"/>
+      <c r="AP15" s="139"/>
+      <c r="AQ15" s="127"/>
+      <c r="AR15" s="127"/>
+      <c r="AS15" s="127"/>
+      <c r="AT15" s="127"/>
+      <c r="AU15" s="127"/>
+      <c r="AV15" s="127"/>
+      <c r="AW15" s="127"/>
+      <c r="AX15" s="127"/>
+      <c r="AY15" s="127"/>
+      <c r="AZ15" s="127"/>
+      <c r="BA15" s="127"/>
+      <c r="BB15" s="127"/>
+      <c r="BC15" s="127"/>
+      <c r="BD15" s="127"/>
+      <c r="BE15" s="127"/>
+      <c r="BF15" s="127"/>
+      <c r="BG15" s="127"/>
+      <c r="BH15" s="127"/>
     </row>
     <row r="16" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A16" s="31" t="s">
@@ -43025,78 +43347,78 @@
       <c r="C16" s="25"/>
       <c r="Q16" s="27"/>
       <c r="R16" s="29"/>
-      <c r="U16" s="128"/>
-      <c r="V16" s="128"/>
-      <c r="W16" s="138" t="s">
+      <c r="U16" s="127"/>
+      <c r="V16" s="127"/>
+      <c r="W16" s="137" t="s">
         <v>195</v>
       </c>
-      <c r="X16" s="138"/>
-      <c r="Y16" s="128"/>
-      <c r="Z16" s="139">
+      <c r="X16" s="137"/>
+      <c r="Y16" s="127"/>
+      <c r="Z16" s="138">
         <v>4.03</v>
       </c>
-      <c r="AA16" s="140">
+      <c r="AA16" s="139">
         <f t="shared" si="0"/>
         <v>4.03</v>
       </c>
-      <c r="AB16" s="141"/>
-      <c r="AC16" s="139">
+      <c r="AB16" s="140"/>
+      <c r="AC16" s="138">
         <v>56.09</v>
       </c>
-      <c r="AD16" s="140">
+      <c r="AD16" s="139">
         <f t="shared" si="1"/>
         <v>56.09</v>
       </c>
-      <c r="AE16" s="142"/>
-      <c r="AF16" s="142">
+      <c r="AE16" s="141"/>
+      <c r="AF16" s="141">
         <v>-9457</v>
       </c>
-      <c r="AG16" s="140">
+      <c r="AG16" s="139">
         <f t="shared" si="2"/>
         <v>-9457</v>
       </c>
-      <c r="AH16" s="128"/>
-      <c r="AI16" s="139">
+      <c r="AH16" s="127"/>
+      <c r="AI16" s="138">
         <v>-9.4600000000000009</v>
       </c>
-      <c r="AJ16" s="140">
+      <c r="AJ16" s="139">
         <f t="shared" si="3"/>
         <v>-9.4600000000000009</v>
       </c>
-      <c r="AK16" s="142"/>
-      <c r="AL16" s="139">
+      <c r="AK16" s="141"/>
+      <c r="AL16" s="138">
         <v>-0.02</v>
       </c>
-      <c r="AM16" s="140">
+      <c r="AM16" s="139">
         <f t="shared" si="4"/>
         <v>-0.02</v>
       </c>
-      <c r="AN16" s="141"/>
-      <c r="AO16" s="139">
+      <c r="AN16" s="140"/>
+      <c r="AO16" s="138">
         <v>55.87</v>
       </c>
-      <c r="AP16" s="140">
+      <c r="AP16" s="139">
         <f t="shared" si="5"/>
         <v>55.87</v>
       </c>
-      <c r="AQ16" s="128"/>
-      <c r="AR16" s="128"/>
-      <c r="AS16" s="128"/>
-      <c r="AT16" s="128"/>
-      <c r="AU16" s="128"/>
-      <c r="AV16" s="128"/>
-      <c r="AW16" s="128"/>
-      <c r="AX16" s="128"/>
-      <c r="AY16" s="128"/>
-      <c r="AZ16" s="128"/>
-      <c r="BA16" s="128"/>
-      <c r="BB16" s="128"/>
-      <c r="BC16" s="128"/>
-      <c r="BD16" s="128"/>
-      <c r="BE16" s="128"/>
-      <c r="BF16" s="128"/>
-      <c r="BG16" s="128"/>
-      <c r="BH16" s="128"/>
+      <c r="AQ16" s="127"/>
+      <c r="AR16" s="127"/>
+      <c r="AS16" s="127"/>
+      <c r="AT16" s="127"/>
+      <c r="AU16" s="127"/>
+      <c r="AV16" s="127"/>
+      <c r="AW16" s="127"/>
+      <c r="AX16" s="127"/>
+      <c r="AY16" s="127"/>
+      <c r="AZ16" s="127"/>
+      <c r="BA16" s="127"/>
+      <c r="BB16" s="127"/>
+      <c r="BC16" s="127"/>
+      <c r="BD16" s="127"/>
+      <c r="BE16" s="127"/>
+      <c r="BF16" s="127"/>
+      <c r="BG16" s="127"/>
+      <c r="BH16" s="127"/>
     </row>
     <row r="17" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A17" s="26" t="s">
@@ -43133,78 +43455,78 @@
         <v>55.87</v>
       </c>
       <c r="T17" s="27"/>
-      <c r="U17" s="128"/>
-      <c r="V17" s="128"/>
-      <c r="W17" s="138" t="s">
+      <c r="U17" s="127"/>
+      <c r="V17" s="127"/>
+      <c r="W17" s="137" t="s">
         <v>196</v>
       </c>
-      <c r="X17" s="138"/>
-      <c r="Y17" s="128"/>
-      <c r="Z17" s="139">
+      <c r="X17" s="137"/>
+      <c r="Y17" s="127"/>
+      <c r="Z17" s="138">
         <v>4.68</v>
       </c>
-      <c r="AA17" s="140">
+      <c r="AA17" s="139">
         <f t="shared" si="0"/>
         <v>4.68</v>
       </c>
-      <c r="AB17" s="141"/>
-      <c r="AC17" s="139">
+      <c r="AB17" s="140"/>
+      <c r="AC17" s="138">
         <v>48.1</v>
       </c>
-      <c r="AD17" s="140">
+      <c r="AD17" s="139">
         <f t="shared" si="1"/>
         <v>48.1</v>
       </c>
-      <c r="AE17" s="142"/>
-      <c r="AF17" s="142">
+      <c r="AE17" s="141"/>
+      <c r="AF17" s="141">
         <v>-16223</v>
       </c>
-      <c r="AG17" s="140">
+      <c r="AG17" s="139">
         <f t="shared" si="2"/>
         <v>-16223</v>
       </c>
-      <c r="AH17" s="128"/>
-      <c r="AI17" s="139">
+      <c r="AH17" s="127"/>
+      <c r="AI17" s="138">
         <v>-10.39</v>
       </c>
-      <c r="AJ17" s="140">
+      <c r="AJ17" s="139">
         <f t="shared" si="3"/>
         <v>-10.39</v>
       </c>
-      <c r="AK17" s="142"/>
-      <c r="AL17" s="139">
+      <c r="AK17" s="141"/>
+      <c r="AL17" s="138">
         <v>-0.46</v>
       </c>
-      <c r="AM17" s="140">
+      <c r="AM17" s="139">
         <f t="shared" si="4"/>
         <v>-0.46</v>
       </c>
-      <c r="AN17" s="141"/>
-      <c r="AO17" s="139">
+      <c r="AN17" s="140"/>
+      <c r="AO17" s="138">
         <v>43.22</v>
       </c>
-      <c r="AP17" s="140">
+      <c r="AP17" s="139">
         <f t="shared" si="5"/>
         <v>43.22</v>
       </c>
-      <c r="AQ17" s="128"/>
-      <c r="AR17" s="128"/>
-      <c r="AS17" s="128"/>
-      <c r="AT17" s="128"/>
-      <c r="AU17" s="128"/>
-      <c r="AV17" s="128"/>
-      <c r="AW17" s="128"/>
-      <c r="AX17" s="128"/>
-      <c r="AY17" s="128"/>
-      <c r="AZ17" s="128"/>
-      <c r="BA17" s="128"/>
-      <c r="BB17" s="128"/>
-      <c r="BC17" s="128"/>
-      <c r="BD17" s="128"/>
-      <c r="BE17" s="128"/>
-      <c r="BF17" s="128"/>
-      <c r="BG17" s="128"/>
-      <c r="BH17" s="128"/>
+      <c r="AQ17" s="127"/>
+      <c r="AR17" s="127"/>
+      <c r="AS17" s="127"/>
+      <c r="AT17" s="127"/>
+      <c r="AU17" s="127"/>
+      <c r="AV17" s="127"/>
+      <c r="AW17" s="127"/>
+      <c r="AX17" s="127"/>
+      <c r="AY17" s="127"/>
+      <c r="AZ17" s="127"/>
+      <c r="BA17" s="127"/>
+      <c r="BB17" s="127"/>
+      <c r="BC17" s="127"/>
+      <c r="BD17" s="127"/>
+      <c r="BE17" s="127"/>
+      <c r="BF17" s="127"/>
+      <c r="BG17" s="127"/>
+      <c r="BH17" s="127"/>
     </row>
     <row r="18" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A18" s="26" t="s">
@@ -43241,78 +43563,78 @@
         <v>43.22</v>
       </c>
       <c r="T18" s="27"/>
-      <c r="U18" s="128"/>
-      <c r="V18" s="128"/>
-      <c r="W18" s="138" t="s">
+      <c r="U18" s="127"/>
+      <c r="V18" s="127"/>
+      <c r="W18" s="137" t="s">
         <v>197</v>
       </c>
-      <c r="X18" s="138"/>
-      <c r="Y18" s="128"/>
-      <c r="Z18" s="139">
+      <c r="X18" s="137"/>
+      <c r="Y18" s="127"/>
+      <c r="Z18" s="138">
         <v>6.74</v>
       </c>
-      <c r="AA18" s="140">
+      <c r="AA18" s="139">
         <f t="shared" si="0"/>
         <v>6.74</v>
       </c>
-      <c r="AB18" s="141"/>
-      <c r="AC18" s="139">
+      <c r="AB18" s="140"/>
+      <c r="AC18" s="138">
         <v>36.78</v>
       </c>
-      <c r="AD18" s="140">
+      <c r="AD18" s="139">
         <f t="shared" si="1"/>
         <v>36.78</v>
       </c>
-      <c r="AE18" s="142"/>
-      <c r="AF18" s="142">
+      <c r="AE18" s="141"/>
+      <c r="AF18" s="141">
         <v>-62007</v>
       </c>
-      <c r="AG18" s="140">
+      <c r="AG18" s="139">
         <f t="shared" si="2"/>
         <v>-62007</v>
       </c>
-      <c r="AH18" s="128"/>
-      <c r="AI18" s="139">
+      <c r="AH18" s="127"/>
+      <c r="AI18" s="138">
         <v>-13.37</v>
       </c>
-      <c r="AJ18" s="140">
+      <c r="AJ18" s="139">
         <f t="shared" si="3"/>
         <v>-13.37</v>
       </c>
-      <c r="AK18" s="142"/>
-      <c r="AL18" s="139">
+      <c r="AK18" s="141"/>
+      <c r="AL18" s="138">
         <v>-1.1299999999999999</v>
       </c>
-      <c r="AM18" s="140">
+      <c r="AM18" s="139">
         <f t="shared" si="4"/>
         <v>-1.1299999999999999</v>
       </c>
-      <c r="AN18" s="141"/>
-      <c r="AO18" s="139">
+      <c r="AN18" s="140"/>
+      <c r="AO18" s="138">
         <v>24.83</v>
       </c>
-      <c r="AP18" s="140">
+      <c r="AP18" s="139">
         <f t="shared" si="5"/>
         <v>24.83</v>
       </c>
-      <c r="AQ18" s="128"/>
-      <c r="AR18" s="128"/>
-      <c r="AS18" s="128"/>
-      <c r="AT18" s="128"/>
-      <c r="AU18" s="128"/>
-      <c r="AV18" s="128"/>
-      <c r="AW18" s="128"/>
-      <c r="AX18" s="128"/>
-      <c r="AY18" s="128"/>
-      <c r="AZ18" s="128"/>
-      <c r="BA18" s="128"/>
-      <c r="BB18" s="128"/>
-      <c r="BC18" s="128"/>
-      <c r="BD18" s="128"/>
-      <c r="BE18" s="128"/>
-      <c r="BF18" s="128"/>
-      <c r="BG18" s="128"/>
-      <c r="BH18" s="128"/>
+      <c r="AQ18" s="127"/>
+      <c r="AR18" s="127"/>
+      <c r="AS18" s="127"/>
+      <c r="AT18" s="127"/>
+      <c r="AU18" s="127"/>
+      <c r="AV18" s="127"/>
+      <c r="AW18" s="127"/>
+      <c r="AX18" s="127"/>
+      <c r="AY18" s="127"/>
+      <c r="AZ18" s="127"/>
+      <c r="BA18" s="127"/>
+      <c r="BB18" s="127"/>
+      <c r="BC18" s="127"/>
+      <c r="BD18" s="127"/>
+      <c r="BE18" s="127"/>
+      <c r="BF18" s="127"/>
+      <c r="BG18" s="127"/>
+      <c r="BH18" s="127"/>
     </row>
     <row r="19" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A19" s="26" t="s">
@@ -43349,78 +43671,78 @@
         <v>24.83</v>
       </c>
       <c r="T19" s="27"/>
-      <c r="U19" s="128"/>
-      <c r="V19" s="128"/>
-      <c r="W19" s="138" t="s">
+      <c r="U19" s="127"/>
+      <c r="V19" s="127"/>
+      <c r="W19" s="137" t="s">
         <v>198</v>
       </c>
-      <c r="X19" s="138"/>
-      <c r="Y19" s="128"/>
-      <c r="Z19" s="139">
+      <c r="X19" s="137"/>
+      <c r="Y19" s="127"/>
+      <c r="Z19" s="138">
         <v>7.33</v>
       </c>
-      <c r="AA19" s="140">
+      <c r="AA19" s="139">
         <f t="shared" si="0"/>
         <v>7.33</v>
       </c>
-      <c r="AB19" s="141"/>
-      <c r="AC19" s="139">
+      <c r="AB19" s="140"/>
+      <c r="AC19" s="138">
         <v>31.05</v>
       </c>
-      <c r="AD19" s="140">
+      <c r="AD19" s="139">
         <f t="shared" si="1"/>
         <v>31.05</v>
       </c>
-      <c r="AE19" s="142"/>
-      <c r="AF19" s="142">
+      <c r="AE19" s="141"/>
+      <c r="AF19" s="141">
         <v>-104678</v>
       </c>
-      <c r="AG19" s="140">
+      <c r="AG19" s="139">
         <f t="shared" si="2"/>
         <v>-104678</v>
       </c>
-      <c r="AH19" s="128"/>
-      <c r="AI19" s="139">
+      <c r="AH19" s="127"/>
+      <c r="AI19" s="138">
         <v>-13.91</v>
       </c>
-      <c r="AJ19" s="140">
+      <c r="AJ19" s="139">
         <f t="shared" si="3"/>
         <v>-13.91</v>
       </c>
-      <c r="AK19" s="142"/>
-      <c r="AL19" s="139">
+      <c r="AK19" s="141"/>
+      <c r="AL19" s="138">
         <v>-1.04</v>
       </c>
-      <c r="AM19" s="140">
+      <c r="AM19" s="139">
         <f t="shared" si="4"/>
         <v>-1.04</v>
       </c>
-      <c r="AN19" s="141"/>
-      <c r="AO19" s="139">
+      <c r="AN19" s="140"/>
+      <c r="AO19" s="138">
         <v>20.010000000000002</v>
       </c>
-      <c r="AP19" s="140">
+      <c r="AP19" s="139">
         <f t="shared" si="5"/>
         <v>20.010000000000002</v>
       </c>
-      <c r="AQ19" s="128"/>
-      <c r="AR19" s="128"/>
-      <c r="AS19" s="128"/>
-      <c r="AT19" s="128"/>
-      <c r="AU19" s="128"/>
-      <c r="AV19" s="128"/>
-      <c r="AW19" s="128"/>
-      <c r="AX19" s="128"/>
-      <c r="AY19" s="128"/>
-      <c r="AZ19" s="128"/>
-      <c r="BA19" s="128"/>
-      <c r="BB19" s="128"/>
-      <c r="BC19" s="128"/>
-      <c r="BD19" s="128"/>
-      <c r="BE19" s="128"/>
-      <c r="BF19" s="128"/>
-      <c r="BG19" s="128"/>
-      <c r="BH19" s="128"/>
+      <c r="AQ19" s="127"/>
+      <c r="AR19" s="127"/>
+      <c r="AS19" s="127"/>
+      <c r="AT19" s="127"/>
+      <c r="AU19" s="127"/>
+      <c r="AV19" s="127"/>
+      <c r="AW19" s="127"/>
+      <c r="AX19" s="127"/>
+      <c r="AY19" s="127"/>
+      <c r="AZ19" s="127"/>
+      <c r="BA19" s="127"/>
+      <c r="BB19" s="127"/>
+      <c r="BC19" s="127"/>
+      <c r="BD19" s="127"/>
+      <c r="BE19" s="127"/>
+      <c r="BF19" s="127"/>
+      <c r="BG19" s="127"/>
+      <c r="BH19" s="127"/>
     </row>
     <row r="20" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A20" s="26" t="s">
@@ -43457,78 +43779,78 @@
         <v>20.010000000000002</v>
       </c>
       <c r="T20" s="27"/>
-      <c r="U20" s="128"/>
-      <c r="V20" s="128"/>
-      <c r="W20" s="138" t="s">
+      <c r="U20" s="127"/>
+      <c r="V20" s="127"/>
+      <c r="W20" s="137" t="s">
         <v>199</v>
       </c>
-      <c r="X20" s="138"/>
-      <c r="Y20" s="128"/>
-      <c r="Z20" s="139">
+      <c r="X20" s="137"/>
+      <c r="Y20" s="127"/>
+      <c r="Z20" s="138">
         <v>7.81</v>
       </c>
-      <c r="AA20" s="140">
+      <c r="AA20" s="139">
         <f t="shared" si="0"/>
         <v>7.81</v>
       </c>
-      <c r="AB20" s="141"/>
-      <c r="AC20" s="139">
+      <c r="AB20" s="140"/>
+      <c r="AC20" s="138">
         <v>18.63</v>
       </c>
-      <c r="AD20" s="140">
+      <c r="AD20" s="139">
         <f t="shared" si="1"/>
         <v>18.63</v>
       </c>
-      <c r="AE20" s="142"/>
-      <c r="AF20" s="142">
+      <c r="AE20" s="141"/>
+      <c r="AF20" s="141">
         <v>-314150</v>
       </c>
-      <c r="AG20" s="140">
+      <c r="AG20" s="139">
         <f t="shared" si="2"/>
         <v>-314150</v>
       </c>
-      <c r="AH20" s="128"/>
-      <c r="AI20" s="139">
+      <c r="AH20" s="127"/>
+      <c r="AI20" s="138">
         <v>-13.68</v>
       </c>
-      <c r="AJ20" s="140">
+      <c r="AJ20" s="139">
         <f t="shared" si="3"/>
         <v>-13.68</v>
       </c>
-      <c r="AK20" s="142"/>
-      <c r="AL20" s="139">
+      <c r="AK20" s="141"/>
+      <c r="AL20" s="138">
         <v>-0.6</v>
       </c>
-      <c r="AM20" s="140">
+      <c r="AM20" s="139">
         <f t="shared" si="4"/>
         <v>-0.6</v>
       </c>
-      <c r="AN20" s="141"/>
-      <c r="AO20" s="139">
+      <c r="AN20" s="140"/>
+      <c r="AO20" s="138">
         <v>12.25</v>
       </c>
-      <c r="AP20" s="140">
+      <c r="AP20" s="139">
         <f t="shared" si="5"/>
         <v>12.25</v>
       </c>
-      <c r="AQ20" s="128"/>
-      <c r="AR20" s="128"/>
-      <c r="AS20" s="128"/>
-      <c r="AT20" s="128"/>
-      <c r="AU20" s="128"/>
-      <c r="AV20" s="128"/>
-      <c r="AW20" s="128"/>
-      <c r="AX20" s="128"/>
-      <c r="AY20" s="128"/>
-      <c r="AZ20" s="128"/>
-      <c r="BA20" s="128"/>
-      <c r="BB20" s="128"/>
-      <c r="BC20" s="128"/>
-      <c r="BD20" s="128"/>
-      <c r="BE20" s="128"/>
-      <c r="BF20" s="128"/>
-      <c r="BG20" s="128"/>
-      <c r="BH20" s="128"/>
+      <c r="AQ20" s="127"/>
+      <c r="AR20" s="127"/>
+      <c r="AS20" s="127"/>
+      <c r="AT20" s="127"/>
+      <c r="AU20" s="127"/>
+      <c r="AV20" s="127"/>
+      <c r="AW20" s="127"/>
+      <c r="AX20" s="127"/>
+      <c r="AY20" s="127"/>
+      <c r="AZ20" s="127"/>
+      <c r="BA20" s="127"/>
+      <c r="BB20" s="127"/>
+      <c r="BC20" s="127"/>
+      <c r="BD20" s="127"/>
+      <c r="BE20" s="127"/>
+      <c r="BF20" s="127"/>
+      <c r="BG20" s="127"/>
+      <c r="BH20" s="127"/>
     </row>
     <row r="21" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A21" s="26" t="s">
@@ -43565,46 +43887,46 @@
         <v>12.25</v>
       </c>
       <c r="T21" s="27"/>
-      <c r="U21" s="128"/>
-      <c r="V21" s="145"/>
-      <c r="W21" s="145"/>
-      <c r="X21" s="145"/>
-      <c r="Y21" s="145"/>
-      <c r="Z21" s="145"/>
-      <c r="AA21" s="145"/>
-      <c r="AB21" s="145"/>
-      <c r="AC21" s="145"/>
-      <c r="AD21" s="145"/>
-      <c r="AE21" s="145"/>
-      <c r="AF21" s="145"/>
-      <c r="AG21" s="145"/>
-      <c r="AH21" s="145"/>
-      <c r="AI21" s="145"/>
-      <c r="AJ21" s="145"/>
-      <c r="AK21" s="145"/>
-      <c r="AL21" s="145"/>
-      <c r="AM21" s="145"/>
-      <c r="AN21" s="145"/>
-      <c r="AO21" s="145"/>
-      <c r="AP21" s="145"/>
-      <c r="AQ21" s="128"/>
-      <c r="AR21" s="128"/>
-      <c r="AS21" s="128"/>
-      <c r="AT21" s="128"/>
-      <c r="AU21" s="128"/>
-      <c r="AV21" s="128"/>
-      <c r="AW21" s="128"/>
-      <c r="AX21" s="128"/>
-      <c r="AY21" s="128"/>
-      <c r="AZ21" s="128"/>
-      <c r="BA21" s="128"/>
-      <c r="BB21" s="128"/>
-      <c r="BC21" s="128"/>
-      <c r="BD21" s="128"/>
-      <c r="BE21" s="128"/>
-      <c r="BF21" s="128"/>
-      <c r="BG21" s="128"/>
-      <c r="BH21" s="128"/>
+      <c r="U21" s="127"/>
+      <c r="V21" s="144"/>
+      <c r="W21" s="144"/>
+      <c r="X21" s="144"/>
+      <c r="Y21" s="144"/>
+      <c r="Z21" s="144"/>
+      <c r="AA21" s="144"/>
+      <c r="AB21" s="144"/>
+      <c r="AC21" s="144"/>
+      <c r="AD21" s="144"/>
+      <c r="AE21" s="144"/>
+      <c r="AF21" s="144"/>
+      <c r="AG21" s="144"/>
+      <c r="AH21" s="144"/>
+      <c r="AI21" s="144"/>
+      <c r="AJ21" s="144"/>
+      <c r="AK21" s="144"/>
+      <c r="AL21" s="144"/>
+      <c r="AM21" s="144"/>
+      <c r="AN21" s="144"/>
+      <c r="AO21" s="144"/>
+      <c r="AP21" s="144"/>
+      <c r="AQ21" s="127"/>
+      <c r="AR21" s="127"/>
+      <c r="AS21" s="127"/>
+      <c r="AT21" s="127"/>
+      <c r="AU21" s="127"/>
+      <c r="AV21" s="127"/>
+      <c r="AW21" s="127"/>
+      <c r="AX21" s="127"/>
+      <c r="AY21" s="127"/>
+      <c r="AZ21" s="127"/>
+      <c r="BA21" s="127"/>
+      <c r="BB21" s="127"/>
+      <c r="BC21" s="127"/>
+      <c r="BD21" s="127"/>
+      <c r="BE21" s="127"/>
+      <c r="BF21" s="127"/>
+      <c r="BG21" s="127"/>
+      <c r="BH21" s="127"/>
     </row>
     <row r="22" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A22" s="32"/>
@@ -43626,48 +43948,48 @@
       <c r="Q22" s="32"/>
       <c r="R22" s="32"/>
       <c r="S22" s="32"/>
-      <c r="U22" s="128"/>
-      <c r="V22" s="146" t="s">
+      <c r="U22" s="127"/>
+      <c r="V22" s="145" t="s">
         <v>288</v>
       </c>
-      <c r="W22" s="128"/>
-      <c r="X22" s="146"/>
-      <c r="Y22" s="128"/>
-      <c r="Z22" s="128"/>
-      <c r="AA22" s="128"/>
-      <c r="AB22" s="128"/>
-      <c r="AC22" s="128"/>
-      <c r="AD22" s="128"/>
-      <c r="AE22" s="128"/>
-      <c r="AF22" s="128"/>
-      <c r="AG22" s="128"/>
-      <c r="AH22" s="128"/>
-      <c r="AI22" s="128"/>
-      <c r="AJ22" s="128"/>
-      <c r="AK22" s="128"/>
-      <c r="AL22" s="128"/>
-      <c r="AM22" s="128"/>
-      <c r="AN22" s="128"/>
-      <c r="AO22" s="128"/>
-      <c r="AP22" s="128"/>
-      <c r="AQ22" s="128"/>
-      <c r="AR22" s="128"/>
-      <c r="AS22" s="128"/>
-      <c r="AT22" s="128"/>
-      <c r="AU22" s="128"/>
-      <c r="AV22" s="128"/>
-      <c r="AW22" s="128"/>
-      <c r="AX22" s="128"/>
-      <c r="AY22" s="128"/>
-      <c r="AZ22" s="128"/>
-      <c r="BA22" s="128"/>
-      <c r="BB22" s="128"/>
-      <c r="BC22" s="128"/>
-      <c r="BD22" s="128"/>
-      <c r="BE22" s="128"/>
-      <c r="BF22" s="128"/>
-      <c r="BG22" s="128"/>
-      <c r="BH22" s="128"/>
+      <c r="W22" s="127"/>
+      <c r="X22" s="145"/>
+      <c r="Y22" s="127"/>
+      <c r="Z22" s="127"/>
+      <c r="AA22" s="127"/>
+      <c r="AB22" s="127"/>
+      <c r="AC22" s="127"/>
+      <c r="AD22" s="127"/>
+      <c r="AE22" s="127"/>
+      <c r="AF22" s="127"/>
+      <c r="AG22" s="127"/>
+      <c r="AH22" s="127"/>
+      <c r="AI22" s="127"/>
+      <c r="AJ22" s="127"/>
+      <c r="AK22" s="127"/>
+      <c r="AL22" s="127"/>
+      <c r="AM22" s="127"/>
+      <c r="AN22" s="127"/>
+      <c r="AO22" s="127"/>
+      <c r="AP22" s="127"/>
+      <c r="AQ22" s="127"/>
+      <c r="AR22" s="127"/>
+      <c r="AS22" s="127"/>
+      <c r="AT22" s="127"/>
+      <c r="AU22" s="127"/>
+      <c r="AV22" s="127"/>
+      <c r="AW22" s="127"/>
+      <c r="AX22" s="127"/>
+      <c r="AY22" s="127"/>
+      <c r="AZ22" s="127"/>
+      <c r="BA22" s="127"/>
+      <c r="BB22" s="127"/>
+      <c r="BC22" s="127"/>
+      <c r="BD22" s="127"/>
+      <c r="BE22" s="127"/>
+      <c r="BF22" s="127"/>
+      <c r="BG22" s="127"/>
+      <c r="BH22" s="127"/>
     </row>
     <row r="23" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A23" s="33" t="s">
@@ -43691,46 +44013,46 @@
       <c r="Q23" s="25"/>
       <c r="R23" s="25"/>
       <c r="S23" s="25"/>
-      <c r="U23" s="128"/>
-      <c r="V23" s="128"/>
-      <c r="W23" s="128"/>
-      <c r="X23" s="128"/>
-      <c r="Y23" s="128"/>
-      <c r="Z23" s="128"/>
-      <c r="AA23" s="128"/>
-      <c r="AB23" s="128"/>
-      <c r="AC23" s="128"/>
-      <c r="AD23" s="128"/>
-      <c r="AE23" s="128"/>
-      <c r="AF23" s="128"/>
-      <c r="AG23" s="128"/>
-      <c r="AH23" s="128"/>
-      <c r="AI23" s="128"/>
-      <c r="AJ23" s="128"/>
-      <c r="AK23" s="128"/>
-      <c r="AL23" s="128"/>
-      <c r="AM23" s="128"/>
-      <c r="AN23" s="128"/>
-      <c r="AO23" s="128"/>
-      <c r="AP23" s="128"/>
-      <c r="AQ23" s="128"/>
-      <c r="AR23" s="128"/>
-      <c r="AS23" s="128"/>
-      <c r="AT23" s="128"/>
-      <c r="AU23" s="128"/>
-      <c r="AV23" s="128"/>
-      <c r="AW23" s="128"/>
-      <c r="AX23" s="128"/>
-      <c r="AY23" s="128"/>
-      <c r="AZ23" s="128"/>
-      <c r="BA23" s="128"/>
-      <c r="BB23" s="128"/>
-      <c r="BC23" s="128"/>
-      <c r="BD23" s="128"/>
-      <c r="BE23" s="128"/>
-      <c r="BF23" s="128"/>
-      <c r="BG23" s="128"/>
-      <c r="BH23" s="128"/>
+      <c r="U23" s="127"/>
+      <c r="V23" s="127"/>
+      <c r="W23" s="127"/>
+      <c r="X23" s="127"/>
+      <c r="Y23" s="127"/>
+      <c r="Z23" s="127"/>
+      <c r="AA23" s="127"/>
+      <c r="AB23" s="127"/>
+      <c r="AC23" s="127"/>
+      <c r="AD23" s="127"/>
+      <c r="AE23" s="127"/>
+      <c r="AF23" s="127"/>
+      <c r="AG23" s="127"/>
+      <c r="AH23" s="127"/>
+      <c r="AI23" s="127"/>
+      <c r="AJ23" s="127"/>
+      <c r="AK23" s="127"/>
+      <c r="AL23" s="127"/>
+      <c r="AM23" s="127"/>
+      <c r="AN23" s="127"/>
+      <c r="AO23" s="127"/>
+      <c r="AP23" s="127"/>
+      <c r="AQ23" s="127"/>
+      <c r="AR23" s="127"/>
+      <c r="AS23" s="127"/>
+      <c r="AT23" s="127"/>
+      <c r="AU23" s="127"/>
+      <c r="AV23" s="127"/>
+      <c r="AW23" s="127"/>
+      <c r="AX23" s="127"/>
+      <c r="AY23" s="127"/>
+      <c r="AZ23" s="127"/>
+      <c r="BA23" s="127"/>
+      <c r="BB23" s="127"/>
+      <c r="BC23" s="127"/>
+      <c r="BD23" s="127"/>
+      <c r="BE23" s="127"/>
+      <c r="BF23" s="127"/>
+      <c r="BG23" s="127"/>
+      <c r="BH23" s="127"/>
     </row>
     <row r="24" spans="1:60" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="25"/>
@@ -45439,7 +45761,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
@@ -46394,7 +46716,7 @@
       <c r="B42" s="9"/>
     </row>
     <row r="72" spans="18:18" ht="16" x14ac:dyDescent="0.15">
-      <c r="R72" s="114"/>
+      <c r="R72" s="113"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -46416,7 +46738,7 @@
   <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="V58" sqref="V58"/>
+      <selection activeCell="W44" sqref="W44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
@@ -47022,8 +47344,8 @@
   </sheetPr>
   <dimension ref="A1:O144"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="P36" sqref="P36"/>
+    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
+      <selection activeCell="T25" sqref="T25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -49090,1920 +49412,1920 @@
   <dimension ref="A1:H70"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="U87" sqref="U87"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="15.5" style="117" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" style="117" customWidth="1"/>
-    <col min="3" max="3" width="13.5" style="117" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13.5" style="117" customWidth="1"/>
-    <col min="6" max="16384" width="9.1640625" style="117"/>
+    <col min="1" max="1" width="15.5" style="116" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="116" customWidth="1"/>
+    <col min="3" max="3" width="13.5" style="116" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.5" style="116" customWidth="1"/>
+    <col min="6" max="16384" width="9.1640625" style="116"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="71" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="114" t="s">
         <v>210</v>
       </c>
-      <c r="B1" s="115" t="s">
+      <c r="B1" s="114" t="s">
         <v>211</v>
       </c>
-      <c r="C1" s="115" t="s">
+      <c r="C1" s="114" t="s">
         <v>212</v>
       </c>
-      <c r="D1" s="115" t="s">
+      <c r="D1" s="114" t="s">
         <v>213</v>
       </c>
-      <c r="E1" s="115" t="s">
+      <c r="E1" s="114" t="s">
         <v>214</v>
       </c>
-      <c r="F1" s="116" t="s">
+      <c r="F1" s="115" t="s">
         <v>74</v>
       </c>
-      <c r="G1" s="116" t="s">
+      <c r="G1" s="115" t="s">
         <v>215</v>
       </c>
-      <c r="H1" s="117" t="s">
+      <c r="H1" s="116" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="118" t="s">
+      <c r="A2" s="117" t="s">
         <v>217</v>
       </c>
-      <c r="B2" s="119">
+      <c r="B2" s="118">
         <v>0.106</v>
       </c>
-      <c r="C2" s="119">
+      <c r="C2" s="118">
         <v>8.6999999999999994E-2</v>
       </c>
-      <c r="D2" s="120">
+      <c r="D2" s="119">
         <f>C2*100</f>
         <v>8.6999999999999993</v>
       </c>
-      <c r="E2" s="120">
+      <c r="E2" s="119">
         <f>100*(B2-C2)</f>
         <v>1.9000000000000004</v>
       </c>
-      <c r="F2" s="121">
+      <c r="F2" s="120">
         <v>1998</v>
       </c>
-      <c r="G2" s="121" t="str">
+      <c r="G2" s="120" t="str">
         <f>RIGHT(F2,2)</f>
         <v>98</v>
       </c>
-      <c r="H2" s="122"/>
+      <c r="H2" s="121"/>
     </row>
     <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="118" t="s">
+      <c r="A3" s="117" t="s">
         <v>218</v>
       </c>
-      <c r="B3" s="119">
+      <c r="B3" s="118">
         <v>0.105</v>
       </c>
-      <c r="C3" s="119">
+      <c r="C3" s="118">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="D3" s="120">
+      <c r="D3" s="119">
         <f>C3*100</f>
         <v>8.6</v>
       </c>
-      <c r="E3" s="120">
+      <c r="E3" s="119">
         <f>100*(B3-C3)</f>
         <v>1.9000000000000004</v>
       </c>
-      <c r="F3" s="121">
+      <c r="F3" s="120">
         <v>1998</v>
       </c>
-      <c r="G3" s="121" t="str">
+      <c r="G3" s="120" t="str">
         <f t="shared" ref="G3:G68" si="0">RIGHT(F3,2)</f>
         <v>98</v>
       </c>
-      <c r="H3" s="122"/>
+      <c r="H3" s="121"/>
     </row>
     <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="118" t="s">
+      <c r="A4" s="117" t="s">
         <v>219</v>
       </c>
-      <c r="B4" s="119">
+      <c r="B4" s="118">
         <v>0.10299999999999999</v>
       </c>
-      <c r="C4" s="119">
+      <c r="C4" s="118">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="D4" s="120">
+      <c r="D4" s="119">
         <f t="shared" ref="D4:D67" si="1">C4*100</f>
         <v>8.3000000000000007</v>
       </c>
-      <c r="E4" s="120">
+      <c r="E4" s="119">
         <f t="shared" ref="E4:E59" si="2">100*(B4-C4)</f>
         <v>1.9999999999999991</v>
       </c>
-      <c r="F4" s="121">
+      <c r="F4" s="120">
         <v>1998</v>
       </c>
-      <c r="G4" s="121" t="str">
+      <c r="G4" s="120" t="str">
         <f t="shared" si="0"/>
         <v>98</v>
       </c>
-      <c r="H4" s="122"/>
+      <c r="H4" s="121"/>
     </row>
     <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="118" t="s">
+      <c r="A5" s="117" t="s">
         <v>220</v>
       </c>
-      <c r="B5" s="119">
+      <c r="B5" s="118">
         <v>0.104</v>
       </c>
-      <c r="C5" s="119">
+      <c r="C5" s="118">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="D5" s="120">
+      <c r="D5" s="119">
         <f t="shared" si="1"/>
         <v>8.3000000000000007</v>
       </c>
-      <c r="E5" s="120">
+      <c r="E5" s="119">
         <f t="shared" si="2"/>
         <v>2.0999999999999992</v>
       </c>
-      <c r="F5" s="121">
+      <c r="F5" s="120">
         <v>1998</v>
       </c>
-      <c r="G5" s="121" t="str">
+      <c r="G5" s="120" t="str">
         <f t="shared" si="0"/>
         <v>98</v>
       </c>
-      <c r="H5" s="122"/>
+      <c r="H5" s="121"/>
     </row>
     <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="118" t="s">
+      <c r="A6" s="117" t="s">
         <v>221</v>
       </c>
-      <c r="B6" s="119">
+      <c r="B6" s="118">
         <v>0.112</v>
       </c>
-      <c r="C6" s="119">
+      <c r="C6" s="118">
         <v>8.6999999999999994E-2</v>
       </c>
-      <c r="D6" s="120">
+      <c r="D6" s="119">
         <f t="shared" si="1"/>
         <v>8.6999999999999993</v>
       </c>
-      <c r="E6" s="120">
+      <c r="E6" s="119">
         <f t="shared" si="2"/>
         <v>2.5000000000000009</v>
       </c>
-      <c r="F6" s="121">
+      <c r="F6" s="120">
         <v>1999</v>
       </c>
-      <c r="G6" s="121" t="str">
+      <c r="G6" s="120" t="str">
         <f t="shared" si="0"/>
         <v>99</v>
       </c>
-      <c r="H6" s="122"/>
+      <c r="H6" s="121"/>
     </row>
     <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="118" t="s">
+      <c r="A7" s="117" t="s">
         <v>222</v>
       </c>
-      <c r="B7" s="119">
+      <c r="B7" s="118">
         <v>0.124</v>
       </c>
-      <c r="C7" s="119">
+      <c r="C7" s="118">
         <v>9.2999999999999999E-2</v>
       </c>
-      <c r="D7" s="120">
+      <c r="D7" s="119">
         <f t="shared" si="1"/>
         <v>9.3000000000000007</v>
       </c>
-      <c r="E7" s="120">
+      <c r="E7" s="119">
         <f t="shared" si="2"/>
         <v>3.1</v>
       </c>
-      <c r="F7" s="121">
+      <c r="F7" s="120">
         <v>1999</v>
       </c>
-      <c r="G7" s="121" t="str">
+      <c r="G7" s="120" t="str">
         <f t="shared" si="0"/>
         <v>99</v>
       </c>
-      <c r="H7" s="122"/>
+      <c r="H7" s="121"/>
     </row>
     <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="118" t="s">
+      <c r="A8" s="117" t="s">
         <v>223</v>
       </c>
-      <c r="B8" s="119">
+      <c r="B8" s="118">
         <v>0.14299999999999999</v>
       </c>
-      <c r="C8" s="119">
+      <c r="C8" s="118">
         <v>0.1</v>
       </c>
-      <c r="D8" s="120">
+      <c r="D8" s="119">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="E8" s="120">
+      <c r="E8" s="119">
         <f t="shared" si="2"/>
         <v>4.299999999999998</v>
       </c>
-      <c r="F8" s="121">
+      <c r="F8" s="120">
         <v>1999</v>
       </c>
-      <c r="G8" s="121" t="str">
+      <c r="G8" s="120" t="str">
         <f t="shared" si="0"/>
         <v>99</v>
       </c>
-      <c r="H8" s="122"/>
+      <c r="H8" s="121"/>
     </row>
     <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="118" t="s">
+      <c r="A9" s="117" t="s">
         <v>224</v>
       </c>
-      <c r="B9" s="119">
+      <c r="B9" s="118">
         <v>0.156</v>
       </c>
-      <c r="C9" s="119">
+      <c r="C9" s="118">
         <v>0.105</v>
       </c>
-      <c r="D9" s="120">
+      <c r="D9" s="119">
         <f t="shared" si="1"/>
         <v>10.5</v>
       </c>
-      <c r="E9" s="120">
+      <c r="E9" s="119">
         <f t="shared" si="2"/>
         <v>5.1000000000000005</v>
       </c>
-      <c r="F9" s="121">
+      <c r="F9" s="120">
         <v>1999</v>
       </c>
-      <c r="G9" s="121" t="str">
+      <c r="G9" s="120" t="str">
         <f t="shared" si="0"/>
         <v>99</v>
       </c>
-      <c r="H9" s="122"/>
+      <c r="H9" s="121"/>
     </row>
     <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="118" t="s">
+      <c r="A10" s="117" t="s">
         <v>225</v>
       </c>
-      <c r="B10" s="119">
+      <c r="B10" s="118">
         <v>0.13800000000000001</v>
       </c>
-      <c r="C10" s="119">
+      <c r="C10" s="118">
         <v>0.10100000000000001</v>
       </c>
-      <c r="D10" s="120">
+      <c r="D10" s="119">
         <f t="shared" si="1"/>
         <v>10.100000000000001</v>
       </c>
-      <c r="E10" s="120">
+      <c r="E10" s="119">
         <f t="shared" si="2"/>
         <v>3.7000000000000006</v>
       </c>
-      <c r="F10" s="121">
+      <c r="F10" s="120">
         <v>2000</v>
       </c>
-      <c r="G10" s="121" t="str">
+      <c r="G10" s="120" t="str">
         <f t="shared" si="0"/>
         <v>00</v>
       </c>
-      <c r="H10" s="122"/>
+      <c r="H10" s="121"/>
     </row>
     <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="118" t="s">
+      <c r="A11" s="117" t="s">
         <v>226</v>
       </c>
-      <c r="B11" s="119">
+      <c r="B11" s="118">
         <v>0.13300000000000001</v>
       </c>
-      <c r="C11" s="119">
+      <c r="C11" s="118">
         <v>9.8000000000000004E-2</v>
       </c>
-      <c r="D11" s="120">
+      <c r="D11" s="119">
         <f t="shared" si="1"/>
         <v>9.8000000000000007</v>
       </c>
-      <c r="E11" s="120">
+      <c r="E11" s="119">
         <f t="shared" si="2"/>
         <v>3.5000000000000004</v>
       </c>
-      <c r="F11" s="121">
+      <c r="F11" s="120">
         <v>2000</v>
       </c>
-      <c r="G11" s="121" t="str">
+      <c r="G11" s="120" t="str">
         <f t="shared" si="0"/>
         <v>00</v>
       </c>
-      <c r="H11" s="122"/>
+      <c r="H11" s="121"/>
     </row>
     <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="118" t="s">
+      <c r="A12" s="117" t="s">
         <v>227</v>
       </c>
-      <c r="B12" s="119">
+      <c r="B12" s="118">
         <v>0.121</v>
       </c>
-      <c r="C12" s="119">
+      <c r="C12" s="118">
         <v>0.09</v>
       </c>
-      <c r="D12" s="120">
+      <c r="D12" s="119">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="E12" s="120">
+      <c r="E12" s="119">
         <f t="shared" si="2"/>
         <v>3.1</v>
       </c>
-      <c r="F12" s="121">
+      <c r="F12" s="120">
         <v>2000</v>
       </c>
-      <c r="G12" s="121" t="str">
+      <c r="G12" s="120" t="str">
         <f t="shared" si="0"/>
         <v>00</v>
       </c>
-      <c r="H12" s="122"/>
+      <c r="H12" s="121"/>
     </row>
     <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="118" t="s">
+      <c r="A13" s="117" t="s">
         <v>228</v>
       </c>
-      <c r="B13" s="119">
+      <c r="B13" s="118">
         <v>0.121</v>
       </c>
-      <c r="C13" s="119">
+      <c r="C13" s="118">
         <v>8.8999999999999996E-2</v>
       </c>
-      <c r="D13" s="120">
+      <c r="D13" s="119">
         <f t="shared" si="1"/>
         <v>8.9</v>
       </c>
-      <c r="E13" s="120">
+      <c r="E13" s="119">
         <f t="shared" si="2"/>
         <v>3.2</v>
       </c>
-      <c r="F13" s="121">
+      <c r="F13" s="120">
         <v>2000</v>
       </c>
-      <c r="G13" s="121" t="str">
+      <c r="G13" s="120" t="str">
         <f t="shared" si="0"/>
         <v>00</v>
       </c>
-      <c r="H13" s="122"/>
+      <c r="H13" s="121"/>
     </row>
     <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="118" t="s">
+      <c r="A14" s="117" t="s">
         <v>229</v>
       </c>
-      <c r="B14" s="119">
+      <c r="B14" s="118">
         <v>0.13100000000000001</v>
       </c>
-      <c r="C14" s="119">
+      <c r="C14" s="118">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="D14" s="120">
+      <c r="D14" s="119">
         <f t="shared" si="1"/>
         <v>9.9</v>
       </c>
-      <c r="E14" s="120">
+      <c r="E14" s="119">
         <f t="shared" si="2"/>
         <v>3.2</v>
       </c>
-      <c r="F14" s="121">
+      <c r="F14" s="120">
         <v>2001</v>
       </c>
-      <c r="G14" s="121" t="str">
+      <c r="G14" s="120" t="str">
         <f t="shared" si="0"/>
         <v>01</v>
       </c>
-      <c r="H14" s="122">
+      <c r="H14" s="121">
         <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="118" t="s">
+      <c r="A15" s="117" t="s">
         <v>230</v>
       </c>
-      <c r="B15" s="119">
+      <c r="B15" s="118">
         <v>0.128</v>
       </c>
-      <c r="C15" s="119">
+      <c r="C15" s="118">
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="D15" s="120">
+      <c r="D15" s="119">
         <f t="shared" si="1"/>
         <v>9.7000000000000011</v>
       </c>
-      <c r="E15" s="120">
+      <c r="E15" s="119">
         <f t="shared" si="2"/>
         <v>3.1</v>
       </c>
-      <c r="F15" s="121">
+      <c r="F15" s="120">
         <v>2001</v>
       </c>
-      <c r="G15" s="121" t="str">
+      <c r="G15" s="120" t="str">
         <f t="shared" si="0"/>
         <v>01</v>
       </c>
-      <c r="H15" s="122">
+      <c r="H15" s="121">
         <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="118" t="s">
+      <c r="A16" s="117" t="s">
         <v>231</v>
       </c>
-      <c r="B16" s="119">
+      <c r="B16" s="118">
         <v>0.124</v>
       </c>
-      <c r="C16" s="119">
+      <c r="C16" s="118">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="D16" s="120">
+      <c r="D16" s="119">
         <f t="shared" si="1"/>
         <v>9.1999999999999993</v>
       </c>
-      <c r="E16" s="120">
+      <c r="E16" s="119">
         <f t="shared" si="2"/>
         <v>3.2</v>
       </c>
-      <c r="F16" s="121">
+      <c r="F16" s="120">
         <v>2001</v>
       </c>
-      <c r="G16" s="121" t="str">
+      <c r="G16" s="120" t="str">
         <f t="shared" si="0"/>
         <v>01</v>
       </c>
-      <c r="H16" s="122">
+      <c r="H16" s="121">
         <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="118" t="s">
+      <c r="A17" s="117" t="s">
         <v>232</v>
       </c>
-      <c r="B17" s="119">
+      <c r="B17" s="118">
         <v>0.109</v>
       </c>
-      <c r="C17" s="119">
+      <c r="C17" s="118">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="D17" s="120">
+      <c r="D17" s="119">
         <f t="shared" si="1"/>
         <v>8.4</v>
       </c>
-      <c r="E17" s="120">
+      <c r="E17" s="119">
         <f t="shared" si="2"/>
         <v>2.4999999999999996</v>
       </c>
-      <c r="F17" s="121">
+      <c r="F17" s="120">
         <v>2001</v>
       </c>
-      <c r="G17" s="121" t="str">
+      <c r="G17" s="120" t="str">
         <f t="shared" si="0"/>
         <v>01</v>
       </c>
-      <c r="H17" s="122">
+      <c r="H17" s="121">
         <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="118" t="s">
+      <c r="A18" s="117" t="s">
         <v>233</v>
       </c>
-      <c r="B18" s="119">
+      <c r="B18" s="118">
         <v>0.11600000000000001</v>
       </c>
-      <c r="C18" s="119">
+      <c r="C18" s="118">
         <v>8.6999999999999994E-2</v>
       </c>
-      <c r="D18" s="120">
+      <c r="D18" s="119">
         <f t="shared" si="1"/>
         <v>8.6999999999999993</v>
       </c>
-      <c r="E18" s="120">
+      <c r="E18" s="119">
         <f t="shared" si="2"/>
         <v>2.9000000000000012</v>
       </c>
-      <c r="F18" s="121">
+      <c r="F18" s="120">
         <v>2002</v>
       </c>
-      <c r="G18" s="121" t="str">
+      <c r="G18" s="120" t="str">
         <f t="shared" si="0"/>
         <v>02</v>
       </c>
-      <c r="H18" s="122">
+      <c r="H18" s="121">
         <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="118" t="s">
+      <c r="A19" s="117" t="s">
         <v>234</v>
       </c>
-      <c r="B19" s="119">
+      <c r="B19" s="118">
         <v>0.128</v>
       </c>
-      <c r="C19" s="119">
+      <c r="C19" s="118">
         <v>9.4E-2</v>
       </c>
-      <c r="D19" s="120">
+      <c r="D19" s="119">
         <f t="shared" si="1"/>
         <v>9.4</v>
       </c>
-      <c r="E19" s="120">
+      <c r="E19" s="119">
         <f t="shared" si="2"/>
         <v>3.4000000000000004</v>
       </c>
-      <c r="F19" s="121">
+      <c r="F19" s="120">
         <v>2002</v>
       </c>
-      <c r="G19" s="121" t="str">
+      <c r="G19" s="120" t="str">
         <f t="shared" si="0"/>
         <v>02</v>
       </c>
-      <c r="H19" s="122">
+      <c r="H19" s="121">
         <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="118" t="s">
+      <c r="A20" s="117" t="s">
         <v>235</v>
       </c>
-      <c r="B20" s="119">
+      <c r="B20" s="118">
         <v>0.122</v>
       </c>
-      <c r="C20" s="119">
+      <c r="C20" s="118">
         <v>0.09</v>
       </c>
-      <c r="D20" s="120">
+      <c r="D20" s="119">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="E20" s="120">
+      <c r="E20" s="119">
         <f t="shared" si="2"/>
         <v>3.2</v>
       </c>
-      <c r="F20" s="121">
+      <c r="F20" s="120">
         <v>2002</v>
       </c>
-      <c r="G20" s="121" t="str">
+      <c r="G20" s="120" t="str">
         <f t="shared" si="0"/>
         <v>02</v>
       </c>
-      <c r="H20" s="122">
+      <c r="H20" s="121">
         <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="118" t="s">
+      <c r="A21" s="117" t="s">
         <v>236</v>
       </c>
-      <c r="B21" s="119">
+      <c r="B21" s="118">
         <v>0.115</v>
       </c>
-      <c r="C21" s="119">
+      <c r="C21" s="118">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="D21" s="120">
+      <c r="D21" s="119">
         <f t="shared" si="1"/>
         <v>8.6</v>
       </c>
-      <c r="E21" s="120">
+      <c r="E21" s="119">
         <f t="shared" si="2"/>
         <v>2.9000000000000012</v>
       </c>
-      <c r="F21" s="121">
+      <c r="F21" s="120">
         <v>2002</v>
       </c>
-      <c r="G21" s="121" t="str">
+      <c r="G21" s="120" t="str">
         <f t="shared" si="0"/>
         <v>02</v>
       </c>
-      <c r="H21" s="122">
+      <c r="H21" s="121">
         <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="118" t="s">
+      <c r="A22" s="117" t="s">
         <v>237</v>
       </c>
-      <c r="B22" s="119">
+      <c r="B22" s="118">
         <v>0.128</v>
       </c>
-      <c r="C22" s="119">
+      <c r="C22" s="118">
         <v>9.2999999999999999E-2</v>
       </c>
-      <c r="D22" s="120">
+      <c r="D22" s="119">
         <f t="shared" si="1"/>
         <v>9.3000000000000007</v>
       </c>
-      <c r="E22" s="120">
+      <c r="E22" s="119">
         <f t="shared" si="2"/>
         <v>3.5000000000000004</v>
       </c>
-      <c r="F22" s="121">
+      <c r="F22" s="120">
         <v>2003</v>
       </c>
-      <c r="G22" s="121" t="str">
+      <c r="G22" s="120" t="str">
         <f t="shared" si="0"/>
         <v>03</v>
       </c>
-      <c r="H22" s="122">
+      <c r="H22" s="121">
         <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="118" t="s">
+      <c r="A23" s="117" t="s">
         <v>238</v>
       </c>
-      <c r="B23" s="119">
+      <c r="B23" s="118">
         <v>0.124</v>
       </c>
-      <c r="C23" s="119">
+      <c r="C23" s="118">
         <v>8.8999999999999996E-2</v>
       </c>
-      <c r="D23" s="120">
+      <c r="D23" s="119">
         <f t="shared" si="1"/>
         <v>8.9</v>
       </c>
-      <c r="E23" s="120">
+      <c r="E23" s="119">
         <f t="shared" si="2"/>
         <v>3.5000000000000004</v>
       </c>
-      <c r="F23" s="121">
+      <c r="F23" s="120">
         <v>2003</v>
       </c>
-      <c r="G23" s="121" t="str">
+      <c r="G23" s="120" t="str">
         <f t="shared" si="0"/>
         <v>03</v>
       </c>
-      <c r="H23" s="122">
+      <c r="H23" s="121">
         <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="118" t="s">
+      <c r="A24" s="117" t="s">
         <v>239</v>
       </c>
-      <c r="B24" s="119">
+      <c r="B24" s="118">
         <v>0.13</v>
       </c>
-      <c r="C24" s="119">
+      <c r="C24" s="118">
         <v>8.8999999999999996E-2</v>
       </c>
-      <c r="D24" s="120">
+      <c r="D24" s="119">
         <f t="shared" si="1"/>
         <v>8.9</v>
       </c>
-      <c r="E24" s="120">
+      <c r="E24" s="119">
         <f t="shared" si="2"/>
         <v>4.1000000000000005</v>
       </c>
-      <c r="F24" s="121">
+      <c r="F24" s="120">
         <v>2003</v>
       </c>
-      <c r="G24" s="121" t="str">
+      <c r="G24" s="120" t="str">
         <f t="shared" si="0"/>
         <v>03</v>
       </c>
-      <c r="H24" s="122">
+      <c r="H24" s="121">
         <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="118" t="s">
+      <c r="A25" s="117" t="s">
         <v>240</v>
       </c>
-      <c r="B25" s="119">
+      <c r="B25" s="118">
         <v>0.15</v>
       </c>
-      <c r="C25" s="119">
+      <c r="C25" s="118">
         <v>9.8000000000000004E-2</v>
       </c>
-      <c r="D25" s="120">
+      <c r="D25" s="119">
         <f t="shared" si="1"/>
         <v>9.8000000000000007</v>
       </c>
-      <c r="E25" s="120">
+      <c r="E25" s="119">
         <f t="shared" si="2"/>
         <v>5.1999999999999993</v>
       </c>
-      <c r="F25" s="121">
+      <c r="F25" s="120">
         <v>2003</v>
       </c>
-      <c r="G25" s="121" t="str">
+      <c r="G25" s="120" t="str">
         <f t="shared" si="0"/>
         <v>03</v>
       </c>
-      <c r="H25" s="122"/>
+      <c r="H25" s="121"/>
     </row>
     <row r="26" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="118" t="s">
+      <c r="A26" s="117" t="s">
         <v>241</v>
       </c>
-      <c r="B26" s="119">
+      <c r="B26" s="118">
         <v>0.14699999999999999</v>
       </c>
-      <c r="C26" s="119">
+      <c r="C26" s="118">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="D26" s="120">
+      <c r="D26" s="119">
         <f t="shared" si="1"/>
         <v>9.5</v>
       </c>
-      <c r="E26" s="120">
+      <c r="E26" s="119">
         <f t="shared" si="2"/>
         <v>5.1999999999999993</v>
       </c>
-      <c r="F26" s="121">
+      <c r="F26" s="120">
         <v>2004</v>
       </c>
-      <c r="G26" s="121" t="str">
+      <c r="G26" s="120" t="str">
         <f t="shared" si="0"/>
         <v>04</v>
       </c>
-      <c r="H26" s="122"/>
+      <c r="H26" s="121"/>
     </row>
     <row r="27" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="118" t="s">
+      <c r="A27" s="117" t="s">
         <v>242</v>
       </c>
-      <c r="B27" s="119">
+      <c r="B27" s="118">
         <v>0.14899999999999999</v>
       </c>
-      <c r="C27" s="119">
+      <c r="C27" s="118">
         <v>9.4E-2</v>
       </c>
-      <c r="D27" s="120">
+      <c r="D27" s="119">
         <f t="shared" si="1"/>
         <v>9.4</v>
       </c>
-      <c r="E27" s="120">
+      <c r="E27" s="119">
         <f t="shared" si="2"/>
         <v>5.4999999999999991</v>
       </c>
-      <c r="F27" s="121">
+      <c r="F27" s="120">
         <v>2004</v>
       </c>
-      <c r="G27" s="121" t="str">
+      <c r="G27" s="120" t="str">
         <f t="shared" si="0"/>
         <v>04</v>
       </c>
-      <c r="H27" s="122"/>
+      <c r="H27" s="121"/>
     </row>
     <row r="28" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="118" t="s">
+      <c r="A28" s="117" t="s">
         <v>243</v>
       </c>
-      <c r="B28" s="119">
+      <c r="B28" s="118">
         <v>0.159</v>
       </c>
-      <c r="C28" s="119">
+      <c r="C28" s="118">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="D28" s="120">
+      <c r="D28" s="119">
         <f t="shared" si="1"/>
         <v>9.9</v>
       </c>
-      <c r="E28" s="120">
+      <c r="E28" s="119">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="F28" s="121">
+      <c r="F28" s="120">
         <v>2004</v>
       </c>
-      <c r="G28" s="121" t="str">
+      <c r="G28" s="120" t="str">
         <f t="shared" si="0"/>
         <v>04</v>
       </c>
-      <c r="H28" s="122"/>
+      <c r="H28" s="121"/>
     </row>
     <row r="29" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="118" t="s">
+      <c r="A29" s="117" t="s">
         <v>244</v>
       </c>
-      <c r="B29" s="119">
+      <c r="B29" s="118">
         <v>0.159</v>
       </c>
-      <c r="C29" s="119">
+      <c r="C29" s="118">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="D29" s="120">
+      <c r="D29" s="119">
         <f t="shared" si="1"/>
         <v>9.9</v>
       </c>
-      <c r="E29" s="120">
+      <c r="E29" s="119">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="F29" s="121">
+      <c r="F29" s="120">
         <v>2004</v>
       </c>
-      <c r="G29" s="121" t="str">
+      <c r="G29" s="120" t="str">
         <f t="shared" si="0"/>
         <v>04</v>
       </c>
-      <c r="H29" s="122"/>
+      <c r="H29" s="121"/>
     </row>
     <row r="30" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="118" t="s">
+      <c r="A30" s="117" t="s">
         <v>245</v>
       </c>
-      <c r="B30" s="119">
+      <c r="B30" s="118">
         <v>0.159</v>
       </c>
-      <c r="C30" s="119">
+      <c r="C30" s="118">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="D30" s="120">
+      <c r="D30" s="119">
         <f t="shared" si="1"/>
         <v>9.9</v>
       </c>
-      <c r="E30" s="120">
+      <c r="E30" s="119">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="F30" s="121">
+      <c r="F30" s="120">
         <v>2005</v>
       </c>
-      <c r="G30" s="121" t="str">
+      <c r="G30" s="120" t="str">
         <f t="shared" si="0"/>
         <v>05</v>
       </c>
-      <c r="H30" s="122"/>
+      <c r="H30" s="121"/>
     </row>
     <row r="31" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="118" t="s">
+      <c r="A31" s="117" t="s">
         <v>246</v>
       </c>
-      <c r="B31" s="119">
+      <c r="B31" s="118">
         <v>0.158</v>
       </c>
-      <c r="C31" s="119">
+      <c r="C31" s="118">
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="D31" s="120">
+      <c r="D31" s="119">
         <f t="shared" si="1"/>
         <v>9.7000000000000011</v>
       </c>
-      <c r="E31" s="120">
+      <c r="E31" s="119">
         <f t="shared" si="2"/>
         <v>6.1</v>
       </c>
-      <c r="F31" s="121">
+      <c r="F31" s="120">
         <v>2005</v>
       </c>
-      <c r="G31" s="121" t="str">
+      <c r="G31" s="120" t="str">
         <f t="shared" si="0"/>
         <v>05</v>
       </c>
-      <c r="H31" s="122"/>
+      <c r="H31" s="121"/>
     </row>
     <row r="32" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="118" t="s">
+      <c r="A32" s="117" t="s">
         <v>247</v>
       </c>
-      <c r="B32" s="119">
+      <c r="B32" s="118">
         <v>0.154</v>
       </c>
-      <c r="C32" s="119">
+      <c r="C32" s="118">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="D32" s="120">
+      <c r="D32" s="119">
         <f t="shared" si="1"/>
         <v>9.6</v>
       </c>
-      <c r="E32" s="120">
+      <c r="E32" s="119">
         <f t="shared" si="2"/>
         <v>5.8</v>
       </c>
-      <c r="F32" s="121">
+      <c r="F32" s="120">
         <v>2005</v>
       </c>
-      <c r="G32" s="121" t="str">
+      <c r="G32" s="120" t="str">
         <f t="shared" si="0"/>
         <v>05</v>
       </c>
-      <c r="H32" s="122"/>
+      <c r="H32" s="121"/>
     </row>
     <row r="33" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="118" t="s">
+      <c r="A33" s="117" t="s">
         <v>248</v>
       </c>
-      <c r="B33" s="119">
+      <c r="B33" s="118">
         <v>0.16400000000000001</v>
       </c>
-      <c r="C33" s="119">
+      <c r="C33" s="118">
         <v>0.10199999999999999</v>
       </c>
-      <c r="D33" s="120">
+      <c r="D33" s="119">
         <f t="shared" si="1"/>
         <v>10.199999999999999</v>
       </c>
-      <c r="E33" s="120">
+      <c r="E33" s="119">
         <f t="shared" si="2"/>
         <v>6.2000000000000011</v>
       </c>
-      <c r="F33" s="121">
+      <c r="F33" s="120">
         <v>2005</v>
       </c>
-      <c r="G33" s="121" t="str">
+      <c r="G33" s="120" t="str">
         <f t="shared" si="0"/>
         <v>05</v>
       </c>
-      <c r="H33" s="122"/>
+      <c r="H33" s="121"/>
     </row>
     <row r="34" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="118" t="s">
+      <c r="A34" s="117" t="s">
         <v>249</v>
       </c>
-      <c r="B34" s="119">
+      <c r="B34" s="118">
         <v>0.16800000000000001</v>
       </c>
-      <c r="C34" s="119">
+      <c r="C34" s="118">
         <v>0.106</v>
       </c>
-      <c r="D34" s="120">
+      <c r="D34" s="119">
         <f t="shared" si="1"/>
         <v>10.6</v>
       </c>
-      <c r="E34" s="120">
+      <c r="E34" s="119">
         <f t="shared" si="2"/>
         <v>6.2000000000000011</v>
       </c>
-      <c r="F34" s="121">
+      <c r="F34" s="120">
         <v>2006</v>
       </c>
-      <c r="G34" s="121" t="str">
+      <c r="G34" s="120" t="str">
         <f t="shared" si="0"/>
         <v>06</v>
       </c>
-      <c r="H34" s="122"/>
+      <c r="H34" s="121"/>
     </row>
     <row r="35" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="118" t="s">
+      <c r="A35" s="117" t="s">
         <v>250</v>
       </c>
-      <c r="B35" s="119">
+      <c r="B35" s="118">
         <v>0.16500000000000001</v>
       </c>
-      <c r="C35" s="119">
+      <c r="C35" s="118">
         <v>0.105</v>
       </c>
-      <c r="D35" s="120">
+      <c r="D35" s="119">
         <f t="shared" si="1"/>
         <v>10.5</v>
       </c>
-      <c r="E35" s="120">
+      <c r="E35" s="119">
         <f t="shared" si="2"/>
         <v>6.0000000000000009</v>
       </c>
-      <c r="F35" s="121">
+      <c r="F35" s="120">
         <v>2006</v>
       </c>
-      <c r="G35" s="121" t="str">
+      <c r="G35" s="120" t="str">
         <f t="shared" si="0"/>
         <v>06</v>
       </c>
-      <c r="H35" s="122"/>
+      <c r="H35" s="121"/>
     </row>
     <row r="36" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="118" t="s">
+      <c r="A36" s="117" t="s">
         <v>251</v>
       </c>
-      <c r="B36" s="119">
+      <c r="B36" s="118">
         <v>0.16400000000000001</v>
       </c>
-      <c r="C36" s="119">
+      <c r="C36" s="118">
         <v>0.105</v>
       </c>
-      <c r="D36" s="120">
+      <c r="D36" s="119">
         <f t="shared" si="1"/>
         <v>10.5</v>
       </c>
-      <c r="E36" s="120">
+      <c r="E36" s="119">
         <f t="shared" si="2"/>
         <v>5.9000000000000012</v>
       </c>
-      <c r="F36" s="121">
+      <c r="F36" s="120">
         <v>2006</v>
       </c>
-      <c r="G36" s="121" t="str">
+      <c r="G36" s="120" t="str">
         <f t="shared" si="0"/>
         <v>06</v>
       </c>
-      <c r="H36" s="122"/>
+      <c r="H36" s="121"/>
     </row>
     <row r="37" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="118" t="s">
+      <c r="A37" s="117" t="s">
         <v>252</v>
       </c>
-      <c r="B37" s="119">
+      <c r="B37" s="118">
         <v>0.16</v>
       </c>
-      <c r="C37" s="119">
+      <c r="C37" s="118">
         <v>0.105</v>
       </c>
-      <c r="D37" s="120">
+      <c r="D37" s="119">
         <f t="shared" si="1"/>
         <v>10.5</v>
       </c>
-      <c r="E37" s="120">
+      <c r="E37" s="119">
         <f t="shared" si="2"/>
         <v>5.5000000000000009</v>
       </c>
-      <c r="F37" s="121">
+      <c r="F37" s="120">
         <v>2006</v>
       </c>
-      <c r="G37" s="121" t="str">
+      <c r="G37" s="120" t="str">
         <f t="shared" si="0"/>
         <v>06</v>
       </c>
-      <c r="H37" s="122"/>
+      <c r="H37" s="121"/>
     </row>
     <row r="38" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="118" t="s">
+      <c r="A38" s="117" t="s">
         <v>253</v>
       </c>
-      <c r="B38" s="119">
+      <c r="B38" s="118">
         <v>0.14000000000000001</v>
       </c>
-      <c r="C38" s="119">
+      <c r="C38" s="118">
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="D38" s="120">
+      <c r="D38" s="119">
         <f t="shared" si="1"/>
         <v>9.7000000000000011</v>
       </c>
-      <c r="E38" s="120">
+      <c r="E38" s="119">
         <f t="shared" si="2"/>
         <v>4.3000000000000007</v>
       </c>
-      <c r="F38" s="121">
+      <c r="F38" s="120">
         <v>2007</v>
       </c>
-      <c r="G38" s="121" t="str">
+      <c r="G38" s="120" t="str">
         <f t="shared" si="0"/>
         <v>07</v>
       </c>
-      <c r="H38" s="122"/>
+      <c r="H38" s="121"/>
     </row>
     <row r="39" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="118" t="s">
+      <c r="A39" s="117" t="s">
         <v>254</v>
       </c>
-      <c r="B39" s="119">
+      <c r="B39" s="118">
         <v>0.106</v>
       </c>
-      <c r="C39" s="119">
+      <c r="C39" s="118">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="D39" s="120">
+      <c r="D39" s="119">
         <f t="shared" si="1"/>
         <v>8.3000000000000007</v>
       </c>
-      <c r="E39" s="120">
+      <c r="E39" s="119">
         <f t="shared" si="2"/>
         <v>2.2999999999999994</v>
       </c>
-      <c r="F39" s="121">
+      <c r="F39" s="120">
         <v>2007</v>
       </c>
-      <c r="G39" s="121" t="str">
+      <c r="G39" s="120" t="str">
         <f t="shared" si="0"/>
         <v>07</v>
       </c>
-      <c r="H39" s="122"/>
+      <c r="H39" s="121"/>
     </row>
     <row r="40" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="118" t="s">
+      <c r="A40" s="117" t="s">
         <v>255</v>
       </c>
-      <c r="B40" s="119">
+      <c r="B40" s="118">
         <v>0.10100000000000001</v>
       </c>
-      <c r="C40" s="119">
+      <c r="C40" s="118">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="D40" s="120">
+      <c r="D40" s="119">
         <f t="shared" si="1"/>
         <v>8.3000000000000007</v>
       </c>
-      <c r="E40" s="120">
+      <c r="E40" s="119">
         <f t="shared" si="2"/>
         <v>1.8000000000000003</v>
       </c>
-      <c r="F40" s="121">
+      <c r="F40" s="120">
         <v>2007</v>
       </c>
-      <c r="G40" s="121" t="str">
+      <c r="G40" s="120" t="str">
         <f t="shared" si="0"/>
         <v>07</v>
       </c>
-      <c r="H40" s="122"/>
+      <c r="H40" s="121"/>
     </row>
     <row r="41" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="118" t="s">
+      <c r="A41" s="117" t="s">
         <v>256</v>
       </c>
-      <c r="B41" s="119">
+      <c r="B41" s="118">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="C41" s="119">
+      <c r="C41" s="118">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="D41" s="120">
+      <c r="D41" s="119">
         <f t="shared" si="1"/>
         <v>8.6</v>
       </c>
-      <c r="E41" s="120">
+      <c r="E41" s="119">
         <f t="shared" si="2"/>
         <v>1.3000000000000012</v>
       </c>
-      <c r="F41" s="121">
+      <c r="F41" s="120">
         <v>2007</v>
       </c>
-      <c r="G41" s="121" t="str">
+      <c r="G41" s="120" t="str">
         <f t="shared" si="0"/>
         <v>07</v>
       </c>
-      <c r="H41" s="122"/>
+      <c r="H41" s="121"/>
     </row>
     <row r="42" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="118" t="s">
+      <c r="A42" s="117" t="s">
         <v>257</v>
       </c>
-      <c r="B42" s="119">
+      <c r="B42" s="118">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="C42" s="119">
+      <c r="C42" s="118">
         <v>8.1000000000000003E-2</v>
       </c>
-      <c r="D42" s="120">
+      <c r="D42" s="119">
         <f t="shared" si="1"/>
         <v>8.1</v>
       </c>
-      <c r="E42" s="120">
+      <c r="E42" s="119">
         <f t="shared" si="2"/>
         <v>1.0999999999999996</v>
       </c>
-      <c r="F42" s="121">
+      <c r="F42" s="120">
         <v>2008</v>
       </c>
-      <c r="G42" s="121" t="str">
+      <c r="G42" s="120" t="str">
         <f t="shared" si="0"/>
         <v>08</v>
       </c>
-      <c r="H42" s="122"/>
+      <c r="H42" s="121"/>
     </row>
     <row r="43" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="118" t="s">
+      <c r="A43" s="117" t="s">
         <v>258</v>
       </c>
-      <c r="B43" s="119">
+      <c r="B43" s="118">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="C43" s="119">
+      <c r="C43" s="118">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="D43" s="120">
+      <c r="D43" s="119">
         <f t="shared" si="1"/>
         <v>7.6</v>
       </c>
-      <c r="E43" s="120">
+      <c r="E43" s="119">
         <f t="shared" si="2"/>
         <v>0.70000000000000062</v>
       </c>
-      <c r="F43" s="121">
+      <c r="F43" s="120">
         <v>2008</v>
       </c>
-      <c r="G43" s="121" t="str">
+      <c r="G43" s="120" t="str">
         <f t="shared" si="0"/>
         <v>08</v>
       </c>
-      <c r="H43" s="122"/>
+      <c r="H43" s="121"/>
     </row>
     <row r="44" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="118" t="s">
+      <c r="A44" s="117" t="s">
         <v>259</v>
       </c>
-      <c r="B44" s="119">
+      <c r="B44" s="118">
         <v>8.6999999999999994E-2</v>
       </c>
-      <c r="C44" s="119">
+      <c r="C44" s="118">
         <v>8.1000000000000003E-2</v>
       </c>
-      <c r="D44" s="120">
+      <c r="D44" s="119">
         <f t="shared" si="1"/>
         <v>8.1</v>
       </c>
-      <c r="E44" s="120">
+      <c r="E44" s="119">
         <f t="shared" si="2"/>
         <v>0.5999999999999992</v>
       </c>
-      <c r="F44" s="121">
+      <c r="F44" s="120">
         <v>2008</v>
       </c>
-      <c r="G44" s="121" t="str">
+      <c r="G44" s="120" t="str">
         <f t="shared" si="0"/>
         <v>08</v>
       </c>
-      <c r="H44" s="122"/>
+      <c r="H44" s="121"/>
     </row>
     <row r="45" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="118" t="s">
+      <c r="A45" s="117" t="s">
         <v>260</v>
       </c>
-      <c r="B45" s="119">
+      <c r="B45" s="118">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="C45" s="119">
+      <c r="C45" s="118">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="D45" s="120">
+      <c r="D45" s="119">
         <f t="shared" si="1"/>
         <v>7.9</v>
       </c>
-      <c r="E45" s="120">
+      <c r="E45" s="119">
         <f t="shared" si="2"/>
         <v>0.50000000000000044</v>
       </c>
-      <c r="F45" s="121">
+      <c r="F45" s="120">
         <v>2008</v>
       </c>
-      <c r="G45" s="121" t="str">
+      <c r="G45" s="120" t="str">
         <f t="shared" si="0"/>
         <v>08</v>
       </c>
-      <c r="H45" s="122"/>
+      <c r="H45" s="121"/>
     </row>
     <row r="46" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="118" t="s">
+      <c r="A46" s="117" t="s">
         <v>261</v>
       </c>
-      <c r="B46" s="119">
+      <c r="B46" s="118">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="C46" s="119">
+      <c r="C46" s="118">
         <v>8.1000000000000003E-2</v>
       </c>
-      <c r="D46" s="120">
+      <c r="D46" s="119">
         <f t="shared" si="1"/>
         <v>8.1</v>
       </c>
-      <c r="E46" s="120">
+      <c r="E46" s="119">
         <f t="shared" si="2"/>
         <v>0.30000000000000027</v>
       </c>
-      <c r="F46" s="121">
+      <c r="F46" s="120">
         <v>2009</v>
       </c>
-      <c r="G46" s="121" t="str">
+      <c r="G46" s="120" t="str">
         <f t="shared" si="0"/>
         <v>09</v>
       </c>
-      <c r="H46" s="122"/>
+      <c r="H46" s="121"/>
     </row>
     <row r="47" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="118" t="s">
+      <c r="A47" s="117" t="s">
         <v>262</v>
       </c>
-      <c r="B47" s="119">
+      <c r="B47" s="118">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="C47" s="119">
+      <c r="C47" s="118">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="D47" s="120">
+      <c r="D47" s="119">
         <f t="shared" si="1"/>
         <v>7.1999999999999993</v>
       </c>
-      <c r="E47" s="120">
+      <c r="E47" s="119">
         <f t="shared" si="2"/>
         <v>0.20000000000000018</v>
       </c>
-      <c r="F47" s="121">
+      <c r="F47" s="120">
         <v>2009</v>
       </c>
-      <c r="G47" s="121" t="str">
+      <c r="G47" s="120" t="str">
         <f t="shared" si="0"/>
         <v>09</v>
       </c>
-      <c r="H47" s="122"/>
+      <c r="H47" s="121"/>
     </row>
     <row r="48" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="118" t="s">
+      <c r="A48" s="117" t="s">
         <v>263</v>
       </c>
-      <c r="B48" s="119">
+      <c r="B48" s="118">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="C48" s="119">
+      <c r="C48" s="118">
         <v>7.2999999999999995E-2</v>
       </c>
-      <c r="D48" s="120">
+      <c r="D48" s="119">
         <f t="shared" si="1"/>
         <v>7.3</v>
       </c>
-      <c r="E48" s="120">
+      <c r="E48" s="119">
         <f t="shared" si="2"/>
         <v>0.30000000000000027</v>
       </c>
-      <c r="F48" s="121">
+      <c r="F48" s="120">
         <v>2009</v>
       </c>
-      <c r="G48" s="121" t="str">
+      <c r="G48" s="120" t="str">
         <f t="shared" si="0"/>
         <v>09</v>
       </c>
-      <c r="H48" s="122"/>
+      <c r="H48" s="121"/>
     </row>
     <row r="49" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="118" t="s">
+      <c r="A49" s="117" t="s">
         <v>264</v>
       </c>
-      <c r="B49" s="119">
+      <c r="B49" s="118">
         <v>0.08</v>
       </c>
-      <c r="C49" s="119">
+      <c r="C49" s="118">
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="D49" s="120">
+      <c r="D49" s="119">
         <f t="shared" si="1"/>
         <v>7.7</v>
       </c>
-      <c r="E49" s="120">
+      <c r="E49" s="119">
         <f t="shared" si="2"/>
         <v>0.30000000000000027</v>
       </c>
-      <c r="F49" s="121">
+      <c r="F49" s="120">
         <v>2009</v>
       </c>
-      <c r="G49" s="121" t="str">
+      <c r="G49" s="120" t="str">
         <f t="shared" si="0"/>
         <v>09</v>
       </c>
-      <c r="H49" s="122"/>
+      <c r="H49" s="121"/>
     </row>
     <row r="50" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="118" t="s">
+      <c r="A50" s="117" t="s">
         <v>265</v>
       </c>
-      <c r="B50" s="119">
+      <c r="B50" s="118">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="C50" s="119">
+      <c r="C50" s="118">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="D50" s="120">
+      <c r="D50" s="119">
         <f t="shared" si="1"/>
         <v>7.1999999999999993</v>
       </c>
-      <c r="E50" s="120">
+      <c r="E50" s="119">
         <f t="shared" si="2"/>
         <v>0.30000000000000027</v>
       </c>
-      <c r="F50" s="121">
+      <c r="F50" s="120">
         <v>2010</v>
       </c>
-      <c r="G50" s="121" t="str">
+      <c r="G50" s="120" t="str">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H50" s="122"/>
+      <c r="H50" s="121"/>
     </row>
     <row r="51" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="118" t="s">
+      <c r="A51" s="117" t="s">
         <v>266</v>
       </c>
-      <c r="B51" s="119">
+      <c r="B51" s="118">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="C51" s="119">
+      <c r="C51" s="118">
         <v>7.2999999999999995E-2</v>
       </c>
-      <c r="D51" s="120">
+      <c r="D51" s="119">
         <f t="shared" si="1"/>
         <v>7.3</v>
       </c>
-      <c r="E51" s="120">
+      <c r="E51" s="119">
         <f t="shared" si="2"/>
         <v>0.20000000000000018</v>
       </c>
-      <c r="F51" s="121">
+      <c r="F51" s="120">
         <v>2010</v>
       </c>
-      <c r="G51" s="121" t="str">
+      <c r="G51" s="120" t="str">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H51" s="122"/>
+      <c r="H51" s="121"/>
     </row>
     <row r="52" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="118" t="s">
+      <c r="A52" s="117" t="s">
         <v>267</v>
       </c>
-      <c r="B52" s="119">
+      <c r="B52" s="118">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="C52" s="119">
+      <c r="C52" s="118">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="D52" s="120">
+      <c r="D52" s="119">
         <f t="shared" si="1"/>
         <v>6.4</v>
       </c>
-      <c r="E52" s="120">
+      <c r="E52" s="119">
         <f t="shared" si="2"/>
         <v>0.30000000000000027</v>
       </c>
-      <c r="F52" s="121">
+      <c r="F52" s="120">
         <v>2010</v>
       </c>
-      <c r="G52" s="121" t="str">
+      <c r="G52" s="120" t="str">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H52" s="122"/>
+      <c r="H52" s="121"/>
     </row>
     <row r="53" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="118" t="s">
+      <c r="A53" s="117" t="s">
         <v>268</v>
       </c>
-      <c r="B53" s="119">
+      <c r="B53" s="118">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="C53" s="119">
+      <c r="C53" s="118">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="D53" s="120">
+      <c r="D53" s="119">
         <f t="shared" si="1"/>
         <v>6.4</v>
       </c>
-      <c r="E53" s="120">
+      <c r="E53" s="119">
         <f t="shared" si="2"/>
         <v>0.20000000000000018</v>
       </c>
-      <c r="F53" s="121">
+      <c r="F53" s="120">
         <v>2010</v>
       </c>
-      <c r="G53" s="121" t="str">
+      <c r="G53" s="120" t="str">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H53" s="122"/>
+      <c r="H53" s="121"/>
     </row>
     <row r="54" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="118" t="s">
+      <c r="A54" s="117" t="s">
         <v>269</v>
       </c>
-      <c r="B54" s="119">
+      <c r="B54" s="118">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="C54" s="119">
+      <c r="C54" s="118">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="D54" s="120">
+      <c r="D54" s="119">
         <f t="shared" si="1"/>
         <v>6.7</v>
       </c>
-      <c r="E54" s="120">
+      <c r="E54" s="119">
         <f t="shared" si="2"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="F54" s="121">
+      <c r="F54" s="120">
         <v>2011</v>
       </c>
-      <c r="G54" s="121" t="str">
+      <c r="G54" s="120" t="str">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="H54" s="122"/>
+      <c r="H54" s="121"/>
     </row>
     <row r="55" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="118" t="s">
+      <c r="A55" s="117" t="s">
         <v>270</v>
       </c>
-      <c r="B55" s="119">
+      <c r="B55" s="118">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="C55" s="119">
+      <c r="C55" s="118">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="D55" s="120">
+      <c r="D55" s="119">
         <f t="shared" si="1"/>
         <v>6.4</v>
       </c>
-      <c r="E55" s="120">
+      <c r="E55" s="119">
         <f t="shared" si="2"/>
         <v>0.20000000000000018</v>
       </c>
-      <c r="F55" s="121">
+      <c r="F55" s="120">
         <v>2011</v>
       </c>
-      <c r="G55" s="121" t="str">
+      <c r="G55" s="120" t="str">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="H55" s="122"/>
+      <c r="H55" s="121"/>
     </row>
     <row r="56" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="118" t="s">
+      <c r="A56" s="117" t="s">
         <v>271</v>
       </c>
-      <c r="B56" s="119">
+      <c r="B56" s="118">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="C56" s="119">
+      <c r="C56" s="118">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="D56" s="120">
+      <c r="D56" s="119">
         <f t="shared" si="1"/>
         <v>6.4</v>
       </c>
-      <c r="E56" s="120">
+      <c r="E56" s="119">
         <f t="shared" si="2"/>
         <v>0.20000000000000018</v>
       </c>
-      <c r="F56" s="121">
+      <c r="F56" s="120">
         <v>2011</v>
       </c>
-      <c r="G56" s="121" t="str">
+      <c r="G56" s="120" t="str">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="H56" s="122"/>
+      <c r="H56" s="121"/>
     </row>
     <row r="57" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="118" t="s">
+      <c r="A57" s="117" t="s">
         <v>272</v>
       </c>
-      <c r="B57" s="119">
+      <c r="B57" s="118">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="C57" s="119">
+      <c r="C57" s="118">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="D57" s="120">
+      <c r="D57" s="119">
         <f t="shared" si="1"/>
         <v>6.6000000000000005</v>
       </c>
-      <c r="E57" s="120">
+      <c r="E57" s="119">
         <f t="shared" si="2"/>
         <v>0.20000000000000018</v>
       </c>
-      <c r="F57" s="121">
+      <c r="F57" s="120">
         <v>2011</v>
       </c>
-      <c r="G57" s="121" t="str">
+      <c r="G57" s="120" t="str">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="H57" s="122"/>
+      <c r="H57" s="121"/>
     </row>
     <row r="58" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="118" t="s">
+      <c r="A58" s="117" t="s">
         <v>273</v>
       </c>
-      <c r="B58" s="119">
+      <c r="B58" s="118">
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="C58" s="119">
+      <c r="C58" s="118">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="D58" s="120">
+      <c r="D58" s="119">
         <f t="shared" si="1"/>
         <v>6.8000000000000007</v>
       </c>
-      <c r="E58" s="120">
+      <c r="E58" s="119">
         <f t="shared" si="2"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="F58" s="121">
+      <c r="F58" s="120">
         <v>2012</v>
       </c>
-      <c r="G58" s="121" t="str">
+      <c r="G58" s="120" t="str">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="H58" s="122"/>
+      <c r="H58" s="121"/>
     </row>
     <row r="59" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="118" t="s">
+      <c r="A59" s="117" t="s">
         <v>274</v>
       </c>
-      <c r="B59" s="119">
+      <c r="B59" s="118">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="C59" s="119">
+      <c r="C59" s="118">
         <v>6.3E-2</v>
       </c>
-      <c r="D59" s="120">
+      <c r="D59" s="119">
         <f t="shared" si="1"/>
         <v>6.3</v>
       </c>
-      <c r="E59" s="120">
+      <c r="E59" s="119">
         <f t="shared" si="2"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="F59" s="121">
+      <c r="F59" s="120">
         <v>2012</v>
       </c>
-      <c r="G59" s="121" t="str">
+      <c r="G59" s="120" t="str">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="H59" s="122"/>
+      <c r="H59" s="121"/>
     </row>
     <row r="60" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="118" t="s">
+      <c r="A60" s="117" t="s">
         <v>275</v>
       </c>
-      <c r="B60" s="119">
+      <c r="B60" s="118">
         <v>6.3E-2</v>
       </c>
-      <c r="C60" s="119">
+      <c r="C60" s="118">
         <v>6.2E-2</v>
       </c>
-      <c r="D60" s="120">
+      <c r="D60" s="119">
         <f t="shared" si="1"/>
         <v>6.2</v>
       </c>
-      <c r="E60" s="120">
+      <c r="E60" s="119">
         <f>100*(B60-C60)</f>
         <v>0.10000000000000009</v>
       </c>
-      <c r="F60" s="121">
+      <c r="F60" s="120">
         <v>2012</v>
       </c>
-      <c r="G60" s="121" t="str">
+      <c r="G60" s="120" t="str">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="H60" s="122"/>
+      <c r="H60" s="121"/>
     </row>
     <row r="61" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="118" t="s">
+      <c r="A61" s="117" t="s">
         <v>276</v>
       </c>
-      <c r="B61" s="119">
+      <c r="B61" s="118">
         <v>6.3E-2</v>
       </c>
-      <c r="C61" s="119">
+      <c r="C61" s="118">
         <v>6.2E-2</v>
       </c>
-      <c r="D61" s="120">
+      <c r="D61" s="119">
         <f t="shared" si="1"/>
         <v>6.2</v>
       </c>
-      <c r="E61" s="120">
+      <c r="E61" s="119">
         <f>100*(B61-C61)</f>
         <v>0.10000000000000009</v>
       </c>
-      <c r="F61" s="121">
+      <c r="F61" s="120">
         <v>2012</v>
       </c>
-      <c r="G61" s="121" t="str">
+      <c r="G61" s="120" t="str">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="H61" s="122"/>
+      <c r="H61" s="121"/>
     </row>
     <row r="62" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="118" t="s">
+      <c r="A62" s="117" t="s">
         <v>277</v>
       </c>
-      <c r="B62" s="119">
+      <c r="B62" s="118">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="C62" s="119">
+      <c r="C62" s="118">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="D62" s="120">
+      <c r="D62" s="119">
         <f t="shared" si="1"/>
         <v>5.4</v>
       </c>
-      <c r="E62" s="120">
+      <c r="E62" s="119">
         <f>100*(B62-C62)</f>
         <v>0.20000000000000018</v>
       </c>
-      <c r="F62" s="121">
+      <c r="F62" s="120">
         <v>2013</v>
       </c>
-      <c r="G62" s="121" t="str">
+      <c r="G62" s="120" t="str">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="H62" s="122"/>
+      <c r="H62" s="121"/>
     </row>
     <row r="63" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="118" t="s">
+      <c r="A63" s="117" t="s">
         <v>278</v>
       </c>
-      <c r="B63" s="123">
+      <c r="B63" s="122">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="C63" s="123">
+      <c r="C63" s="122">
         <v>4.7E-2</v>
       </c>
-      <c r="D63" s="120">
+      <c r="D63" s="119">
         <f t="shared" si="1"/>
         <v>4.7</v>
       </c>
-      <c r="E63" s="120">
+      <c r="E63" s="119">
         <f>100*(B63-C63)</f>
         <v>0.20000000000000018</v>
       </c>
-      <c r="F63" s="121">
+      <c r="F63" s="120">
         <v>2013</v>
       </c>
-      <c r="G63" s="121" t="str">
+      <c r="G63" s="120" t="str">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="H63" s="122"/>
+      <c r="H63" s="121"/>
     </row>
     <row r="64" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="118" t="s">
+      <c r="A64" s="117" t="s">
         <v>279</v>
       </c>
-      <c r="B64" s="123">
+      <c r="B64" s="122">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="C64" s="123">
+      <c r="C64" s="122">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="D64" s="120">
+      <c r="D64" s="119">
         <f t="shared" si="1"/>
         <v>4.3999999999999995</v>
       </c>
-      <c r="E64" s="120">
+      <c r="E64" s="119">
         <f t="shared" ref="E64:E70" si="3">100*(B64-C64)</f>
         <v>0.20000000000000018</v>
       </c>
-      <c r="F64" s="121">
+      <c r="F64" s="120">
         <v>2013</v>
       </c>
-      <c r="G64" s="121" t="str">
+      <c r="G64" s="120" t="str">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="H64" s="122"/>
+      <c r="H64" s="121"/>
     </row>
     <row r="65" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="118" t="s">
+      <c r="A65" s="117" t="s">
         <v>280</v>
       </c>
-      <c r="B65" s="123">
+      <c r="B65" s="122">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="C65" s="123">
+      <c r="C65" s="122">
         <v>4.7E-2</v>
       </c>
-      <c r="D65" s="120">
+      <c r="D65" s="119">
         <f t="shared" si="1"/>
         <v>4.7</v>
       </c>
-      <c r="E65" s="120">
+      <c r="E65" s="119">
         <f t="shared" si="3"/>
         <v>0.20000000000000018</v>
       </c>
-      <c r="F65" s="121">
+      <c r="F65" s="120">
         <v>2013</v>
       </c>
-      <c r="G65" s="121" t="str">
+      <c r="G65" s="120" t="str">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="H65" s="122"/>
+      <c r="H65" s="121"/>
     </row>
     <row r="66" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="124" t="s">
+      <c r="A66" s="123" t="s">
         <v>281</v>
       </c>
-      <c r="B66" s="123">
+      <c r="B66" s="122">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="C66" s="123">
+      <c r="C66" s="122">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="D66" s="120">
+      <c r="D66" s="119">
         <f t="shared" si="1"/>
         <v>5.4</v>
       </c>
-      <c r="E66" s="120">
+      <c r="E66" s="119">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F66" s="121">
+      <c r="F66" s="120">
         <v>2014</v>
       </c>
-      <c r="G66" s="121" t="str">
+      <c r="G66" s="120" t="str">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="124" t="s">
+      <c r="A67" s="123" t="s">
         <v>282</v>
       </c>
-      <c r="B67" s="123">
+      <c r="B67" s="122">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="C67" s="123">
+      <c r="C67" s="122">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="D67" s="120">
+      <c r="D67" s="119">
         <f t="shared" si="1"/>
         <v>5.0999999999999996</v>
       </c>
-      <c r="E67" s="120">
+      <c r="E67" s="119">
         <f t="shared" si="3"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="F67" s="121">
+      <c r="F67" s="120">
         <v>2014</v>
       </c>
-      <c r="G67" s="121" t="str">
+      <c r="G67" s="120" t="str">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="124" t="s">
+      <c r="A68" s="123" t="s">
         <v>283</v>
       </c>
-      <c r="B68" s="123">
+      <c r="B68" s="122">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="C68" s="123">
+      <c r="C68" s="122">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="D68" s="120">
+      <c r="D68" s="119">
         <f t="shared" ref="D68:D69" si="4">C68*100</f>
         <v>5.3</v>
       </c>
-      <c r="E68" s="120">
+      <c r="E68" s="119">
         <f t="shared" si="3"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="F68" s="121">
+      <c r="F68" s="120">
         <v>2014</v>
       </c>
-      <c r="G68" s="121" t="str">
+      <c r="G68" s="120" t="str">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="124" t="s">
+      <c r="A69" s="123" t="s">
         <v>284</v>
       </c>
-      <c r="B69" s="123">
+      <c r="B69" s="122">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="C69" s="123">
+      <c r="C69" s="122">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="D69" s="120">
+      <c r="D69" s="119">
         <f t="shared" si="4"/>
         <v>5.6000000000000005</v>
       </c>
-      <c r="E69" s="120">
+      <c r="E69" s="119">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F69" s="121">
+      <c r="F69" s="120">
         <v>2014</v>
       </c>
-      <c r="G69" s="121" t="str">
+      <c r="G69" s="120" t="str">
         <f t="shared" ref="G69" si="5">RIGHT(F69,2)</f>
         <v>14</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="124" t="s">
+      <c r="A70" s="123" t="s">
         <v>285</v>
       </c>
-      <c r="B70" s="123">
+      <c r="B70" s="122">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="C70" s="123">
+      <c r="C70" s="122">
         <v>5.5E-2</v>
       </c>
-      <c r="D70" s="120">
+      <c r="D70" s="119">
         <f>C70*100</f>
         <v>5.5</v>
       </c>
-      <c r="E70" s="120">
+      <c r="E70" s="119">
         <f t="shared" si="3"/>
         <v>0.20000000000000018</v>
       </c>
-      <c r="F70" s="121">
+      <c r="F70" s="120">
         <v>2015</v>
       </c>
-      <c r="G70" s="125">
+      <c r="G70" s="124">
         <v>15</v>
       </c>
     </row>
@@ -51017,8 +51339,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S5" sqref="S5"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N53" sqref="N53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/chart-styles.xlsx
+++ b/chart-styles.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14200" yWindow="820" windowWidth="29860" windowHeight="23860" tabRatio="913" activeTab="6"/>
+    <workbookView xWindow="2020" yWindow="1940" windowWidth="29860" windowHeight="23860" tabRatio="913" firstSheet="5" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="17" r:id="rId1"/>
@@ -370,12 +370,6 @@
     <t>Retirement</t>
   </si>
   <si>
-    <t>$500,000 under $1,000,000</t>
-  </si>
-  <si>
-    <t>$5,000,000 under $10,000,000</t>
-  </si>
-  <si>
     <t>$10,000,000 or more</t>
   </si>
   <si>
@@ -388,21 +382,6 @@
     <t>Capital Gains</t>
   </si>
   <si>
-    <t>$1 under $25,000</t>
-  </si>
-  <si>
-    <t>$25,000 under $50,000</t>
-  </si>
-  <si>
-    <t>$50,000 under $100,000</t>
-  </si>
-  <si>
-    <t>$100,000 under $500,000</t>
-  </si>
-  <si>
-    <t>$1,000,000 under $5,000,000</t>
-  </si>
-  <si>
     <t>$1–$25k</t>
   </si>
   <si>
@@ -413,18 +392,6 @@
   </si>
   <si>
     <t>$100k–$500k</t>
-  </si>
-  <si>
-    <t>$500k–$1m</t>
-  </si>
-  <si>
-    <t>$1m–$5m</t>
-  </si>
-  <si>
-    <t>$5m–$10m</t>
-  </si>
-  <si>
-    <t>$10m +</t>
   </si>
   <si>
     <t>2008</t>
@@ -968,23 +935,6 @@
     <t>This file comes pre-populated with Urban colors. To save these colors as a theme for future use, click the Page Layout tab, then 'colors' and then 'Create new Theme Colors. Name the colors Urban Colors' and click save.</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Lato Regular"/>
-      </rPr>
-      <t>Source:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Lato Regular"/>
-      </rPr>
-      <t xml:space="preserve"> Urban-Brookings Tax Policy Center Microsimulation Model (version 1006-1).</t>
-    </r>
-  </si>
-  <si>
     <t>Salaries and wages</t>
   </si>
   <si>
@@ -998,6 +948,56 @@
   </si>
   <si>
     <t>*TICK MARKS ON X-AXIS ARE NOT USED FOR CATEGORICAL DATA</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Lato Regular"/>
+      </rPr>
+      <t>Source:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Lato Regular"/>
+      </rPr>
+      <t xml:space="preserve"> Urban-Brookings Tax Policy Center Microsimulation Model (version 1006-1).</t>
+    </r>
+  </si>
+  <si>
+    <t>$25,000 &lt; $50,000</t>
+  </si>
+  <si>
+    <t>$50,000 &lt; $100,000</t>
+  </si>
+  <si>
+    <t>$100,000 &lt; $500,000</t>
+  </si>
+  <si>
+    <t>$500,000 &lt; $1,000,000</t>
+  </si>
+  <si>
+    <t>$1,000,000 &lt; $5,000,000</t>
+  </si>
+  <si>
+    <t>$5,000,000 &lt; $10,000,000</t>
+  </si>
+  <si>
+    <t>$1 &lt; $25,000</t>
+  </si>
+  <si>
+    <t>$500k–$1M</t>
+  </si>
+  <si>
+    <t>$1M–$5M</t>
+  </si>
+  <si>
+    <t>$5M–$10M</t>
+  </si>
+  <si>
+    <t>$10M +</t>
   </si>
 </sst>
 </file>
@@ -1023,7 +1023,7 @@
     <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="59" x14ac:knownFonts="1">
+  <fonts count="61" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1358,6 +1358,15 @@
       <color rgb="FF333333"/>
       <name val="Helvetica Neue"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Lato Regular"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Lato Regular"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1556,7 +1565,7 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="180">
+  <cellXfs count="181">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1893,6 +1902,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2161,11 +2171,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="50"/>
-        <c:axId val="-793953632"/>
-        <c:axId val="-797045792"/>
+        <c:axId val="1594592720"/>
+        <c:axId val="1268965840"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-793953632"/>
+        <c:axId val="1594592720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2182,7 +2192,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="-797045792"/>
+        <c:crossAx val="1268965840"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2190,7 +2200,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-797045792"/>
+        <c:axId val="1268965840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -2217,7 +2227,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="-793953632"/>
+        <c:crossAx val="1594592720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.05"/>
@@ -4313,11 +4323,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-794849024"/>
-        <c:axId val="-794845024"/>
+        <c:axId val="1647038288"/>
+        <c:axId val="1651311920"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="-794849024"/>
+        <c:axId val="1647038288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4327,7 +4337,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-794845024"/>
+        <c:crossAx val="1651311920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4336,7 +4346,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-794845024"/>
+        <c:axId val="1651311920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4347,7 +4357,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-794849024"/>
+        <c:crossAx val="1647038288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4420,7 +4430,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.0626725009162289"/>
           <c:y val="0.209127843394576"/>
-          <c:w val="0.908471285941162"/>
+          <c:w val="0.738910749050561"/>
           <c:h val="0.615078193350831"/>
         </c:manualLayout>
       </c:layout>
@@ -4457,25 +4467,25 @@
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>$1 under $25,000</c:v>
+                  <c:v>$1 &lt; $25,000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>$25,000 under $50,000</c:v>
+                  <c:v>$25,000 &lt; $50,000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>$50,000 under $100,000</c:v>
+                  <c:v>$50,000 &lt; $100,000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>$100,000 under $500,000</c:v>
+                  <c:v>$100,000 &lt; $500,000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>$500,000 under $1,000,000</c:v>
+                  <c:v>$500,000 &lt; $1,000,000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>$1,000,000 under $5,000,000</c:v>
+                  <c:v>$1,000,000 &lt; $5,000,000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>$5,000,000 under $10,000,000</c:v>
+                  <c:v>$5,000,000 &lt; $10,000,000</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>$10,000,000 or more</c:v>
@@ -4546,25 +4556,25 @@
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>$1 under $25,000</c:v>
+                  <c:v>$1 &lt; $25,000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>$25,000 under $50,000</c:v>
+                  <c:v>$25,000 &lt; $50,000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>$50,000 under $100,000</c:v>
+                  <c:v>$50,000 &lt; $100,000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>$100,000 under $500,000</c:v>
+                  <c:v>$100,000 &lt; $500,000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>$500,000 under $1,000,000</c:v>
+                  <c:v>$500,000 &lt; $1,000,000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>$1,000,000 under $5,000,000</c:v>
+                  <c:v>$1,000,000 &lt; $5,000,000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>$5,000,000 under $10,000,000</c:v>
+                  <c:v>$5,000,000 &lt; $10,000,000</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>$10,000,000 or more</c:v>
@@ -4635,25 +4645,25 @@
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>$1 under $25,000</c:v>
+                  <c:v>$1 &lt; $25,000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>$25,000 under $50,000</c:v>
+                  <c:v>$25,000 &lt; $50,000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>$50,000 under $100,000</c:v>
+                  <c:v>$50,000 &lt; $100,000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>$100,000 under $500,000</c:v>
+                  <c:v>$100,000 &lt; $500,000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>$500,000 under $1,000,000</c:v>
+                  <c:v>$500,000 &lt; $1,000,000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>$1,000,000 under $5,000,000</c:v>
+                  <c:v>$1,000,000 &lt; $5,000,000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>$5,000,000 under $10,000,000</c:v>
+                  <c:v>$5,000,000 &lt; $10,000,000</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>$10,000,000 or more</c:v>
@@ -4724,25 +4734,25 @@
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>$1 under $25,000</c:v>
+                  <c:v>$1 &lt; $25,000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>$25,000 under $50,000</c:v>
+                  <c:v>$25,000 &lt; $50,000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>$50,000 under $100,000</c:v>
+                  <c:v>$50,000 &lt; $100,000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>$100,000 under $500,000</c:v>
+                  <c:v>$100,000 &lt; $500,000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>$500,000 under $1,000,000</c:v>
+                  <c:v>$500,000 &lt; $1,000,000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>$1,000,000 under $5,000,000</c:v>
+                  <c:v>$1,000,000 &lt; $5,000,000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>$5,000,000 under $10,000,000</c:v>
+                  <c:v>$5,000,000 &lt; $10,000,000</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>$10,000,000 or more</c:v>
@@ -4813,25 +4823,25 @@
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>$1 under $25,000</c:v>
+                  <c:v>$1 &lt; $25,000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>$25,000 under $50,000</c:v>
+                  <c:v>$25,000 &lt; $50,000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>$50,000 under $100,000</c:v>
+                  <c:v>$50,000 &lt; $100,000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>$100,000 under $500,000</c:v>
+                  <c:v>$100,000 &lt; $500,000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>$500,000 under $1,000,000</c:v>
+                  <c:v>$500,000 &lt; $1,000,000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>$1,000,000 under $5,000,000</c:v>
+                  <c:v>$1,000,000 &lt; $5,000,000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>$5,000,000 under $10,000,000</c:v>
+                  <c:v>$5,000,000 &lt; $10,000,000</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>$10,000,000 or more</c:v>
@@ -4902,25 +4912,25 @@
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>$1 under $25,000</c:v>
+                  <c:v>$1 &lt; $25,000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>$25,000 under $50,000</c:v>
+                  <c:v>$25,000 &lt; $50,000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>$50,000 under $100,000</c:v>
+                  <c:v>$50,000 &lt; $100,000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>$100,000 under $500,000</c:v>
+                  <c:v>$100,000 &lt; $500,000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>$500,000 under $1,000,000</c:v>
+                  <c:v>$500,000 &lt; $1,000,000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>$1,000,000 under $5,000,000</c:v>
+                  <c:v>$1,000,000 &lt; $5,000,000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>$5,000,000 under $10,000,000</c:v>
+                  <c:v>$5,000,000 &lt; $10,000,000</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>$10,000,000 or more</c:v>
@@ -4972,11 +4982,11 @@
         </c:dLbls>
         <c:gapWidth val="50"/>
         <c:overlap val="100"/>
-        <c:axId val="-793607392"/>
-        <c:axId val="-793603008"/>
+        <c:axId val="1648865264"/>
+        <c:axId val="1692299456"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-793607392"/>
+        <c:axId val="1648865264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5004,7 +5014,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-793603008"/>
+        <c:crossAx val="1692299456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5012,7 +5022,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-793603008"/>
+        <c:axId val="1692299456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5049,7 +5059,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-793607392"/>
+        <c:crossAx val="1648865264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5068,10 +5078,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0535966149506347"/>
-          <c:y val="0.07813156167979"/>
-          <c:w val="0.902284464089379"/>
-          <c:h val="0.0918308453630796"/>
+          <c:x val="0.801076175647852"/>
+          <c:y val="0.204368782258862"/>
+          <c:w val="0.1971950629833"/>
+          <c:h val="0.411747188834148"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -5187,25 +5197,25 @@
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>$1 under $25,000</c:v>
+                  <c:v>$1 &lt; $25,000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>$25,000 under $50,000</c:v>
+                  <c:v>$25,000 &lt; $50,000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>$50,000 under $100,000</c:v>
+                  <c:v>$50,000 &lt; $100,000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>$100,000 under $500,000</c:v>
+                  <c:v>$100,000 &lt; $500,000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>$500,000 under $1,000,000</c:v>
+                  <c:v>$500,000 &lt; $1,000,000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>$1,000,000 under $5,000,000</c:v>
+                  <c:v>$1,000,000 &lt; $5,000,000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>$5,000,000 under $10,000,000</c:v>
+                  <c:v>$5,000,000 &lt; $10,000,000</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>$10,000,000 or more</c:v>
@@ -5273,25 +5283,25 @@
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>$1 under $25,000</c:v>
+                  <c:v>$1 &lt; $25,000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>$25,000 under $50,000</c:v>
+                  <c:v>$25,000 &lt; $50,000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>$50,000 under $100,000</c:v>
+                  <c:v>$50,000 &lt; $100,000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>$100,000 under $500,000</c:v>
+                  <c:v>$100,000 &lt; $500,000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>$500,000 under $1,000,000</c:v>
+                  <c:v>$500,000 &lt; $1,000,000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>$1,000,000 under $5,000,000</c:v>
+                  <c:v>$1,000,000 &lt; $5,000,000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>$5,000,000 under $10,000,000</c:v>
+                  <c:v>$5,000,000 &lt; $10,000,000</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>$10,000,000 or more</c:v>
@@ -5359,25 +5369,25 @@
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>$1 under $25,000</c:v>
+                  <c:v>$1 &lt; $25,000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>$25,000 under $50,000</c:v>
+                  <c:v>$25,000 &lt; $50,000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>$50,000 under $100,000</c:v>
+                  <c:v>$50,000 &lt; $100,000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>$100,000 under $500,000</c:v>
+                  <c:v>$100,000 &lt; $500,000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>$500,000 under $1,000,000</c:v>
+                  <c:v>$500,000 &lt; $1,000,000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>$1,000,000 under $5,000,000</c:v>
+                  <c:v>$1,000,000 &lt; $5,000,000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>$5,000,000 under $10,000,000</c:v>
+                  <c:v>$5,000,000 &lt; $10,000,000</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>$10,000,000 or more</c:v>
@@ -5445,25 +5455,25 @@
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>$1 under $25,000</c:v>
+                  <c:v>$1 &lt; $25,000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>$25,000 under $50,000</c:v>
+                  <c:v>$25,000 &lt; $50,000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>$50,000 under $100,000</c:v>
+                  <c:v>$50,000 &lt; $100,000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>$100,000 under $500,000</c:v>
+                  <c:v>$100,000 &lt; $500,000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>$500,000 under $1,000,000</c:v>
+                  <c:v>$500,000 &lt; $1,000,000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>$1,000,000 under $5,000,000</c:v>
+                  <c:v>$1,000,000 &lt; $5,000,000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>$5,000,000 under $10,000,000</c:v>
+                  <c:v>$5,000,000 &lt; $10,000,000</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>$10,000,000 or more</c:v>
@@ -5531,25 +5541,25 @@
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>$1 under $25,000</c:v>
+                  <c:v>$1 &lt; $25,000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>$25,000 under $50,000</c:v>
+                  <c:v>$25,000 &lt; $50,000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>$50,000 under $100,000</c:v>
+                  <c:v>$50,000 &lt; $100,000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>$100,000 under $500,000</c:v>
+                  <c:v>$100,000 &lt; $500,000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>$500,000 under $1,000,000</c:v>
+                  <c:v>$500,000 &lt; $1,000,000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>$1,000,000 under $5,000,000</c:v>
+                  <c:v>$1,000,000 &lt; $5,000,000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>$5,000,000 under $10,000,000</c:v>
+                  <c:v>$5,000,000 &lt; $10,000,000</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>$10,000,000 or more</c:v>
@@ -5617,25 +5627,25 @@
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>$1 under $25,000</c:v>
+                  <c:v>$1 &lt; $25,000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>$25,000 under $50,000</c:v>
+                  <c:v>$25,000 &lt; $50,000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>$50,000 under $100,000</c:v>
+                  <c:v>$50,000 &lt; $100,000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>$100,000 under $500,000</c:v>
+                  <c:v>$100,000 &lt; $500,000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>$500,000 under $1,000,000</c:v>
+                  <c:v>$500,000 &lt; $1,000,000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>$1,000,000 under $5,000,000</c:v>
+                  <c:v>$1,000,000 &lt; $5,000,000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>$5,000,000 under $10,000,000</c:v>
+                  <c:v>$5,000,000 &lt; $10,000,000</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>$10,000,000 or more</c:v>
@@ -5686,11 +5696,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-790558352"/>
-        <c:axId val="-790554352"/>
+        <c:axId val="1646593824"/>
+        <c:axId val="1720723776"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-790558352"/>
+        <c:axId val="1646593824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5700,7 +5710,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-790554352"/>
+        <c:crossAx val="1720723776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5708,7 +5718,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-790554352"/>
+        <c:axId val="1720723776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5734,7 +5744,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="-790558352"/>
+        <c:crossAx val="1646593824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5851,16 +5861,16 @@
                   <c:v>$100k–$500k</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>$500k–$1m</c:v>
+                  <c:v>$500k–$1M</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>$1m–$5m</c:v>
+                  <c:v>$1M–$5M</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>$5m–$10m</c:v>
+                  <c:v>$5M–$10M</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>$10m +</c:v>
+                  <c:v>$10M +</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>$1–$25k</c:v>
@@ -5875,16 +5885,16 @@
                   <c:v>$100k–$500k</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>$500k–$1m</c:v>
+                  <c:v>$500k–$1M</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>$1m–$5m</c:v>
+                  <c:v>$1M–$5M</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>$5m–$10m</c:v>
+                  <c:v>$5M–$10M</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>$10m +</c:v>
+                  <c:v>$10M +</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>$1–$25k</c:v>
@@ -5899,16 +5909,16 @@
                   <c:v>$100k–$500k</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>$500k–$1m</c:v>
+                  <c:v>$500k–$1M</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>$1m–$5m</c:v>
+                  <c:v>$1M–$5M</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>$5m–$10m</c:v>
+                  <c:v>$5M–$10M</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>$10m +</c:v>
+                  <c:v>$10M +</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>$1–$25k</c:v>
@@ -5923,16 +5933,16 @@
                   <c:v>$100k–$500k</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>$500k–$1m</c:v>
+                  <c:v>$500k–$1M</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>$1m–$5m</c:v>
+                  <c:v>$1M–$5M</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>$5m–$10m</c:v>
+                  <c:v>$5M–$10M</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>$10m +</c:v>
+                  <c:v>$10M +</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>$1–$25k</c:v>
@@ -5947,16 +5957,16 @@
                   <c:v>$100k–$500k</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>$500k–$1m</c:v>
+                  <c:v>$500k–$1M</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>$1m–$5m</c:v>
+                  <c:v>$1M–$5M</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>$5m–$10m</c:v>
+                  <c:v>$5M–$10M</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>$10m +</c:v>
+                  <c:v>$10M +</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>$1–$25k</c:v>
@@ -5971,16 +5981,16 @@
                   <c:v>$100k–$500k</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>$500k–$1m</c:v>
+                  <c:v>$500k–$1M</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>$1m–$5m</c:v>
+                  <c:v>$1M–$5M</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>$5m–$10m</c:v>
+                  <c:v>$5M–$10M</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>$10m +</c:v>
+                  <c:v>$10M +</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6056,16 +6066,16 @@
                   <c:v>$100k–$500k</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>$500k–$1m</c:v>
+                  <c:v>$500k–$1M</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>$1m–$5m</c:v>
+                  <c:v>$1M–$5M</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>$5m–$10m</c:v>
+                  <c:v>$5M–$10M</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>$10m +</c:v>
+                  <c:v>$10M +</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>$1–$25k</c:v>
@@ -6080,16 +6090,16 @@
                   <c:v>$100k–$500k</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>$500k–$1m</c:v>
+                  <c:v>$500k–$1M</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>$1m–$5m</c:v>
+                  <c:v>$1M–$5M</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>$5m–$10m</c:v>
+                  <c:v>$5M–$10M</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>$10m +</c:v>
+                  <c:v>$10M +</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>$1–$25k</c:v>
@@ -6104,16 +6114,16 @@
                   <c:v>$100k–$500k</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>$500k–$1m</c:v>
+                  <c:v>$500k–$1M</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>$1m–$5m</c:v>
+                  <c:v>$1M–$5M</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>$5m–$10m</c:v>
+                  <c:v>$5M–$10M</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>$10m +</c:v>
+                  <c:v>$10M +</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>$1–$25k</c:v>
@@ -6128,16 +6138,16 @@
                   <c:v>$100k–$500k</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>$500k–$1m</c:v>
+                  <c:v>$500k–$1M</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>$1m–$5m</c:v>
+                  <c:v>$1M–$5M</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>$5m–$10m</c:v>
+                  <c:v>$5M–$10M</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>$10m +</c:v>
+                  <c:v>$10M +</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>$1–$25k</c:v>
@@ -6152,16 +6162,16 @@
                   <c:v>$100k–$500k</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>$500k–$1m</c:v>
+                  <c:v>$500k–$1M</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>$1m–$5m</c:v>
+                  <c:v>$1M–$5M</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>$5m–$10m</c:v>
+                  <c:v>$5M–$10M</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>$10m +</c:v>
+                  <c:v>$10M +</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>$1–$25k</c:v>
@@ -6176,16 +6186,16 @@
                   <c:v>$100k–$500k</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>$500k–$1m</c:v>
+                  <c:v>$500k–$1M</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>$1m–$5m</c:v>
+                  <c:v>$1M–$5M</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>$5m–$10m</c:v>
+                  <c:v>$5M–$10M</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>$10m +</c:v>
+                  <c:v>$10M +</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6261,16 +6271,16 @@
                   <c:v>$100k–$500k</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>$500k–$1m</c:v>
+                  <c:v>$500k–$1M</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>$1m–$5m</c:v>
+                  <c:v>$1M–$5M</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>$5m–$10m</c:v>
+                  <c:v>$5M–$10M</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>$10m +</c:v>
+                  <c:v>$10M +</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>$1–$25k</c:v>
@@ -6285,16 +6295,16 @@
                   <c:v>$100k–$500k</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>$500k–$1m</c:v>
+                  <c:v>$500k–$1M</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>$1m–$5m</c:v>
+                  <c:v>$1M–$5M</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>$5m–$10m</c:v>
+                  <c:v>$5M–$10M</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>$10m +</c:v>
+                  <c:v>$10M +</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>$1–$25k</c:v>
@@ -6309,16 +6319,16 @@
                   <c:v>$100k–$500k</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>$500k–$1m</c:v>
+                  <c:v>$500k–$1M</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>$1m–$5m</c:v>
+                  <c:v>$1M–$5M</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>$5m–$10m</c:v>
+                  <c:v>$5M–$10M</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>$10m +</c:v>
+                  <c:v>$10M +</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>$1–$25k</c:v>
@@ -6333,16 +6343,16 @@
                   <c:v>$100k–$500k</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>$500k–$1m</c:v>
+                  <c:v>$500k–$1M</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>$1m–$5m</c:v>
+                  <c:v>$1M–$5M</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>$5m–$10m</c:v>
+                  <c:v>$5M–$10M</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>$10m +</c:v>
+                  <c:v>$10M +</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>$1–$25k</c:v>
@@ -6357,16 +6367,16 @@
                   <c:v>$100k–$500k</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>$500k–$1m</c:v>
+                  <c:v>$500k–$1M</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>$1m–$5m</c:v>
+                  <c:v>$1M–$5M</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>$5m–$10m</c:v>
+                  <c:v>$5M–$10M</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>$10m +</c:v>
+                  <c:v>$10M +</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>$1–$25k</c:v>
@@ -6381,16 +6391,16 @@
                   <c:v>$100k–$500k</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>$500k–$1m</c:v>
+                  <c:v>$500k–$1M</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>$1m–$5m</c:v>
+                  <c:v>$1M–$5M</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>$5m–$10m</c:v>
+                  <c:v>$5M–$10M</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>$10m +</c:v>
+                  <c:v>$10M +</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6466,16 +6476,16 @@
                   <c:v>$100k–$500k</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>$500k–$1m</c:v>
+                  <c:v>$500k–$1M</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>$1m–$5m</c:v>
+                  <c:v>$1M–$5M</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>$5m–$10m</c:v>
+                  <c:v>$5M–$10M</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>$10m +</c:v>
+                  <c:v>$10M +</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>$1–$25k</c:v>
@@ -6490,16 +6500,16 @@
                   <c:v>$100k–$500k</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>$500k–$1m</c:v>
+                  <c:v>$500k–$1M</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>$1m–$5m</c:v>
+                  <c:v>$1M–$5M</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>$5m–$10m</c:v>
+                  <c:v>$5M–$10M</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>$10m +</c:v>
+                  <c:v>$10M +</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>$1–$25k</c:v>
@@ -6514,16 +6524,16 @@
                   <c:v>$100k–$500k</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>$500k–$1m</c:v>
+                  <c:v>$500k–$1M</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>$1m–$5m</c:v>
+                  <c:v>$1M–$5M</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>$5m–$10m</c:v>
+                  <c:v>$5M–$10M</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>$10m +</c:v>
+                  <c:v>$10M +</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>$1–$25k</c:v>
@@ -6538,16 +6548,16 @@
                   <c:v>$100k–$500k</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>$500k–$1m</c:v>
+                  <c:v>$500k–$1M</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>$1m–$5m</c:v>
+                  <c:v>$1M–$5M</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>$5m–$10m</c:v>
+                  <c:v>$5M–$10M</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>$10m +</c:v>
+                  <c:v>$10M +</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>$1–$25k</c:v>
@@ -6562,16 +6572,16 @@
                   <c:v>$100k–$500k</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>$500k–$1m</c:v>
+                  <c:v>$500k–$1M</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>$1m–$5m</c:v>
+                  <c:v>$1M–$5M</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>$5m–$10m</c:v>
+                  <c:v>$5M–$10M</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>$10m +</c:v>
+                  <c:v>$10M +</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>$1–$25k</c:v>
@@ -6586,16 +6596,16 @@
                   <c:v>$100k–$500k</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>$500k–$1m</c:v>
+                  <c:v>$500k–$1M</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>$1m–$5m</c:v>
+                  <c:v>$1M–$5M</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>$5m–$10m</c:v>
+                  <c:v>$5M–$10M</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>$10m +</c:v>
+                  <c:v>$10M +</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6671,16 +6681,16 @@
                   <c:v>$100k–$500k</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>$500k–$1m</c:v>
+                  <c:v>$500k–$1M</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>$1m–$5m</c:v>
+                  <c:v>$1M–$5M</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>$5m–$10m</c:v>
+                  <c:v>$5M–$10M</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>$10m +</c:v>
+                  <c:v>$10M +</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>$1–$25k</c:v>
@@ -6695,16 +6705,16 @@
                   <c:v>$100k–$500k</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>$500k–$1m</c:v>
+                  <c:v>$500k–$1M</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>$1m–$5m</c:v>
+                  <c:v>$1M–$5M</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>$5m–$10m</c:v>
+                  <c:v>$5M–$10M</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>$10m +</c:v>
+                  <c:v>$10M +</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>$1–$25k</c:v>
@@ -6719,16 +6729,16 @@
                   <c:v>$100k–$500k</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>$500k–$1m</c:v>
+                  <c:v>$500k–$1M</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>$1m–$5m</c:v>
+                  <c:v>$1M–$5M</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>$5m–$10m</c:v>
+                  <c:v>$5M–$10M</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>$10m +</c:v>
+                  <c:v>$10M +</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>$1–$25k</c:v>
@@ -6743,16 +6753,16 @@
                   <c:v>$100k–$500k</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>$500k–$1m</c:v>
+                  <c:v>$500k–$1M</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>$1m–$5m</c:v>
+                  <c:v>$1M–$5M</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>$5m–$10m</c:v>
+                  <c:v>$5M–$10M</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>$10m +</c:v>
+                  <c:v>$10M +</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>$1–$25k</c:v>
@@ -6767,16 +6777,16 @@
                   <c:v>$100k–$500k</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>$500k–$1m</c:v>
+                  <c:v>$500k–$1M</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>$1m–$5m</c:v>
+                  <c:v>$1M–$5M</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>$5m–$10m</c:v>
+                  <c:v>$5M–$10M</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>$10m +</c:v>
+                  <c:v>$10M +</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>$1–$25k</c:v>
@@ -6791,16 +6801,16 @@
                   <c:v>$100k–$500k</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>$500k–$1m</c:v>
+                  <c:v>$500k–$1M</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>$1m–$5m</c:v>
+                  <c:v>$1M–$5M</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>$5m–$10m</c:v>
+                  <c:v>$5M–$10M</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>$10m +</c:v>
+                  <c:v>$10M +</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6876,16 +6886,16 @@
                   <c:v>$100k–$500k</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>$500k–$1m</c:v>
+                  <c:v>$500k–$1M</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>$1m–$5m</c:v>
+                  <c:v>$1M–$5M</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>$5m–$10m</c:v>
+                  <c:v>$5M–$10M</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>$10m +</c:v>
+                  <c:v>$10M +</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>$1–$25k</c:v>
@@ -6900,16 +6910,16 @@
                   <c:v>$100k–$500k</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>$500k–$1m</c:v>
+                  <c:v>$500k–$1M</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>$1m–$5m</c:v>
+                  <c:v>$1M–$5M</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>$5m–$10m</c:v>
+                  <c:v>$5M–$10M</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>$10m +</c:v>
+                  <c:v>$10M +</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>$1–$25k</c:v>
@@ -6924,16 +6934,16 @@
                   <c:v>$100k–$500k</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>$500k–$1m</c:v>
+                  <c:v>$500k–$1M</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>$1m–$5m</c:v>
+                  <c:v>$1M–$5M</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>$5m–$10m</c:v>
+                  <c:v>$5M–$10M</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>$10m +</c:v>
+                  <c:v>$10M +</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>$1–$25k</c:v>
@@ -6948,16 +6958,16 @@
                   <c:v>$100k–$500k</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>$500k–$1m</c:v>
+                  <c:v>$500k–$1M</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>$1m–$5m</c:v>
+                  <c:v>$1M–$5M</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>$5m–$10m</c:v>
+                  <c:v>$5M–$10M</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>$10m +</c:v>
+                  <c:v>$10M +</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>$1–$25k</c:v>
@@ -6972,16 +6982,16 @@
                   <c:v>$100k–$500k</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>$500k–$1m</c:v>
+                  <c:v>$500k–$1M</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>$1m–$5m</c:v>
+                  <c:v>$1M–$5M</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>$5m–$10m</c:v>
+                  <c:v>$5M–$10M</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>$10m +</c:v>
+                  <c:v>$10M +</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>$1–$25k</c:v>
@@ -6996,16 +7006,16 @@
                   <c:v>$100k–$500k</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>$500k–$1m</c:v>
+                  <c:v>$500k–$1M</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>$1m–$5m</c:v>
+                  <c:v>$1M–$5M</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>$5m–$10m</c:v>
+                  <c:v>$5M–$10M</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>$10m +</c:v>
+                  <c:v>$10M +</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7052,11 +7062,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-792052368"/>
-        <c:axId val="-792048032"/>
+        <c:axId val="1720950560"/>
+        <c:axId val="1721214176"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="-792052368"/>
+        <c:axId val="1720950560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7066,7 +7076,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-792048032"/>
+        <c:crossAx val="1721214176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7074,7 +7084,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-792048032"/>
+        <c:axId val="1721214176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7108,7 +7118,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-792052368"/>
+        <c:crossAx val="1720950560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7229,9 +7239,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -7420,9 +7428,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -7528,11 +7534,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-790413024"/>
-        <c:axId val="-790408608"/>
+        <c:axId val="1720738752"/>
+        <c:axId val="1651472800"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-790413024"/>
+        <c:axId val="1720738752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7560,7 +7566,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-790408608"/>
+        <c:crossAx val="1651472800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7568,7 +7574,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-790408608"/>
+        <c:axId val="1651472800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.3E7"/>
@@ -7607,7 +7613,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-790413024"/>
+        <c:crossAx val="1720738752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7981,11 +7987,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-790269824"/>
-        <c:axId val="-790265904"/>
+        <c:axId val="1596913536"/>
+        <c:axId val="1704250928"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-790269824"/>
+        <c:axId val="1596913536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7995,7 +8001,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-790265904"/>
+        <c:crossAx val="1704250928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8003,7 +8009,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-790265904"/>
+        <c:axId val="1704250928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8029,7 +8035,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="-790269824"/>
+        <c:crossAx val="1596913536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8154,8 +8160,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.00285574271570474"/>
-                  <c:y val="-0.0750241420294162"/>
+                  <c:x val="0.0281721430390821"/>
+                  <c:y val="-0.0679486703313029"/>
                 </c:manualLayout>
               </c:layout>
               <c:spPr>
@@ -8199,10 +8205,29 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.00988122528987678"/>
-                  <c:y val="0.00872920071311849"/>
+                  <c:x val="0.00284887648537598"/>
+                  <c:y val="0.0346725969395335"/>
                 </c:manualLayout>
               </c:layout>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="1"/>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
               <c:dLblPos val="bestFit"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -8225,8 +8250,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.0152830105097622"/>
-                  <c:y val="-0.0198070494725895"/>
+                  <c:x val="-0.0307540671340133"/>
+                  <c:y val="-0.0174485589065518"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="bestFit"/>
@@ -8583,11 +8608,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="0"/>
-        <c:axId val="-790093584"/>
-        <c:axId val="-790089632"/>
+        <c:axId val="1694184272"/>
+        <c:axId val="1673969776"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-790093584"/>
+        <c:axId val="1694184272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8597,7 +8622,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-790089632"/>
+        <c:crossAx val="1673969776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8605,7 +8630,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-790089632"/>
+        <c:axId val="1673969776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8615,7 +8640,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-790093584"/>
+        <c:crossAx val="1694184272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9150,11 +9175,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="0"/>
-        <c:axId val="-790018800"/>
-        <c:axId val="-790014640"/>
+        <c:axId val="1612017072"/>
+        <c:axId val="1594955152"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-790018800"/>
+        <c:axId val="1612017072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9178,7 +9203,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-790014640"/>
+        <c:crossAx val="1594955152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9186,7 +9211,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-790014640"/>
+        <c:axId val="1594955152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9212,7 +9237,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="-790018800"/>
+        <c:crossAx val="1612017072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9311,7 +9336,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -9379,11 +9403,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="50"/>
-        <c:axId val="-793836736"/>
-        <c:axId val="-793825776"/>
+        <c:axId val="1763196480"/>
+        <c:axId val="1691607488"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-793836736"/>
+        <c:axId val="1763196480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9400,7 +9424,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="-793825776"/>
+        <c:crossAx val="1691607488"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9408,7 +9432,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-793825776"/>
+        <c:axId val="1691607488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.25"/>
@@ -9420,7 +9444,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-793836736"/>
+        <c:crossAx val="1763196480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.05"/>
@@ -9701,11 +9725,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="50"/>
-        <c:axId val="-796957392"/>
-        <c:axId val="-796953072"/>
+        <c:axId val="1709877344"/>
+        <c:axId val="1677590560"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-796957392"/>
+        <c:axId val="1709877344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9722,7 +9746,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="-796953072"/>
+        <c:crossAx val="1677590560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9730,7 +9754,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-796953072"/>
+        <c:axId val="1677590560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-20.0"/>
@@ -9757,7 +9781,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="-796957392"/>
+        <c:crossAx val="1709877344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5.0"/>
@@ -10056,11 +10080,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-797391136"/>
-        <c:axId val="-797397920"/>
+        <c:axId val="1704241856"/>
+        <c:axId val="1688720720"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-797391136"/>
+        <c:axId val="1704241856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10080,7 +10104,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-797397920"/>
+        <c:crossAx val="1688720720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10088,7 +10112,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-797397920"/>
+        <c:axId val="1688720720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10114,7 +10138,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="-797391136"/>
+        <c:crossAx val="1704241856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10261,7 +10285,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="17"/>
-              <c:layout/>
               <c:spPr/>
               <c:txPr>
                 <a:bodyPr/>
@@ -10280,14 +10303,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="30"/>
-              <c:layout/>
               <c:spPr/>
               <c:txPr>
                 <a:bodyPr/>
@@ -10306,9 +10326,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -10573,11 +10591,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="30"/>
-        <c:axId val="-792617760"/>
-        <c:axId val="-792613856"/>
+        <c:axId val="1647688432"/>
+        <c:axId val="1721131184"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-792617760"/>
+        <c:axId val="1647688432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10605,7 +10623,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-792613856"/>
+        <c:crossAx val="1721131184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10615,7 +10633,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-792613856"/>
+        <c:axId val="1721131184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.5"/>
@@ -10652,7 +10670,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-792617760"/>
+        <c:crossAx val="1647688432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -10806,7 +10824,7 @@
                   <c:v>5.0718</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.154199999999988</c:v>
+                  <c:v>6.154199999999986</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>7.2366</c:v>
@@ -11738,11 +11756,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-792479280"/>
-        <c:axId val="-792474752"/>
+        <c:axId val="1677650800"/>
+        <c:axId val="1594540880"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="-792479280"/>
+        <c:axId val="1677650800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11770,7 +11788,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-792474752"/>
+        <c:crossAx val="1594540880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11780,7 +11798,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-792474752"/>
+        <c:axId val="1594540880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11860,7 +11878,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-792479280"/>
+        <c:crossAx val="1677650800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="20.0"/>
@@ -12909,11 +12927,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-792378992"/>
-        <c:axId val="-792374496"/>
+        <c:axId val="1659153120"/>
+        <c:axId val="1597434560"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="-792378992"/>
+        <c:axId val="1659153120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12941,7 +12959,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-792374496"/>
+        <c:crossAx val="1597434560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12951,7 +12969,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-792374496"/>
+        <c:axId val="1597434560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12987,7 +13005,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-792378992"/>
+        <c:crossAx val="1659153120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:minorUnit val="5.0"/>
@@ -13956,8 +13974,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-791621856"/>
-        <c:axId val="-791617184"/>
+        <c:axId val="1704154592"/>
+        <c:axId val="1652746592"/>
       </c:areaChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -14230,11 +14248,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-791621856"/>
-        <c:axId val="-791617184"/>
+        <c:axId val="1704154592"/>
+        <c:axId val="1652746592"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-791621856"/>
+        <c:axId val="1704154592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14262,7 +14280,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-791617184"/>
+        <c:crossAx val="1652746592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14272,7 +14290,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-791617184"/>
+        <c:axId val="1652746592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14310,7 +14328,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-791621856"/>
+        <c:crossAx val="1704154592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:minorUnit val="5.0"/>
@@ -15286,8 +15304,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-793696704"/>
-        <c:axId val="-793692032"/>
+        <c:axId val="1764703120"/>
+        <c:axId val="1763992864"/>
       </c:areaChart>
       <c:barChart>
         <c:barDir val="col"/>
@@ -15359,11 +15377,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="0"/>
-        <c:axId val="-793696704"/>
-        <c:axId val="-793692032"/>
+        <c:axId val="1764703120"/>
+        <c:axId val="1763992864"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-793696704"/>
+        <c:axId val="1764703120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15373,7 +15391,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-793692032"/>
+        <c:crossAx val="1763992864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15383,7 +15401,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-793692032"/>
+        <c:axId val="1763992864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="18.0"/>
@@ -15410,7 +15428,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="-793696704"/>
+        <c:crossAx val="1764703120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15645,8 +15663,8 @@
       </cdr:nvGrpSpPr>
       <cdr:grpSpPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="21580" y="50825"/>
-          <a:ext cx="8970020" cy="7251675"/>
+          <a:off x="21541" y="50449"/>
+          <a:ext cx="8954081" cy="7197974"/>
           <a:chOff x="0" y="0"/>
           <a:chExt cx="8970010" cy="7251700"/>
         </a:xfrm>
@@ -18279,12 +18297,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.83526</cdr:x>
-      <cdr:y>0.92749</cdr:y>
+      <cdr:x>0.81994</cdr:x>
+      <cdr:y>0.91811</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>1</cdr:x>
-      <cdr:y>0.97596</cdr:y>
+      <cdr:x>0.98468</cdr:x>
+      <cdr:y>0.96658</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -18293,8 +18311,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="7520932" y="4900123"/>
-          <a:ext cx="1483368" cy="256077"/>
+          <a:off x="7407014" y="4783614"/>
+          <a:ext cx="1488197" cy="252541"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -20434,12 +20452,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.83385</cdr:x>
-      <cdr:y>0.93544</cdr:y>
+      <cdr:x>0.82605</cdr:x>
+      <cdr:y>0.93756</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.99859</cdr:x>
-      <cdr:y>0.97049</cdr:y>
+      <cdr:x>0.99079</cdr:x>
+      <cdr:y>0.97261</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -20448,8 +20466,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="7508232" y="6842902"/>
-          <a:ext cx="1483368" cy="256398"/>
+          <a:off x="7424469" y="6885554"/>
+          <a:ext cx="1480673" cy="257410"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -20793,12 +20811,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.01456</cdr:x>
-      <cdr:y>0.92633</cdr:y>
+      <cdr:x>0.0033</cdr:x>
+      <cdr:y>0.92367</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.69619</cdr:x>
-      <cdr:y>1</cdr:y>
+      <cdr:x>0.68493</cdr:x>
+      <cdr:y>0.99734</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -20807,8 +20825,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="131139" y="6873061"/>
-          <a:ext cx="6137581" cy="429439"/>
+          <a:off x="29631" y="5405493"/>
+          <a:ext cx="6128997" cy="431132"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -24097,6 +24115,138 @@
       </cdr:txBody>
     </cdr:sp>
   </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.65682</cdr:x>
+      <cdr:y>0.41274</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.70323</cdr:x>
+      <cdr:y>0.41274</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="4" name="Straight Connector 3"/>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="5930900" y="2222500"/>
+          <a:ext cx="419100" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.46554</cdr:x>
+      <cdr:y>0.71698</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.46976</cdr:x>
+      <cdr:y>0.76415</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="6" name="Straight Connector 5"/>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipH="1">
+          <a:off x="4203700" y="3860800"/>
+          <a:ext cx="38100" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.29255</cdr:x>
+      <cdr:y>0.40802</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.34037</cdr:x>
+      <cdr:y>0.40802</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="11" name="Straight Connector 10"/>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipH="1">
+          <a:off x="2641600" y="2197100"/>
+          <a:ext cx="431800" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
 </c:userShapes>
 </file>
 
@@ -25104,12 +25254,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.83526</cdr:x>
-      <cdr:y>0.93625</cdr:y>
+      <cdr:x>0.83191</cdr:x>
+      <cdr:y>0.89265</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>1</cdr:x>
-      <cdr:y>1</cdr:y>
+      <cdr:x>0.99665</cdr:x>
+      <cdr:y>0.9564</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -25118,8 +25268,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="7537450" y="7066102"/>
-          <a:ext cx="1483360" cy="236398"/>
+          <a:off x="7499954" y="3508250"/>
+          <a:ext cx="1485195" cy="250547"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -26327,6 +26477,185 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>162560</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>111760</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>90889</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>39020</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16570960" y="3535680"/>
+          <a:ext cx="1472649" cy="252380"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="900" b="1" spc="100">
+              <a:solidFill>
+                <a:srgbClr val="0096D2"/>
+              </a:solidFill>
+              <a:latin typeface="Lato Regular"/>
+              <a:cs typeface="Lato Regular"/>
+            </a:rPr>
+            <a:t>URBAN</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="900" b="1" spc="100">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="Lato Regular"/>
+              <a:cs typeface="Lato Regular"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="900" b="1" spc="100">
+              <a:latin typeface="Lato Regular"/>
+              <a:cs typeface="Lato Regular"/>
+            </a:rPr>
+            <a:t>INSTITUTE</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="900" spc="100">
+            <a:latin typeface="Lato Regular"/>
+            <a:cs typeface="Lato Regular"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -26348,8 +26677,8 @@
       </cdr:nvGrpSpPr>
       <cdr:grpSpPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="0" y="54246"/>
-          <a:ext cx="8905240" cy="4515886"/>
+          <a:off x="0" y="54888"/>
+          <a:ext cx="8954140" cy="4569377"/>
           <a:chOff x="0" y="0"/>
           <a:chExt cx="8970010" cy="4229913"/>
         </a:xfrm>
@@ -26922,8 +27251,8 @@
       </cdr:nvGrpSpPr>
       <cdr:grpSpPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="27984" y="54399"/>
-          <a:ext cx="8969966" cy="4529377"/>
+          <a:off x="28123" y="53733"/>
+          <a:ext cx="9014512" cy="4473922"/>
           <a:chOff x="0" y="0"/>
           <a:chExt cx="8970010" cy="4229913"/>
         </a:xfrm>
@@ -29387,17 +29716,17 @@
   <sheetData>
     <row r="1" spans="1:7" ht="20" x14ac:dyDescent="0.2">
       <c r="A1" s="109" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="80" x14ac:dyDescent="0.2">
       <c r="A2" s="110" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A3" s="110" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -29405,30 +29734,30 @@
     </row>
     <row r="6" spans="1:7" s="93" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="B6" s="108" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="C6" s="108" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="D6" s="108" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="E6" s="108" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="F6" s="108" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="G6" s="108" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="23" x14ac:dyDescent="0.25">
       <c r="A7" s="149" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="B7" s="104" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="C7" s="104">
         <v>18</v>
@@ -29437,21 +29766,21 @@
         <v>12</v>
       </c>
       <c r="E7" s="104" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="F7" s="104" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="G7" s="104" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A8" s="104" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="B8" s="104" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="C8" s="104">
         <v>14</v>
@@ -29460,21 +29789,21 @@
         <v>9.5</v>
       </c>
       <c r="E8" s="104" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="F8" s="104" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="G8" s="104" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="105" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="B9" s="104" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="C9" s="104">
         <v>12</v>
@@ -29483,21 +29812,21 @@
         <v>8.5</v>
       </c>
       <c r="E9" s="104" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="F9" s="104" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="G9" s="104" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="92" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="B10" s="104" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="C10" s="104">
         <v>12</v>
@@ -29506,21 +29835,21 @@
         <v>8.5</v>
       </c>
       <c r="E10" s="104" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="F10" s="104" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="G10" s="104" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" s="92" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="B11" s="104" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="C11" s="104">
         <v>12</v>
@@ -29529,21 +29858,21 @@
         <v>9.5</v>
       </c>
       <c r="E11" s="104" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="F11" s="104" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="G11" s="104" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" s="106" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="B12" s="104" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="C12" s="104">
         <v>12</v>
@@ -29552,21 +29881,21 @@
         <v>9.5</v>
       </c>
       <c r="E12" s="104" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="F12" s="104" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="G12" s="104" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" s="107" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="B13" s="104" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="C13" s="104">
         <v>11</v>
@@ -29575,21 +29904,21 @@
         <v>8.5</v>
       </c>
       <c r="E13" s="104" t="s">
+        <v>151</v>
+      </c>
+      <c r="F13" s="104" t="s">
+        <v>148</v>
+      </c>
+      <c r="G13" s="104" t="s">
         <v>162</v>
-      </c>
-      <c r="F13" s="104" t="s">
-        <v>159</v>
-      </c>
-      <c r="G13" s="104" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A14" s="107" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="B14" s="104" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="C14" s="104">
         <v>11</v>
@@ -29598,13 +29927,13 @@
         <v>8</v>
       </c>
       <c r="E14" s="104" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="F14" s="104" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="G14" s="104" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="32" x14ac:dyDescent="0.2">
@@ -29917,8 +30246,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BX272"/>
   <sheetViews>
-    <sheetView topLeftCell="E2" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView topLeftCell="A26" zoomScale="163" zoomScaleNormal="163" zoomScalePageLayoutView="163" workbookViewId="0">
+      <selection activeCell="E74" sqref="E74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="11" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -30013,7 +30342,7 @@
     <row r="2" spans="1:76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="45"/>
       <c r="B2" s="45" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C2" s="45" t="s">
         <v>99</v>
@@ -30025,10 +30354,10 @@
         <v>100</v>
       </c>
       <c r="F2" s="45" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G2" s="45" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H2" s="74"/>
       <c r="I2" s="74"/>
@@ -30102,7 +30431,7 @@
     </row>
     <row r="3" spans="1:76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="45" t="s">
-        <v>107</v>
+        <v>289</v>
       </c>
       <c r="B3" s="75">
         <v>532981157</v>
@@ -30194,7 +30523,7 @@
     </row>
     <row r="4" spans="1:76" s="80" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="45" t="s">
-        <v>108</v>
+        <v>283</v>
       </c>
       <c r="B4" s="75">
         <v>993592692</v>
@@ -30286,7 +30615,7 @@
     </row>
     <row r="5" spans="1:76" s="80" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="45" t="s">
-        <v>109</v>
+        <v>284</v>
       </c>
       <c r="B5" s="75">
         <v>1701107541</v>
@@ -30378,7 +30707,7 @@
     </row>
     <row r="6" spans="1:76" s="83" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="45" t="s">
-        <v>110</v>
+        <v>285</v>
       </c>
       <c r="B6" s="75">
         <v>2406261909</v>
@@ -30469,7 +30798,7 @@
     </row>
     <row r="7" spans="1:76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="45" t="s">
-        <v>101</v>
+        <v>286</v>
       </c>
       <c r="B7" s="75">
         <v>259165177</v>
@@ -30560,7 +30889,7 @@
     </row>
     <row r="8" spans="1:76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="45" t="s">
-        <v>111</v>
+        <v>287</v>
       </c>
       <c r="B8" s="75">
         <v>247106515</v>
@@ -30651,7 +30980,7 @@
     </row>
     <row r="9" spans="1:76" s="85" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="45" t="s">
-        <v>102</v>
+        <v>288</v>
       </c>
       <c r="B9" s="75">
         <v>140697169</v>
@@ -30742,7 +31071,7 @@
     </row>
     <row r="10" spans="1:76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="45" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B10" s="75">
         <v>87915690</v>
@@ -30985,7 +31314,7 @@
     <row r="13" spans="1:76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="45"/>
       <c r="B13" s="45" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C13" s="45" t="s">
         <v>99</v>
@@ -30997,10 +31326,10 @@
         <v>100</v>
       </c>
       <c r="F13" s="45" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G13" s="45" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H13" s="46"/>
       <c r="I13" s="46"/>
@@ -31073,7 +31402,7 @@
     </row>
     <row r="14" spans="1:76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="45" t="s">
-        <v>107</v>
+        <v>289</v>
       </c>
       <c r="B14" s="45">
         <v>0.73927726999999999</v>
@@ -31164,7 +31493,7 @@
     </row>
     <row r="15" spans="1:76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="45" t="s">
-        <v>108</v>
+        <v>283</v>
       </c>
       <c r="B15" s="45">
         <v>0.79781971299999999</v>
@@ -31255,7 +31584,7 @@
     </row>
     <row r="16" spans="1:76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="45" t="s">
-        <v>109</v>
+        <v>284</v>
       </c>
       <c r="B16" s="45">
         <v>0.75897298400000002</v>
@@ -31346,7 +31675,7 @@
     </row>
     <row r="17" spans="1:76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="45" t="s">
-        <v>110</v>
+        <v>285</v>
       </c>
       <c r="B17" s="45">
         <v>0.72107784799999997</v>
@@ -31437,7 +31766,7 @@
     </row>
     <row r="18" spans="1:76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="45" t="s">
-        <v>101</v>
+        <v>286</v>
       </c>
       <c r="B18" s="45">
         <v>0.53170178700000004</v>
@@ -31528,7 +31857,7 @@
     </row>
     <row r="19" spans="1:76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="45" t="s">
-        <v>111</v>
+        <v>287</v>
       </c>
       <c r="B19" s="45">
         <v>0.37686135500000001</v>
@@ -31619,7 +31948,7 @@
     </row>
     <row r="20" spans="1:76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="45" t="s">
-        <v>102</v>
+        <v>288</v>
       </c>
       <c r="B20" s="45">
         <v>0.190789666</v>
@@ -31710,7 +32039,7 @@
     </row>
     <row r="21" spans="1:76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="45" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B21" s="45">
         <v>0.159875141</v>
@@ -31965,7 +32294,7 @@
       <c r="I24" s="147"/>
       <c r="J24" s="46"/>
       <c r="K24" s="148" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="L24" s="46"/>
       <c r="M24" s="87"/>
@@ -35216,8 +35545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BX276"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView showGridLines="0" topLeftCell="E1" zoomScale="121" zoomScaleNormal="121" zoomScalePageLayoutView="121" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="11" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -35312,10 +35641,10 @@
     <row r="2" spans="1:76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="45"/>
       <c r="B2" s="45" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="C2" s="45" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="D2" s="45" t="s">
         <v>63</v>
@@ -35324,10 +35653,10 @@
         <v>100</v>
       </c>
       <c r="F2" s="45" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="G2" s="45" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="H2" s="74"/>
       <c r="I2" s="74"/>
@@ -35401,7 +35730,7 @@
     </row>
     <row r="3" spans="1:76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="45" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B3" s="45">
         <v>0.73927726999999999</v>
@@ -35482,7 +35811,7 @@
     </row>
     <row r="4" spans="1:76" s="80" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="45" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B4" s="45">
         <v>0.79781971299999999</v>
@@ -35564,7 +35893,7 @@
     </row>
     <row r="5" spans="1:76" s="80" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="45" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B5" s="45">
         <v>0.75897298400000002</v>
@@ -35646,7 +35975,7 @@
     </row>
     <row r="6" spans="1:76" s="83" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="45" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B6" s="45">
         <v>0.72107784799999997</v>
@@ -35727,7 +36056,7 @@
     </row>
     <row r="7" spans="1:76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="45" t="s">
-        <v>116</v>
+        <v>290</v>
       </c>
       <c r="B7" s="45">
         <v>0.53170178700000004</v>
@@ -35807,7 +36136,7 @@
     </row>
     <row r="8" spans="1:76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="45" t="s">
-        <v>117</v>
+        <v>291</v>
       </c>
       <c r="B8" s="45">
         <v>0.37686135500000001</v>
@@ -35887,7 +36216,7 @@
     </row>
     <row r="9" spans="1:76" s="85" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="45" t="s">
-        <v>118</v>
+        <v>292</v>
       </c>
       <c r="B9" s="45">
         <v>0.190789666</v>
@@ -35968,7 +36297,7 @@
     </row>
     <row r="10" spans="1:76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="45" t="s">
-        <v>119</v>
+        <v>293</v>
       </c>
       <c r="B10" s="45">
         <v>0.159875141</v>
@@ -36125,7 +36454,7 @@
     </row>
     <row r="12" spans="1:76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="45" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B12" s="43"/>
       <c r="C12" s="45">
@@ -36206,7 +36535,7 @@
     </row>
     <row r="13" spans="1:76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="45" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B13" s="43"/>
       <c r="C13" s="45">
@@ -36287,7 +36616,7 @@
     </row>
     <row r="14" spans="1:76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="45" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B14" s="43"/>
       <c r="C14" s="45">
@@ -36368,7 +36697,7 @@
     </row>
     <row r="15" spans="1:76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="45" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B15" s="43"/>
       <c r="C15" s="45">
@@ -36449,7 +36778,7 @@
     </row>
     <row r="16" spans="1:76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="45" t="s">
-        <v>116</v>
+        <v>290</v>
       </c>
       <c r="B16" s="43"/>
       <c r="C16" s="45">
@@ -36530,7 +36859,7 @@
     </row>
     <row r="17" spans="1:76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="45" t="s">
-        <v>117</v>
+        <v>291</v>
       </c>
       <c r="B17" s="43"/>
       <c r="C17" s="45">
@@ -36611,7 +36940,7 @@
     </row>
     <row r="18" spans="1:76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="45" t="s">
-        <v>118</v>
+        <v>292</v>
       </c>
       <c r="B18" s="43"/>
       <c r="C18" s="45">
@@ -36692,7 +37021,7 @@
     </row>
     <row r="19" spans="1:76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="45" t="s">
-        <v>119</v>
+        <v>293</v>
       </c>
       <c r="B19" s="43"/>
       <c r="C19" s="45">
@@ -36850,7 +37179,7 @@
     </row>
     <row r="21" spans="1:76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="45" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B21" s="43"/>
       <c r="C21" s="43"/>
@@ -36931,7 +37260,7 @@
     </row>
     <row r="22" spans="1:76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="45" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B22" s="43"/>
       <c r="C22" s="43"/>
@@ -37012,7 +37341,7 @@
     </row>
     <row r="23" spans="1:76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="45" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B23" s="43"/>
       <c r="C23" s="43"/>
@@ -37093,7 +37422,7 @@
     </row>
     <row r="24" spans="1:76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="45" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B24" s="43"/>
       <c r="C24" s="43"/>
@@ -37174,7 +37503,7 @@
     </row>
     <row r="25" spans="1:76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="45" t="s">
-        <v>116</v>
+        <v>290</v>
       </c>
       <c r="B25" s="43"/>
       <c r="C25" s="43"/>
@@ -37255,7 +37584,7 @@
     </row>
     <row r="26" spans="1:76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="45" t="s">
-        <v>117</v>
+        <v>291</v>
       </c>
       <c r="B26" s="43"/>
       <c r="C26" s="43"/>
@@ -37336,7 +37665,7 @@
     </row>
     <row r="27" spans="1:76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="45" t="s">
-        <v>118</v>
+        <v>292</v>
       </c>
       <c r="B27" s="43"/>
       <c r="C27" s="43"/>
@@ -37417,7 +37746,7 @@
     </row>
     <row r="28" spans="1:76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="45" t="s">
-        <v>119</v>
+        <v>293</v>
       </c>
       <c r="B28" s="43"/>
       <c r="C28" s="43"/>
@@ -37575,7 +37904,7 @@
     </row>
     <row r="30" spans="1:76" ht="11" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="45" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B30" s="43"/>
       <c r="C30" s="43"/>
@@ -37590,7 +37919,7 @@
     </row>
     <row r="31" spans="1:76" ht="11" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="45" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B31" s="43"/>
       <c r="C31" s="43"/>
@@ -37603,7 +37932,7 @@
     </row>
     <row r="32" spans="1:76" ht="11" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="45" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B32" s="43"/>
       <c r="C32" s="43"/>
@@ -37685,7 +38014,7 @@
     </row>
     <row r="33" spans="1:76" ht="11" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="45" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B33" s="43"/>
       <c r="C33" s="43"/>
@@ -37698,7 +38027,7 @@
     </row>
     <row r="34" spans="1:76" ht="11" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="45" t="s">
-        <v>116</v>
+        <v>290</v>
       </c>
       <c r="B34" s="43"/>
       <c r="C34" s="43"/>
@@ -37712,7 +38041,7 @@
     </row>
     <row r="35" spans="1:76" ht="11" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="45" t="s">
-        <v>117</v>
+        <v>291</v>
       </c>
       <c r="B35" s="43"/>
       <c r="C35" s="43"/>
@@ -37725,7 +38054,7 @@
     </row>
     <row r="36" spans="1:76" ht="11" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="45" t="s">
-        <v>118</v>
+        <v>292</v>
       </c>
       <c r="B36" s="43"/>
       <c r="C36" s="43"/>
@@ -37802,7 +38131,7 @@
     </row>
     <row r="37" spans="1:76" ht="11" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="45" t="s">
-        <v>119</v>
+        <v>293</v>
       </c>
       <c r="B37" s="43"/>
       <c r="C37" s="43"/>
@@ -37848,7 +38177,7 @@
     </row>
     <row r="39" spans="1:76" ht="11" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="45" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B39" s="43"/>
       <c r="C39" s="43"/>
@@ -37873,7 +38202,7 @@
     </row>
     <row r="40" spans="1:76" ht="11" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="45" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B40" s="43"/>
       <c r="C40" s="43"/>
@@ -37898,7 +38227,7 @@
     </row>
     <row r="41" spans="1:76" ht="11" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="45" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B41" s="43"/>
       <c r="C41" s="43"/>
@@ -37923,7 +38252,7 @@
     </row>
     <row r="42" spans="1:76" ht="11" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="45" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B42" s="43"/>
       <c r="C42" s="43"/>
@@ -37948,7 +38277,7 @@
     </row>
     <row r="43" spans="1:76" ht="11" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="45" t="s">
-        <v>116</v>
+        <v>290</v>
       </c>
       <c r="B43" s="43"/>
       <c r="C43" s="43"/>
@@ -37973,7 +38302,7 @@
     </row>
     <row r="44" spans="1:76" ht="11" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="45" t="s">
-        <v>117</v>
+        <v>291</v>
       </c>
       <c r="B44" s="43"/>
       <c r="C44" s="43"/>
@@ -37998,7 +38327,7 @@
     </row>
     <row r="45" spans="1:76" ht="11" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="45" t="s">
-        <v>118</v>
+        <v>292</v>
       </c>
       <c r="B45" s="43"/>
       <c r="C45" s="43"/>
@@ -38017,7 +38346,7 @@
     </row>
     <row r="46" spans="1:76" ht="11" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="45" t="s">
-        <v>119</v>
+        <v>293</v>
       </c>
       <c r="B46" s="43"/>
       <c r="C46" s="43"/>
@@ -38063,7 +38392,7 @@
     </row>
     <row r="48" spans="1:76" ht="11" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="45" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B48" s="43"/>
       <c r="C48" s="43"/>
@@ -38083,7 +38412,7 @@
     </row>
     <row r="49" spans="1:11" ht="11" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="45" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B49" s="43"/>
       <c r="C49" s="43"/>
@@ -38097,7 +38426,7 @@
     </row>
     <row r="50" spans="1:11" ht="11" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="45" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B50" s="43"/>
       <c r="C50" s="43"/>
@@ -38111,7 +38440,7 @@
     </row>
     <row r="51" spans="1:11" ht="11" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="45" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B51" s="43"/>
       <c r="C51" s="43"/>
@@ -38127,7 +38456,7 @@
     </row>
     <row r="52" spans="1:11" ht="11" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="45" t="s">
-        <v>116</v>
+        <v>290</v>
       </c>
       <c r="B52" s="43"/>
       <c r="C52" s="43"/>
@@ -38143,7 +38472,7 @@
     </row>
     <row r="53" spans="1:11" ht="11" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="45" t="s">
-        <v>117</v>
+        <v>291</v>
       </c>
       <c r="B53" s="43"/>
       <c r="C53" s="43"/>
@@ -38159,7 +38488,7 @@
     </row>
     <row r="54" spans="1:11" ht="11" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="45" t="s">
-        <v>118</v>
+        <v>292</v>
       </c>
       <c r="B54" s="43"/>
       <c r="C54" s="43"/>
@@ -38175,7 +38504,7 @@
     </row>
     <row r="55" spans="1:11" ht="11" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="45" t="s">
-        <v>119</v>
+        <v>293</v>
       </c>
       <c r="B55" s="43"/>
       <c r="C55" s="43"/>
@@ -40921,7 +41250,9 @@
   </sheetPr>
   <dimension ref="A1:X83"/>
   <sheetViews>
-    <sheetView defaultGridColor="0" colorId="22" workbookViewId="0"/>
+    <sheetView defaultGridColor="0" colorId="22" zoomScale="158" zoomScaleNormal="158" zoomScalePageLayoutView="158" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -40962,7 +41293,7 @@
         <v>96</v>
       </c>
       <c r="K1" s="49" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="L1" s="49" t="s">
         <v>97</v>
@@ -40971,16 +41302,16 @@
         <v>98</v>
       </c>
       <c r="N1" s="49" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="O1" s="49" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="P1" s="49" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="Q1" s="49" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="R1" s="50">
         <v>2015</v>
@@ -41100,7 +41431,7 @@
     </row>
     <row r="32" spans="4:4" ht="18" x14ac:dyDescent="0.2">
       <c r="D32" s="55" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
     </row>
     <row r="75" spans="1:24" ht="16" x14ac:dyDescent="0.2">
@@ -41347,8 +41678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView topLeftCell="B6" workbookViewId="0">
-      <selection activeCell="V68" sqref="V68"/>
+    <sheetView topLeftCell="C13" zoomScale="163" zoomScaleNormal="163" zoomScalePageLayoutView="163" workbookViewId="0">
+      <selection activeCell="M43" sqref="M43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -41358,7 +41689,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="36" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
@@ -41409,7 +41740,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="J4" s="36" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="16" x14ac:dyDescent="0.2">
@@ -41478,8 +41809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="P35" sqref="P35"/>
+    <sheetView topLeftCell="A14" zoomScale="121" zoomScaleNormal="121" zoomScalePageLayoutView="121" workbookViewId="0">
+      <selection activeCell="N37" sqref="N37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -41497,30 +41828,30 @@
   <sheetData>
     <row r="1" spans="1:11" s="60" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="59" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="60" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="B2" s="59" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="C2" s="59" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="D2" s="59" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="E2" s="59" t="s">
         <v>86</v>
       </c>
       <c r="I2" s="59" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="J2" s="59" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="K2" s="59" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="60" customFormat="1" ht="14" x14ac:dyDescent="0.15">
@@ -41548,20 +41879,20 @@
     </row>
     <row r="4" spans="1:11" s="60" customFormat="1" ht="14" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:11" s="60" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A5" s="178" t="s">
-        <v>131</v>
-      </c>
-      <c r="B5" s="178"/>
-      <c r="C5" s="178"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="178"/>
+      <c r="A5" s="179" t="s">
+        <v>120</v>
+      </c>
+      <c r="B5" s="179"/>
+      <c r="C5" s="179"/>
+      <c r="D5" s="179"/>
+      <c r="E5" s="179"/>
     </row>
     <row r="6" spans="1:11" s="60" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A6" s="179"/>
-      <c r="B6" s="179"/>
-      <c r="C6" s="179"/>
-      <c r="D6" s="179"/>
-      <c r="E6" s="179"/>
+      <c r="A6" s="180"/>
+      <c r="B6" s="180"/>
+      <c r="C6" s="180"/>
+      <c r="D6" s="180"/>
+      <c r="E6" s="180"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -41576,20 +41907,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O29" sqref="O29"/>
+    <sheetView tabSelected="1" zoomScale="126" zoomScaleNormal="126" zoomScalePageLayoutView="126" workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="45" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B2" s="45" t="s">
         <v>99</v>
@@ -41601,10 +41932,10 @@
         <v>100</v>
       </c>
       <c r="E2" s="45" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F2" s="45" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -41653,7 +41984,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="M14" s="45" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="N14" s="75">
         <v>87915690</v>
@@ -41661,7 +41992,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="M15" s="45" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="N15" s="75">
         <v>93504435</v>
@@ -41669,7 +42000,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="M16" s="45" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="N16" s="75">
         <v>265285834</v>
@@ -41707,15 +42038,15 @@
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B4" s="69" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="C4" s="69" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B5" s="69" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="C5" s="70">
         <v>1.9</v>
@@ -41727,7 +42058,7 @@
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B6" s="69" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="C6" s="70">
         <v>7</v>
@@ -41739,7 +42070,7 @@
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B7" s="72" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="C7" s="70">
         <v>11.2</v>
@@ -41751,7 +42082,7 @@
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B8" s="69" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="C8" s="70">
         <v>15.2</v>
@@ -41763,7 +42094,7 @@
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B9" s="69" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="C9" s="70">
         <v>23.4</v>
@@ -41775,7 +42106,7 @@
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B10" s="69" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C10" s="69">
         <v>29</v>
@@ -41790,7 +42121,7 @@
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B12" s="69" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="C12" s="69">
         <v>18.600000000000001</v>
@@ -41802,7 +42133,7 @@
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B13" s="69" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="C13" s="69">
         <v>21.1</v>
@@ -41814,7 +42145,7 @@
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B14" s="69" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="C14" s="69">
         <v>24.3</v>
@@ -41831,7 +42162,7 @@
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B18" s="69" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="C18" s="70">
         <v>33.799999999999997</v>
@@ -41843,7 +42174,7 @@
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B19" s="69" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="C19" s="70">
         <v>20.5</v>
@@ -41855,7 +42186,7 @@
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B20" s="69" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="C20" s="70">
         <v>21.5</v>
@@ -41867,7 +42198,7 @@
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B21" s="69" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="C21" s="70">
         <v>22.6</v>
@@ -41879,7 +42210,7 @@
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B22" s="69" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="C22" s="70">
         <v>23.2</v>
@@ -41891,7 +42222,7 @@
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B23" s="69" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="C23" s="70">
         <v>23</v>
@@ -41903,7 +42234,7 @@
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B24" s="69" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="C24" s="70">
         <v>22.4</v>
@@ -41915,7 +42246,7 @@
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B25" s="69" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="C25" s="70">
         <v>22.2</v>
@@ -41927,7 +42258,7 @@
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B26" s="69" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="C26" s="70">
         <v>21.5</v>
@@ -41939,7 +42270,7 @@
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B27" s="69" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="C27" s="70">
         <v>20</v>
@@ -41951,7 +42282,7 @@
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B28" s="69" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="C28" s="70">
         <v>15.6</v>
@@ -41968,7 +42299,7 @@
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B35" s="69" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="C35" s="70">
         <v>21.5</v>
@@ -41980,7 +42311,7 @@
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B36" s="69" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="C36" s="70">
         <v>23.2</v>
@@ -41992,7 +42323,7 @@
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B37" s="69" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="C37" s="70">
         <v>23</v>
@@ -42004,7 +42335,7 @@
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B38" s="69" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="C38" s="70">
         <v>22.2</v>
@@ -42016,7 +42347,7 @@
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B39" s="69" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="C39" s="70">
         <v>21.5</v>
@@ -42028,7 +42359,7 @@
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B40" s="69" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="C40" s="70">
         <v>15.6</v>
@@ -42051,8 +42382,8 @@
   </sheetPr>
   <dimension ref="A1:BH95"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="AA45" sqref="AA45"/>
+    <sheetView showGridLines="0" topLeftCell="S1" zoomScale="139" zoomScaleNormal="139" zoomScalePageLayoutView="139" workbookViewId="0">
+      <selection activeCell="AF25" sqref="AF25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -42098,27 +42429,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:60" s="14" customFormat="1" ht="23" x14ac:dyDescent="0.25">
-      <c r="A1" s="169" t="s">
+      <c r="A1" s="170" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="169"/>
-      <c r="C1" s="169"/>
-      <c r="D1" s="169"/>
-      <c r="E1" s="169"/>
-      <c r="F1" s="169"/>
-      <c r="G1" s="169"/>
-      <c r="H1" s="169"/>
-      <c r="I1" s="169"/>
-      <c r="J1" s="169"/>
-      <c r="K1" s="169"/>
-      <c r="L1" s="169"/>
-      <c r="M1" s="169"/>
-      <c r="N1" s="169"/>
-      <c r="O1" s="169"/>
-      <c r="P1" s="169"/>
-      <c r="Q1" s="169"/>
-      <c r="R1" s="169"/>
-      <c r="S1" s="169"/>
+      <c r="B1" s="170"/>
+      <c r="C1" s="170"/>
+      <c r="D1" s="170"/>
+      <c r="E1" s="170"/>
+      <c r="F1" s="170"/>
+      <c r="G1" s="170"/>
+      <c r="H1" s="170"/>
+      <c r="I1" s="170"/>
+      <c r="J1" s="170"/>
+      <c r="K1" s="170"/>
+      <c r="L1" s="170"/>
+      <c r="M1" s="170"/>
+      <c r="N1" s="170"/>
+      <c r="O1" s="170"/>
+      <c r="P1" s="170"/>
+      <c r="Q1" s="170"/>
+      <c r="R1" s="170"/>
+      <c r="S1" s="170"/>
       <c r="U1" s="125"/>
       <c r="V1" s="146" t="s">
         <v>42</v>
@@ -42142,48 +42473,48 @@
       <c r="AM1" s="126"/>
       <c r="AN1" s="126"/>
       <c r="AO1" s="125"/>
-      <c r="AP1" s="166"/>
-      <c r="AQ1" s="166"/>
-      <c r="AR1" s="166"/>
-      <c r="AS1" s="166"/>
-      <c r="AT1" s="166"/>
-      <c r="AU1" s="166"/>
-      <c r="AV1" s="166"/>
-      <c r="AW1" s="166"/>
-      <c r="AX1" s="166"/>
-      <c r="AY1" s="166"/>
-      <c r="AZ1" s="166"/>
-      <c r="BA1" s="166"/>
-      <c r="BB1" s="166"/>
-      <c r="BC1" s="166"/>
-      <c r="BD1" s="166"/>
-      <c r="BE1" s="166"/>
-      <c r="BF1" s="166"/>
-      <c r="BG1" s="166"/>
-      <c r="BH1" s="166"/>
+      <c r="AP1" s="167"/>
+      <c r="AQ1" s="167"/>
+      <c r="AR1" s="167"/>
+      <c r="AS1" s="167"/>
+      <c r="AT1" s="167"/>
+      <c r="AU1" s="167"/>
+      <c r="AV1" s="167"/>
+      <c r="AW1" s="167"/>
+      <c r="AX1" s="167"/>
+      <c r="AY1" s="167"/>
+      <c r="AZ1" s="167"/>
+      <c r="BA1" s="167"/>
+      <c r="BB1" s="167"/>
+      <c r="BC1" s="167"/>
+      <c r="BD1" s="167"/>
+      <c r="BE1" s="167"/>
+      <c r="BF1" s="167"/>
+      <c r="BG1" s="167"/>
+      <c r="BH1" s="167"/>
     </row>
     <row r="2" spans="1:60" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="169" t="s">
+      <c r="A2" s="170" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="169"/>
-      <c r="C2" s="169"/>
-      <c r="D2" s="169"/>
-      <c r="E2" s="169"/>
-      <c r="F2" s="169"/>
-      <c r="G2" s="169"/>
-      <c r="H2" s="169"/>
-      <c r="I2" s="169"/>
-      <c r="J2" s="169"/>
-      <c r="K2" s="169"/>
-      <c r="L2" s="169"/>
-      <c r="M2" s="169"/>
-      <c r="N2" s="169"/>
-      <c r="O2" s="169"/>
-      <c r="P2" s="169"/>
-      <c r="Q2" s="169"/>
-      <c r="R2" s="169"/>
-      <c r="S2" s="169"/>
+      <c r="B2" s="170"/>
+      <c r="C2" s="170"/>
+      <c r="D2" s="170"/>
+      <c r="E2" s="170"/>
+      <c r="F2" s="170"/>
+      <c r="G2" s="170"/>
+      <c r="H2" s="170"/>
+      <c r="I2" s="170"/>
+      <c r="J2" s="170"/>
+      <c r="K2" s="170"/>
+      <c r="L2" s="170"/>
+      <c r="M2" s="170"/>
+      <c r="N2" s="170"/>
+      <c r="O2" s="170"/>
+      <c r="P2" s="170"/>
+      <c r="Q2" s="170"/>
+      <c r="R2" s="170"/>
+      <c r="S2" s="170"/>
       <c r="U2" s="127"/>
       <c r="V2" s="128"/>
       <c r="W2" s="128"/>
@@ -42245,41 +42576,41 @@
       <c r="Q3" s="16"/>
       <c r="R3" s="16"/>
       <c r="S3" s="16"/>
-      <c r="U3" s="164"/>
-      <c r="V3" s="164"/>
-      <c r="W3" s="164" t="s">
+      <c r="U3" s="165"/>
+      <c r="V3" s="165"/>
+      <c r="W3" s="165" t="s">
         <v>43</v>
       </c>
-      <c r="X3" s="164"/>
+      <c r="X3" s="165"/>
       <c r="Y3" s="129"/>
-      <c r="Z3" s="164" t="s">
+      <c r="Z3" s="165" t="s">
         <v>44</v>
       </c>
-      <c r="AA3" s="164"/>
+      <c r="AA3" s="165"/>
       <c r="AB3" s="130"/>
-      <c r="AC3" s="164" t="s">
+      <c r="AC3" s="165" t="s">
         <v>45</v>
       </c>
-      <c r="AD3" s="164"/>
+      <c r="AD3" s="165"/>
       <c r="AE3" s="129"/>
-      <c r="AF3" s="164" t="s">
+      <c r="AF3" s="165" t="s">
         <v>46</v>
       </c>
-      <c r="AG3" s="171"/>
-      <c r="AH3" s="171"/>
-      <c r="AI3" s="171"/>
-      <c r="AJ3" s="171"/>
+      <c r="AG3" s="172"/>
+      <c r="AH3" s="172"/>
+      <c r="AI3" s="172"/>
+      <c r="AJ3" s="172"/>
       <c r="AK3" s="131"/>
-      <c r="AL3" s="164" t="s">
+      <c r="AL3" s="165" t="s">
         <v>47</v>
       </c>
-      <c r="AM3" s="167"/>
-      <c r="AN3" s="167"/>
-      <c r="AO3" s="167"/>
-      <c r="AP3" s="164"/>
-      <c r="AQ3" s="167"/>
-      <c r="AR3" s="167"/>
-      <c r="AS3" s="167"/>
+      <c r="AM3" s="168"/>
+      <c r="AN3" s="168"/>
+      <c r="AO3" s="168"/>
+      <c r="AP3" s="165"/>
+      <c r="AQ3" s="168"/>
+      <c r="AR3" s="168"/>
+      <c r="AS3" s="168"/>
       <c r="AT3" s="127"/>
       <c r="AU3" s="127"/>
       <c r="AV3" s="127"/>
@@ -42297,60 +42628,60 @@
       <c r="BH3" s="127"/>
     </row>
     <row r="4" spans="1:60" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="156" t="s">
+      <c r="A4" s="157" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="156"/>
+      <c r="B4" s="157"/>
       <c r="C4" s="17"/>
-      <c r="D4" s="156" t="s">
+      <c r="D4" s="157" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="156"/>
+      <c r="E4" s="157"/>
       <c r="F4" s="18"/>
-      <c r="G4" s="156" t="s">
+      <c r="G4" s="157" t="s">
         <v>45</v>
       </c>
-      <c r="H4" s="156"/>
+      <c r="H4" s="157"/>
       <c r="I4" s="17"/>
-      <c r="J4" s="156" t="s">
+      <c r="J4" s="157" t="s">
         <v>46</v>
       </c>
-      <c r="K4" s="170"/>
-      <c r="L4" s="170"/>
-      <c r="M4" s="170"/>
-      <c r="N4" s="170"/>
+      <c r="K4" s="171"/>
+      <c r="L4" s="171"/>
+      <c r="M4" s="171"/>
+      <c r="N4" s="171"/>
       <c r="O4" s="19"/>
-      <c r="P4" s="156" t="s">
+      <c r="P4" s="157" t="s">
         <v>47</v>
       </c>
-      <c r="Q4" s="157"/>
-      <c r="R4" s="157"/>
-      <c r="S4" s="157"/>
-      <c r="U4" s="153"/>
-      <c r="V4" s="153"/>
-      <c r="W4" s="153"/>
-      <c r="X4" s="153"/>
+      <c r="Q4" s="158"/>
+      <c r="R4" s="158"/>
+      <c r="S4" s="158"/>
+      <c r="U4" s="154"/>
+      <c r="V4" s="154"/>
+      <c r="W4" s="154"/>
+      <c r="X4" s="154"/>
       <c r="Y4" s="132"/>
-      <c r="Z4" s="153"/>
-      <c r="AA4" s="153"/>
+      <c r="Z4" s="154"/>
+      <c r="AA4" s="154"/>
       <c r="AB4" s="133"/>
-      <c r="AC4" s="153"/>
-      <c r="AD4" s="153"/>
+      <c r="AC4" s="154"/>
+      <c r="AD4" s="154"/>
       <c r="AE4" s="132"/>
-      <c r="AF4" s="152"/>
-      <c r="AG4" s="152"/>
-      <c r="AH4" s="152"/>
-      <c r="AI4" s="152"/>
-      <c r="AJ4" s="152"/>
+      <c r="AF4" s="153"/>
+      <c r="AG4" s="153"/>
+      <c r="AH4" s="153"/>
+      <c r="AI4" s="153"/>
+      <c r="AJ4" s="153"/>
       <c r="AK4" s="134"/>
-      <c r="AL4" s="168"/>
-      <c r="AM4" s="168"/>
-      <c r="AN4" s="168"/>
-      <c r="AO4" s="168"/>
-      <c r="AP4" s="168"/>
-      <c r="AQ4" s="168"/>
-      <c r="AR4" s="168"/>
-      <c r="AS4" s="168"/>
+      <c r="AL4" s="169"/>
+      <c r="AM4" s="169"/>
+      <c r="AN4" s="169"/>
+      <c r="AO4" s="169"/>
+      <c r="AP4" s="169"/>
+      <c r="AQ4" s="169"/>
+      <c r="AR4" s="169"/>
+      <c r="AS4" s="169"/>
       <c r="AT4" s="127"/>
       <c r="AU4" s="127"/>
       <c r="AV4" s="127"/>
@@ -42368,58 +42699,58 @@
       <c r="BH4" s="127"/>
     </row>
     <row r="5" spans="1:60" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="162"/>
-      <c r="B5" s="162"/>
+      <c r="A5" s="163"/>
+      <c r="B5" s="163"/>
       <c r="C5" s="20"/>
-      <c r="D5" s="162"/>
-      <c r="E5" s="162"/>
+      <c r="D5" s="163"/>
+      <c r="E5" s="163"/>
       <c r="F5" s="21"/>
-      <c r="G5" s="162"/>
-      <c r="H5" s="162"/>
+      <c r="G5" s="163"/>
+      <c r="H5" s="163"/>
       <c r="I5" s="20"/>
-      <c r="J5" s="161"/>
-      <c r="K5" s="161"/>
-      <c r="L5" s="161"/>
-      <c r="M5" s="161"/>
-      <c r="N5" s="161"/>
+      <c r="J5" s="162"/>
+      <c r="K5" s="162"/>
+      <c r="L5" s="162"/>
+      <c r="M5" s="162"/>
+      <c r="N5" s="162"/>
       <c r="O5" s="22"/>
-      <c r="P5" s="158"/>
-      <c r="Q5" s="158"/>
-      <c r="R5" s="158"/>
-      <c r="S5" s="158"/>
-      <c r="U5" s="153"/>
-      <c r="V5" s="153"/>
-      <c r="W5" s="153"/>
-      <c r="X5" s="153"/>
+      <c r="P5" s="159"/>
+      <c r="Q5" s="159"/>
+      <c r="R5" s="159"/>
+      <c r="S5" s="159"/>
+      <c r="U5" s="154"/>
+      <c r="V5" s="154"/>
+      <c r="W5" s="154"/>
+      <c r="X5" s="154"/>
       <c r="Y5" s="132"/>
-      <c r="Z5" s="153"/>
-      <c r="AA5" s="153"/>
+      <c r="Z5" s="154"/>
+      <c r="AA5" s="154"/>
       <c r="AB5" s="133"/>
-      <c r="AC5" s="153"/>
-      <c r="AD5" s="153"/>
+      <c r="AC5" s="154"/>
+      <c r="AD5" s="154"/>
       <c r="AE5" s="132"/>
-      <c r="AF5" s="150" t="s">
+      <c r="AF5" s="151" t="s">
         <v>48</v>
       </c>
-      <c r="AG5" s="151"/>
+      <c r="AG5" s="152"/>
       <c r="AH5" s="135"/>
-      <c r="AI5" s="150" t="s">
+      <c r="AI5" s="151" t="s">
         <v>49</v>
       </c>
-      <c r="AJ5" s="151"/>
+      <c r="AJ5" s="152"/>
       <c r="AK5" s="135"/>
-      <c r="AL5" s="153" t="s">
+      <c r="AL5" s="154" t="s">
         <v>50</v>
       </c>
-      <c r="AM5" s="153"/>
+      <c r="AM5" s="154"/>
       <c r="AN5" s="135"/>
-      <c r="AO5" s="153" t="s">
+      <c r="AO5" s="154" t="s">
         <v>51</v>
       </c>
-      <c r="AP5" s="153"/>
-      <c r="AQ5" s="153"/>
+      <c r="AP5" s="154"/>
+      <c r="AQ5" s="154"/>
       <c r="AR5" s="135"/>
-      <c r="AS5" s="153"/>
+      <c r="AS5" s="154"/>
       <c r="AT5" s="127"/>
       <c r="AU5" s="127"/>
       <c r="AV5" s="127"/>
@@ -42437,58 +42768,58 @@
       <c r="BH5" s="127"/>
     </row>
     <row r="6" spans="1:60" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="162"/>
-      <c r="B6" s="162"/>
+      <c r="A6" s="163"/>
+      <c r="B6" s="163"/>
       <c r="C6" s="20"/>
-      <c r="D6" s="162"/>
-      <c r="E6" s="162"/>
+      <c r="D6" s="163"/>
+      <c r="E6" s="163"/>
       <c r="F6" s="21"/>
-      <c r="G6" s="162"/>
-      <c r="H6" s="162"/>
+      <c r="G6" s="163"/>
+      <c r="H6" s="163"/>
       <c r="I6" s="20"/>
-      <c r="J6" s="159" t="s">
+      <c r="J6" s="160" t="s">
         <v>48</v>
       </c>
-      <c r="K6" s="160"/>
+      <c r="K6" s="161"/>
       <c r="L6" s="23"/>
-      <c r="M6" s="159" t="s">
+      <c r="M6" s="160" t="s">
         <v>49</v>
       </c>
-      <c r="N6" s="160"/>
+      <c r="N6" s="161"/>
       <c r="O6" s="23"/>
-      <c r="P6" s="162" t="s">
+      <c r="P6" s="163" t="s">
         <v>50</v>
       </c>
-      <c r="Q6" s="162"/>
+      <c r="Q6" s="163"/>
       <c r="R6" s="23"/>
-      <c r="S6" s="162" t="s">
+      <c r="S6" s="163" t="s">
         <v>51</v>
       </c>
-      <c r="U6" s="154"/>
-      <c r="V6" s="154"/>
-      <c r="W6" s="154"/>
-      <c r="X6" s="154"/>
+      <c r="U6" s="155"/>
+      <c r="V6" s="155"/>
+      <c r="W6" s="155"/>
+      <c r="X6" s="155"/>
       <c r="Y6" s="132"/>
-      <c r="Z6" s="154"/>
-      <c r="AA6" s="154"/>
+      <c r="Z6" s="155"/>
+      <c r="AA6" s="155"/>
       <c r="AB6" s="133"/>
-      <c r="AC6" s="154"/>
-      <c r="AD6" s="154"/>
+      <c r="AC6" s="155"/>
+      <c r="AD6" s="155"/>
       <c r="AE6" s="132"/>
-      <c r="AF6" s="152"/>
-      <c r="AG6" s="152"/>
+      <c r="AF6" s="153"/>
+      <c r="AG6" s="153"/>
       <c r="AH6" s="136"/>
-      <c r="AI6" s="152"/>
-      <c r="AJ6" s="152"/>
+      <c r="AI6" s="153"/>
+      <c r="AJ6" s="153"/>
       <c r="AK6" s="135"/>
-      <c r="AL6" s="154"/>
-      <c r="AM6" s="154"/>
+      <c r="AL6" s="155"/>
+      <c r="AM6" s="155"/>
       <c r="AN6" s="136"/>
-      <c r="AO6" s="155"/>
-      <c r="AP6" s="154"/>
-      <c r="AQ6" s="154"/>
+      <c r="AO6" s="156"/>
+      <c r="AP6" s="155"/>
+      <c r="AQ6" s="155"/>
       <c r="AR6" s="136"/>
-      <c r="AS6" s="155"/>
+      <c r="AS6" s="156"/>
       <c r="AT6" s="127"/>
       <c r="AU6" s="127"/>
       <c r="AV6" s="127"/>
@@ -42506,25 +42837,25 @@
       <c r="BH6" s="127"/>
     </row>
     <row r="7" spans="1:60" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="163"/>
-      <c r="B7" s="163"/>
+      <c r="A7" s="164"/>
+      <c r="B7" s="164"/>
       <c r="C7" s="20"/>
-      <c r="D7" s="163"/>
-      <c r="E7" s="163"/>
+      <c r="D7" s="164"/>
+      <c r="E7" s="164"/>
       <c r="F7" s="21"/>
-      <c r="G7" s="163"/>
-      <c r="H7" s="163"/>
+      <c r="G7" s="164"/>
+      <c r="H7" s="164"/>
       <c r="I7" s="20"/>
-      <c r="J7" s="161"/>
-      <c r="K7" s="161"/>
+      <c r="J7" s="162"/>
+      <c r="K7" s="162"/>
       <c r="L7" s="24"/>
-      <c r="M7" s="161"/>
-      <c r="N7" s="161"/>
+      <c r="M7" s="162"/>
+      <c r="N7" s="162"/>
       <c r="O7" s="23"/>
-      <c r="P7" s="163"/>
-      <c r="Q7" s="163"/>
+      <c r="P7" s="164"/>
+      <c r="Q7" s="164"/>
       <c r="R7" s="24"/>
-      <c r="S7" s="165"/>
+      <c r="S7" s="166"/>
       <c r="U7" s="127"/>
       <c r="V7" s="127"/>
       <c r="W7" s="127"/>
@@ -42589,7 +42920,7 @@
       <c r="U8" s="127"/>
       <c r="V8" s="127"/>
       <c r="W8" s="137" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="X8" s="137"/>
       <c r="Y8" s="127"/>
@@ -42661,7 +42992,7 @@
     </row>
     <row r="9" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A9" s="26" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="B9" s="26"/>
       <c r="C9" s="25"/>
@@ -42697,7 +43028,7 @@
       <c r="U9" s="127"/>
       <c r="V9" s="127"/>
       <c r="W9" s="142" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="X9" s="142"/>
       <c r="Y9" s="127"/>
@@ -42769,7 +43100,7 @@
     </row>
     <row r="10" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A10" s="30" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="B10" s="30"/>
       <c r="C10" s="25"/>
@@ -42805,7 +43136,7 @@
       <c r="U10" s="127"/>
       <c r="V10" s="127"/>
       <c r="W10" s="137" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="X10" s="137"/>
       <c r="Y10" s="127"/>
@@ -42877,7 +43208,7 @@
     </row>
     <row r="11" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A11" s="26" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="B11" s="26"/>
       <c r="C11" s="25"/>
@@ -42913,7 +43244,7 @@
       <c r="U11" s="127"/>
       <c r="V11" s="127"/>
       <c r="W11" s="137" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="X11" s="137"/>
       <c r="Y11" s="127"/>
@@ -42985,7 +43316,7 @@
     </row>
     <row r="12" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A12" s="26" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="B12" s="26"/>
       <c r="C12" s="25"/>
@@ -43021,7 +43352,7 @@
       <c r="U12" s="127"/>
       <c r="V12" s="127"/>
       <c r="W12" s="137" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="X12" s="137"/>
       <c r="Y12" s="127"/>
@@ -43093,7 +43424,7 @@
     </row>
     <row r="13" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A13" s="26" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="B13" s="26"/>
       <c r="C13" s="25"/>
@@ -43350,7 +43681,7 @@
       <c r="U16" s="127"/>
       <c r="V16" s="127"/>
       <c r="W16" s="137" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="X16" s="137"/>
       <c r="Y16" s="127"/>
@@ -43422,7 +43753,7 @@
     </row>
     <row r="17" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A17" s="26" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="B17" s="26"/>
       <c r="C17" s="25"/>
@@ -43458,7 +43789,7 @@
       <c r="U17" s="127"/>
       <c r="V17" s="127"/>
       <c r="W17" s="137" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="X17" s="137"/>
       <c r="Y17" s="127"/>
@@ -43530,7 +43861,7 @@
     </row>
     <row r="18" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A18" s="26" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="B18" s="26"/>
       <c r="C18" s="25"/>
@@ -43566,7 +43897,7 @@
       <c r="U18" s="127"/>
       <c r="V18" s="127"/>
       <c r="W18" s="137" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="X18" s="137"/>
       <c r="Y18" s="127"/>
@@ -43638,7 +43969,7 @@
     </row>
     <row r="19" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A19" s="26" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="B19" s="26"/>
       <c r="C19" s="25"/>
@@ -43674,7 +44005,7 @@
       <c r="U19" s="127"/>
       <c r="V19" s="127"/>
       <c r="W19" s="137" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="X19" s="137"/>
       <c r="Y19" s="127"/>
@@ -43746,7 +44077,7 @@
     </row>
     <row r="20" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A20" s="26" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="B20" s="26"/>
       <c r="C20" s="25"/>
@@ -43782,7 +44113,7 @@
       <c r="U20" s="127"/>
       <c r="V20" s="127"/>
       <c r="W20" s="137" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="X20" s="137"/>
       <c r="Y20" s="127"/>
@@ -43854,7 +44185,7 @@
     </row>
     <row r="21" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A21" s="26" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="B21" s="26"/>
       <c r="C21" s="25"/>
@@ -43928,7 +44259,7 @@
       <c r="BG21" s="127"/>
       <c r="BH21" s="127"/>
     </row>
-    <row r="22" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:60" ht="14" x14ac:dyDescent="0.15">
       <c r="A22" s="32"/>
       <c r="B22" s="32"/>
       <c r="C22" s="32"/>
@@ -43949,8 +44280,8 @@
       <c r="R22" s="32"/>
       <c r="S22" s="32"/>
       <c r="U22" s="127"/>
-      <c r="V22" s="145" t="s">
-        <v>288</v>
+      <c r="V22" s="150" t="s">
+        <v>282</v>
       </c>
       <c r="W22" s="127"/>
       <c r="X22" s="145"/>
@@ -45761,7 +46092,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="135" zoomScaleNormal="135" zoomScalePageLayoutView="135" workbookViewId="0">
       <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
@@ -45773,13 +46104,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" s="34" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="C1" s="34" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="D1" s="34" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -45882,8 +46213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R72"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="T108" sqref="T108"/>
+    <sheetView topLeftCell="E4" zoomScale="155" zoomScaleNormal="155" zoomScalePageLayoutView="155" workbookViewId="0">
+      <selection activeCell="Y50" sqref="Y50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -46681,35 +47012,35 @@
       <c r="A40" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B40" s="172" t="s">
+      <c r="B40" s="173" t="s">
         <v>38</v>
       </c>
-      <c r="C40" s="173"/>
-      <c r="D40" s="173"/>
-      <c r="E40" s="173"/>
-      <c r="F40" s="173"/>
-      <c r="G40" s="173"/>
-      <c r="H40" s="173"/>
-      <c r="I40" s="173"/>
-      <c r="J40" s="173"/>
-      <c r="K40" s="173"/>
+      <c r="C40" s="174"/>
+      <c r="D40" s="174"/>
+      <c r="E40" s="174"/>
+      <c r="F40" s="174"/>
+      <c r="G40" s="174"/>
+      <c r="H40" s="174"/>
+      <c r="I40" s="174"/>
+      <c r="J40" s="174"/>
+      <c r="K40" s="174"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B41" s="174" t="s">
+      <c r="B41" s="175" t="s">
         <v>40</v>
       </c>
-      <c r="C41" s="174"/>
-      <c r="D41" s="174"/>
-      <c r="E41" s="174"/>
-      <c r="F41" s="174"/>
-      <c r="G41" s="174"/>
-      <c r="H41" s="174"/>
-      <c r="I41" s="174"/>
-      <c r="J41" s="174"/>
-      <c r="K41" s="174"/>
+      <c r="C41" s="175"/>
+      <c r="D41" s="175"/>
+      <c r="E41" s="175"/>
+      <c r="F41" s="175"/>
+      <c r="G41" s="175"/>
+      <c r="H41" s="175"/>
+      <c r="I41" s="175"/>
+      <c r="J41" s="175"/>
+      <c r="K41" s="175"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A42" s="9"/>
@@ -46737,8 +47068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="W44" sqref="W44"/>
+    <sheetView topLeftCell="G11" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="Q69" sqref="Q69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
@@ -46748,12 +47079,12 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B1" s="63" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B3" s="64" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="C3" s="64"/>
       <c r="D3" s="64"/>
@@ -46764,16 +47095,16 @@
         <v>74</v>
       </c>
       <c r="B4" s="65" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="C4" s="65" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="D4" s="65" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="E4" s="65" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
@@ -47322,7 +47653,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="63" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -47344,8 +47675,8 @@
   </sheetPr>
   <dimension ref="A1:O144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
-      <selection activeCell="T25" sqref="T25"/>
+    <sheetView topLeftCell="H1" zoomScale="156" zoomScaleNormal="156" zoomScalePageLayoutView="156" workbookViewId="0">
+      <selection activeCell="O48" sqref="O48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -47359,24 +47690,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="175" t="s">
+      <c r="A1" s="176" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="175"/>
-      <c r="C1" s="175"/>
-      <c r="D1" s="175"/>
-      <c r="E1" s="175"/>
-      <c r="F1" s="175"/>
-      <c r="G1" s="175"/>
+      <c r="B1" s="176"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="175"/>
-      <c r="B2" s="175"/>
-      <c r="C2" s="175"/>
-      <c r="D2" s="175"/>
-      <c r="E2" s="175"/>
-      <c r="F2" s="175"/>
-      <c r="G2" s="175"/>
+      <c r="A2" s="176"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="36" t="s">
@@ -47847,15 +48178,15 @@
         <v>18.600000000000001</v>
       </c>
       <c r="G29" s="40"/>
-      <c r="I29" s="176" t="s">
+      <c r="I29" s="177" t="s">
         <v>85</v>
       </c>
-      <c r="J29" s="177"/>
-      <c r="K29" s="177"/>
-      <c r="L29" s="177"/>
-      <c r="M29" s="177"/>
-      <c r="N29" s="177"/>
-      <c r="O29" s="177"/>
+      <c r="J29" s="178"/>
+      <c r="K29" s="178"/>
+      <c r="L29" s="178"/>
+      <c r="M29" s="178"/>
+      <c r="N29" s="178"/>
+      <c r="O29" s="178"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A30" s="37">
@@ -47879,13 +48210,13 @@
       <c r="G30" s="41">
         <v>1980</v>
       </c>
-      <c r="I30" s="177"/>
-      <c r="J30" s="177"/>
-      <c r="K30" s="177"/>
-      <c r="L30" s="177"/>
-      <c r="M30" s="177"/>
-      <c r="N30" s="177"/>
-      <c r="O30" s="177"/>
+      <c r="I30" s="178"/>
+      <c r="J30" s="178"/>
+      <c r="K30" s="178"/>
+      <c r="L30" s="178"/>
+      <c r="M30" s="178"/>
+      <c r="N30" s="178"/>
+      <c r="O30" s="178"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A31" s="37">
@@ -47907,13 +48238,13 @@
         <v>19.3</v>
       </c>
       <c r="G31" s="40"/>
-      <c r="I31" s="177"/>
-      <c r="J31" s="177"/>
-      <c r="K31" s="177"/>
-      <c r="L31" s="177"/>
-      <c r="M31" s="177"/>
-      <c r="N31" s="177"/>
-      <c r="O31" s="177"/>
+      <c r="I31" s="178"/>
+      <c r="J31" s="178"/>
+      <c r="K31" s="178"/>
+      <c r="L31" s="178"/>
+      <c r="M31" s="178"/>
+      <c r="N31" s="178"/>
+      <c r="O31" s="178"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A32" s="37">
@@ -49426,33 +49757,33 @@
   <sheetData>
     <row r="1" spans="1:8" ht="71" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="114" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="B1" s="114" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="C1" s="114" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="D1" s="114" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="E1" s="114" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="F1" s="115" t="s">
         <v>74</v>
       </c>
       <c r="G1" s="115" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="H1" s="116" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="117" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="B2" s="118">
         <v>0.106</v>
@@ -49479,7 +49810,7 @@
     </row>
     <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="117" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="B3" s="118">
         <v>0.105</v>
@@ -49506,7 +49837,7 @@
     </row>
     <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="117" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="B4" s="118">
         <v>0.10299999999999999</v>
@@ -49533,7 +49864,7 @@
     </row>
     <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="117" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B5" s="118">
         <v>0.104</v>
@@ -49560,7 +49891,7 @@
     </row>
     <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="117" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="B6" s="118">
         <v>0.112</v>
@@ -49587,7 +49918,7 @@
     </row>
     <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="117" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="B7" s="118">
         <v>0.124</v>
@@ -49614,7 +49945,7 @@
     </row>
     <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="117" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="B8" s="118">
         <v>0.14299999999999999</v>
@@ -49641,7 +49972,7 @@
     </row>
     <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="117" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="B9" s="118">
         <v>0.156</v>
@@ -49668,7 +49999,7 @@
     </row>
     <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="117" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="B10" s="118">
         <v>0.13800000000000001</v>
@@ -49695,7 +50026,7 @@
     </row>
     <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="117" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="B11" s="118">
         <v>0.13300000000000001</v>
@@ -49722,7 +50053,7 @@
     </row>
     <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="117" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="B12" s="118">
         <v>0.121</v>
@@ -49749,7 +50080,7 @@
     </row>
     <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="117" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="B13" s="118">
         <v>0.121</v>
@@ -49776,7 +50107,7 @@
     </row>
     <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="117" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="B14" s="118">
         <v>0.13100000000000001</v>
@@ -49805,7 +50136,7 @@
     </row>
     <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="117" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="B15" s="118">
         <v>0.128</v>
@@ -49834,7 +50165,7 @@
     </row>
     <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="117" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="B16" s="118">
         <v>0.124</v>
@@ -49863,7 +50194,7 @@
     </row>
     <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="117" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="B17" s="118">
         <v>0.109</v>
@@ -49892,7 +50223,7 @@
     </row>
     <row r="18" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="117" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="B18" s="118">
         <v>0.11600000000000001</v>
@@ -49921,7 +50252,7 @@
     </row>
     <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="117" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="B19" s="118">
         <v>0.128</v>
@@ -49950,7 +50281,7 @@
     </row>
     <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="117" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="B20" s="118">
         <v>0.122</v>
@@ -49979,7 +50310,7 @@
     </row>
     <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="117" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="B21" s="118">
         <v>0.115</v>
@@ -50008,7 +50339,7 @@
     </row>
     <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="117" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="B22" s="118">
         <v>0.128</v>
@@ -50037,7 +50368,7 @@
     </row>
     <row r="23" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="117" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="B23" s="118">
         <v>0.124</v>
@@ -50066,7 +50397,7 @@
     </row>
     <row r="24" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="117" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="B24" s="118">
         <v>0.13</v>
@@ -50095,7 +50426,7 @@
     </row>
     <row r="25" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="117" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="B25" s="118">
         <v>0.15</v>
@@ -50122,7 +50453,7 @@
     </row>
     <row r="26" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="117" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="B26" s="118">
         <v>0.14699999999999999</v>
@@ -50149,7 +50480,7 @@
     </row>
     <row r="27" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="117" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="B27" s="118">
         <v>0.14899999999999999</v>
@@ -50176,7 +50507,7 @@
     </row>
     <row r="28" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="117" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="B28" s="118">
         <v>0.159</v>
@@ -50203,7 +50534,7 @@
     </row>
     <row r="29" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="117" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="B29" s="118">
         <v>0.159</v>
@@ -50230,7 +50561,7 @@
     </row>
     <row r="30" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="117" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="B30" s="118">
         <v>0.159</v>
@@ -50257,7 +50588,7 @@
     </row>
     <row r="31" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="117" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="B31" s="118">
         <v>0.158</v>
@@ -50284,7 +50615,7 @@
     </row>
     <row r="32" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="117" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="B32" s="118">
         <v>0.154</v>
@@ -50311,7 +50642,7 @@
     </row>
     <row r="33" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="117" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="B33" s="118">
         <v>0.16400000000000001</v>
@@ -50338,7 +50669,7 @@
     </row>
     <row r="34" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="117" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="B34" s="118">
         <v>0.16800000000000001</v>
@@ -50365,7 +50696,7 @@
     </row>
     <row r="35" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="117" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="B35" s="118">
         <v>0.16500000000000001</v>
@@ -50392,7 +50723,7 @@
     </row>
     <row r="36" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="117" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="B36" s="118">
         <v>0.16400000000000001</v>
@@ -50419,7 +50750,7 @@
     </row>
     <row r="37" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="117" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="B37" s="118">
         <v>0.16</v>
@@ -50446,7 +50777,7 @@
     </row>
     <row r="38" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="117" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="B38" s="118">
         <v>0.14000000000000001</v>
@@ -50473,7 +50804,7 @@
     </row>
     <row r="39" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="117" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="B39" s="118">
         <v>0.106</v>
@@ -50500,7 +50831,7 @@
     </row>
     <row r="40" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="117" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="B40" s="118">
         <v>0.10100000000000001</v>
@@ -50527,7 +50858,7 @@
     </row>
     <row r="41" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="117" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="B41" s="118">
         <v>9.9000000000000005E-2</v>
@@ -50554,7 +50885,7 @@
     </row>
     <row r="42" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="117" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="B42" s="118">
         <v>9.1999999999999998E-2</v>
@@ -50581,7 +50912,7 @@
     </row>
     <row r="43" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="117" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="B43" s="118">
         <v>8.3000000000000004E-2</v>
@@ -50608,7 +50939,7 @@
     </row>
     <row r="44" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="117" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="B44" s="118">
         <v>8.6999999999999994E-2</v>
@@ -50635,7 +50966,7 @@
     </row>
     <row r="45" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="117" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="B45" s="118">
         <v>8.4000000000000005E-2</v>
@@ -50662,7 +50993,7 @@
     </row>
     <row r="46" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="117" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="B46" s="118">
         <v>8.4000000000000005E-2</v>
@@ -50689,7 +51020,7 @@
     </row>
     <row r="47" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="117" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="B47" s="118">
         <v>7.3999999999999996E-2</v>
@@ -50716,7 +51047,7 @@
     </row>
     <row r="48" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="117" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="B48" s="118">
         <v>7.5999999999999998E-2</v>
@@ -50743,7 +51074,7 @@
     </row>
     <row r="49" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="117" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="B49" s="118">
         <v>0.08</v>
@@ -50770,7 +51101,7 @@
     </row>
     <row r="50" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="117" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="B50" s="118">
         <v>7.4999999999999997E-2</v>
@@ -50797,7 +51128,7 @@
     </row>
     <row r="51" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="117" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="B51" s="118">
         <v>7.4999999999999997E-2</v>
@@ -50824,7 +51155,7 @@
     </row>
     <row r="52" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="117" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="B52" s="118">
         <v>6.7000000000000004E-2</v>
@@ -50851,7 +51182,7 @@
     </row>
     <row r="53" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="117" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="B53" s="118">
         <v>6.6000000000000003E-2</v>
@@ -50878,7 +51209,7 @@
     </row>
     <row r="54" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="117" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="B54" s="118">
         <v>6.8000000000000005E-2</v>
@@ -50905,7 +51236,7 @@
     </row>
     <row r="55" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="117" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="B55" s="118">
         <v>6.6000000000000003E-2</v>
@@ -50932,7 +51263,7 @@
     </row>
     <row r="56" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="117" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="B56" s="118">
         <v>6.6000000000000003E-2</v>
@@ -50959,7 +51290,7 @@
     </row>
     <row r="57" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="117" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="B57" s="118">
         <v>6.8000000000000005E-2</v>
@@ -50986,7 +51317,7 @@
     </row>
     <row r="58" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="117" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="B58" s="118">
         <v>6.9000000000000006E-2</v>
@@ -51013,7 +51344,7 @@
     </row>
     <row r="59" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="117" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="B59" s="118">
         <v>6.4000000000000001E-2</v>
@@ -51040,7 +51371,7 @@
     </row>
     <row r="60" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="117" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="B60" s="118">
         <v>6.3E-2</v>
@@ -51067,7 +51398,7 @@
     </row>
     <row r="61" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="117" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="B61" s="118">
         <v>6.3E-2</v>
@@ -51094,7 +51425,7 @@
     </row>
     <row r="62" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="117" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="B62" s="118">
         <v>5.6000000000000001E-2</v>
@@ -51121,7 +51452,7 @@
     </row>
     <row r="63" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="117" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="B63" s="122">
         <v>4.9000000000000002E-2</v>
@@ -51148,7 +51479,7 @@
     </row>
     <row r="64" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="117" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="B64" s="122">
         <v>4.5999999999999999E-2</v>
@@ -51175,7 +51506,7 @@
     </row>
     <row r="65" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="117" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="B65" s="122">
         <v>4.9000000000000002E-2</v>
@@ -51202,7 +51533,7 @@
     </row>
     <row r="66" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="123" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="B66" s="122">
         <v>5.3999999999999999E-2</v>
@@ -51228,7 +51559,7 @@
     </row>
     <row r="67" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="123" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="B67" s="122">
         <v>5.1999999999999998E-2</v>
@@ -51254,7 +51585,7 @@
     </row>
     <row r="68" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="123" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="B68" s="122">
         <v>5.3999999999999999E-2</v>
@@ -51280,7 +51611,7 @@
     </row>
     <row r="69" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" s="123" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="B69" s="122">
         <v>5.6000000000000001E-2</v>
@@ -51306,7 +51637,7 @@
     </row>
     <row r="70" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="123" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="B70" s="122">
         <v>5.7000000000000002E-2</v>
@@ -51364,16 +51695,16 @@
         <v>62</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="D3" s="34" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="F3" s="34" t="s">
         <v>63</v>

--- a/chart-styles.xlsx
+++ b/chart-styles.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2020" yWindow="1940" windowWidth="29860" windowHeight="23860" tabRatio="913" firstSheet="5" activeTab="14"/>
+    <workbookView xWindow="2020" yWindow="1940" windowWidth="29860" windowHeight="23860" tabRatio="913" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="17" r:id="rId1"/>
@@ -1903,13 +1903,16 @@
     </xf>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1921,7 +1924,34 @@
     <xf numFmtId="0" fontId="52" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1936,37 +1966,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -2042,16 +2042,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <colors>
     <mruColors>
+      <color rgb="FF0A4B69"/>
+      <color rgb="FFDC2B26"/>
+      <color rgb="FF1796D3"/>
       <color rgb="FF0095D4"/>
+      <color rgb="FF696969"/>
       <color rgb="FFA1D4EE"/>
       <color rgb="FF6FBFE4"/>
       <color rgb="FF024B6B"/>
       <color rgb="FF000000"/>
       <color rgb="FF322C2E"/>
-      <color rgb="FFD3D3D3"/>
-      <color rgb="FFEF2B8C"/>
-      <color rgb="FFFFC100"/>
-      <color rgb="FF1882C8"/>
     </mruColors>
   </colors>
   <extLst>
@@ -2171,11 +2171,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="50"/>
-        <c:axId val="1594592720"/>
-        <c:axId val="1268965840"/>
+        <c:axId val="1358358048"/>
+        <c:axId val="1659982512"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1594592720"/>
+        <c:axId val="1358358048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2192,7 +2192,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="1268965840"/>
+        <c:crossAx val="1659982512"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2200,7 +2200,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1268965840"/>
+        <c:axId val="1659982512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -2227,7 +2227,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="1594592720"/>
+        <c:crossAx val="1358358048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.05"/>
@@ -4323,11 +4323,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1647038288"/>
-        <c:axId val="1651311920"/>
+        <c:axId val="1670535904"/>
+        <c:axId val="1613348352"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="1647038288"/>
+        <c:axId val="1670535904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4337,7 +4337,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1651311920"/>
+        <c:crossAx val="1613348352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4346,7 +4346,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1651311920"/>
+        <c:axId val="1613348352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4357,7 +4357,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1647038288"/>
+        <c:crossAx val="1670535904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4982,11 +4982,11 @@
         </c:dLbls>
         <c:gapWidth val="50"/>
         <c:overlap val="100"/>
-        <c:axId val="1648865264"/>
-        <c:axId val="1692299456"/>
+        <c:axId val="1670824608"/>
+        <c:axId val="1363754272"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1648865264"/>
+        <c:axId val="1670824608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5014,7 +5014,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1692299456"/>
+        <c:crossAx val="1363754272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5022,7 +5022,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1692299456"/>
+        <c:axId val="1363754272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5059,7 +5059,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1648865264"/>
+        <c:crossAx val="1670824608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5696,11 +5696,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="1646593824"/>
-        <c:axId val="1720723776"/>
+        <c:axId val="1364364432"/>
+        <c:axId val="1364368416"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1646593824"/>
+        <c:axId val="1364364432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5710,7 +5710,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1720723776"/>
+        <c:crossAx val="1364368416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5718,7 +5718,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1720723776"/>
+        <c:axId val="1364368416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5744,7 +5744,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="1646593824"/>
+        <c:crossAx val="1364364432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7062,11 +7062,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1720950560"/>
-        <c:axId val="1721214176"/>
+        <c:axId val="1611348032"/>
+        <c:axId val="1358623312"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="1720950560"/>
+        <c:axId val="1611348032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7076,7 +7076,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1721214176"/>
+        <c:crossAx val="1358623312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7084,7 +7084,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1721214176"/>
+        <c:axId val="1358623312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7118,7 +7118,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1720950560"/>
+        <c:crossAx val="1611348032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7534,11 +7534,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1720738752"/>
-        <c:axId val="1651472800"/>
+        <c:axId val="1357947136"/>
+        <c:axId val="1358141072"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1720738752"/>
+        <c:axId val="1357947136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7566,7 +7566,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1651472800"/>
+        <c:crossAx val="1358141072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7574,7 +7574,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1651472800"/>
+        <c:axId val="1358141072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.3E7"/>
@@ -7613,7 +7613,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1720738752"/>
+        <c:crossAx val="1357947136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7987,11 +7987,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1596913536"/>
-        <c:axId val="1704250928"/>
+        <c:axId val="1358463120"/>
+        <c:axId val="1361701152"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1596913536"/>
+        <c:axId val="1358463120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8001,7 +8001,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1704250928"/>
+        <c:crossAx val="1361701152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8009,7 +8009,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1704250928"/>
+        <c:axId val="1361701152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8035,7 +8035,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="1596913536"/>
+        <c:crossAx val="1358463120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8160,8 +8160,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.0281721430390821"/>
-                  <c:y val="-0.0679486703313029"/>
+                  <c:x val="0.0190205307988589"/>
+                  <c:y val="-0.0477359126124826"/>
                 </c:manualLayout>
               </c:layout>
               <c:spPr>
@@ -8190,12 +8190,14 @@
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout>
                     <c:manualLayout>
-                      <c:w val="0.146441631504923"/>
-                      <c:h val="0.102358490566038"/>
+                      <c:w val="0.128138423611843"/>
+                      <c:h val="0.142783824718666"/>
                     </c:manualLayout>
                   </c15:layout>
                 </c:ext>
@@ -8205,8 +8207,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.00284887648537598"/>
-                  <c:y val="0.0346725969395335"/>
+                  <c:x val="0.00988858073049609"/>
+                  <c:y val="0.0608301282393356"/>
                 </c:manualLayout>
               </c:layout>
               <c:spPr>
@@ -8235,6 +8237,8 @@
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout>
@@ -8250,10 +8254,29 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.0307540671340133"/>
-                  <c:y val="-0.0174485589065518"/>
+                  <c:x val="-0.0328659850228148"/>
+                  <c:y val="0.0158428166105787"/>
                 </c:manualLayout>
               </c:layout>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="1"/>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
               <c:dLblPos val="bestFit"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -8261,12 +8284,14 @@
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout>
                     <c:manualLayout>
-                      <c:w val="0.153220815752461"/>
-                      <c:h val="0.075"/>
+                      <c:w val="0.112390528292277"/>
+                      <c:h val="0.127315115180228"/>
                     </c:manualLayout>
                   </c15:layout>
                 </c:ext>
@@ -8297,6 +8322,8 @@
             <c:showSerName val="0"/>
             <c:showPercent val="1"/>
             <c:showBubbleSize val="0"/>
+            <c:separator>
+</c:separator>
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
@@ -8492,11 +8519,31 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.0141074365975641"/>
-                  <c:y val="0.000447428317437308"/>
+                  <c:x val="0.00565981907602813"/>
+                  <c:y val="0.00756655230730797"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.00140794277056309"/>
+                  <c:y val="0.00711904291661765"/>
+                </c:manualLayout>
+              </c:layout>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -8544,7 +8591,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="1"/>
+                  <a:defRPr sz="1100" b="0"/>
                 </a:pPr>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -8608,11 +8655,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="0"/>
-        <c:axId val="1694184272"/>
-        <c:axId val="1673969776"/>
+        <c:axId val="1359639056"/>
+        <c:axId val="1693591664"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1694184272"/>
+        <c:axId val="1359639056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8622,7 +8669,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1673969776"/>
+        <c:crossAx val="1693591664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8630,7 +8677,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1673969776"/>
+        <c:axId val="1693591664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8640,7 +8687,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1694184272"/>
+        <c:crossAx val="1359639056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9175,11 +9222,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="0"/>
-        <c:axId val="1612017072"/>
-        <c:axId val="1594955152"/>
+        <c:axId val="1694317760"/>
+        <c:axId val="1324289968"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1612017072"/>
+        <c:axId val="1694317760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9203,7 +9250,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1594955152"/>
+        <c:crossAx val="1324289968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9211,7 +9258,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1594955152"/>
+        <c:axId val="1324289968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9237,7 +9284,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="1612017072"/>
+        <c:crossAx val="1694317760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9403,11 +9450,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="50"/>
-        <c:axId val="1763196480"/>
-        <c:axId val="1691607488"/>
+        <c:axId val="1613408976"/>
+        <c:axId val="1617353472"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1763196480"/>
+        <c:axId val="1613408976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9424,7 +9471,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="1691607488"/>
+        <c:crossAx val="1617353472"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9432,7 +9479,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1691607488"/>
+        <c:axId val="1617353472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.25"/>
@@ -9444,7 +9491,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1763196480"/>
+        <c:crossAx val="1613408976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.05"/>
@@ -9725,11 +9772,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="50"/>
-        <c:axId val="1709877344"/>
-        <c:axId val="1677590560"/>
+        <c:axId val="1323860672"/>
+        <c:axId val="1764026640"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1709877344"/>
+        <c:axId val="1323860672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9746,7 +9793,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="1677590560"/>
+        <c:crossAx val="1764026640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9754,7 +9801,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1677590560"/>
+        <c:axId val="1764026640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-20.0"/>
@@ -9781,7 +9828,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="1709877344"/>
+        <c:crossAx val="1323860672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5.0"/>
@@ -9939,7 +9986,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="FFC100"/>
+              <a:srgbClr val="DC2B26"/>
             </a:solidFill>
           </c:spPr>
           <c:invertIfNegative val="0"/>
@@ -10080,11 +10127,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="1704241856"/>
-        <c:axId val="1688720720"/>
+        <c:axId val="1723777040"/>
+        <c:axId val="1359676128"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1704241856"/>
+        <c:axId val="1723777040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10104,7 +10151,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1688720720"/>
+        <c:crossAx val="1359676128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10112,7 +10159,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1688720720"/>
+        <c:axId val="1359676128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10138,7 +10185,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="1704241856"/>
+        <c:crossAx val="1723777040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10252,7 +10299,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:srgbClr val="0A4B69"/>
               </a:solidFill>
               <a:ln w="25400">
                 <a:noFill/>
@@ -10285,6 +10332,7 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="17"/>
+              <c:layout/>
               <c:spPr/>
               <c:txPr>
                 <a:bodyPr/>
@@ -10303,11 +10351,14 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="30"/>
+              <c:layout/>
               <c:spPr/>
               <c:txPr>
                 <a:bodyPr/>
@@ -10326,7 +10377,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -10591,11 +10644,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="30"/>
-        <c:axId val="1647688432"/>
-        <c:axId val="1721131184"/>
+        <c:axId val="1270714336"/>
+        <c:axId val="1270780720"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1647688432"/>
+        <c:axId val="1270714336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10623,7 +10676,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1721131184"/>
+        <c:crossAx val="1270780720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10633,7 +10686,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1721131184"/>
+        <c:axId val="1270780720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.5"/>
@@ -10670,7 +10723,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1647688432"/>
+        <c:crossAx val="1270714336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -10824,7 +10877,7 @@
                   <c:v>5.0718</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.154199999999986</c:v>
+                  <c:v>6.154199999999985</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>7.2366</c:v>
@@ -11756,11 +11809,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1677650800"/>
-        <c:axId val="1594540880"/>
+        <c:axId val="1727971024"/>
+        <c:axId val="1704356128"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="1677650800"/>
+        <c:axId val="1727971024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11788,7 +11841,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1594540880"/>
+        <c:crossAx val="1704356128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11798,7 +11851,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1594540880"/>
+        <c:axId val="1704356128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11878,7 +11931,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1677650800"/>
+        <c:crossAx val="1727971024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="20.0"/>
@@ -12927,11 +12980,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1659153120"/>
-        <c:axId val="1597434560"/>
+        <c:axId val="1694283232"/>
+        <c:axId val="1323388992"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="1659153120"/>
+        <c:axId val="1694283232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12959,7 +13012,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1597434560"/>
+        <c:crossAx val="1323388992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12969,7 +13022,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1597434560"/>
+        <c:axId val="1323388992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13005,7 +13058,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1659153120"/>
+        <c:crossAx val="1694283232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:minorUnit val="5.0"/>
@@ -13102,7 +13155,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="tx2"/>
+              <a:srgbClr val="1796D3"/>
             </a:solidFill>
             <a:ln w="25400">
               <a:noFill/>
@@ -13974,8 +14027,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1704154592"/>
-        <c:axId val="1652746592"/>
+        <c:axId val="1670663680"/>
+        <c:axId val="1671006688"/>
       </c:areaChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -14248,11 +14301,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1704154592"/>
-        <c:axId val="1652746592"/>
+        <c:axId val="1670663680"/>
+        <c:axId val="1671006688"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1704154592"/>
+        <c:axId val="1670663680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14280,7 +14333,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1652746592"/>
+        <c:crossAx val="1671006688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14290,7 +14343,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1652746592"/>
+        <c:axId val="1671006688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14328,7 +14381,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1704154592"/>
+        <c:crossAx val="1670663680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:minorUnit val="5.0"/>
@@ -15304,8 +15357,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1764703120"/>
-        <c:axId val="1763992864"/>
+        <c:axId val="1670554336"/>
+        <c:axId val="1671337616"/>
       </c:areaChart>
       <c:barChart>
         <c:barDir val="col"/>
@@ -15377,11 +15430,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="0"/>
-        <c:axId val="1764703120"/>
-        <c:axId val="1763992864"/>
+        <c:axId val="1670554336"/>
+        <c:axId val="1671337616"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1764703120"/>
+        <c:axId val="1670554336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15391,7 +15444,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1763992864"/>
+        <c:crossAx val="1671337616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15401,7 +15454,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1763992864"/>
+        <c:axId val="1671337616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="18.0"/>
@@ -15428,7 +15481,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="1764703120"/>
+        <c:crossAx val="1670554336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16018,7 +16071,7 @@
         </cdr:nvSpPr>
         <cdr:spPr>
           <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:off x="7486650" y="6850202"/>
+            <a:off x="7355320" y="6833693"/>
             <a:ext cx="1483360" cy="236398"/>
           </a:xfrm>
           <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
@@ -17502,14 +17555,14 @@
         </a:ln>
         <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -17572,14 +17625,14 @@
         </a:ln>
         <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -17642,14 +17695,14 @@
         </a:ln>
         <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -17766,14 +17819,14 @@
         </a:ln>
         <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -17794,16 +17847,13 @@
           <a:r>
             <a:rPr lang="es-ES_tradnl" sz="1200" b="1" i="1" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
+                <a:srgbClr val="696969"/>
               </a:solidFill>
               <a:latin typeface="Lato" charset="0"/>
               <a:ea typeface="Lato" charset="0"/>
               <a:cs typeface="Lato" charset="0"/>
             </a:rPr>
-            <a:t>Actual</a:t>
+            <a:t>ACTUAL</a:t>
           </a:r>
         </a:p>
       </cdr:txBody>
@@ -17839,14 +17889,14 @@
         </a:ln>
         <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -17867,16 +17917,13 @@
           <a:r>
             <a:rPr lang="en-US" sz="1200" b="1" i="1" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
+                <a:srgbClr val="696969"/>
               </a:solidFill>
               <a:latin typeface="Lato" charset="0"/>
               <a:ea typeface="Lato" charset="0"/>
               <a:cs typeface="Lato" charset="0"/>
             </a:rPr>
-            <a:t>Projected</a:t>
+            <a:t>PROJECTED</a:t>
           </a:r>
         </a:p>
       </cdr:txBody>
@@ -17918,7 +17965,7 @@
         </a:ln>
         <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -25795,12 +25842,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.83526</cdr:x>
-      <cdr:y>0.95335</cdr:y>
+      <cdr:x>0.82184</cdr:x>
+      <cdr:y>0.92518</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>1</cdr:x>
-      <cdr:y>1</cdr:y>
+      <cdr:x>0.98658</cdr:x>
+      <cdr:y>0.97183</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -25809,8 +25856,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="7537450" y="7066102"/>
-          <a:ext cx="1483360" cy="236398"/>
+          <a:off x="7409240" y="4965111"/>
+          <a:ext cx="1485195" cy="250355"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -41809,8 +41856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="121" zoomScaleNormal="121" zoomScalePageLayoutView="121" workbookViewId="0">
-      <selection activeCell="N37" sqref="N37"/>
+    <sheetView topLeftCell="A4" zoomScale="121" zoomScaleNormal="121" zoomScalePageLayoutView="121" workbookViewId="0">
+      <selection activeCell="O44" sqref="O44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -41907,8 +41954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="126" zoomScaleNormal="126" zoomScalePageLayoutView="126" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+    <sheetView topLeftCell="A13" zoomScale="126" zoomScaleNormal="126" zoomScalePageLayoutView="126" workbookViewId="0">
+      <selection activeCell="M50" sqref="M50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -42429,27 +42476,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:60" s="14" customFormat="1" ht="23" x14ac:dyDescent="0.25">
-      <c r="A1" s="170" t="s">
+      <c r="A1" s="158" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="170"/>
-      <c r="C1" s="170"/>
-      <c r="D1" s="170"/>
-      <c r="E1" s="170"/>
-      <c r="F1" s="170"/>
-      <c r="G1" s="170"/>
-      <c r="H1" s="170"/>
-      <c r="I1" s="170"/>
-      <c r="J1" s="170"/>
-      <c r="K1" s="170"/>
-      <c r="L1" s="170"/>
-      <c r="M1" s="170"/>
-      <c r="N1" s="170"/>
-      <c r="O1" s="170"/>
-      <c r="P1" s="170"/>
-      <c r="Q1" s="170"/>
-      <c r="R1" s="170"/>
-      <c r="S1" s="170"/>
+      <c r="B1" s="158"/>
+      <c r="C1" s="158"/>
+      <c r="D1" s="158"/>
+      <c r="E1" s="158"/>
+      <c r="F1" s="158"/>
+      <c r="G1" s="158"/>
+      <c r="H1" s="158"/>
+      <c r="I1" s="158"/>
+      <c r="J1" s="158"/>
+      <c r="K1" s="158"/>
+      <c r="L1" s="158"/>
+      <c r="M1" s="158"/>
+      <c r="N1" s="158"/>
+      <c r="O1" s="158"/>
+      <c r="P1" s="158"/>
+      <c r="Q1" s="158"/>
+      <c r="R1" s="158"/>
+      <c r="S1" s="158"/>
       <c r="U1" s="125"/>
       <c r="V1" s="146" t="s">
         <v>42</v>
@@ -42473,48 +42520,48 @@
       <c r="AM1" s="126"/>
       <c r="AN1" s="126"/>
       <c r="AO1" s="125"/>
-      <c r="AP1" s="167"/>
-      <c r="AQ1" s="167"/>
-      <c r="AR1" s="167"/>
-      <c r="AS1" s="167"/>
-      <c r="AT1" s="167"/>
-      <c r="AU1" s="167"/>
-      <c r="AV1" s="167"/>
-      <c r="AW1" s="167"/>
-      <c r="AX1" s="167"/>
-      <c r="AY1" s="167"/>
-      <c r="AZ1" s="167"/>
-      <c r="BA1" s="167"/>
-      <c r="BB1" s="167"/>
-      <c r="BC1" s="167"/>
-      <c r="BD1" s="167"/>
-      <c r="BE1" s="167"/>
-      <c r="BF1" s="167"/>
-      <c r="BG1" s="167"/>
-      <c r="BH1" s="167"/>
+      <c r="AP1" s="151"/>
+      <c r="AQ1" s="151"/>
+      <c r="AR1" s="151"/>
+      <c r="AS1" s="151"/>
+      <c r="AT1" s="151"/>
+      <c r="AU1" s="151"/>
+      <c r="AV1" s="151"/>
+      <c r="AW1" s="151"/>
+      <c r="AX1" s="151"/>
+      <c r="AY1" s="151"/>
+      <c r="AZ1" s="151"/>
+      <c r="BA1" s="151"/>
+      <c r="BB1" s="151"/>
+      <c r="BC1" s="151"/>
+      <c r="BD1" s="151"/>
+      <c r="BE1" s="151"/>
+      <c r="BF1" s="151"/>
+      <c r="BG1" s="151"/>
+      <c r="BH1" s="151"/>
     </row>
     <row r="2" spans="1:60" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="170" t="s">
+      <c r="A2" s="158" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="170"/>
-      <c r="C2" s="170"/>
-      <c r="D2" s="170"/>
-      <c r="E2" s="170"/>
-      <c r="F2" s="170"/>
-      <c r="G2" s="170"/>
-      <c r="H2" s="170"/>
-      <c r="I2" s="170"/>
-      <c r="J2" s="170"/>
-      <c r="K2" s="170"/>
-      <c r="L2" s="170"/>
-      <c r="M2" s="170"/>
-      <c r="N2" s="170"/>
-      <c r="O2" s="170"/>
-      <c r="P2" s="170"/>
-      <c r="Q2" s="170"/>
-      <c r="R2" s="170"/>
-      <c r="S2" s="170"/>
+      <c r="B2" s="158"/>
+      <c r="C2" s="158"/>
+      <c r="D2" s="158"/>
+      <c r="E2" s="158"/>
+      <c r="F2" s="158"/>
+      <c r="G2" s="158"/>
+      <c r="H2" s="158"/>
+      <c r="I2" s="158"/>
+      <c r="J2" s="158"/>
+      <c r="K2" s="158"/>
+      <c r="L2" s="158"/>
+      <c r="M2" s="158"/>
+      <c r="N2" s="158"/>
+      <c r="O2" s="158"/>
+      <c r="P2" s="158"/>
+      <c r="Q2" s="158"/>
+      <c r="R2" s="158"/>
+      <c r="S2" s="158"/>
       <c r="U2" s="127"/>
       <c r="V2" s="128"/>
       <c r="W2" s="128"/>
@@ -42576,41 +42623,41 @@
       <c r="Q3" s="16"/>
       <c r="R3" s="16"/>
       <c r="S3" s="16"/>
-      <c r="U3" s="165"/>
-      <c r="V3" s="165"/>
-      <c r="W3" s="165" t="s">
+      <c r="U3" s="152"/>
+      <c r="V3" s="152"/>
+      <c r="W3" s="152" t="s">
         <v>43</v>
       </c>
-      <c r="X3" s="165"/>
+      <c r="X3" s="152"/>
       <c r="Y3" s="129"/>
-      <c r="Z3" s="165" t="s">
+      <c r="Z3" s="152" t="s">
         <v>44</v>
       </c>
-      <c r="AA3" s="165"/>
+      <c r="AA3" s="152"/>
       <c r="AB3" s="130"/>
-      <c r="AC3" s="165" t="s">
+      <c r="AC3" s="152" t="s">
         <v>45</v>
       </c>
-      <c r="AD3" s="165"/>
+      <c r="AD3" s="152"/>
       <c r="AE3" s="129"/>
-      <c r="AF3" s="165" t="s">
+      <c r="AF3" s="152" t="s">
         <v>46</v>
       </c>
-      <c r="AG3" s="172"/>
-      <c r="AH3" s="172"/>
-      <c r="AI3" s="172"/>
-      <c r="AJ3" s="172"/>
+      <c r="AG3" s="164"/>
+      <c r="AH3" s="164"/>
+      <c r="AI3" s="164"/>
+      <c r="AJ3" s="164"/>
       <c r="AK3" s="131"/>
-      <c r="AL3" s="165" t="s">
+      <c r="AL3" s="152" t="s">
         <v>47</v>
       </c>
-      <c r="AM3" s="168"/>
-      <c r="AN3" s="168"/>
-      <c r="AO3" s="168"/>
-      <c r="AP3" s="165"/>
-      <c r="AQ3" s="168"/>
-      <c r="AR3" s="168"/>
-      <c r="AS3" s="168"/>
+      <c r="AM3" s="153"/>
+      <c r="AN3" s="153"/>
+      <c r="AO3" s="153"/>
+      <c r="AP3" s="152"/>
+      <c r="AQ3" s="153"/>
+      <c r="AR3" s="153"/>
+      <c r="AS3" s="153"/>
       <c r="AT3" s="127"/>
       <c r="AU3" s="127"/>
       <c r="AV3" s="127"/>
@@ -42628,60 +42675,60 @@
       <c r="BH3" s="127"/>
     </row>
     <row r="4" spans="1:60" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="157" t="s">
+      <c r="A4" s="159" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="157"/>
+      <c r="B4" s="159"/>
       <c r="C4" s="17"/>
-      <c r="D4" s="157" t="s">
+      <c r="D4" s="159" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="157"/>
+      <c r="E4" s="159"/>
       <c r="F4" s="18"/>
-      <c r="G4" s="157" t="s">
+      <c r="G4" s="159" t="s">
         <v>45</v>
       </c>
-      <c r="H4" s="157"/>
+      <c r="H4" s="159"/>
       <c r="I4" s="17"/>
-      <c r="J4" s="157" t="s">
+      <c r="J4" s="159" t="s">
         <v>46</v>
       </c>
-      <c r="K4" s="171"/>
-      <c r="L4" s="171"/>
-      <c r="M4" s="171"/>
-      <c r="N4" s="171"/>
+      <c r="K4" s="162"/>
+      <c r="L4" s="162"/>
+      <c r="M4" s="162"/>
+      <c r="N4" s="162"/>
       <c r="O4" s="19"/>
-      <c r="P4" s="157" t="s">
+      <c r="P4" s="159" t="s">
         <v>47</v>
       </c>
-      <c r="Q4" s="158"/>
-      <c r="R4" s="158"/>
-      <c r="S4" s="158"/>
-      <c r="U4" s="154"/>
-      <c r="V4" s="154"/>
-      <c r="W4" s="154"/>
-      <c r="X4" s="154"/>
+      <c r="Q4" s="168"/>
+      <c r="R4" s="168"/>
+      <c r="S4" s="168"/>
+      <c r="U4" s="155"/>
+      <c r="V4" s="155"/>
+      <c r="W4" s="155"/>
+      <c r="X4" s="155"/>
       <c r="Y4" s="132"/>
-      <c r="Z4" s="154"/>
-      <c r="AA4" s="154"/>
+      <c r="Z4" s="155"/>
+      <c r="AA4" s="155"/>
       <c r="AB4" s="133"/>
-      <c r="AC4" s="154"/>
-      <c r="AD4" s="154"/>
+      <c r="AC4" s="155"/>
+      <c r="AD4" s="155"/>
       <c r="AE4" s="132"/>
-      <c r="AF4" s="153"/>
-      <c r="AG4" s="153"/>
-      <c r="AH4" s="153"/>
-      <c r="AI4" s="153"/>
-      <c r="AJ4" s="153"/>
+      <c r="AF4" s="165"/>
+      <c r="AG4" s="165"/>
+      <c r="AH4" s="165"/>
+      <c r="AI4" s="165"/>
+      <c r="AJ4" s="165"/>
       <c r="AK4" s="134"/>
-      <c r="AL4" s="169"/>
-      <c r="AM4" s="169"/>
-      <c r="AN4" s="169"/>
-      <c r="AO4" s="169"/>
-      <c r="AP4" s="169"/>
-      <c r="AQ4" s="169"/>
-      <c r="AR4" s="169"/>
-      <c r="AS4" s="169"/>
+      <c r="AL4" s="154"/>
+      <c r="AM4" s="154"/>
+      <c r="AN4" s="154"/>
+      <c r="AO4" s="154"/>
+      <c r="AP4" s="154"/>
+      <c r="AQ4" s="154"/>
+      <c r="AR4" s="154"/>
+      <c r="AS4" s="154"/>
       <c r="AT4" s="127"/>
       <c r="AU4" s="127"/>
       <c r="AV4" s="127"/>
@@ -42699,58 +42746,58 @@
       <c r="BH4" s="127"/>
     </row>
     <row r="5" spans="1:60" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="163"/>
-      <c r="B5" s="163"/>
+      <c r="A5" s="160"/>
+      <c r="B5" s="160"/>
       <c r="C5" s="20"/>
-      <c r="D5" s="163"/>
-      <c r="E5" s="163"/>
+      <c r="D5" s="160"/>
+      <c r="E5" s="160"/>
       <c r="F5" s="21"/>
-      <c r="G5" s="163"/>
-      <c r="H5" s="163"/>
+      <c r="G5" s="160"/>
+      <c r="H5" s="160"/>
       <c r="I5" s="20"/>
-      <c r="J5" s="162"/>
-      <c r="K5" s="162"/>
-      <c r="L5" s="162"/>
-      <c r="M5" s="162"/>
-      <c r="N5" s="162"/>
+      <c r="J5" s="163"/>
+      <c r="K5" s="163"/>
+      <c r="L5" s="163"/>
+      <c r="M5" s="163"/>
+      <c r="N5" s="163"/>
       <c r="O5" s="22"/>
-      <c r="P5" s="159"/>
-      <c r="Q5" s="159"/>
-      <c r="R5" s="159"/>
-      <c r="S5" s="159"/>
-      <c r="U5" s="154"/>
-      <c r="V5" s="154"/>
-      <c r="W5" s="154"/>
-      <c r="X5" s="154"/>
+      <c r="P5" s="169"/>
+      <c r="Q5" s="169"/>
+      <c r="R5" s="169"/>
+      <c r="S5" s="169"/>
+      <c r="U5" s="155"/>
+      <c r="V5" s="155"/>
+      <c r="W5" s="155"/>
+      <c r="X5" s="155"/>
       <c r="Y5" s="132"/>
-      <c r="Z5" s="154"/>
-      <c r="AA5" s="154"/>
+      <c r="Z5" s="155"/>
+      <c r="AA5" s="155"/>
       <c r="AB5" s="133"/>
-      <c r="AC5" s="154"/>
-      <c r="AD5" s="154"/>
+      <c r="AC5" s="155"/>
+      <c r="AD5" s="155"/>
       <c r="AE5" s="132"/>
-      <c r="AF5" s="151" t="s">
+      <c r="AF5" s="166" t="s">
         <v>48</v>
       </c>
-      <c r="AG5" s="152"/>
+      <c r="AG5" s="167"/>
       <c r="AH5" s="135"/>
-      <c r="AI5" s="151" t="s">
+      <c r="AI5" s="166" t="s">
         <v>49</v>
       </c>
-      <c r="AJ5" s="152"/>
+      <c r="AJ5" s="167"/>
       <c r="AK5" s="135"/>
-      <c r="AL5" s="154" t="s">
+      <c r="AL5" s="155" t="s">
         <v>50</v>
       </c>
-      <c r="AM5" s="154"/>
+      <c r="AM5" s="155"/>
       <c r="AN5" s="135"/>
-      <c r="AO5" s="154" t="s">
+      <c r="AO5" s="155" t="s">
         <v>51</v>
       </c>
-      <c r="AP5" s="154"/>
-      <c r="AQ5" s="154"/>
+      <c r="AP5" s="155"/>
+      <c r="AQ5" s="155"/>
       <c r="AR5" s="135"/>
-      <c r="AS5" s="154"/>
+      <c r="AS5" s="155"/>
       <c r="AT5" s="127"/>
       <c r="AU5" s="127"/>
       <c r="AV5" s="127"/>
@@ -42768,58 +42815,58 @@
       <c r="BH5" s="127"/>
     </row>
     <row r="6" spans="1:60" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="163"/>
-      <c r="B6" s="163"/>
+      <c r="A6" s="160"/>
+      <c r="B6" s="160"/>
       <c r="C6" s="20"/>
-      <c r="D6" s="163"/>
-      <c r="E6" s="163"/>
+      <c r="D6" s="160"/>
+      <c r="E6" s="160"/>
       <c r="F6" s="21"/>
-      <c r="G6" s="163"/>
-      <c r="H6" s="163"/>
+      <c r="G6" s="160"/>
+      <c r="H6" s="160"/>
       <c r="I6" s="20"/>
-      <c r="J6" s="160" t="s">
+      <c r="J6" s="170" t="s">
         <v>48</v>
       </c>
-      <c r="K6" s="161"/>
+      <c r="K6" s="171"/>
       <c r="L6" s="23"/>
-      <c r="M6" s="160" t="s">
+      <c r="M6" s="170" t="s">
         <v>49</v>
       </c>
-      <c r="N6" s="161"/>
+      <c r="N6" s="171"/>
       <c r="O6" s="23"/>
-      <c r="P6" s="163" t="s">
+      <c r="P6" s="160" t="s">
         <v>50</v>
       </c>
-      <c r="Q6" s="163"/>
+      <c r="Q6" s="160"/>
       <c r="R6" s="23"/>
-      <c r="S6" s="163" t="s">
+      <c r="S6" s="160" t="s">
         <v>51</v>
       </c>
-      <c r="U6" s="155"/>
-      <c r="V6" s="155"/>
-      <c r="W6" s="155"/>
-      <c r="X6" s="155"/>
+      <c r="U6" s="156"/>
+      <c r="V6" s="156"/>
+      <c r="W6" s="156"/>
+      <c r="X6" s="156"/>
       <c r="Y6" s="132"/>
-      <c r="Z6" s="155"/>
-      <c r="AA6" s="155"/>
+      <c r="Z6" s="156"/>
+      <c r="AA6" s="156"/>
       <c r="AB6" s="133"/>
-      <c r="AC6" s="155"/>
-      <c r="AD6" s="155"/>
+      <c r="AC6" s="156"/>
+      <c r="AD6" s="156"/>
       <c r="AE6" s="132"/>
-      <c r="AF6" s="153"/>
-      <c r="AG6" s="153"/>
+      <c r="AF6" s="165"/>
+      <c r="AG6" s="165"/>
       <c r="AH6" s="136"/>
-      <c r="AI6" s="153"/>
-      <c r="AJ6" s="153"/>
+      <c r="AI6" s="165"/>
+      <c r="AJ6" s="165"/>
       <c r="AK6" s="135"/>
-      <c r="AL6" s="155"/>
-      <c r="AM6" s="155"/>
+      <c r="AL6" s="156"/>
+      <c r="AM6" s="156"/>
       <c r="AN6" s="136"/>
-      <c r="AO6" s="156"/>
-      <c r="AP6" s="155"/>
-      <c r="AQ6" s="155"/>
+      <c r="AO6" s="157"/>
+      <c r="AP6" s="156"/>
+      <c r="AQ6" s="156"/>
       <c r="AR6" s="136"/>
-      <c r="AS6" s="156"/>
+      <c r="AS6" s="157"/>
       <c r="AT6" s="127"/>
       <c r="AU6" s="127"/>
       <c r="AV6" s="127"/>
@@ -42837,25 +42884,25 @@
       <c r="BH6" s="127"/>
     </row>
     <row r="7" spans="1:60" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="164"/>
-      <c r="B7" s="164"/>
+      <c r="A7" s="161"/>
+      <c r="B7" s="161"/>
       <c r="C7" s="20"/>
-      <c r="D7" s="164"/>
-      <c r="E7" s="164"/>
+      <c r="D7" s="161"/>
+      <c r="E7" s="161"/>
       <c r="F7" s="21"/>
-      <c r="G7" s="164"/>
-      <c r="H7" s="164"/>
+      <c r="G7" s="161"/>
+      <c r="H7" s="161"/>
       <c r="I7" s="20"/>
-      <c r="J7" s="162"/>
-      <c r="K7" s="162"/>
+      <c r="J7" s="163"/>
+      <c r="K7" s="163"/>
       <c r="L7" s="24"/>
-      <c r="M7" s="162"/>
-      <c r="N7" s="162"/>
+      <c r="M7" s="163"/>
+      <c r="N7" s="163"/>
       <c r="O7" s="23"/>
-      <c r="P7" s="164"/>
-      <c r="Q7" s="164"/>
+      <c r="P7" s="161"/>
+      <c r="Q7" s="161"/>
       <c r="R7" s="24"/>
-      <c r="S7" s="166"/>
+      <c r="S7" s="172"/>
       <c r="U7" s="127"/>
       <c r="V7" s="127"/>
       <c r="W7" s="127"/>
@@ -45899,6 +45946,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="AI5:AJ6"/>
+    <mergeCell ref="AL5:AM6"/>
+    <mergeCell ref="AO5:AO6"/>
+    <mergeCell ref="P4:S5"/>
+    <mergeCell ref="J6:K7"/>
+    <mergeCell ref="M6:N7"/>
+    <mergeCell ref="P6:Q7"/>
+    <mergeCell ref="U3:V6"/>
+    <mergeCell ref="S6:S7"/>
     <mergeCell ref="AP1:BH1"/>
     <mergeCell ref="AP3:AS4"/>
     <mergeCell ref="AP5:AQ6"/>
@@ -45915,15 +45971,6 @@
     <mergeCell ref="AF3:AJ4"/>
     <mergeCell ref="AL3:AO4"/>
     <mergeCell ref="AF5:AG6"/>
-    <mergeCell ref="AI5:AJ6"/>
-    <mergeCell ref="AL5:AM6"/>
-    <mergeCell ref="AO5:AO6"/>
-    <mergeCell ref="P4:S5"/>
-    <mergeCell ref="J6:K7"/>
-    <mergeCell ref="M6:N7"/>
-    <mergeCell ref="P6:Q7"/>
-    <mergeCell ref="U3:V6"/>
-    <mergeCell ref="S6:S7"/>
   </mergeCells>
   <phoneticPr fontId="30" type="noConversion"/>
   <conditionalFormatting sqref="AA8:AA20">
@@ -46093,7 +46140,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView zoomScale="135" zoomScaleNormal="135" zoomScalePageLayoutView="135" workbookViewId="0">
-      <selection activeCell="I42" sqref="I42"/>
+      <selection activeCell="L42" sqref="L42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -46213,8 +46260,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R72"/>
   <sheetViews>
-    <sheetView topLeftCell="E4" zoomScale="155" zoomScaleNormal="155" zoomScalePageLayoutView="155" workbookViewId="0">
-      <selection activeCell="Y50" sqref="Y50"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="155" zoomScaleNormal="155" zoomScalePageLayoutView="155" workbookViewId="0">
+      <selection activeCell="T46" sqref="T46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -47676,7 +47723,7 @@
   <dimension ref="A1:O144"/>
   <sheetViews>
     <sheetView topLeftCell="H1" zoomScale="156" zoomScaleNormal="156" zoomScalePageLayoutView="156" workbookViewId="0">
-      <selection activeCell="O48" sqref="O48"/>
+      <selection activeCell="L45" sqref="L45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>

--- a/chart-styles.xlsx
+++ b/chart-styles.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2020" yWindow="1940" windowWidth="29860" windowHeight="23860" tabRatio="913" activeTab="4"/>
+    <workbookView xWindow="8400" yWindow="1700" windowWidth="29860" windowHeight="23860" tabRatio="913"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="17" r:id="rId1"/>
@@ -1903,16 +1903,13 @@
     </xf>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1924,34 +1921,7 @@
     <xf numFmtId="0" fontId="52" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1966,7 +1936,37 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -2042,16 +2042,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <colors>
     <mruColors>
+      <color rgb="FFA3D5EC"/>
+      <color rgb="FFD3D3D3"/>
+      <color rgb="FF1796D3"/>
       <color rgb="FF0A4B69"/>
       <color rgb="FFDC2B26"/>
-      <color rgb="FF1796D3"/>
       <color rgb="FF0095D4"/>
       <color rgb="FF696969"/>
       <color rgb="FFA1D4EE"/>
       <color rgb="FF6FBFE4"/>
       <color rgb="FF024B6B"/>
-      <color rgb="FF000000"/>
-      <color rgb="FF322C2E"/>
     </mruColors>
   </colors>
   <extLst>
@@ -2171,11 +2171,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="50"/>
-        <c:axId val="1358358048"/>
-        <c:axId val="1659982512"/>
+        <c:axId val="1323944192"/>
+        <c:axId val="1323957504"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1358358048"/>
+        <c:axId val="1323944192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2192,7 +2192,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="1659982512"/>
+        <c:crossAx val="1323957504"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2200,7 +2200,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1659982512"/>
+        <c:axId val="1323957504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -2227,7 +2227,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="1358358048"/>
+        <c:crossAx val="1323944192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.05"/>
@@ -4323,11 +4323,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1670535904"/>
-        <c:axId val="1613348352"/>
+        <c:axId val="1676036544"/>
+        <c:axId val="1675771936"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="1670535904"/>
+        <c:axId val="1676036544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4337,7 +4337,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1613348352"/>
+        <c:crossAx val="1675771936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4346,7 +4346,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1613348352"/>
+        <c:axId val="1675771936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4357,7 +4357,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1670535904"/>
+        <c:crossAx val="1676036544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4982,11 +4982,11 @@
         </c:dLbls>
         <c:gapWidth val="50"/>
         <c:overlap val="100"/>
-        <c:axId val="1670824608"/>
-        <c:axId val="1363754272"/>
+        <c:axId val="1675574880"/>
+        <c:axId val="1675220912"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1670824608"/>
+        <c:axId val="1675574880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5014,7 +5014,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1363754272"/>
+        <c:crossAx val="1675220912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5022,7 +5022,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1363754272"/>
+        <c:axId val="1675220912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5059,7 +5059,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1670824608"/>
+        <c:crossAx val="1675574880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5696,11 +5696,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="1364364432"/>
-        <c:axId val="1364368416"/>
+        <c:axId val="1689657904"/>
+        <c:axId val="1689865664"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1364364432"/>
+        <c:axId val="1689657904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5710,7 +5710,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1364368416"/>
+        <c:crossAx val="1689865664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5718,7 +5718,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1364368416"/>
+        <c:axId val="1689865664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5744,7 +5744,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="1364364432"/>
+        <c:crossAx val="1689657904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7062,11 +7062,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1611348032"/>
-        <c:axId val="1358623312"/>
+        <c:axId val="1675383280"/>
+        <c:axId val="1674702272"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="1611348032"/>
+        <c:axId val="1675383280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7076,7 +7076,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1358623312"/>
+        <c:crossAx val="1674702272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7084,7 +7084,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1358623312"/>
+        <c:axId val="1674702272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7118,7 +7118,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1611348032"/>
+        <c:crossAx val="1675383280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7239,7 +7239,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -7428,7 +7430,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -7534,11 +7538,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1357947136"/>
-        <c:axId val="1358141072"/>
+        <c:axId val="1323579424"/>
+        <c:axId val="1323583792"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1357947136"/>
+        <c:axId val="1323579424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7566,7 +7570,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1358141072"/>
+        <c:crossAx val="1323583792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7574,7 +7578,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1358141072"/>
+        <c:axId val="1323583792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.3E7"/>
@@ -7613,7 +7617,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1357947136"/>
+        <c:crossAx val="1323579424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7987,11 +7991,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1358463120"/>
-        <c:axId val="1361701152"/>
+        <c:axId val="1323338688"/>
+        <c:axId val="1323342608"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1358463120"/>
+        <c:axId val="1323338688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8001,7 +8005,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1361701152"/>
+        <c:crossAx val="1323342608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8009,7 +8013,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1361701152"/>
+        <c:axId val="1323342608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8035,7 +8039,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="1358463120"/>
+        <c:crossAx val="1323338688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8605,7 +8609,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -8656,7 +8659,7 @@
         </c:dLbls>
         <c:gapWidth val="0"/>
         <c:axId val="1359639056"/>
-        <c:axId val="1693591664"/>
+        <c:axId val="1359627696"/>
       </c:barChart>
       <c:catAx>
         <c:axId val="1359639056"/>
@@ -8669,7 +8672,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1693591664"/>
+        <c:crossAx val="1359627696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8677,7 +8680,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1693591664"/>
+        <c:axId val="1359627696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9222,11 +9225,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="0"/>
-        <c:axId val="1694317760"/>
-        <c:axId val="1324289968"/>
+        <c:axId val="1708948416"/>
+        <c:axId val="1708648048"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1694317760"/>
+        <c:axId val="1708948416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9250,7 +9253,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1324289968"/>
+        <c:crossAx val="1708648048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9258,7 +9261,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1324289968"/>
+        <c:axId val="1708648048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9284,7 +9287,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="1694317760"/>
+        <c:crossAx val="1708948416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9383,6 +9386,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -9450,11 +9454,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="50"/>
-        <c:axId val="1613408976"/>
-        <c:axId val="1617353472"/>
+        <c:axId val="1323889472"/>
+        <c:axId val="1323883456"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1613408976"/>
+        <c:axId val="1323889472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9471,7 +9475,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="1617353472"/>
+        <c:crossAx val="1323883456"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9479,7 +9483,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1617353472"/>
+        <c:axId val="1323883456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.25"/>
@@ -9491,7 +9495,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1613408976"/>
+        <c:crossAx val="1323889472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.05"/>
@@ -9565,7 +9569,7 @@
           <c:order val="0"/>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="tx2"/>
+              <a:srgbClr val="1796D3"/>
             </a:solidFill>
           </c:spPr>
           <c:invertIfNegative val="0"/>
@@ -9575,7 +9579,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="0095D4"/>
+                <a:srgbClr val="1796D3"/>
               </a:solidFill>
             </c:spPr>
           </c:dPt>
@@ -9585,7 +9589,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="0095D4"/>
+                <a:srgbClr val="1796D3"/>
               </a:solidFill>
             </c:spPr>
           </c:dPt>
@@ -9595,7 +9599,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="0095D4"/>
+                <a:srgbClr val="1796D3"/>
               </a:solidFill>
             </c:spPr>
           </c:dPt>
@@ -9605,7 +9609,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="0095D4"/>
+                <a:srgbClr val="1796D3"/>
               </a:solidFill>
             </c:spPr>
           </c:dPt>
@@ -9615,7 +9619,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="0095D4"/>
+                <a:srgbClr val="1796D3"/>
               </a:solidFill>
             </c:spPr>
           </c:dPt>
@@ -9625,7 +9629,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="FFC100"/>
+                <a:srgbClr val="D3D3D3"/>
               </a:solidFill>
             </c:spPr>
           </c:dPt>
@@ -9635,7 +9639,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:srgbClr val="A3D5EC"/>
               </a:solidFill>
             </c:spPr>
           </c:dPt>
@@ -9645,7 +9649,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:srgbClr val="A3D5EC"/>
               </a:solidFill>
             </c:spPr>
           </c:dPt>
@@ -9655,7 +9659,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:srgbClr val="A3D5EC"/>
               </a:solidFill>
             </c:spPr>
           </c:dPt>
@@ -9665,7 +9669,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:srgbClr val="A3D5EC"/>
               </a:solidFill>
             </c:spPr>
           </c:dPt>
@@ -9675,7 +9679,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:srgbClr val="A3D5EC"/>
               </a:solidFill>
             </c:spPr>
           </c:dPt>
@@ -9772,11 +9776,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="50"/>
-        <c:axId val="1323860672"/>
-        <c:axId val="1764026640"/>
+        <c:axId val="1351199504"/>
+        <c:axId val="1351179936"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1323860672"/>
+        <c:axId val="1351199504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9793,7 +9797,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="1764026640"/>
+        <c:crossAx val="1351179936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9801,7 +9805,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1764026640"/>
+        <c:axId val="1351179936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-20.0"/>
@@ -9828,7 +9832,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="1323860672"/>
+        <c:crossAx val="1351199504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5.0"/>
@@ -10127,11 +10131,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="1723777040"/>
-        <c:axId val="1359676128"/>
+        <c:axId val="1350738208"/>
+        <c:axId val="1350742464"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1723777040"/>
+        <c:axId val="1350738208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10151,7 +10155,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1359676128"/>
+        <c:crossAx val="1350742464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10159,7 +10163,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1359676128"/>
+        <c:axId val="1350742464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10185,7 +10189,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="1723777040"/>
+        <c:crossAx val="1350738208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10644,11 +10648,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="30"/>
-        <c:axId val="1270714336"/>
-        <c:axId val="1270780720"/>
+        <c:axId val="1711082512"/>
+        <c:axId val="1711057408"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1270714336"/>
+        <c:axId val="1711082512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10676,7 +10680,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1270780720"/>
+        <c:crossAx val="1711057408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10686,7 +10690,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1270780720"/>
+        <c:axId val="1711057408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.5"/>
@@ -10723,7 +10727,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1270714336"/>
+        <c:crossAx val="1711082512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -10877,7 +10881,7 @@
                   <c:v>5.0718</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.154199999999985</c:v>
+                  <c:v>6.154199999999984</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>7.2366</c:v>
@@ -11809,11 +11813,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1727971024"/>
-        <c:axId val="1704356128"/>
+        <c:axId val="1710267552"/>
+        <c:axId val="1710250528"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="1727971024"/>
+        <c:axId val="1710267552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11841,7 +11845,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1704356128"/>
+        <c:crossAx val="1710250528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11851,7 +11855,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1704356128"/>
+        <c:axId val="1710250528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11931,7 +11935,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1727971024"/>
+        <c:crossAx val="1710267552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="20.0"/>
@@ -12980,11 +12984,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1694283232"/>
-        <c:axId val="1323388992"/>
+        <c:axId val="1676562896"/>
+        <c:axId val="1676366032"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="1694283232"/>
+        <c:axId val="1676562896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13012,7 +13016,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1323388992"/>
+        <c:crossAx val="1676366032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13022,7 +13026,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1323388992"/>
+        <c:axId val="1676366032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13058,7 +13062,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1694283232"/>
+        <c:crossAx val="1676562896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:minorUnit val="5.0"/>
@@ -14027,8 +14031,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1670663680"/>
-        <c:axId val="1671006688"/>
+        <c:axId val="1689783696"/>
+        <c:axId val="1689705248"/>
       </c:areaChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -14301,11 +14305,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1670663680"/>
-        <c:axId val="1671006688"/>
+        <c:axId val="1689783696"/>
+        <c:axId val="1689705248"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1670663680"/>
+        <c:axId val="1689783696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14333,7 +14337,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1671006688"/>
+        <c:crossAx val="1689705248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14343,7 +14347,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1671006688"/>
+        <c:axId val="1689705248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14381,7 +14385,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1670663680"/>
+        <c:crossAx val="1689783696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:minorUnit val="5.0"/>
@@ -15357,8 +15361,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1670554336"/>
-        <c:axId val="1671337616"/>
+        <c:axId val="1323723008"/>
+        <c:axId val="1323715296"/>
       </c:areaChart>
       <c:barChart>
         <c:barDir val="col"/>
@@ -15430,11 +15434,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="0"/>
-        <c:axId val="1670554336"/>
-        <c:axId val="1671337616"/>
+        <c:axId val="1323723008"/>
+        <c:axId val="1323715296"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1670554336"/>
+        <c:axId val="1323723008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15444,7 +15448,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1671337616"/>
+        <c:crossAx val="1323715296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15454,7 +15458,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1671337616"/>
+        <c:axId val="1323715296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="18.0"/>
@@ -15481,7 +15485,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="1670554336"/>
+        <c:crossAx val="1323723008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15816,7 +15820,7 @@
                 <a:ea typeface="Avenir Medium"/>
                 <a:cs typeface="Lato Regular"/>
               </a:rPr>
-              <a:t>Title in 18pt Title Case</a:t>
+              <a:t>Title in 18px Title Case</a:t>
             </a:r>
           </a:p>
           <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -15832,7 +15836,7 @@
                 <a:ea typeface="Avenir Medium"/>
                 <a:cs typeface="Lato Regular"/>
               </a:rPr>
-              <a:t>Subtitle in 14pt sentence case</a:t>
+              <a:t>Subtitle in 14px sentence case</a:t>
             </a:r>
           </a:p>
           <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -17050,7 +17054,7 @@
               <a:ea typeface="Avenir Medium"/>
               <a:cs typeface="Lato Regular"/>
             </a:rPr>
-            <a:t>Title in 18pt Title Case</a:t>
+            <a:t>Title in 18px Title Case</a:t>
           </a:r>
         </a:p>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -17066,7 +17070,7 @@
               <a:ea typeface="Avenir Medium"/>
               <a:cs typeface="Lato Regular"/>
             </a:rPr>
-            <a:t>Subtitle in 14pt sentence case</a:t>
+            <a:t>Subtitle in 14px sentence case</a:t>
           </a:r>
         </a:p>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -17555,14 +17559,14 @@
         </a:ln>
         <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -17625,14 +17629,14 @@
         </a:ln>
         <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -17695,14 +17699,14 @@
         </a:ln>
         <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -17819,14 +17823,14 @@
         </a:ln>
         <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -17889,14 +17893,14 @@
         </a:ln>
         <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -17965,7 +17969,7 @@
         </a:ln>
         <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -18083,7 +18087,7 @@
               <a:ea typeface="Avenir Medium"/>
               <a:cs typeface="Lato Regular"/>
             </a:rPr>
-            <a:t>Title in 18pt Title Case</a:t>
+            <a:t>Title in 18px Title Case</a:t>
           </a:r>
         </a:p>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -18099,7 +18103,7 @@
               <a:ea typeface="Avenir Medium"/>
               <a:cs typeface="Lato Regular"/>
             </a:rPr>
-            <a:t>Subtitle in 14pt sentence case</a:t>
+            <a:t>Subtitle in 14px sentence case</a:t>
           </a:r>
         </a:p>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -19507,7 +19511,7 @@
               <a:ea typeface="Avenir Medium"/>
               <a:cs typeface="Lato Regular"/>
             </a:rPr>
-            <a:t>Title in 18pt Title Case</a:t>
+            <a:t>Title in 18px Title Case</a:t>
           </a:r>
         </a:p>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -19523,7 +19527,7 @@
               <a:ea typeface="Avenir Medium"/>
               <a:cs typeface="Lato Regular"/>
             </a:rPr>
-            <a:t>Subtitle in 14pt sentence case</a:t>
+            <a:t>Subtitle in 14px sentence case</a:t>
           </a:r>
         </a:p>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -20779,7 +20783,7 @@
               <a:ea typeface="Avenir Medium"/>
               <a:cs typeface="Lato Regular"/>
             </a:rPr>
-            <a:t>Title in 18pt Title Case</a:t>
+            <a:t>Title in 18px Title Case</a:t>
           </a:r>
         </a:p>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -20795,7 +20799,7 @@
               <a:ea typeface="Avenir Medium"/>
               <a:cs typeface="Lato Regular"/>
             </a:rPr>
-            <a:t>Subtitle in 14pt sentence case</a:t>
+            <a:t>Subtitle in 14px sentence case</a:t>
           </a:r>
         </a:p>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -21383,7 +21387,7 @@
               <a:ea typeface="Avenir Medium"/>
               <a:cs typeface="Lato Regular"/>
             </a:rPr>
-            <a:t>Title in 18pt Title Case</a:t>
+            <a:t>Title in 18px Title Case</a:t>
           </a:r>
         </a:p>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -21399,7 +21403,7 @@
               <a:ea typeface="Avenir Medium"/>
               <a:cs typeface="Lato Regular"/>
             </a:rPr>
-            <a:t>Subtitle in 14pt sentence case</a:t>
+            <a:t>Subtitle in 14px sentence case</a:t>
           </a:r>
         </a:p>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -21974,7 +21978,7 @@
               <a:ea typeface="Avenir Medium"/>
               <a:cs typeface="Lato Regular"/>
             </a:rPr>
-            <a:t>Title in 18pt Title Case</a:t>
+            <a:t>Title in 18px Title Case</a:t>
           </a:r>
         </a:p>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -21990,7 +21994,7 @@
               <a:ea typeface="Avenir Medium"/>
               <a:cs typeface="Lato Regular"/>
             </a:rPr>
-            <a:t>Subtitle in 14pt sentence case</a:t>
+            <a:t>Subtitle in 14px sentence case</a:t>
           </a:r>
         </a:p>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -22550,7 +22554,7 @@
               <a:ea typeface="Avenir Medium"/>
               <a:cs typeface="Lato Regular"/>
             </a:rPr>
-            <a:t>Title in 18pt Title Case</a:t>
+            <a:t>Title in 18px Title Case</a:t>
           </a:r>
         </a:p>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -22566,7 +22570,7 @@
               <a:ea typeface="Avenir Medium"/>
               <a:cs typeface="Lato Regular"/>
             </a:rPr>
-            <a:t>Subtitle in 14pt sentence case</a:t>
+            <a:t>Subtitle in 14px sentence case</a:t>
           </a:r>
         </a:p>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -23173,7 +23177,7 @@
                 <a:ea typeface="Avenir Medium"/>
                 <a:cs typeface="Lato Regular"/>
               </a:rPr>
-              <a:t>Title in 18pt Title Case</a:t>
+              <a:t>Title in 18px Title Case</a:t>
             </a:r>
           </a:p>
           <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -23189,7 +23193,7 @@
                 <a:ea typeface="Avenir Medium"/>
                 <a:cs typeface="Lato Regular"/>
               </a:rPr>
-              <a:t>Subtitle in 14pt sentence case</a:t>
+              <a:t>Subtitle in 14px sentence case</a:t>
             </a:r>
           </a:p>
           <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -23729,7 +23733,7 @@
               <a:ea typeface="Avenir Medium"/>
               <a:cs typeface="Lato Regular"/>
             </a:rPr>
-            <a:t>Title in 18pt Title Case</a:t>
+            <a:t>Title in 18px Title Case</a:t>
           </a:r>
         </a:p>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -23745,7 +23749,7 @@
               <a:ea typeface="Avenir Medium"/>
               <a:cs typeface="Lato Regular"/>
             </a:rPr>
-            <a:t>Subtitle in 14pt sentence case</a:t>
+            <a:t>Subtitle in 14px sentence case</a:t>
           </a:r>
         </a:p>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -24434,7 +24438,7 @@
               <a:ea typeface="Avenir Medium"/>
               <a:cs typeface="Lato Regular"/>
             </a:rPr>
-            <a:t>Title in 18pt Title Case</a:t>
+            <a:t>Title in 18px Title Case</a:t>
           </a:r>
         </a:p>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -24450,7 +24454,7 @@
               <a:ea typeface="Avenir Medium"/>
               <a:cs typeface="Lato Regular"/>
             </a:rPr>
-            <a:t>Subtitle in 14pt sentence case</a:t>
+            <a:t>Subtitle in 14px sentence case</a:t>
           </a:r>
         </a:p>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -25040,7 +25044,7 @@
               <a:ea typeface="Avenir Medium"/>
               <a:cs typeface="Lato Regular"/>
             </a:rPr>
-            <a:t>Title in 18pt Title Case </a:t>
+            <a:t>Title in 18px Title Case </a:t>
           </a:r>
         </a:p>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -25056,7 +25060,7 @@
               <a:ea typeface="Avenir Medium"/>
               <a:cs typeface="Lato Regular"/>
             </a:rPr>
-            <a:t>Subtitle in 14pt sentence case</a:t>
+            <a:t>Subtitle in 14px sentence case</a:t>
           </a:r>
         </a:p>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -25581,7 +25585,7 @@
               <a:ea typeface="Avenir Medium"/>
               <a:cs typeface="Lato Regular"/>
             </a:rPr>
-            <a:t>Title in 18pt Title Case</a:t>
+            <a:t>Title in 18px Title Case</a:t>
           </a:r>
         </a:p>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -25597,7 +25601,7 @@
               <a:ea typeface="Avenir Medium"/>
               <a:cs typeface="Lato Regular"/>
             </a:rPr>
-            <a:t>Subtitle in 14pt sentence case</a:t>
+            <a:t>Subtitle in 14px sentence case</a:t>
           </a:r>
         </a:p>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -26071,7 +26075,7 @@
                 <a:ea typeface="Avenir Medium"/>
                 <a:cs typeface="Lato Regular"/>
               </a:rPr>
-              <a:t>Title in 18pt Title Case</a:t>
+              <a:t>Title in 18px Title Case</a:t>
             </a:r>
           </a:p>
           <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -26087,7 +26091,7 @@
                 <a:ea typeface="Avenir Medium"/>
                 <a:cs typeface="Lato Regular"/>
               </a:rPr>
-              <a:t>Subtitle in 14pt sentence case</a:t>
+              <a:t>Subtitle in 14px sentence case</a:t>
             </a:r>
           </a:p>
           <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -26495,13 +26499,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>186266</xdr:colOff>
+      <xdr:colOff>186265</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>414866</xdr:colOff>
+      <xdr:colOff>493380</xdr:colOff>
       <xdr:row>55</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -26724,8 +26728,8 @@
       </cdr:nvGrpSpPr>
       <cdr:grpSpPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="0" y="54888"/>
-          <a:ext cx="8954140" cy="4569377"/>
+          <a:off x="0" y="55105"/>
+          <a:ext cx="8993915" cy="4587377"/>
           <a:chOff x="0" y="0"/>
           <a:chExt cx="8970010" cy="4229913"/>
         </a:xfrm>
@@ -26824,7 +26828,7 @@
                 <a:ea typeface="Avenir Medium"/>
                 <a:cs typeface="Lato Regular"/>
               </a:rPr>
-              <a:t>Title in 18pt Title Case</a:t>
+              <a:t>Title in 18px Title Case</a:t>
             </a:r>
           </a:p>
           <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -26840,7 +26844,7 @@
                 <a:ea typeface="Avenir Medium"/>
                 <a:cs typeface="Lato Regular"/>
               </a:rPr>
-              <a:t>Subtitle in 14pt sentence case</a:t>
+              <a:t>Subtitle in 14px sentence case</a:t>
             </a:r>
           </a:p>
           <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -27398,7 +27402,7 @@
                 <a:ea typeface="Avenir Medium"/>
                 <a:cs typeface="Lato Regular"/>
               </a:rPr>
-              <a:t>Title in 18pt Title Case</a:t>
+              <a:t>Title in 18px Title Case</a:t>
             </a:r>
           </a:p>
           <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -27414,7 +27418,7 @@
                 <a:ea typeface="Avenir Medium"/>
                 <a:cs typeface="Lato Regular"/>
               </a:rPr>
-              <a:t>Subtitle in 14pt sentence case</a:t>
+              <a:t>Subtitle in 14px sentence case</a:t>
             </a:r>
           </a:p>
           <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -29746,7 +29750,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G119"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -30294,7 +30298,7 @@
   <dimension ref="A1:BX272"/>
   <sheetViews>
     <sheetView topLeftCell="A26" zoomScale="163" zoomScaleNormal="163" zoomScalePageLayoutView="163" workbookViewId="0">
-      <selection activeCell="E74" sqref="E74"/>
+      <selection activeCell="F74" sqref="F74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="11" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -35593,7 +35597,7 @@
   <dimension ref="A1:BX276"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="E1" zoomScale="121" zoomScaleNormal="121" zoomScalePageLayoutView="121" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="K45" sqref="K45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="11" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -41725,7 +41729,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView topLeftCell="C13" zoomScale="163" zoomScaleNormal="163" zoomScalePageLayoutView="163" workbookViewId="0">
+    <sheetView topLeftCell="C7" zoomScale="163" zoomScaleNormal="163" zoomScalePageLayoutView="163" workbookViewId="0">
       <selection activeCell="M43" sqref="M43"/>
     </sheetView>
   </sheetViews>
@@ -41856,7 +41860,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="121" zoomScaleNormal="121" zoomScalePageLayoutView="121" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScale="121" zoomScaleNormal="121" zoomScalePageLayoutView="121" workbookViewId="0">
       <selection activeCell="O44" sqref="O44"/>
     </sheetView>
   </sheetViews>
@@ -41954,7 +41958,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="126" zoomScaleNormal="126" zoomScalePageLayoutView="126" workbookViewId="0">
+    <sheetView zoomScale="126" zoomScaleNormal="126" zoomScalePageLayoutView="126" workbookViewId="0">
       <selection activeCell="M50" sqref="M50"/>
     </sheetView>
   </sheetViews>
@@ -42067,7 +42071,7 @@
   <dimension ref="B3:D40"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="AA65" sqref="AA65"/>
+      <selection activeCell="T56" sqref="T56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -42429,8 +42433,8 @@
   </sheetPr>
   <dimension ref="A1:BH95"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="S1" zoomScale="139" zoomScaleNormal="139" zoomScalePageLayoutView="139" workbookViewId="0">
-      <selection activeCell="AF25" sqref="AF25"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="AD42" sqref="AD42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -42476,27 +42480,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:60" s="14" customFormat="1" ht="23" x14ac:dyDescent="0.25">
-      <c r="A1" s="158" t="s">
+      <c r="A1" s="170" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="158"/>
-      <c r="C1" s="158"/>
-      <c r="D1" s="158"/>
-      <c r="E1" s="158"/>
-      <c r="F1" s="158"/>
-      <c r="G1" s="158"/>
-      <c r="H1" s="158"/>
-      <c r="I1" s="158"/>
-      <c r="J1" s="158"/>
-      <c r="K1" s="158"/>
-      <c r="L1" s="158"/>
-      <c r="M1" s="158"/>
-      <c r="N1" s="158"/>
-      <c r="O1" s="158"/>
-      <c r="P1" s="158"/>
-      <c r="Q1" s="158"/>
-      <c r="R1" s="158"/>
-      <c r="S1" s="158"/>
+      <c r="B1" s="170"/>
+      <c r="C1" s="170"/>
+      <c r="D1" s="170"/>
+      <c r="E1" s="170"/>
+      <c r="F1" s="170"/>
+      <c r="G1" s="170"/>
+      <c r="H1" s="170"/>
+      <c r="I1" s="170"/>
+      <c r="J1" s="170"/>
+      <c r="K1" s="170"/>
+      <c r="L1" s="170"/>
+      <c r="M1" s="170"/>
+      <c r="N1" s="170"/>
+      <c r="O1" s="170"/>
+      <c r="P1" s="170"/>
+      <c r="Q1" s="170"/>
+      <c r="R1" s="170"/>
+      <c r="S1" s="170"/>
       <c r="U1" s="125"/>
       <c r="V1" s="146" t="s">
         <v>42</v>
@@ -42520,48 +42524,48 @@
       <c r="AM1" s="126"/>
       <c r="AN1" s="126"/>
       <c r="AO1" s="125"/>
-      <c r="AP1" s="151"/>
-      <c r="AQ1" s="151"/>
-      <c r="AR1" s="151"/>
-      <c r="AS1" s="151"/>
-      <c r="AT1" s="151"/>
-      <c r="AU1" s="151"/>
-      <c r="AV1" s="151"/>
-      <c r="AW1" s="151"/>
-      <c r="AX1" s="151"/>
-      <c r="AY1" s="151"/>
-      <c r="AZ1" s="151"/>
-      <c r="BA1" s="151"/>
-      <c r="BB1" s="151"/>
-      <c r="BC1" s="151"/>
-      <c r="BD1" s="151"/>
-      <c r="BE1" s="151"/>
-      <c r="BF1" s="151"/>
-      <c r="BG1" s="151"/>
-      <c r="BH1" s="151"/>
+      <c r="AP1" s="167"/>
+      <c r="AQ1" s="167"/>
+      <c r="AR1" s="167"/>
+      <c r="AS1" s="167"/>
+      <c r="AT1" s="167"/>
+      <c r="AU1" s="167"/>
+      <c r="AV1" s="167"/>
+      <c r="AW1" s="167"/>
+      <c r="AX1" s="167"/>
+      <c r="AY1" s="167"/>
+      <c r="AZ1" s="167"/>
+      <c r="BA1" s="167"/>
+      <c r="BB1" s="167"/>
+      <c r="BC1" s="167"/>
+      <c r="BD1" s="167"/>
+      <c r="BE1" s="167"/>
+      <c r="BF1" s="167"/>
+      <c r="BG1" s="167"/>
+      <c r="BH1" s="167"/>
     </row>
     <row r="2" spans="1:60" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="158" t="s">
+      <c r="A2" s="170" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="158"/>
-      <c r="C2" s="158"/>
-      <c r="D2" s="158"/>
-      <c r="E2" s="158"/>
-      <c r="F2" s="158"/>
-      <c r="G2" s="158"/>
-      <c r="H2" s="158"/>
-      <c r="I2" s="158"/>
-      <c r="J2" s="158"/>
-      <c r="K2" s="158"/>
-      <c r="L2" s="158"/>
-      <c r="M2" s="158"/>
-      <c r="N2" s="158"/>
-      <c r="O2" s="158"/>
-      <c r="P2" s="158"/>
-      <c r="Q2" s="158"/>
-      <c r="R2" s="158"/>
-      <c r="S2" s="158"/>
+      <c r="B2" s="170"/>
+      <c r="C2" s="170"/>
+      <c r="D2" s="170"/>
+      <c r="E2" s="170"/>
+      <c r="F2" s="170"/>
+      <c r="G2" s="170"/>
+      <c r="H2" s="170"/>
+      <c r="I2" s="170"/>
+      <c r="J2" s="170"/>
+      <c r="K2" s="170"/>
+      <c r="L2" s="170"/>
+      <c r="M2" s="170"/>
+      <c r="N2" s="170"/>
+      <c r="O2" s="170"/>
+      <c r="P2" s="170"/>
+      <c r="Q2" s="170"/>
+      <c r="R2" s="170"/>
+      <c r="S2" s="170"/>
       <c r="U2" s="127"/>
       <c r="V2" s="128"/>
       <c r="W2" s="128"/>
@@ -42623,41 +42627,41 @@
       <c r="Q3" s="16"/>
       <c r="R3" s="16"/>
       <c r="S3" s="16"/>
-      <c r="U3" s="152"/>
-      <c r="V3" s="152"/>
-      <c r="W3" s="152" t="s">
+      <c r="U3" s="165"/>
+      <c r="V3" s="165"/>
+      <c r="W3" s="165" t="s">
         <v>43</v>
       </c>
-      <c r="X3" s="152"/>
+      <c r="X3" s="165"/>
       <c r="Y3" s="129"/>
-      <c r="Z3" s="152" t="s">
+      <c r="Z3" s="165" t="s">
         <v>44</v>
       </c>
-      <c r="AA3" s="152"/>
+      <c r="AA3" s="165"/>
       <c r="AB3" s="130"/>
-      <c r="AC3" s="152" t="s">
+      <c r="AC3" s="165" t="s">
         <v>45</v>
       </c>
-      <c r="AD3" s="152"/>
+      <c r="AD3" s="165"/>
       <c r="AE3" s="129"/>
-      <c r="AF3" s="152" t="s">
+      <c r="AF3" s="165" t="s">
         <v>46</v>
       </c>
-      <c r="AG3" s="164"/>
-      <c r="AH3" s="164"/>
-      <c r="AI3" s="164"/>
-      <c r="AJ3" s="164"/>
+      <c r="AG3" s="172"/>
+      <c r="AH3" s="172"/>
+      <c r="AI3" s="172"/>
+      <c r="AJ3" s="172"/>
       <c r="AK3" s="131"/>
-      <c r="AL3" s="152" t="s">
+      <c r="AL3" s="165" t="s">
         <v>47</v>
       </c>
-      <c r="AM3" s="153"/>
-      <c r="AN3" s="153"/>
-      <c r="AO3" s="153"/>
-      <c r="AP3" s="152"/>
-      <c r="AQ3" s="153"/>
-      <c r="AR3" s="153"/>
-      <c r="AS3" s="153"/>
+      <c r="AM3" s="168"/>
+      <c r="AN3" s="168"/>
+      <c r="AO3" s="168"/>
+      <c r="AP3" s="165"/>
+      <c r="AQ3" s="168"/>
+      <c r="AR3" s="168"/>
+      <c r="AS3" s="168"/>
       <c r="AT3" s="127"/>
       <c r="AU3" s="127"/>
       <c r="AV3" s="127"/>
@@ -42675,60 +42679,60 @@
       <c r="BH3" s="127"/>
     </row>
     <row r="4" spans="1:60" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="159" t="s">
+      <c r="A4" s="157" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="159"/>
+      <c r="B4" s="157"/>
       <c r="C4" s="17"/>
-      <c r="D4" s="159" t="s">
+      <c r="D4" s="157" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="159"/>
+      <c r="E4" s="157"/>
       <c r="F4" s="18"/>
-      <c r="G4" s="159" t="s">
+      <c r="G4" s="157" t="s">
         <v>45</v>
       </c>
-      <c r="H4" s="159"/>
+      <c r="H4" s="157"/>
       <c r="I4" s="17"/>
-      <c r="J4" s="159" t="s">
+      <c r="J4" s="157" t="s">
         <v>46</v>
       </c>
-      <c r="K4" s="162"/>
-      <c r="L4" s="162"/>
-      <c r="M4" s="162"/>
-      <c r="N4" s="162"/>
+      <c r="K4" s="171"/>
+      <c r="L4" s="171"/>
+      <c r="M4" s="171"/>
+      <c r="N4" s="171"/>
       <c r="O4" s="19"/>
-      <c r="P4" s="159" t="s">
+      <c r="P4" s="157" t="s">
         <v>47</v>
       </c>
-      <c r="Q4" s="168"/>
-      <c r="R4" s="168"/>
-      <c r="S4" s="168"/>
-      <c r="U4" s="155"/>
-      <c r="V4" s="155"/>
-      <c r="W4" s="155"/>
-      <c r="X4" s="155"/>
+      <c r="Q4" s="158"/>
+      <c r="R4" s="158"/>
+      <c r="S4" s="158"/>
+      <c r="U4" s="154"/>
+      <c r="V4" s="154"/>
+      <c r="W4" s="154"/>
+      <c r="X4" s="154"/>
       <c r="Y4" s="132"/>
-      <c r="Z4" s="155"/>
-      <c r="AA4" s="155"/>
+      <c r="Z4" s="154"/>
+      <c r="AA4" s="154"/>
       <c r="AB4" s="133"/>
-      <c r="AC4" s="155"/>
-      <c r="AD4" s="155"/>
+      <c r="AC4" s="154"/>
+      <c r="AD4" s="154"/>
       <c r="AE4" s="132"/>
-      <c r="AF4" s="165"/>
-      <c r="AG4" s="165"/>
-      <c r="AH4" s="165"/>
-      <c r="AI4" s="165"/>
-      <c r="AJ4" s="165"/>
+      <c r="AF4" s="153"/>
+      <c r="AG4" s="153"/>
+      <c r="AH4" s="153"/>
+      <c r="AI4" s="153"/>
+      <c r="AJ4" s="153"/>
       <c r="AK4" s="134"/>
-      <c r="AL4" s="154"/>
-      <c r="AM4" s="154"/>
-      <c r="AN4" s="154"/>
-      <c r="AO4" s="154"/>
-      <c r="AP4" s="154"/>
-      <c r="AQ4" s="154"/>
-      <c r="AR4" s="154"/>
-      <c r="AS4" s="154"/>
+      <c r="AL4" s="169"/>
+      <c r="AM4" s="169"/>
+      <c r="AN4" s="169"/>
+      <c r="AO4" s="169"/>
+      <c r="AP4" s="169"/>
+      <c r="AQ4" s="169"/>
+      <c r="AR4" s="169"/>
+      <c r="AS4" s="169"/>
       <c r="AT4" s="127"/>
       <c r="AU4" s="127"/>
       <c r="AV4" s="127"/>
@@ -42746,58 +42750,58 @@
       <c r="BH4" s="127"/>
     </row>
     <row r="5" spans="1:60" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="160"/>
-      <c r="B5" s="160"/>
+      <c r="A5" s="163"/>
+      <c r="B5" s="163"/>
       <c r="C5" s="20"/>
-      <c r="D5" s="160"/>
-      <c r="E5" s="160"/>
+      <c r="D5" s="163"/>
+      <c r="E5" s="163"/>
       <c r="F5" s="21"/>
-      <c r="G5" s="160"/>
-      <c r="H5" s="160"/>
+      <c r="G5" s="163"/>
+      <c r="H5" s="163"/>
       <c r="I5" s="20"/>
-      <c r="J5" s="163"/>
-      <c r="K5" s="163"/>
-      <c r="L5" s="163"/>
-      <c r="M5" s="163"/>
-      <c r="N5" s="163"/>
+      <c r="J5" s="162"/>
+      <c r="K5" s="162"/>
+      <c r="L5" s="162"/>
+      <c r="M5" s="162"/>
+      <c r="N5" s="162"/>
       <c r="O5" s="22"/>
-      <c r="P5" s="169"/>
-      <c r="Q5" s="169"/>
-      <c r="R5" s="169"/>
-      <c r="S5" s="169"/>
-      <c r="U5" s="155"/>
-      <c r="V5" s="155"/>
-      <c r="W5" s="155"/>
-      <c r="X5" s="155"/>
+      <c r="P5" s="159"/>
+      <c r="Q5" s="159"/>
+      <c r="R5" s="159"/>
+      <c r="S5" s="159"/>
+      <c r="U5" s="154"/>
+      <c r="V5" s="154"/>
+      <c r="W5" s="154"/>
+      <c r="X5" s="154"/>
       <c r="Y5" s="132"/>
-      <c r="Z5" s="155"/>
-      <c r="AA5" s="155"/>
+      <c r="Z5" s="154"/>
+      <c r="AA5" s="154"/>
       <c r="AB5" s="133"/>
-      <c r="AC5" s="155"/>
-      <c r="AD5" s="155"/>
+      <c r="AC5" s="154"/>
+      <c r="AD5" s="154"/>
       <c r="AE5" s="132"/>
-      <c r="AF5" s="166" t="s">
+      <c r="AF5" s="151" t="s">
         <v>48</v>
       </c>
-      <c r="AG5" s="167"/>
+      <c r="AG5" s="152"/>
       <c r="AH5" s="135"/>
-      <c r="AI5" s="166" t="s">
+      <c r="AI5" s="151" t="s">
         <v>49</v>
       </c>
-      <c r="AJ5" s="167"/>
+      <c r="AJ5" s="152"/>
       <c r="AK5" s="135"/>
-      <c r="AL5" s="155" t="s">
+      <c r="AL5" s="154" t="s">
         <v>50</v>
       </c>
-      <c r="AM5" s="155"/>
+      <c r="AM5" s="154"/>
       <c r="AN5" s="135"/>
-      <c r="AO5" s="155" t="s">
+      <c r="AO5" s="154" t="s">
         <v>51</v>
       </c>
-      <c r="AP5" s="155"/>
-      <c r="AQ5" s="155"/>
+      <c r="AP5" s="154"/>
+      <c r="AQ5" s="154"/>
       <c r="AR5" s="135"/>
-      <c r="AS5" s="155"/>
+      <c r="AS5" s="154"/>
       <c r="AT5" s="127"/>
       <c r="AU5" s="127"/>
       <c r="AV5" s="127"/>
@@ -42815,58 +42819,58 @@
       <c r="BH5" s="127"/>
     </row>
     <row r="6" spans="1:60" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="160"/>
-      <c r="B6" s="160"/>
+      <c r="A6" s="163"/>
+      <c r="B6" s="163"/>
       <c r="C6" s="20"/>
-      <c r="D6" s="160"/>
-      <c r="E6" s="160"/>
+      <c r="D6" s="163"/>
+      <c r="E6" s="163"/>
       <c r="F6" s="21"/>
-      <c r="G6" s="160"/>
-      <c r="H6" s="160"/>
+      <c r="G6" s="163"/>
+      <c r="H6" s="163"/>
       <c r="I6" s="20"/>
-      <c r="J6" s="170" t="s">
+      <c r="J6" s="160" t="s">
         <v>48</v>
       </c>
-      <c r="K6" s="171"/>
+      <c r="K6" s="161"/>
       <c r="L6" s="23"/>
-      <c r="M6" s="170" t="s">
+      <c r="M6" s="160" t="s">
         <v>49</v>
       </c>
-      <c r="N6" s="171"/>
+      <c r="N6" s="161"/>
       <c r="O6" s="23"/>
-      <c r="P6" s="160" t="s">
+      <c r="P6" s="163" t="s">
         <v>50</v>
       </c>
-      <c r="Q6" s="160"/>
+      <c r="Q6" s="163"/>
       <c r="R6" s="23"/>
-      <c r="S6" s="160" t="s">
+      <c r="S6" s="163" t="s">
         <v>51</v>
       </c>
-      <c r="U6" s="156"/>
-      <c r="V6" s="156"/>
-      <c r="W6" s="156"/>
-      <c r="X6" s="156"/>
+      <c r="U6" s="155"/>
+      <c r="V6" s="155"/>
+      <c r="W6" s="155"/>
+      <c r="X6" s="155"/>
       <c r="Y6" s="132"/>
-      <c r="Z6" s="156"/>
-      <c r="AA6" s="156"/>
+      <c r="Z6" s="155"/>
+      <c r="AA6" s="155"/>
       <c r="AB6" s="133"/>
-      <c r="AC6" s="156"/>
-      <c r="AD6" s="156"/>
+      <c r="AC6" s="155"/>
+      <c r="AD6" s="155"/>
       <c r="AE6" s="132"/>
-      <c r="AF6" s="165"/>
-      <c r="AG6" s="165"/>
+      <c r="AF6" s="153"/>
+      <c r="AG6" s="153"/>
       <c r="AH6" s="136"/>
-      <c r="AI6" s="165"/>
-      <c r="AJ6" s="165"/>
+      <c r="AI6" s="153"/>
+      <c r="AJ6" s="153"/>
       <c r="AK6" s="135"/>
-      <c r="AL6" s="156"/>
-      <c r="AM6" s="156"/>
+      <c r="AL6" s="155"/>
+      <c r="AM6" s="155"/>
       <c r="AN6" s="136"/>
-      <c r="AO6" s="157"/>
-      <c r="AP6" s="156"/>
-      <c r="AQ6" s="156"/>
+      <c r="AO6" s="156"/>
+      <c r="AP6" s="155"/>
+      <c r="AQ6" s="155"/>
       <c r="AR6" s="136"/>
-      <c r="AS6" s="157"/>
+      <c r="AS6" s="156"/>
       <c r="AT6" s="127"/>
       <c r="AU6" s="127"/>
       <c r="AV6" s="127"/>
@@ -42884,25 +42888,25 @@
       <c r="BH6" s="127"/>
     </row>
     <row r="7" spans="1:60" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="161"/>
-      <c r="B7" s="161"/>
+      <c r="A7" s="164"/>
+      <c r="B7" s="164"/>
       <c r="C7" s="20"/>
-      <c r="D7" s="161"/>
-      <c r="E7" s="161"/>
+      <c r="D7" s="164"/>
+      <c r="E7" s="164"/>
       <c r="F7" s="21"/>
-      <c r="G7" s="161"/>
-      <c r="H7" s="161"/>
+      <c r="G7" s="164"/>
+      <c r="H7" s="164"/>
       <c r="I7" s="20"/>
-      <c r="J7" s="163"/>
-      <c r="K7" s="163"/>
+      <c r="J7" s="162"/>
+      <c r="K7" s="162"/>
       <c r="L7" s="24"/>
-      <c r="M7" s="163"/>
-      <c r="N7" s="163"/>
+      <c r="M7" s="162"/>
+      <c r="N7" s="162"/>
       <c r="O7" s="23"/>
-      <c r="P7" s="161"/>
-      <c r="Q7" s="161"/>
+      <c r="P7" s="164"/>
+      <c r="Q7" s="164"/>
       <c r="R7" s="24"/>
-      <c r="S7" s="172"/>
+      <c r="S7" s="166"/>
       <c r="U7" s="127"/>
       <c r="V7" s="127"/>
       <c r="W7" s="127"/>
@@ -45946,15 +45950,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="AI5:AJ6"/>
-    <mergeCell ref="AL5:AM6"/>
-    <mergeCell ref="AO5:AO6"/>
-    <mergeCell ref="P4:S5"/>
-    <mergeCell ref="J6:K7"/>
-    <mergeCell ref="M6:N7"/>
-    <mergeCell ref="P6:Q7"/>
-    <mergeCell ref="U3:V6"/>
-    <mergeCell ref="S6:S7"/>
     <mergeCell ref="AP1:BH1"/>
     <mergeCell ref="AP3:AS4"/>
     <mergeCell ref="AP5:AQ6"/>
@@ -45971,6 +45966,15 @@
     <mergeCell ref="AF3:AJ4"/>
     <mergeCell ref="AL3:AO4"/>
     <mergeCell ref="AF5:AG6"/>
+    <mergeCell ref="AI5:AJ6"/>
+    <mergeCell ref="AL5:AM6"/>
+    <mergeCell ref="AO5:AO6"/>
+    <mergeCell ref="P4:S5"/>
+    <mergeCell ref="J6:K7"/>
+    <mergeCell ref="M6:N7"/>
+    <mergeCell ref="P6:Q7"/>
+    <mergeCell ref="U3:V6"/>
+    <mergeCell ref="S6:S7"/>
   </mergeCells>
   <phoneticPr fontId="30" type="noConversion"/>
   <conditionalFormatting sqref="AA8:AA20">
@@ -46260,7 +46264,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="155" zoomScaleNormal="155" zoomScalePageLayoutView="155" workbookViewId="0">
+    <sheetView topLeftCell="G1" zoomScale="155" zoomScaleNormal="155" zoomScalePageLayoutView="155" workbookViewId="0">
       <selection activeCell="T46" sqref="T46"/>
     </sheetView>
   </sheetViews>

--- a/chart-styles.xlsx
+++ b/chart-styles.xlsx
@@ -932,9 +932,6 @@
     <t>Legend labels</t>
   </si>
   <si>
-    <t>The main point of the chart. Try to keep shorter than two lines and avoid qualifiers. Titles can be 24px for the web. See example in "Maps" section.</t>
-  </si>
-  <si>
     <t>Always horizontal, above the top axis label. If needed, include units or multipliers in parenthesis. For example: Price (2014 dollars)</t>
   </si>
   <si>
@@ -978,6 +975,9 @@
       </rPr>
       <t>” as well as any statistical significance indicators.</t>
     </r>
+  </si>
+  <si>
+    <t>The main point of the chart. Try to keep shorter than two lines and avoid qualifiers. For maps, titles can be 24px for the web. See example in "Maps" section.</t>
   </si>
 </sst>
 </file>
@@ -1914,54 +1914,6 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1983,7 +1935,22 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2004,7 +1971,40 @@
     <xf numFmtId="0" fontId="61" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="61" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -2209,11 +2209,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="50"/>
-        <c:axId val="-1649448880"/>
-        <c:axId val="-1649444480"/>
+        <c:axId val="1324758288"/>
+        <c:axId val="1324762688"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1649448880"/>
+        <c:axId val="1324758288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2240,7 +2240,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1649444480"/>
+        <c:crossAx val="1324762688"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2248,7 +2248,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1649444480"/>
+        <c:axId val="1324762688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -2285,7 +2285,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1649448880"/>
+        <c:crossAx val="1324758288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.05"/>
@@ -3241,8 +3241,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1647152496"/>
-        <c:axId val="-1647147808"/>
+        <c:axId val="1326951280"/>
+        <c:axId val="1326955968"/>
       </c:areaChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3515,11 +3515,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1647152496"/>
-        <c:axId val="-1647147808"/>
+        <c:axId val="1326951280"/>
+        <c:axId val="1326955968"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1647152496"/>
+        <c:axId val="1326951280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3547,7 +3547,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1647147808"/>
+        <c:crossAx val="1326955968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3557,7 +3557,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1647147808"/>
+        <c:axId val="1326955968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3595,7 +3595,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1647152496"/>
+        <c:crossAx val="1326951280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:minorUnit val="5.0"/>
@@ -4571,8 +4571,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1649174560"/>
-        <c:axId val="-1649169920"/>
+        <c:axId val="1327108496"/>
+        <c:axId val="1327113136"/>
       </c:areaChart>
       <c:barChart>
         <c:barDir val="col"/>
@@ -4644,11 +4644,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="0"/>
-        <c:axId val="-1649174560"/>
-        <c:axId val="-1649169920"/>
+        <c:axId val="1327108496"/>
+        <c:axId val="1327113136"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1649174560"/>
+        <c:axId val="1327108496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4658,7 +4658,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1649169920"/>
+        <c:crossAx val="1327113136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4668,7 +4668,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1649169920"/>
+        <c:axId val="1327113136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="18.0"/>
@@ -4695,7 +4695,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="-1649174560"/>
+        <c:crossAx val="1327108496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6788,11 +6788,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1649026720"/>
-        <c:axId val="-1649022800"/>
+        <c:axId val="1327254688"/>
+        <c:axId val="1327258608"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="-1649026720"/>
+        <c:axId val="1327254688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6802,7 +6802,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1649022800"/>
+        <c:crossAx val="1327258608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6811,7 +6811,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1649022800"/>
+        <c:axId val="1327258608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6822,7 +6822,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1649026720"/>
+        <c:crossAx val="1327254688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7500,11 +7500,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1650876848"/>
-        <c:axId val="-1650872480"/>
+        <c:axId val="1327419088"/>
+        <c:axId val="1327423456"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="-1650876848"/>
+        <c:axId val="1327419088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7527,7 +7527,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1650872480"/>
+        <c:crossAx val="1327423456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7537,7 +7537,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1650872480"/>
+        <c:axId val="1327423456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7571,7 +7571,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1650876848"/>
+        <c:crossAx val="1327419088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7928,8 +7928,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1648901440"/>
-        <c:axId val="-1648896464"/>
+        <c:axId val="1327582400"/>
+        <c:axId val="1327587376"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -8020,11 +8020,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1648887728"/>
-        <c:axId val="-1648891856"/>
+        <c:axId val="1327596112"/>
+        <c:axId val="1327591984"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1648901440"/>
+        <c:axId val="1327582400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8055,7 +8055,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1648896464"/>
+        <c:crossAx val="1327587376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8063,7 +8063,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1648896464"/>
+        <c:axId val="1327587376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.3E7"/>
@@ -8102,12 +8102,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1648901440"/>
+        <c:crossAx val="1327582400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1648891856"/>
+        <c:axId val="1327591984"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -8134,12 +8134,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1648887728"/>
+        <c:crossAx val="1327596112"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-1648887728"/>
+        <c:axId val="1327596112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8168,7 +8168,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1648891856"/>
+        <c:crossAx val="1327591984"/>
         <c:crosses val="max"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8539,11 +8539,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1648734624"/>
-        <c:axId val="-1648730528"/>
+        <c:axId val="1327749136"/>
+        <c:axId val="1327753232"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1648734624"/>
+        <c:axId val="1327749136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8556,7 +8556,7 @@
         <c:spPr>
           <a:ln/>
         </c:spPr>
-        <c:crossAx val="-1648730528"/>
+        <c:crossAx val="1327753232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8566,7 +8566,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1648730528"/>
+        <c:axId val="1327753232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8592,7 +8592,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="-1648734624"/>
+        <c:crossAx val="1327749136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8955,11 +8955,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1647506368"/>
-        <c:axId val="-1647502448"/>
+        <c:axId val="1327902000"/>
+        <c:axId val="1327905920"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1647506368"/>
+        <c:axId val="1327902000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8969,7 +8969,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1647502448"/>
+        <c:crossAx val="1327905920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8977,7 +8977,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1647502448"/>
+        <c:axId val="1327905920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9003,7 +9003,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="-1647506368"/>
+        <c:crossAx val="1327902000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9616,11 +9616,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="0"/>
-        <c:axId val="-1650733600"/>
-        <c:axId val="-1650729648"/>
+        <c:axId val="1281049504"/>
+        <c:axId val="1281053408"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1650733600"/>
+        <c:axId val="1281049504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9630,7 +9630,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1650729648"/>
+        <c:crossAx val="1281053408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9638,7 +9638,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1650729648"/>
+        <c:axId val="1281053408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9648,7 +9648,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1650733600"/>
+        <c:crossAx val="1281049504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10128,7 +10128,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
               </c:ext>
             </c:extLst>
@@ -10197,11 +10196,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="50"/>
-        <c:axId val="-1649305056"/>
-        <c:axId val="-1649300768"/>
+        <c:axId val="1324876384"/>
+        <c:axId val="1324880672"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1649305056"/>
+        <c:axId val="1324876384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10228,7 +10227,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1649300768"/>
+        <c:crossAx val="1324880672"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10236,7 +10235,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1649300768"/>
+        <c:axId val="1324880672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-0.08"/>
@@ -10271,7 +10270,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1649305056"/>
+        <c:crossAx val="1324876384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.05"/>
@@ -10427,11 +10426,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="0"/>
-        <c:axId val="-1650672800"/>
-        <c:axId val="-1650668944"/>
+        <c:axId val="1328085376"/>
+        <c:axId val="1328089536"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1650672800"/>
+        <c:axId val="1328085376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10455,7 +10454,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1650668944"/>
+        <c:crossAx val="1328089536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10463,7 +10462,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1650668944"/>
+        <c:axId val="1328089536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10489,7 +10488,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="-1650672800"/>
+        <c:crossAx val="1328085376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10940,11 +10939,11 @@
         </c:dLbls>
         <c:bubbleScale val="20"/>
         <c:showNegBubbles val="0"/>
-        <c:axId val="-1648591712"/>
-        <c:axId val="-1648586976"/>
+        <c:axId val="1328219056"/>
+        <c:axId val="1328223792"/>
       </c:bubbleChart>
       <c:valAx>
-        <c:axId val="-1648591712"/>
+        <c:axId val="1328219056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.9"/>
@@ -10996,12 +10995,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1648586976"/>
+        <c:crossAx val="1328223792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1648586976"/>
+        <c:axId val="1328223792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.9"/>
@@ -11062,7 +11061,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1648591712"/>
+        <c:crossAx val="1328219056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11249,11 +11248,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="50"/>
-        <c:axId val="-1648189456"/>
-        <c:axId val="-1648185024"/>
+        <c:axId val="1324968368"/>
+        <c:axId val="1324972672"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1648189456"/>
+        <c:axId val="1324968368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11280,7 +11279,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1648185024"/>
+        <c:crossAx val="1324972672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11288,7 +11287,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1648185024"/>
+        <c:axId val="1324972672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-20.0"/>
@@ -11315,7 +11314,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="-1648189456"/>
+        <c:crossAx val="1324968368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5.0"/>
@@ -11819,11 +11818,11 @@
         </c:dLbls>
         <c:gapWidth val="50"/>
         <c:overlap val="100"/>
-        <c:axId val="-1651145808"/>
-        <c:axId val="-1651071152"/>
+        <c:axId val="1325128704"/>
+        <c:axId val="1325133040"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1651145808"/>
+        <c:axId val="1325128704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11851,7 +11850,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1651071152"/>
+        <c:crossAx val="1325133040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11859,7 +11858,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1651071152"/>
+        <c:axId val="1325133040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11896,7 +11895,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1651145808"/>
+        <c:crossAx val="1325128704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12203,11 +12202,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-1648065216"/>
-        <c:axId val="-1648061040"/>
+        <c:axId val="1325239200"/>
+        <c:axId val="1325243376"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1648065216"/>
+        <c:axId val="1325239200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12227,7 +12226,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1648061040"/>
+        <c:crossAx val="1325243376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12235,7 +12234,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1648061040"/>
+        <c:axId val="1325243376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12271,7 +12270,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1648065216"/>
+        <c:crossAx val="1325239200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12887,11 +12886,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-1647938304"/>
-        <c:axId val="-1647934304"/>
+        <c:axId val="1325366176"/>
+        <c:axId val="1325370176"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1647938304"/>
+        <c:axId val="1325366176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12901,7 +12900,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1647934304"/>
+        <c:crossAx val="1325370176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12909,7 +12908,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1647934304"/>
+        <c:axId val="1325370176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12935,7 +12934,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="-1647938304"/>
+        <c:crossAx val="1325366176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13378,11 +13377,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="30"/>
-        <c:axId val="-1647311424"/>
-        <c:axId val="-1647307744"/>
+        <c:axId val="1326559744"/>
+        <c:axId val="1326563424"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1647311424"/>
+        <c:axId val="1326559744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13410,7 +13409,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1647307744"/>
+        <c:crossAx val="1326563424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13420,7 +13419,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1647307744"/>
+        <c:axId val="1326563424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.5"/>
@@ -13457,7 +13456,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1647311424"/>
+        <c:crossAx val="1326559744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -13611,7 +13610,7 @@
                   <c:v>5.0718</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.154199999999982</c:v>
+                  <c:v>6.154199999999981</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>7.2366</c:v>
@@ -14543,11 +14542,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1651084528"/>
-        <c:axId val="-1651079936"/>
+        <c:axId val="1326702320"/>
+        <c:axId val="1326706912"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="-1651084528"/>
+        <c:axId val="1326702320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14575,7 +14574,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1651079936"/>
+        <c:crossAx val="1326706912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14585,7 +14584,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1651079936"/>
+        <c:axId val="1326706912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14665,7 +14664,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1651084528"/>
+        <c:crossAx val="1326702320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="20.0"/>
@@ -15714,11 +15713,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1647810080"/>
-        <c:axId val="-1647805520"/>
+        <c:axId val="1326798592"/>
+        <c:axId val="1326803152"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="-1647810080"/>
+        <c:axId val="1326798592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15746,7 +15745,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1647805520"/>
+        <c:crossAx val="1326803152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15756,7 +15755,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1647805520"/>
+        <c:axId val="1326803152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15792,7 +15791,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1647810080"/>
+        <c:crossAx val="1326798592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:minorUnit val="5.0"/>
@@ -19507,14 +19506,14 @@
         </a:ln>
         <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -19577,14 +19576,14 @@
         </a:ln>
         <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -19647,14 +19646,14 @@
         </a:ln>
         <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -19771,14 +19770,14 @@
         </a:ln>
         <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -19841,14 +19840,14 @@
         </a:ln>
         <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -19917,7 +19916,7 @@
         </a:ln>
         <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -29001,7 +29000,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29039,7 +29038,7 @@
         <xdr:cNvPr id="3" name="TextBox 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29165,7 +29164,7 @@
         <xdr:cNvPr id="4" name="TextBox 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29351,7 +29350,7 @@
         <cdr:cNvPr id="2" name="XAxisBox">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1C44B43-1FA3-4338-AEAF-B20BF5470C27}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A1C44B43-1FA3-4338-AEAF-B20BF5470C27}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -33917,8 +33916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -33990,7 +33989,7 @@
         <v>135</v>
       </c>
       <c r="G7" s="104" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="18" x14ac:dyDescent="0.2">
@@ -34036,7 +34035,7 @@
         <v>135</v>
       </c>
       <c r="G9" s="104" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="18" x14ac:dyDescent="0.2">
@@ -34082,7 +34081,7 @@
         <v>135</v>
       </c>
       <c r="G11" s="104" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="18" x14ac:dyDescent="0.2">
@@ -34151,7 +34150,7 @@
         <v>135</v>
       </c>
       <c r="G14" s="104" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="32" x14ac:dyDescent="0.2">
@@ -40731,27 +40730,27 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:59" s="14" customFormat="1" ht="23" x14ac:dyDescent="0.25">
-      <c r="A2" s="183" t="s">
+      <c r="A2" s="167" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="183"/>
-      <c r="C2" s="183"/>
-      <c r="D2" s="183"/>
-      <c r="E2" s="183"/>
-      <c r="F2" s="183"/>
-      <c r="G2" s="183"/>
-      <c r="H2" s="183"/>
-      <c r="I2" s="183"/>
-      <c r="J2" s="183"/>
-      <c r="K2" s="183"/>
-      <c r="L2" s="183"/>
-      <c r="M2" s="183"/>
-      <c r="N2" s="183"/>
-      <c r="O2" s="183"/>
-      <c r="P2" s="183"/>
-      <c r="Q2" s="183"/>
-      <c r="R2" s="183"/>
-      <c r="S2" s="183"/>
+      <c r="B2" s="167"/>
+      <c r="C2" s="167"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="167"/>
+      <c r="F2" s="167"/>
+      <c r="G2" s="167"/>
+      <c r="H2" s="167"/>
+      <c r="I2" s="167"/>
+      <c r="J2" s="167"/>
+      <c r="K2" s="167"/>
+      <c r="L2" s="167"/>
+      <c r="M2" s="167"/>
+      <c r="N2" s="167"/>
+      <c r="O2" s="167"/>
+      <c r="P2" s="167"/>
+      <c r="Q2" s="167"/>
+      <c r="R2" s="167"/>
+      <c r="S2" s="167"/>
       <c r="U2" s="141" t="s">
         <v>42</v>
       </c>
@@ -40774,48 +40773,48 @@
       <c r="AL2" s="126"/>
       <c r="AM2" s="126"/>
       <c r="AN2" s="125"/>
-      <c r="AO2" s="177"/>
-      <c r="AP2" s="177"/>
-      <c r="AQ2" s="177"/>
-      <c r="AR2" s="177"/>
-      <c r="AS2" s="177"/>
-      <c r="AT2" s="177"/>
-      <c r="AU2" s="177"/>
-      <c r="AV2" s="177"/>
-      <c r="AW2" s="177"/>
-      <c r="AX2" s="177"/>
-      <c r="AY2" s="177"/>
-      <c r="AZ2" s="177"/>
-      <c r="BA2" s="177"/>
-      <c r="BB2" s="177"/>
-      <c r="BC2" s="177"/>
-      <c r="BD2" s="177"/>
-      <c r="BE2" s="177"/>
-      <c r="BF2" s="177"/>
-      <c r="BG2" s="177"/>
+      <c r="AO2" s="161"/>
+      <c r="AP2" s="161"/>
+      <c r="AQ2" s="161"/>
+      <c r="AR2" s="161"/>
+      <c r="AS2" s="161"/>
+      <c r="AT2" s="161"/>
+      <c r="AU2" s="161"/>
+      <c r="AV2" s="161"/>
+      <c r="AW2" s="161"/>
+      <c r="AX2" s="161"/>
+      <c r="AY2" s="161"/>
+      <c r="AZ2" s="161"/>
+      <c r="BA2" s="161"/>
+      <c r="BB2" s="161"/>
+      <c r="BC2" s="161"/>
+      <c r="BD2" s="161"/>
+      <c r="BE2" s="161"/>
+      <c r="BF2" s="161"/>
+      <c r="BG2" s="161"/>
     </row>
     <row r="3" spans="1:59" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="183" t="s">
+      <c r="A3" s="167" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="183"/>
-      <c r="C3" s="183"/>
-      <c r="D3" s="183"/>
-      <c r="E3" s="183"/>
-      <c r="F3" s="183"/>
-      <c r="G3" s="183"/>
-      <c r="H3" s="183"/>
-      <c r="I3" s="183"/>
-      <c r="J3" s="183"/>
-      <c r="K3" s="183"/>
-      <c r="L3" s="183"/>
-      <c r="M3" s="183"/>
-      <c r="N3" s="183"/>
-      <c r="O3" s="183"/>
-      <c r="P3" s="183"/>
-      <c r="Q3" s="183"/>
-      <c r="R3" s="183"/>
-      <c r="S3" s="183"/>
+      <c r="B3" s="167"/>
+      <c r="C3" s="167"/>
+      <c r="D3" s="167"/>
+      <c r="E3" s="167"/>
+      <c r="F3" s="167"/>
+      <c r="G3" s="167"/>
+      <c r="H3" s="167"/>
+      <c r="I3" s="167"/>
+      <c r="J3" s="167"/>
+      <c r="K3" s="167"/>
+      <c r="L3" s="167"/>
+      <c r="M3" s="167"/>
+      <c r="N3" s="167"/>
+      <c r="O3" s="167"/>
+      <c r="P3" s="167"/>
+      <c r="Q3" s="167"/>
+      <c r="R3" s="167"/>
+      <c r="S3" s="167"/>
       <c r="U3" s="127"/>
       <c r="V3" s="128"/>
       <c r="W3" s="128"/>
@@ -40876,40 +40875,40 @@
       <c r="Q4" s="16"/>
       <c r="R4" s="16"/>
       <c r="S4" s="16"/>
-      <c r="U4" s="161" t="s">
+      <c r="U4" s="173" t="s">
         <v>43</v>
       </c>
-      <c r="V4" s="162"/>
-      <c r="W4" s="162"/>
+      <c r="V4" s="182"/>
+      <c r="W4" s="182"/>
       <c r="X4" s="142"/>
-      <c r="Y4" s="161" t="s">
+      <c r="Y4" s="173" t="s">
         <v>44</v>
       </c>
-      <c r="Z4" s="161"/>
+      <c r="Z4" s="173"/>
       <c r="AA4" s="143"/>
-      <c r="AB4" s="161" t="s">
+      <c r="AB4" s="173" t="s">
         <v>45</v>
       </c>
-      <c r="AC4" s="161"/>
+      <c r="AC4" s="173"/>
       <c r="AD4" s="142"/>
-      <c r="AE4" s="161" t="s">
+      <c r="AE4" s="173" t="s">
         <v>46</v>
       </c>
-      <c r="AF4" s="187"/>
-      <c r="AG4" s="187"/>
-      <c r="AH4" s="187"/>
-      <c r="AI4" s="187"/>
+      <c r="AF4" s="176"/>
+      <c r="AG4" s="176"/>
+      <c r="AH4" s="176"/>
+      <c r="AI4" s="176"/>
       <c r="AJ4" s="144"/>
-      <c r="AK4" s="161" t="s">
+      <c r="AK4" s="173" t="s">
         <v>47</v>
       </c>
-      <c r="AL4" s="189"/>
-      <c r="AM4" s="189"/>
-      <c r="AN4" s="189"/>
-      <c r="AO4" s="178"/>
-      <c r="AP4" s="179"/>
-      <c r="AQ4" s="179"/>
-      <c r="AR4" s="179"/>
+      <c r="AL4" s="178"/>
+      <c r="AM4" s="178"/>
+      <c r="AN4" s="178"/>
+      <c r="AO4" s="162"/>
+      <c r="AP4" s="163"/>
+      <c r="AQ4" s="163"/>
+      <c r="AR4" s="163"/>
       <c r="AS4" s="127"/>
       <c r="AT4" s="127"/>
       <c r="AU4" s="127"/>
@@ -40945,41 +40944,41 @@
       <c r="J5" s="168" t="s">
         <v>46</v>
       </c>
-      <c r="K5" s="184"/>
-      <c r="L5" s="184"/>
-      <c r="M5" s="184"/>
-      <c r="N5" s="184"/>
+      <c r="K5" s="171"/>
+      <c r="L5" s="171"/>
+      <c r="M5" s="171"/>
+      <c r="N5" s="171"/>
       <c r="O5" s="19"/>
       <c r="P5" s="168" t="s">
         <v>47</v>
       </c>
-      <c r="Q5" s="169"/>
-      <c r="R5" s="169"/>
-      <c r="S5" s="169"/>
-      <c r="U5" s="163"/>
-      <c r="V5" s="163"/>
-      <c r="W5" s="163"/>
+      <c r="Q5" s="187"/>
+      <c r="R5" s="187"/>
+      <c r="S5" s="187"/>
+      <c r="U5" s="183"/>
+      <c r="V5" s="183"/>
+      <c r="W5" s="183"/>
       <c r="X5" s="145"/>
-      <c r="Y5" s="185"/>
-      <c r="Z5" s="185"/>
+      <c r="Y5" s="174"/>
+      <c r="Z5" s="174"/>
       <c r="AA5" s="146"/>
-      <c r="AB5" s="185"/>
-      <c r="AC5" s="185"/>
+      <c r="AB5" s="174"/>
+      <c r="AC5" s="174"/>
       <c r="AD5" s="145"/>
-      <c r="AE5" s="188"/>
-      <c r="AF5" s="188"/>
-      <c r="AG5" s="188"/>
-      <c r="AH5" s="188"/>
-      <c r="AI5" s="188"/>
+      <c r="AE5" s="177"/>
+      <c r="AF5" s="177"/>
+      <c r="AG5" s="177"/>
+      <c r="AH5" s="177"/>
+      <c r="AI5" s="177"/>
       <c r="AJ5" s="147"/>
-      <c r="AK5" s="190"/>
-      <c r="AL5" s="190"/>
-      <c r="AM5" s="190"/>
-      <c r="AN5" s="190"/>
-      <c r="AO5" s="180"/>
-      <c r="AP5" s="180"/>
-      <c r="AQ5" s="180"/>
-      <c r="AR5" s="180"/>
+      <c r="AK5" s="179"/>
+      <c r="AL5" s="179"/>
+      <c r="AM5" s="179"/>
+      <c r="AN5" s="179"/>
+      <c r="AO5" s="164"/>
+      <c r="AP5" s="164"/>
+      <c r="AQ5" s="164"/>
+      <c r="AR5" s="164"/>
       <c r="AS5" s="127"/>
       <c r="AT5" s="127"/>
       <c r="AU5" s="127"/>
@@ -40997,57 +40996,57 @@
       <c r="BG5" s="127"/>
     </row>
     <row r="6" spans="1:59" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="174"/>
-      <c r="B6" s="174"/>
+      <c r="A6" s="169"/>
+      <c r="B6" s="169"/>
       <c r="C6" s="20"/>
-      <c r="D6" s="174"/>
-      <c r="E6" s="174"/>
+      <c r="D6" s="169"/>
+      <c r="E6" s="169"/>
       <c r="F6" s="21"/>
-      <c r="G6" s="174"/>
-      <c r="H6" s="174"/>
+      <c r="G6" s="169"/>
+      <c r="H6" s="169"/>
       <c r="I6" s="20"/>
-      <c r="J6" s="173"/>
-      <c r="K6" s="173"/>
-      <c r="L6" s="173"/>
-      <c r="M6" s="173"/>
-      <c r="N6" s="173"/>
+      <c r="J6" s="172"/>
+      <c r="K6" s="172"/>
+      <c r="L6" s="172"/>
+      <c r="M6" s="172"/>
+      <c r="N6" s="172"/>
       <c r="O6" s="22"/>
-      <c r="P6" s="170"/>
-      <c r="Q6" s="170"/>
-      <c r="R6" s="170"/>
-      <c r="S6" s="170"/>
-      <c r="U6" s="163"/>
-      <c r="V6" s="163"/>
-      <c r="W6" s="163"/>
+      <c r="P6" s="188"/>
+      <c r="Q6" s="188"/>
+      <c r="R6" s="188"/>
+      <c r="S6" s="188"/>
+      <c r="U6" s="183"/>
+      <c r="V6" s="183"/>
+      <c r="W6" s="183"/>
       <c r="X6" s="145"/>
-      <c r="Y6" s="185"/>
-      <c r="Z6" s="185"/>
+      <c r="Y6" s="174"/>
+      <c r="Z6" s="174"/>
       <c r="AA6" s="146"/>
-      <c r="AB6" s="185"/>
-      <c r="AC6" s="185"/>
+      <c r="AB6" s="174"/>
+      <c r="AC6" s="174"/>
       <c r="AD6" s="145"/>
-      <c r="AE6" s="165" t="s">
+      <c r="AE6" s="180" t="s">
         <v>48</v>
       </c>
-      <c r="AF6" s="191"/>
+      <c r="AF6" s="181"/>
       <c r="AG6" s="148"/>
-      <c r="AH6" s="165" t="s">
+      <c r="AH6" s="180" t="s">
         <v>49</v>
       </c>
-      <c r="AI6" s="191"/>
+      <c r="AI6" s="181"/>
       <c r="AJ6" s="148"/>
-      <c r="AK6" s="185" t="s">
+      <c r="AK6" s="174" t="s">
         <v>50</v>
       </c>
-      <c r="AL6" s="185"/>
+      <c r="AL6" s="174"/>
       <c r="AM6" s="148"/>
-      <c r="AN6" s="165" t="s">
+      <c r="AN6" s="180" t="s">
         <v>51</v>
       </c>
-      <c r="AO6" s="166"/>
+      <c r="AO6" s="185"/>
       <c r="AP6" s="139"/>
       <c r="AQ6" s="129"/>
-      <c r="AR6" s="181"/>
+      <c r="AR6" s="165"/>
       <c r="AS6" s="127"/>
       <c r="AT6" s="127"/>
       <c r="AU6" s="127"/>
@@ -41065,57 +41064,57 @@
       <c r="BG6" s="127"/>
     </row>
     <row r="7" spans="1:59" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="174"/>
-      <c r="B7" s="174"/>
+      <c r="A7" s="169"/>
+      <c r="B7" s="169"/>
       <c r="C7" s="20"/>
-      <c r="D7" s="174"/>
-      <c r="E7" s="174"/>
+      <c r="D7" s="169"/>
+      <c r="E7" s="169"/>
       <c r="F7" s="21"/>
-      <c r="G7" s="174"/>
-      <c r="H7" s="174"/>
+      <c r="G7" s="169"/>
+      <c r="H7" s="169"/>
       <c r="I7" s="20"/>
-      <c r="J7" s="171" t="s">
+      <c r="J7" s="189" t="s">
         <v>48</v>
       </c>
-      <c r="K7" s="172"/>
+      <c r="K7" s="190"/>
       <c r="L7" s="23"/>
-      <c r="M7" s="171" t="s">
+      <c r="M7" s="189" t="s">
         <v>49</v>
       </c>
-      <c r="N7" s="172"/>
+      <c r="N7" s="190"/>
       <c r="O7" s="23"/>
-      <c r="P7" s="174" t="s">
+      <c r="P7" s="169" t="s">
         <v>50</v>
       </c>
-      <c r="Q7" s="174"/>
+      <c r="Q7" s="169"/>
       <c r="R7" s="23"/>
-      <c r="S7" s="174" t="s">
+      <c r="S7" s="169" t="s">
         <v>51</v>
       </c>
-      <c r="U7" s="164"/>
-      <c r="V7" s="164"/>
-      <c r="W7" s="164"/>
+      <c r="U7" s="184"/>
+      <c r="V7" s="184"/>
+      <c r="W7" s="184"/>
       <c r="X7" s="145"/>
-      <c r="Y7" s="186"/>
-      <c r="Z7" s="186"/>
+      <c r="Y7" s="175"/>
+      <c r="Z7" s="175"/>
       <c r="AA7" s="146"/>
-      <c r="AB7" s="186"/>
-      <c r="AC7" s="186"/>
+      <c r="AB7" s="175"/>
+      <c r="AC7" s="175"/>
       <c r="AD7" s="145"/>
-      <c r="AE7" s="188"/>
-      <c r="AF7" s="188"/>
+      <c r="AE7" s="177"/>
+      <c r="AF7" s="177"/>
       <c r="AG7" s="149"/>
-      <c r="AH7" s="188"/>
-      <c r="AI7" s="188"/>
+      <c r="AH7" s="177"/>
+      <c r="AI7" s="177"/>
       <c r="AJ7" s="148"/>
-      <c r="AK7" s="186"/>
-      <c r="AL7" s="186"/>
+      <c r="AK7" s="175"/>
+      <c r="AL7" s="175"/>
       <c r="AM7" s="149"/>
-      <c r="AN7" s="167"/>
-      <c r="AO7" s="164"/>
+      <c r="AN7" s="186"/>
+      <c r="AO7" s="184"/>
       <c r="AP7" s="140"/>
       <c r="AQ7" s="130"/>
-      <c r="AR7" s="182"/>
+      <c r="AR7" s="166"/>
       <c r="AS7" s="127"/>
       <c r="AT7" s="127"/>
       <c r="AU7" s="127"/>
@@ -41133,25 +41132,25 @@
       <c r="BG7" s="127"/>
     </row>
     <row r="8" spans="1:59" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="175"/>
-      <c r="B8" s="175"/>
+      <c r="A8" s="170"/>
+      <c r="B8" s="170"/>
       <c r="C8" s="20"/>
-      <c r="D8" s="175"/>
-      <c r="E8" s="175"/>
+      <c r="D8" s="170"/>
+      <c r="E8" s="170"/>
       <c r="F8" s="21"/>
-      <c r="G8" s="175"/>
-      <c r="H8" s="175"/>
+      <c r="G8" s="170"/>
+      <c r="H8" s="170"/>
       <c r="I8" s="20"/>
-      <c r="J8" s="173"/>
-      <c r="K8" s="173"/>
+      <c r="J8" s="172"/>
+      <c r="K8" s="172"/>
       <c r="L8" s="24"/>
-      <c r="M8" s="173"/>
-      <c r="N8" s="173"/>
+      <c r="M8" s="172"/>
+      <c r="N8" s="172"/>
       <c r="O8" s="23"/>
-      <c r="P8" s="175"/>
-      <c r="Q8" s="175"/>
+      <c r="P8" s="170"/>
+      <c r="Q8" s="170"/>
       <c r="R8" s="24"/>
-      <c r="S8" s="176"/>
+      <c r="S8" s="191"/>
       <c r="U8" s="127"/>
       <c r="V8" s="127"/>
       <c r="W8" s="127"/>
@@ -44178,6 +44177,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="U4:W7"/>
+    <mergeCell ref="AN6:AO7"/>
+    <mergeCell ref="P5:S6"/>
+    <mergeCell ref="J7:K8"/>
+    <mergeCell ref="M7:N8"/>
+    <mergeCell ref="P7:Q8"/>
+    <mergeCell ref="S7:S8"/>
     <mergeCell ref="AO2:BG2"/>
     <mergeCell ref="AO4:AR5"/>
     <mergeCell ref="AR6:AR7"/>
@@ -44194,13 +44200,6 @@
     <mergeCell ref="AE6:AF7"/>
     <mergeCell ref="AH6:AI7"/>
     <mergeCell ref="AK6:AL7"/>
-    <mergeCell ref="U4:W7"/>
-    <mergeCell ref="AN6:AO7"/>
-    <mergeCell ref="P5:S6"/>
-    <mergeCell ref="J7:K8"/>
-    <mergeCell ref="M7:N8"/>
-    <mergeCell ref="P7:Q8"/>
-    <mergeCell ref="S7:S8"/>
   </mergeCells>
   <phoneticPr fontId="30" type="noConversion"/>
   <conditionalFormatting sqref="Z9:Z21">
